--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>06-29</t>
+          <t>06-30</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>07-01</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>07-02</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>07-03</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>07-04</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>07-05</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>07-06</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>06-30</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>07-01</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>07-02</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>07-03</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>07-04</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>07-05</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>06-29</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>06-30</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>07-01</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>07-02</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>07-03</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>07-04</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>07-05</t>
+          <t>07-06</t>
         </is>
       </c>
     </row>
@@ -592,51 +592,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4568</v>
-      </c>
-      <c r="D5" s="6" t="n">
         <v>4.4503</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="D5" s="5" t="n">
         <v>4.4503</v>
       </c>
+      <c r="E5" s="5" t="n">
+        <v>4.4503</v>
+      </c>
       <c r="F5" s="6" t="n">
-        <v>4.4503</v>
+        <v>4.4321</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.4321</v>
+        <v>4.4273</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.4273</v>
-      </c>
-      <c r="I5" s="6" t="n">
         <v>4.4498</v>
       </c>
+      <c r="I5" s="7" t="n">
+        <v>4.4754</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0832</v>
-      </c>
-      <c r="M5" s="7" t="n">
         <v>4.1066</v>
       </c>
-      <c r="N5" s="7" t="n">
+      <c r="M5" s="5" t="n">
         <v>4.1066</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="N5" s="5" t="n">
         <v>4.1066</v>
       </c>
+      <c r="O5" s="6" t="n">
+        <v>4.0714</v>
+      </c>
       <c r="P5" s="6" t="n">
-        <v>4.0714</v>
+        <v>4.0636</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>4.0636</v>
+        <v>4.0869</v>
       </c>
       <c r="R5" s="7" t="n">
-        <v>4.0869</v>
+        <v>4.1191</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>06-29</t>
+          <t>06-30</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>07-01</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>07-02</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>07-03</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>07-04</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>07-05</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>07-06</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>06-30</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>07-01</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>07-02</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>07-03</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>07-04</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>07-05</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>06-29</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>06-30</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>07-01</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>07-02</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>07-03</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>07-04</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>07-05</t>
+          <t>07-06</t>
         </is>
       </c>
     </row>
@@ -740,25 +740,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1643</v>
-      </c>
-      <c r="D9" s="7" t="n">
         <v>5.1796</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="D9" s="5" t="n">
         <v>5.1796</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="E9" s="5" t="n">
         <v>5.1796</v>
       </c>
+      <c r="F9" s="6" t="n">
+        <v>5.1587</v>
+      </c>
       <c r="G9" s="6" t="n">
-        <v>5.1587</v>
-      </c>
-      <c r="H9" s="6" t="n">
         <v>5.1588</v>
       </c>
+      <c r="H9" s="7" t="n">
+        <v>5.1953</v>
+      </c>
       <c r="I9" s="7" t="n">
-        <v>5.1953</v>
+        <v>5.2362</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,25 +766,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.5531</v>
-      </c>
-      <c r="M9" s="7" t="n">
         <v>4.5562</v>
       </c>
-      <c r="N9" s="7" t="n">
+      <c r="M9" s="5" t="n">
         <v>4.5562</v>
       </c>
-      <c r="O9" s="7" t="n">
+      <c r="N9" s="5" t="n">
         <v>4.5562</v>
       </c>
+      <c r="O9" s="6" t="n">
+        <v>4.5288</v>
+      </c>
       <c r="P9" s="6" t="n">
-        <v>4.5288</v>
+        <v>4.5359</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.5359</v>
-      </c>
-      <c r="R9" s="6" t="n">
         <v>4.5511</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>4.5894</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>06-30</t>
+          <t>07-02</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>07-01</t>
+          <t>07-03</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
+          <t>07-04</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>07-05</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>07-06</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>07-07</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>07-08</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>07-02</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>07-03</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>07-04</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>07-05</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>07-06</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>06-30</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>07-01</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>07-02</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>07-03</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>07-04</t>
-        </is>
-      </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>07-05</t>
+          <t>07-07</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>07-06</t>
+          <t>07-08</t>
         </is>
       </c>
     </row>
@@ -592,51 +592,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4503</v>
+        <v>4.4803</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.4503</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>4.4503</v>
+        <v>4.4803</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>4.4321</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.4321</v>
+        <v>4.4273</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.4273</v>
+        <v>4.4498</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.4498</v>
-      </c>
-      <c r="I5" s="7" t="n">
         <v>4.4754</v>
       </c>
+      <c r="I5" s="5" t="n">
+        <v>4.4803</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.1066</v>
+        <v>4.1189</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4.1066</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>4.1066</v>
+        <v>4.1189</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>4.0714</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>4.0714</v>
+        <v>4.0636</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>4.0636</v>
-      </c>
-      <c r="Q5" s="6" t="n">
         <v>4.0869</v>
       </c>
-      <c r="R5" s="7" t="n">
+      <c r="Q5" s="7" t="n">
         <v>4.1191</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <v>4.1189</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>06-30</t>
+          <t>07-02</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>07-01</t>
+          <t>07-03</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
+          <t>07-04</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>07-05</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>07-06</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>07-07</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>07-08</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>07-02</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>07-03</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>07-04</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>07-05</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>07-06</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>06-30</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>07-01</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>07-02</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>07-03</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>07-04</t>
-        </is>
-      </c>
       <c r="Q8" s="5" t="inlineStr">
         <is>
-          <t>07-05</t>
+          <t>07-07</t>
         </is>
       </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>07-06</t>
+          <t>07-08</t>
         </is>
       </c>
     </row>
@@ -740,51 +740,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1796</v>
+        <v>5.245</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.1796</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>5.1796</v>
+        <v>5.245</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>5.1587</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>5.1587</v>
+        <v>5.1588</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.1588</v>
-      </c>
-      <c r="H9" s="7" t="n">
         <v>5.1953</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="H9" s="6" t="n">
         <v>5.2362</v>
       </c>
+      <c r="I9" s="5" t="n">
+        <v>5.245</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.5562</v>
+        <v>4.5978</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4.5562</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>4.5562</v>
+        <v>4.5978</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>4.5288</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>4.5288</v>
+        <v>4.5359</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>4.5359</v>
+        <v>4.5511</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.5511</v>
-      </c>
-      <c r="R9" s="7" t="n">
         <v>4.5894</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <v>4.5978</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>07-02</t>
+          <t>07-03</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>07-04</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>07-05</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>07-06</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>07-07</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>07-08</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>07-09</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>07-03</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>07-04</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>07-05</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>07-06</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>07-07</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>07-08</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>07-02</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>07-03</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>07-04</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>07-05</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>07-06</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>07-07</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>07-08</t>
+          <t>07-09</t>
         </is>
       </c>
     </row>
@@ -592,24 +592,24 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
+        <v>4.4321</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>4.4273</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>4.4498</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>4.4754</v>
+      </c>
+      <c r="G5" s="7" t="n">
         <v>4.4803</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="H5" s="7" t="n">
         <v>4.4803</v>
       </c>
-      <c r="E5" s="6" t="n">
-        <v>4.4321</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>4.4273</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>4.4498</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>4.4754</v>
-      </c>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="7" t="n">
         <v>4.4803</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
@@ -618,24 +618,24 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
+        <v>4.0714</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>4.0636</v>
+      </c>
+      <c r="N5" s="7" t="n">
+        <v>4.0869</v>
+      </c>
+      <c r="O5" s="7" t="n">
+        <v>4.1191</v>
+      </c>
+      <c r="P5" s="7" t="n">
         <v>4.1189</v>
       </c>
-      <c r="M5" s="5" t="n">
+      <c r="Q5" s="7" t="n">
         <v>4.1189</v>
       </c>
-      <c r="N5" s="6" t="n">
-        <v>4.0714</v>
-      </c>
-      <c r="O5" s="6" t="n">
-        <v>4.0636</v>
-      </c>
-      <c r="P5" s="6" t="n">
-        <v>4.0869</v>
-      </c>
-      <c r="Q5" s="7" t="n">
-        <v>4.1191</v>
-      </c>
-      <c r="R5" s="5" t="n">
+      <c r="R5" s="7" t="n">
         <v>4.1189</v>
       </c>
     </row>
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>07-02</t>
+          <t>07-03</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>07-04</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>07-05</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>07-06</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>07-07</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>07-08</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>07-09</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>07-03</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>07-04</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>07-05</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>07-06</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>07-07</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>07-08</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>07-02</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>07-03</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>07-04</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>07-05</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>07-06</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>07-07</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>07-08</t>
+          <t>07-09</t>
         </is>
       </c>
     </row>
@@ -740,24 +740,24 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
+        <v>5.1587</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>5.1588</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>5.1953</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>5.2362</v>
+      </c>
+      <c r="G9" s="7" t="n">
         <v>5.245</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="H9" s="7" t="n">
         <v>5.245</v>
       </c>
-      <c r="E9" s="6" t="n">
-        <v>5.1587</v>
-      </c>
-      <c r="F9" s="6" t="n">
-        <v>5.1588</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>5.1953</v>
-      </c>
-      <c r="H9" s="6" t="n">
-        <v>5.2362</v>
-      </c>
-      <c r="I9" s="5" t="n">
+      <c r="I9" s="7" t="n">
         <v>5.245</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
@@ -766,24 +766,24 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
+        <v>4.5288</v>
+      </c>
+      <c r="M9" s="7" t="n">
+        <v>4.5359</v>
+      </c>
+      <c r="N9" s="7" t="n">
+        <v>4.5511</v>
+      </c>
+      <c r="O9" s="7" t="n">
+        <v>4.5894</v>
+      </c>
+      <c r="P9" s="7" t="n">
         <v>4.5978</v>
       </c>
-      <c r="M9" s="5" t="n">
+      <c r="Q9" s="7" t="n">
         <v>4.5978</v>
       </c>
-      <c r="N9" s="6" t="n">
-        <v>4.5288</v>
-      </c>
-      <c r="O9" s="6" t="n">
-        <v>4.5359</v>
-      </c>
-      <c r="P9" s="6" t="n">
-        <v>4.5511</v>
-      </c>
-      <c r="Q9" s="6" t="n">
-        <v>4.5894</v>
-      </c>
-      <c r="R9" s="5" t="n">
+      <c r="R9" s="7" t="n">
         <v>4.5978</v>
       </c>
     </row>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>07-03</t>
+          <t>07-04</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>07-05</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>07-06</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>07-07</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>07-08</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>07-09</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>07-10</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>07-04</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>07-05</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>07-06</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>07-07</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>07-08</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>07-09</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>07-03</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>07-04</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>07-05</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>07-06</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>07-07</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>07-08</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>07-09</t>
+          <t>07-10</t>
         </is>
       </c>
     </row>
@@ -592,51 +592,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4321</v>
+        <v>4.4273</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4273</v>
-      </c>
-      <c r="E5" s="7" t="n">
         <v>4.4498</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="E5" s="6" t="n">
         <v>4.4754</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="F5" s="6" t="n">
         <v>4.4803</v>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="G5" s="6" t="n">
         <v>4.4803</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="H5" s="6" t="n">
         <v>4.4803</v>
       </c>
+      <c r="I5" s="6" t="n">
+        <v>4.4553</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0714</v>
+        <v>4.0636</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.0636</v>
-      </c>
-      <c r="N5" s="7" t="n">
         <v>4.0869</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="N5" s="6" t="n">
         <v>4.1191</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="O5" s="6" t="n">
         <v>4.1189</v>
       </c>
-      <c r="Q5" s="7" t="n">
+      <c r="P5" s="6" t="n">
         <v>4.1189</v>
       </c>
+      <c r="Q5" s="6" t="n">
+        <v>4.1189</v>
+      </c>
       <c r="R5" s="7" t="n">
-        <v>4.1189</v>
+        <v>4.0632</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>07-03</t>
+          <t>07-04</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>07-05</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>07-06</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>07-07</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>07-08</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>07-09</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>07-10</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>07-04</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>07-05</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>07-06</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>07-07</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>07-08</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>07-09</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>07-03</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>07-04</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>07-05</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>07-06</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>07-07</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>07-08</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>07-09</t>
+          <t>07-10</t>
         </is>
       </c>
     </row>
@@ -740,51 +740,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1587</v>
-      </c>
-      <c r="D9" s="7" t="n">
         <v>5.1588</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="D9" s="6" t="n">
         <v>5.1953</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="E9" s="6" t="n">
         <v>5.2362</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="F9" s="6" t="n">
         <v>5.245</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="G9" s="6" t="n">
         <v>5.245</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="H9" s="6" t="n">
         <v>5.245</v>
       </c>
+      <c r="I9" s="6" t="n">
+        <v>5.2084</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.5288</v>
-      </c>
-      <c r="M9" s="7" t="n">
         <v>4.5359</v>
       </c>
-      <c r="N9" s="7" t="n">
+      <c r="M9" s="6" t="n">
         <v>4.5511</v>
       </c>
-      <c r="O9" s="7" t="n">
+      <c r="N9" s="6" t="n">
         <v>4.5894</v>
       </c>
-      <c r="P9" s="7" t="n">
+      <c r="O9" s="6" t="n">
         <v>4.5978</v>
       </c>
-      <c r="Q9" s="7" t="n">
+      <c r="P9" s="6" t="n">
         <v>4.5978</v>
       </c>
-      <c r="R9" s="7" t="n">
+      <c r="Q9" s="6" t="n">
         <v>4.5978</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>4.5688</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>07-04</t>
+          <t>07-05</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>07-06</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>07-07</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>07-08</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>07-09</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>07-10</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>07-11</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>07-05</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>07-06</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>07-07</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>07-08</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>07-09</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>07-10</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>07-04</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>07-05</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>07-06</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>07-07</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>07-08</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>07-09</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>07-10</t>
+          <t>07-11</t>
         </is>
       </c>
     </row>
@@ -592,13 +592,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4273</v>
+        <v>4.4498</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4498</v>
+        <v>4.4754</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.4754</v>
+        <v>4.4803</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>4.4803</v>
@@ -607,24 +607,24 @@
         <v>4.4803</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.4803</v>
-      </c>
-      <c r="I5" s="6" t="n">
         <v>4.4553</v>
       </c>
+      <c r="I5" s="7" t="n">
+        <v>4.4426</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0636</v>
+        <v>4.0869</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.0869</v>
+        <v>4.1191</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>4.1191</v>
+        <v>4.1189</v>
       </c>
       <c r="O5" s="6" t="n">
         <v>4.1189</v>
@@ -632,11 +632,11 @@
       <c r="P5" s="6" t="n">
         <v>4.1189</v>
       </c>
-      <c r="Q5" s="6" t="n">
-        <v>4.1189</v>
+      <c r="Q5" s="7" t="n">
+        <v>4.0632</v>
       </c>
       <c r="R5" s="7" t="n">
-        <v>4.0632</v>
+        <v>4.0374</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>07-04</t>
+          <t>07-05</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>07-06</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>07-07</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>07-08</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>07-09</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>07-10</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>07-11</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>07-05</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>07-06</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>07-07</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>07-08</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>07-09</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>07-10</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>07-04</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>07-05</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>07-06</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>07-07</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>07-08</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>07-09</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>07-10</t>
+          <t>07-11</t>
         </is>
       </c>
     </row>
@@ -740,13 +740,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1588</v>
+        <v>5.1953</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.1953</v>
+        <v>5.2362</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>5.2362</v>
+        <v>5.245</v>
       </c>
       <c r="F9" s="6" t="n">
         <v>5.245</v>
@@ -755,10 +755,10 @@
         <v>5.245</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.245</v>
+        <v>5.2084</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.2084</v>
+        <v>5.2006</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.5359</v>
+        <v>4.5511</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.5511</v>
+        <v>4.5894</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>4.5894</v>
+        <v>4.5978</v>
       </c>
       <c r="O9" s="6" t="n">
         <v>4.5978</v>
@@ -781,10 +781,10 @@
         <v>4.5978</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.5978</v>
+        <v>4.5688</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.5688</v>
+        <v>4.5779</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>07-05</t>
+          <t>07-06</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>07-07</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>07-08</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>07-09</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>07-10</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>07-11</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>07-12</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>07-06</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>07-07</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>07-08</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>07-09</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>07-10</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>07-11</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>07-05</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>07-06</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>07-07</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>07-08</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>07-09</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>07-10</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>07-11</t>
+          <t>07-12</t>
         </is>
       </c>
     </row>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4498</v>
+        <v>4.4754</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4754</v>
+        <v>4.4803</v>
       </c>
       <c r="E5" s="6" t="n">
         <v>4.4803</v>
@@ -603,14 +603,14 @@
       <c r="F5" s="6" t="n">
         <v>4.4803</v>
       </c>
-      <c r="G5" s="6" t="n">
-        <v>4.4803</v>
-      </c>
-      <c r="H5" s="6" t="n">
+      <c r="G5" s="7" t="n">
         <v>4.4553</v>
       </c>
+      <c r="H5" s="7" t="n">
+        <v>4.4426</v>
+      </c>
       <c r="I5" s="7" t="n">
-        <v>4.4426</v>
+        <v>4.4471</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +618,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0869</v>
-      </c>
-      <c r="M5" s="6" t="n">
         <v>4.1191</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="M5" s="7" t="n">
         <v>4.1189</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="N5" s="7" t="n">
         <v>4.1189</v>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="O5" s="7" t="n">
         <v>4.1189</v>
       </c>
+      <c r="P5" s="7" t="n">
+        <v>4.0632</v>
+      </c>
       <c r="Q5" s="7" t="n">
-        <v>4.0632</v>
+        <v>4.0374</v>
       </c>
       <c r="R5" s="7" t="n">
-        <v>4.0374</v>
+        <v>4.0347</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>07-05</t>
+          <t>07-06</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>07-07</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>07-08</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>07-09</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>07-10</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>07-11</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>07-12</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>07-06</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>07-07</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>07-08</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>07-09</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>07-10</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>07-11</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>07-05</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>07-06</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>07-07</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>07-08</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>07-09</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>07-10</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>07-11</t>
+          <t>07-12</t>
         </is>
       </c>
     </row>
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1953</v>
+        <v>5.2362</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.2362</v>
+        <v>5.245</v>
       </c>
       <c r="E9" s="6" t="n">
         <v>5.245</v>
@@ -751,25 +751,25 @@
       <c r="F9" s="6" t="n">
         <v>5.245</v>
       </c>
-      <c r="G9" s="6" t="n">
-        <v>5.245</v>
-      </c>
-      <c r="H9" s="6" t="n">
+      <c r="G9" s="7" t="n">
         <v>5.2084</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="H9" s="7" t="n">
         <v>5.2006</v>
       </c>
+      <c r="I9" s="7" t="n">
+        <v>5.2168</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.5511</v>
+        <v>4.5894</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.5894</v>
+        <v>4.5978</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>4.5978</v>
@@ -777,14 +777,14 @@
       <c r="O9" s="6" t="n">
         <v>4.5978</v>
       </c>
-      <c r="P9" s="6" t="n">
-        <v>4.5978</v>
-      </c>
-      <c r="Q9" s="6" t="n">
+      <c r="P9" s="7" t="n">
         <v>4.5688</v>
       </c>
+      <c r="Q9" s="7" t="n">
+        <v>4.5779</v>
+      </c>
       <c r="R9" s="6" t="n">
-        <v>4.5779</v>
+        <v>4.5948</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>07-06</t>
+          <t>07-07</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>07-08</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>07-09</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>07-10</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>07-11</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>07-12</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>07-13</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>07-07</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>07-08</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>07-09</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>07-10</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>07-11</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>07-12</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>07-06</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>07-07</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>07-08</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>07-09</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>07-10</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>07-11</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>07-12</t>
+          <t>07-13</t>
         </is>
       </c>
     </row>
@@ -592,51 +592,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4754</v>
-      </c>
-      <c r="D5" s="6" t="n">
         <v>4.4803</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="D5" s="5" t="n">
         <v>4.4803</v>
       </c>
+      <c r="E5" s="5" t="n">
+        <v>4.4803</v>
+      </c>
       <c r="F5" s="6" t="n">
-        <v>4.4803</v>
-      </c>
-      <c r="G5" s="7" t="n">
         <v>4.4553</v>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="G5" s="6" t="n">
         <v>4.4426</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="H5" s="6" t="n">
         <v>4.4471</v>
       </c>
+      <c r="I5" s="6" t="n">
+        <v>4.4336</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.1191</v>
-      </c>
-      <c r="M5" s="7" t="n">
         <v>4.1189</v>
       </c>
-      <c r="N5" s="7" t="n">
+      <c r="M5" s="5" t="n">
         <v>4.1189</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="N5" s="5" t="n">
         <v>4.1189</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="O5" s="6" t="n">
         <v>4.0632</v>
       </c>
-      <c r="Q5" s="7" t="n">
+      <c r="P5" s="6" t="n">
         <v>4.0374</v>
       </c>
-      <c r="R5" s="7" t="n">
+      <c r="Q5" s="6" t="n">
         <v>4.0347</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>3.9724</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>07-06</t>
+          <t>07-07</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>07-08</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>07-09</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>07-10</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>07-11</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>07-12</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>07-13</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>07-07</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>07-08</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>07-09</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>07-10</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>07-11</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>07-12</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>07-06</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>07-07</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>07-08</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>07-09</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>07-10</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>07-11</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>07-12</t>
+          <t>07-13</t>
         </is>
       </c>
     </row>
@@ -740,51 +740,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.2362</v>
-      </c>
-      <c r="D9" s="6" t="n">
         <v>5.245</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="5" t="n">
         <v>5.245</v>
       </c>
+      <c r="E9" s="5" t="n">
+        <v>5.245</v>
+      </c>
       <c r="F9" s="6" t="n">
-        <v>5.245</v>
-      </c>
-      <c r="G9" s="7" t="n">
         <v>5.2084</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="G9" s="6" t="n">
         <v>5.2006</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="H9" s="6" t="n">
         <v>5.2168</v>
       </c>
+      <c r="I9" s="6" t="n">
+        <v>5.1813</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.5894</v>
-      </c>
-      <c r="M9" s="6" t="n">
         <v>4.5978</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="M9" s="5" t="n">
         <v>4.5978</v>
       </c>
+      <c r="N9" s="5" t="n">
+        <v>4.5978</v>
+      </c>
       <c r="O9" s="6" t="n">
-        <v>4.5978</v>
-      </c>
-      <c r="P9" s="7" t="n">
         <v>4.5688</v>
       </c>
-      <c r="Q9" s="7" t="n">
+      <c r="P9" s="6" t="n">
         <v>4.5779</v>
       </c>
-      <c r="R9" s="6" t="n">
+      <c r="Q9" s="6" t="n">
         <v>4.5948</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>4.6028</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>07-07</t>
+          <t>07-10</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>07-08</t>
+          <t>07-11</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>07-09</t>
+          <t>07-12</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
+          <t>07-13</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>07-14</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>07-15</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>07-16</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>07-10</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>07-11</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>07-12</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>07-13</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>07-07</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>07-08</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>07-09</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>07-10</t>
-        </is>
-      </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
-          <t>07-11</t>
+          <t>07-14</t>
         </is>
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>07-12</t>
+          <t>07-15</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>07-13</t>
+          <t>07-16</t>
         </is>
       </c>
     </row>
@@ -592,25 +592,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4803</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>4.4803</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>4.4803</v>
+        <v>4.4553</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>4.4426</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>4.4471</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.4553</v>
+        <v>4.4336</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.4426</v>
+        <v>4.4486</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.4471</v>
+        <v>4.4486</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.4336</v>
+        <v>4.4486</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +618,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.1189</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>4.1189</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>4.1189</v>
+        <v>4.0632</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>4.0374</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>4.0347</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>4.0632</v>
+        <v>3.9724</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>4.0374</v>
+        <v>3.9617</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>4.0347</v>
+        <v>3.9617</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>3.9724</v>
+        <v>3.9617</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>07-07</t>
+          <t>07-10</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>07-08</t>
+          <t>07-11</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>07-09</t>
+          <t>07-12</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
+          <t>07-13</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>07-14</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>07-15</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>07-16</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>07-10</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>07-11</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>07-12</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>07-13</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>07-07</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>07-08</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>07-09</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>07-10</t>
-        </is>
-      </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
-          <t>07-11</t>
+          <t>07-14</t>
         </is>
       </c>
       <c r="Q8" s="5" t="inlineStr">
         <is>
-          <t>07-12</t>
+          <t>07-15</t>
         </is>
       </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>07-13</t>
+          <t>07-16</t>
         </is>
       </c>
     </row>
@@ -740,25 +740,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.245</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>5.245</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>5.245</v>
+        <v>5.2084</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>5.2006</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>5.2168</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>5.2084</v>
+        <v>5.1813</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.2006</v>
+        <v>5.1973</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.2168</v>
+        <v>5.1973</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.1813</v>
+        <v>5.1973</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,25 +766,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.5978</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>4.5978</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>4.5978</v>
-      </c>
-      <c r="O9" s="6" t="n">
         <v>4.5688</v>
       </c>
-      <c r="P9" s="6" t="n">
+      <c r="M9" s="7" t="n">
         <v>4.5779</v>
       </c>
-      <c r="Q9" s="6" t="n">
+      <c r="N9" s="7" t="n">
         <v>4.5948</v>
       </c>
+      <c r="O9" s="7" t="n">
+        <v>4.6028</v>
+      </c>
+      <c r="P9" s="7" t="n">
+        <v>4.6193</v>
+      </c>
+      <c r="Q9" s="7" t="n">
+        <v>4.6193</v>
+      </c>
       <c r="R9" s="7" t="n">
-        <v>4.6028</v>
+        <v>4.6193</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>07-10</t>
+          <t>07-11</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>07-12</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>07-13</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>07-14</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>07-15</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>07-16</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>07-17</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>07-11</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>07-12</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>07-13</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>07-14</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>07-15</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>07-16</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>07-10</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>07-11</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>07-12</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>07-13</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>07-14</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>07-15</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>07-16</t>
+          <t>07-17</t>
         </is>
       </c>
     </row>
@@ -592,16 +592,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4553</v>
+        <v>4.4426</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4426</v>
-      </c>
-      <c r="E5" s="6" t="n">
         <v>4.4471</v>
       </c>
+      <c r="E5" s="7" t="n">
+        <v>4.4336</v>
+      </c>
       <c r="F5" s="6" t="n">
-        <v>4.4336</v>
+        <v>4.4486</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>4.4486</v>
@@ -610,7 +610,7 @@
         <v>4.4486</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.4486</v>
+        <v>4.452</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +618,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0632</v>
-      </c>
-      <c r="M5" s="6" t="n">
         <v>4.0374</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="M5" s="7" t="n">
         <v>4.0347</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="N5" s="7" t="n">
         <v>3.9724</v>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="O5" s="7" t="n">
         <v>3.9617</v>
       </c>
-      <c r="Q5" s="6" t="n">
+      <c r="P5" s="7" t="n">
         <v>3.9617</v>
       </c>
-      <c r="R5" s="6" t="n">
+      <c r="Q5" s="7" t="n">
         <v>3.9617</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>3.9616</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>07-10</t>
+          <t>07-11</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>07-12</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>07-13</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>07-14</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>07-15</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>07-16</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>07-17</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>07-11</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>07-12</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>07-13</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>07-14</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>07-15</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>07-16</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>07-10</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>07-11</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>07-12</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>07-13</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>07-14</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>07-15</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>07-16</t>
+          <t>07-17</t>
         </is>
       </c>
     </row>
@@ -740,51 +740,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.2084</v>
+        <v>5.2006</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.2006</v>
+        <v>5.2168</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>5.2168</v>
-      </c>
-      <c r="F9" s="6" t="n">
         <v>5.1813</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="F9" s="7" t="n">
         <v>5.1973</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="G9" s="7" t="n">
         <v>5.1973</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="H9" s="7" t="n">
         <v>5.1973</v>
       </c>
+      <c r="I9" s="7" t="n">
+        <v>5.1876</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.5688</v>
-      </c>
-      <c r="M9" s="7" t="n">
         <v>4.5779</v>
       </c>
-      <c r="N9" s="7" t="n">
+      <c r="M9" s="6" t="n">
         <v>4.5948</v>
       </c>
-      <c r="O9" s="7" t="n">
+      <c r="N9" s="6" t="n">
         <v>4.6028</v>
       </c>
-      <c r="P9" s="7" t="n">
+      <c r="O9" s="6" t="n">
         <v>4.6193</v>
       </c>
-      <c r="Q9" s="7" t="n">
+      <c r="P9" s="6" t="n">
         <v>4.6193</v>
       </c>
-      <c r="R9" s="7" t="n">
+      <c r="Q9" s="6" t="n">
         <v>4.6193</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>4.6113</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>07-11</t>
+          <t>07-12</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>07-13</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>07-14</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>07-15</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>07-16</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>07-17</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>07-18</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>07-12</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>07-13</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>07-14</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>07-15</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>07-16</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>07-17</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>07-11</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>07-12</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>07-13</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>07-14</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>07-15</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>07-16</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>07-17</t>
+          <t>07-18</t>
         </is>
       </c>
     </row>
@@ -592,25 +592,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4426</v>
+        <v>4.4471</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4471</v>
+        <v>4.4336</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>4.4336</v>
-      </c>
-      <c r="F5" s="6" t="n">
         <v>4.4486</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="F5" s="7" t="n">
         <v>4.4486</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="G5" s="7" t="n">
         <v>4.4486</v>
       </c>
+      <c r="H5" s="7" t="n">
+        <v>4.452</v>
+      </c>
       <c r="I5" s="6" t="n">
-        <v>4.452</v>
+        <v>4.4331</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +618,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0374</v>
-      </c>
-      <c r="M5" s="7" t="n">
         <v>4.0347</v>
       </c>
-      <c r="N5" s="7" t="n">
+      <c r="M5" s="6" t="n">
         <v>3.9724</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="N5" s="6" t="n">
         <v>3.9617</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="O5" s="6" t="n">
         <v>3.9617</v>
       </c>
-      <c r="Q5" s="7" t="n">
+      <c r="P5" s="6" t="n">
         <v>3.9617</v>
       </c>
-      <c r="R5" s="7" t="n">
+      <c r="Q5" s="6" t="n">
         <v>3.9616</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>3.9451</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>07-11</t>
+          <t>07-12</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>07-13</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>07-14</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>07-15</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>07-16</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>07-17</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>07-18</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>07-12</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>07-13</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>07-14</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>07-15</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>07-16</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>07-17</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>07-11</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>07-12</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>07-13</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>07-14</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>07-15</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>07-16</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>07-17</t>
+          <t>07-18</t>
         </is>
       </c>
     </row>
@@ -740,51 +740,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.2006</v>
+        <v>5.2168</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.2168</v>
-      </c>
-      <c r="E9" s="7" t="n">
         <v>5.1813</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="E9" s="6" t="n">
         <v>5.1973</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="F9" s="6" t="n">
         <v>5.1973</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="G9" s="6" t="n">
         <v>5.1973</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="H9" s="6" t="n">
         <v>5.1876</v>
       </c>
+      <c r="I9" s="6" t="n">
+        <v>5.1596</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.5779</v>
-      </c>
-      <c r="M9" s="6" t="n">
         <v>4.5948</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="M9" s="7" t="n">
         <v>4.6028</v>
       </c>
-      <c r="O9" s="6" t="n">
+      <c r="N9" s="7" t="n">
         <v>4.6193</v>
       </c>
-      <c r="P9" s="6" t="n">
+      <c r="O9" s="7" t="n">
         <v>4.6193</v>
       </c>
-      <c r="Q9" s="6" t="n">
+      <c r="P9" s="7" t="n">
         <v>4.6193</v>
       </c>
+      <c r="Q9" s="7" t="n">
+        <v>4.6113</v>
+      </c>
       <c r="R9" s="6" t="n">
-        <v>4.6113</v>
+        <v>4.5913</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>07-12</t>
+          <t>07-13</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>07-14</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>07-15</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>07-16</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>07-17</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>07-18</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>07-19</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>07-13</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>07-14</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>07-15</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>07-16</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>07-17</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>07-18</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>07-12</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>07-13</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>07-14</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>07-15</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>07-16</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>07-17</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>07-18</t>
+          <t>07-19</t>
         </is>
       </c>
     </row>
@@ -592,25 +592,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4471</v>
+        <v>4.4336</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4336</v>
-      </c>
-      <c r="E5" s="7" t="n">
         <v>4.4486</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="E5" s="6" t="n">
         <v>4.4486</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="F5" s="6" t="n">
         <v>4.4486</v>
       </c>
+      <c r="G5" s="6" t="n">
+        <v>4.452</v>
+      </c>
       <c r="H5" s="7" t="n">
-        <v>4.452</v>
+        <v>4.4331</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.4331</v>
+        <v>4.4492</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +618,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0347</v>
-      </c>
-      <c r="M5" s="6" t="n">
         <v>3.9724</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="M5" s="7" t="n">
         <v>3.9617</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="N5" s="7" t="n">
         <v>3.9617</v>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="O5" s="7" t="n">
         <v>3.9617</v>
       </c>
-      <c r="Q5" s="6" t="n">
+      <c r="P5" s="7" t="n">
         <v>3.9616</v>
       </c>
-      <c r="R5" s="6" t="n">
+      <c r="Q5" s="7" t="n">
         <v>3.9451</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>3.9612</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>07-12</t>
+          <t>07-13</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>07-14</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>07-15</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>07-16</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>07-17</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>07-18</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>07-19</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>07-13</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>07-14</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>07-15</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>07-16</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>07-17</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>07-18</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>07-12</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>07-13</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>07-14</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>07-15</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>07-16</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>07-17</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>07-18</t>
+          <t>07-19</t>
         </is>
       </c>
     </row>
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.2168</v>
+        <v>5.1813</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.1813</v>
+        <v>5.1973</v>
       </c>
       <c r="E9" s="6" t="n">
         <v>5.1973</v>
@@ -752,39 +752,39 @@
         <v>5.1973</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.1973</v>
-      </c>
-      <c r="H9" s="6" t="n">
         <v>5.1876</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="H9" s="7" t="n">
         <v>5.1596</v>
       </c>
+      <c r="I9" s="7" t="n">
+        <v>5.1229</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.5948</v>
-      </c>
-      <c r="M9" s="7" t="n">
         <v>4.6028</v>
       </c>
-      <c r="N9" s="7" t="n">
+      <c r="M9" s="6" t="n">
         <v>4.6193</v>
       </c>
-      <c r="O9" s="7" t="n">
+      <c r="N9" s="6" t="n">
         <v>4.6193</v>
       </c>
-      <c r="P9" s="7" t="n">
+      <c r="O9" s="6" t="n">
         <v>4.6193</v>
       </c>
+      <c r="P9" s="6" t="n">
+        <v>4.6113</v>
+      </c>
       <c r="Q9" s="7" t="n">
+        <v>4.5913</v>
+      </c>
+      <c r="R9" s="6" t="n">
         <v>4.6113</v>
-      </c>
-      <c r="R9" s="6" t="n">
-        <v>4.5913</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>07-13</t>
+          <t>07-14</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>07-15</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>07-16</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>07-17</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>07-18</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>07-19</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>07-20</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>07-14</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>07-15</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>07-16</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>07-17</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>07-18</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>07-19</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>07-13</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>07-14</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>07-15</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>07-16</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>07-17</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>07-18</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>07-19</t>
+          <t>07-20</t>
         </is>
       </c>
     </row>
@@ -592,25 +592,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4336</v>
-      </c>
-      <c r="D5" s="6" t="n">
         <v>4.4486</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="D5" s="5" t="n">
         <v>4.4486</v>
       </c>
+      <c r="E5" s="5" t="n">
+        <v>4.4486</v>
+      </c>
       <c r="F5" s="6" t="n">
-        <v>4.4486</v>
-      </c>
-      <c r="G5" s="6" t="n">
         <v>4.452</v>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="G5" s="7" t="n">
         <v>4.4331</v>
       </c>
+      <c r="H5" s="6" t="n">
+        <v>4.4492</v>
+      </c>
       <c r="I5" s="6" t="n">
-        <v>4.4492</v>
+        <v>4.4511</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +618,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.9724</v>
-      </c>
-      <c r="M5" s="7" t="n">
         <v>3.9617</v>
       </c>
-      <c r="N5" s="7" t="n">
+      <c r="M5" s="5" t="n">
         <v>3.9617</v>
       </c>
+      <c r="N5" s="5" t="n">
+        <v>3.9617</v>
+      </c>
       <c r="O5" s="7" t="n">
-        <v>3.9617</v>
+        <v>3.9616</v>
       </c>
       <c r="P5" s="7" t="n">
-        <v>3.9616</v>
+        <v>3.9451</v>
       </c>
       <c r="Q5" s="7" t="n">
-        <v>3.9451</v>
-      </c>
-      <c r="R5" s="7" t="n">
         <v>3.9612</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>3.971</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>07-13</t>
+          <t>07-14</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>07-15</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>07-16</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>07-17</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>07-18</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>07-19</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>07-20</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>07-14</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>07-15</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>07-16</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>07-17</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>07-18</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>07-19</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>07-13</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>07-14</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>07-15</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>07-16</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>07-17</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>07-18</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>07-19</t>
+          <t>07-20</t>
         </is>
       </c>
     </row>
@@ -740,25 +740,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1813</v>
-      </c>
-      <c r="D9" s="6" t="n">
         <v>5.1973</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="5" t="n">
         <v>5.1973</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="E9" s="5" t="n">
         <v>5.1973</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="F9" s="7" t="n">
         <v>5.1876</v>
       </c>
+      <c r="G9" s="7" t="n">
+        <v>5.1596</v>
+      </c>
       <c r="H9" s="7" t="n">
-        <v>5.1596</v>
+        <v>5.1229</v>
       </c>
       <c r="I9" s="7" t="n">
-        <v>5.1229</v>
+        <v>5.1321</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,25 +766,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6028</v>
-      </c>
-      <c r="M9" s="6" t="n">
         <v>4.6193</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="M9" s="5" t="n">
         <v>4.6193</v>
       </c>
-      <c r="O9" s="6" t="n">
+      <c r="N9" s="5" t="n">
         <v>4.6193</v>
       </c>
-      <c r="P9" s="6" t="n">
+      <c r="O9" s="7" t="n">
         <v>4.6113</v>
       </c>
+      <c r="P9" s="7" t="n">
+        <v>4.5913</v>
+      </c>
       <c r="Q9" s="7" t="n">
-        <v>4.5913</v>
+        <v>4.6113</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.6113</v>
+        <v>4.6276</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>07-14</t>
+          <t>07-17</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>07-15</t>
+          <t>07-18</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>07-16</t>
+          <t>07-19</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
+          <t>07-20</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>07-21</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>07-22</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>07-23</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>07-17</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>07-18</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>07-19</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>07-20</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>07-14</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>07-15</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>07-16</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>07-17</t>
-        </is>
-      </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
-          <t>07-18</t>
+          <t>07-21</t>
         </is>
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>07-19</t>
+          <t>07-22</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>07-20</t>
+          <t>07-23</t>
         </is>
       </c>
     </row>
@@ -592,25 +592,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4486</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>4.4486</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>4.4486</v>
+        <v>4.452</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>4.4331</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>4.4492</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.452</v>
-      </c>
-      <c r="G5" s="7" t="n">
-        <v>4.4331</v>
+        <v>4.4511</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>4.4501</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.4492</v>
+        <v>4.4501</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.4511</v>
+        <v>4.4501</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +618,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.9617</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>3.9617</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>3.9617</v>
+        <v>3.9616</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>3.9451</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>3.9612</v>
       </c>
       <c r="O5" s="7" t="n">
-        <v>3.9616</v>
+        <v>3.971</v>
       </c>
       <c r="P5" s="7" t="n">
-        <v>3.9451</v>
+        <v>3.999</v>
       </c>
       <c r="Q5" s="7" t="n">
-        <v>3.9612</v>
-      </c>
-      <c r="R5" s="6" t="n">
-        <v>3.971</v>
+        <v>3.999</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>3.999</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>07-14</t>
+          <t>07-17</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>07-15</t>
+          <t>07-18</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>07-16</t>
+          <t>07-19</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
+          <t>07-20</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>07-21</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>07-22</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>07-23</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>07-17</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>07-18</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>07-19</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>07-20</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>07-14</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>07-15</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>07-16</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>07-17</t>
-        </is>
-      </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
-          <t>07-18</t>
+          <t>07-21</t>
         </is>
       </c>
       <c r="Q8" s="5" t="inlineStr">
         <is>
-          <t>07-19</t>
+          <t>07-22</t>
         </is>
       </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>07-20</t>
+          <t>07-23</t>
         </is>
       </c>
     </row>
@@ -740,51 +740,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1973</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>5.1973</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>5.1973</v>
-      </c>
-      <c r="F9" s="7" t="n">
         <v>5.1876</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="D9" s="6" t="n">
         <v>5.1596</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="E9" s="6" t="n">
         <v>5.1229</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="F9" s="6" t="n">
         <v>5.1321</v>
       </c>
+      <c r="G9" s="6" t="n">
+        <v>5.1422</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>5.1422</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>5.1422</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6193</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>4.6193</v>
+        <v>4.6113</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>4.5913</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>4.6193</v>
+        <v>4.6113</v>
       </c>
       <c r="O9" s="7" t="n">
-        <v>4.6113</v>
+        <v>4.6276</v>
       </c>
       <c r="P9" s="7" t="n">
-        <v>4.5913</v>
+        <v>4.6156</v>
       </c>
       <c r="Q9" s="7" t="n">
-        <v>4.6113</v>
-      </c>
-      <c r="R9" s="6" t="n">
-        <v>4.6276</v>
+        <v>4.6156</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>4.6156</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>07-17</t>
+          <t>07-18</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>07-19</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>07-20</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>07-21</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>07-22</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>07-23</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>07-24</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>07-18</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>07-19</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>07-20</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>07-21</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>07-22</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>07-23</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>07-17</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>07-18</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>07-19</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>07-20</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>07-21</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>07-22</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>07-23</t>
+          <t>07-24</t>
         </is>
       </c>
     </row>
@@ -592,16 +592,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.452</v>
+        <v>4.4331</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4331</v>
+        <v>4.4492</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.4492</v>
+        <v>4.4511</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.4511</v>
+        <v>4.4501</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>4.4501</v>
@@ -610,7 +610,7 @@
         <v>4.4501</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.4501</v>
+        <v>4.4517</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +618,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.9616</v>
+        <v>3.9451</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>3.9451</v>
+        <v>3.9612</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>3.9612</v>
-      </c>
-      <c r="O5" s="7" t="n">
         <v>3.971</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="O5" s="6" t="n">
         <v>3.999</v>
       </c>
-      <c r="Q5" s="7" t="n">
+      <c r="P5" s="6" t="n">
         <v>3.999</v>
       </c>
-      <c r="R5" s="7" t="n">
+      <c r="Q5" s="6" t="n">
         <v>3.999</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>4.021</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>07-17</t>
+          <t>07-18</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>07-19</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>07-20</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>07-21</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>07-22</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>07-23</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>07-24</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>07-18</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>07-19</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>07-20</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>07-21</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>07-22</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>07-23</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>07-17</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>07-18</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>07-19</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>07-20</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>07-21</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>07-22</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>07-23</t>
+          <t>07-24</t>
         </is>
       </c>
     </row>
@@ -740,51 +740,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1876</v>
-      </c>
-      <c r="D9" s="6" t="n">
         <v>5.1596</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="7" t="n">
         <v>5.1229</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="E9" s="7" t="n">
         <v>5.1321</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="F9" s="7" t="n">
         <v>5.1422</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="G9" s="7" t="n">
         <v>5.1422</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="H9" s="7" t="n">
         <v>5.1422</v>
       </c>
+      <c r="I9" s="7" t="n">
+        <v>5.1527</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
+        <v>4.5913</v>
+      </c>
+      <c r="M9" s="6" t="n">
         <v>4.6113</v>
       </c>
-      <c r="M9" s="6" t="n">
-        <v>4.5913</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>4.6113</v>
-      </c>
-      <c r="O9" s="7" t="n">
+      <c r="N9" s="6" t="n">
         <v>4.6276</v>
       </c>
-      <c r="P9" s="7" t="n">
+      <c r="O9" s="6" t="n">
         <v>4.6156</v>
       </c>
-      <c r="Q9" s="7" t="n">
+      <c r="P9" s="6" t="n">
         <v>4.6156</v>
       </c>
-      <c r="R9" s="7" t="n">
+      <c r="Q9" s="6" t="n">
         <v>4.6156</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>4.634</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>07-18</t>
+          <t>07-19</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>07-20</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>07-21</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>07-22</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>07-23</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>07-24</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>07-25</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>07-19</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>07-20</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>07-21</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>07-22</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>07-23</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>07-24</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>07-18</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>07-19</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>07-20</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>07-21</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>07-22</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>07-23</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>07-24</t>
+          <t>07-25</t>
         </is>
       </c>
     </row>
@@ -592,13 +592,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4331</v>
+        <v>4.4492</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4492</v>
+        <v>4.4511</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.4511</v>
+        <v>4.4501</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>4.4501</v>
@@ -607,24 +607,24 @@
         <v>4.4501</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.4501</v>
-      </c>
-      <c r="I5" s="6" t="n">
         <v>4.4517</v>
       </c>
+      <c r="I5" s="7" t="n">
+        <v>4.4348</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.9451</v>
+        <v>3.9612</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>3.9612</v>
+        <v>3.971</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>3.971</v>
+        <v>3.999</v>
       </c>
       <c r="O5" s="6" t="n">
         <v>3.999</v>
@@ -633,10 +633,10 @@
         <v>3.999</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>3.999</v>
+        <v>4.021</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>4.021</v>
+        <v>4.008</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>07-18</t>
+          <t>07-19</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>07-20</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>07-21</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>07-22</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>07-23</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>07-24</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>07-25</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>07-19</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>07-20</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>07-21</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>07-22</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>07-23</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>07-24</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>07-18</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>07-19</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>07-20</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>07-21</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>07-22</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>07-23</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>07-24</t>
+          <t>07-25</t>
         </is>
       </c>
     </row>
@@ -740,39 +740,39 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1596</v>
-      </c>
-      <c r="D9" s="7" t="n">
         <v>5.1229</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="D9" s="6" t="n">
         <v>5.1321</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="E9" s="6" t="n">
         <v>5.1422</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="F9" s="6" t="n">
         <v>5.1422</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="G9" s="6" t="n">
         <v>5.1422</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="H9" s="6" t="n">
         <v>5.1527</v>
       </c>
+      <c r="I9" s="6" t="n">
+        <v>5.1508</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.5913</v>
+        <v>4.6113</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.6113</v>
+        <v>4.6276</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>4.6276</v>
+        <v>4.6156</v>
       </c>
       <c r="O9" s="6" t="n">
         <v>4.6156</v>
@@ -781,10 +781,10 @@
         <v>4.6156</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.6156</v>
+        <v>4.634</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.634</v>
+        <v>4.6172</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>07-19</t>
+          <t>07-20</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>07-21</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>07-22</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>07-23</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>07-24</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>07-25</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>07-26</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>07-20</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>07-21</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>07-22</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>07-23</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>07-24</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>07-25</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>07-19</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>07-20</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>07-21</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>07-22</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>07-23</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>07-24</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>07-25</t>
+          <t>07-26</t>
         </is>
       </c>
     </row>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4492</v>
+        <v>4.4511</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4511</v>
+        <v>4.4501</v>
       </c>
       <c r="E5" s="6" t="n">
         <v>4.4501</v>
@@ -603,40 +603,40 @@
       <c r="F5" s="6" t="n">
         <v>4.4501</v>
       </c>
-      <c r="G5" s="6" t="n">
-        <v>4.4501</v>
+      <c r="G5" s="7" t="n">
+        <v>4.4517</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.4517</v>
-      </c>
-      <c r="I5" s="7" t="n">
         <v>4.4348</v>
       </c>
+      <c r="I5" s="6" t="n">
+        <v>4.4248</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.9612</v>
-      </c>
-      <c r="M5" s="6" t="n">
         <v>3.971</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="M5" s="7" t="n">
         <v>3.999</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="N5" s="7" t="n">
         <v>3.999</v>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="O5" s="7" t="n">
         <v>3.999</v>
       </c>
-      <c r="Q5" s="6" t="n">
+      <c r="P5" s="7" t="n">
         <v>4.021</v>
       </c>
-      <c r="R5" s="6" t="n">
+      <c r="Q5" s="7" t="n">
         <v>4.008</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>3.9949</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>07-19</t>
+          <t>07-20</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>07-21</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>07-22</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>07-23</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>07-24</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>07-25</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>07-26</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>07-20</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>07-21</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>07-22</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>07-23</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>07-24</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>07-25</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>07-19</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>07-20</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>07-21</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>07-22</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>07-23</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>07-24</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>07-25</t>
+          <t>07-26</t>
         </is>
       </c>
     </row>
@@ -740,36 +740,36 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1229</v>
-      </c>
-      <c r="D9" s="6" t="n">
         <v>5.1321</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="7" t="n">
         <v>5.1422</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="E9" s="7" t="n">
         <v>5.1422</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="F9" s="7" t="n">
         <v>5.1422</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="G9" s="7" t="n">
         <v>5.1527</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="H9" s="7" t="n">
         <v>5.1508</v>
       </c>
+      <c r="I9" s="7" t="n">
+        <v>5.1577</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6113</v>
+        <v>4.6276</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.6276</v>
+        <v>4.6156</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>4.6156</v>
@@ -777,14 +777,14 @@
       <c r="O9" s="6" t="n">
         <v>4.6156</v>
       </c>
-      <c r="P9" s="6" t="n">
-        <v>4.6156</v>
+      <c r="P9" s="7" t="n">
+        <v>4.634</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.634</v>
-      </c>
-      <c r="R9" s="6" t="n">
         <v>4.6172</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>4.6316</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>07-20</t>
+          <t>07-21</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>07-22</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>07-23</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>07-24</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>07-25</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>07-26</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>07-27</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>07-21</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>07-22</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>07-23</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>07-24</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>07-25</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>07-26</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>07-20</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>07-21</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>07-22</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>07-23</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>07-24</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>07-25</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>07-26</t>
+          <t>07-27</t>
         </is>
       </c>
     </row>
@@ -592,51 +592,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4511</v>
-      </c>
-      <c r="D5" s="6" t="n">
         <v>4.4501</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="D5" s="5" t="n">
         <v>4.4501</v>
       </c>
+      <c r="E5" s="5" t="n">
+        <v>4.4501</v>
+      </c>
       <c r="F5" s="6" t="n">
-        <v>4.4501</v>
+        <v>4.4517</v>
       </c>
       <c r="G5" s="7" t="n">
-        <v>4.4517</v>
-      </c>
-      <c r="H5" s="6" t="n">
         <v>4.4348</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="H5" s="7" t="n">
         <v>4.4248</v>
       </c>
+      <c r="I5" s="7" t="n">
+        <v>4.4224</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.971</v>
-      </c>
-      <c r="M5" s="7" t="n">
         <v>3.999</v>
       </c>
-      <c r="N5" s="7" t="n">
+      <c r="M5" s="5" t="n">
         <v>3.999</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="N5" s="5" t="n">
         <v>3.999</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="O5" s="6" t="n">
         <v>4.021</v>
       </c>
+      <c r="P5" s="6" t="n">
+        <v>4.008</v>
+      </c>
       <c r="Q5" s="7" t="n">
-        <v>4.008</v>
+        <v>3.9949</v>
       </c>
       <c r="R5" s="7" t="n">
-        <v>3.9949</v>
+        <v>3.9702</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>07-20</t>
+          <t>07-21</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>07-22</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>07-23</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>07-24</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>07-25</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>07-26</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>07-27</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>07-21</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>07-22</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>07-23</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>07-24</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>07-25</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>07-26</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>07-20</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>07-21</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>07-22</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>07-23</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>07-24</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>07-25</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>07-26</t>
+          <t>07-27</t>
         </is>
       </c>
     </row>
@@ -740,51 +740,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1321</v>
-      </c>
-      <c r="D9" s="7" t="n">
         <v>5.1422</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="D9" s="5" t="n">
         <v>5.1422</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="E9" s="5" t="n">
         <v>5.1422</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="F9" s="6" t="n">
         <v>5.1527</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="G9" s="6" t="n">
         <v>5.1508</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="H9" s="6" t="n">
         <v>5.1577</v>
       </c>
+      <c r="I9" s="6" t="n">
+        <v>5.1585</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6276</v>
-      </c>
-      <c r="M9" s="6" t="n">
         <v>4.6156</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="M9" s="5" t="n">
         <v>4.6156</v>
       </c>
+      <c r="N9" s="5" t="n">
+        <v>4.6156</v>
+      </c>
       <c r="O9" s="6" t="n">
-        <v>4.6156</v>
-      </c>
-      <c r="P9" s="7" t="n">
         <v>4.634</v>
       </c>
+      <c r="P9" s="6" t="n">
+        <v>4.6172</v>
+      </c>
       <c r="Q9" s="6" t="n">
-        <v>4.6172</v>
-      </c>
-      <c r="R9" s="7" t="n">
         <v>4.6316</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>4.6383</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>07-21</t>
+          <t>07-24</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>07-22</t>
+          <t>07-25</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>07-23</t>
+          <t>07-26</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
+          <t>07-27</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>07-28</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>07-29</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>07-30</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>07-24</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>07-25</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>07-26</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>07-27</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>07-21</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>07-22</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>07-23</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>07-24</t>
-        </is>
-      </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
-          <t>07-25</t>
+          <t>07-28</t>
         </is>
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>07-26</t>
+          <t>07-29</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>07-27</t>
+          <t>07-30</t>
         </is>
       </c>
     </row>
@@ -592,51 +592,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4501</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>4.4501</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>4.4501</v>
+        <v>4.4517</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>4.4348</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>4.4248</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.4517</v>
-      </c>
-      <c r="G5" s="7" t="n">
-        <v>4.4348</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <v>4.4248</v>
-      </c>
-      <c r="I5" s="7" t="n">
         <v>4.4224</v>
       </c>
+      <c r="G5" s="6" t="n">
+        <v>4.4257</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>4.4257</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>4.4257</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.999</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>3.999</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>3.999</v>
+        <v>4.021</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>3.9949</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>4.021</v>
-      </c>
-      <c r="P5" s="6" t="n">
-        <v>4.008</v>
+        <v>3.9702</v>
+      </c>
+      <c r="P5" s="7" t="n">
+        <v>4.0377</v>
       </c>
       <c r="Q5" s="7" t="n">
-        <v>3.9949</v>
+        <v>4.0377</v>
       </c>
       <c r="R5" s="7" t="n">
-        <v>3.9702</v>
+        <v>4.0377</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>07-21</t>
+          <t>07-24</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>07-22</t>
+          <t>07-25</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>07-23</t>
+          <t>07-26</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
+          <t>07-27</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>07-28</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>07-29</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>07-30</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>07-24</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>07-25</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>07-26</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>07-27</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>07-21</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>07-22</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>07-23</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>07-24</t>
-        </is>
-      </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
-          <t>07-25</t>
+          <t>07-28</t>
         </is>
       </c>
       <c r="Q8" s="5" t="inlineStr">
         <is>
-          <t>07-26</t>
+          <t>07-29</t>
         </is>
       </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>07-27</t>
+          <t>07-30</t>
         </is>
       </c>
     </row>
@@ -740,51 +740,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1422</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>5.1422</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>5.1422</v>
-      </c>
-      <c r="F9" s="6" t="n">
         <v>5.1527</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="D9" s="6" t="n">
         <v>5.1508</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="E9" s="7" t="n">
         <v>5.1577</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="F9" s="7" t="n">
         <v>5.1585</v>
       </c>
+      <c r="G9" s="7" t="n">
+        <v>5.1702</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <v>5.1702</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <v>5.1702</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6156</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>4.6156</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>4.6156</v>
-      </c>
-      <c r="O9" s="6" t="n">
         <v>4.634</v>
       </c>
-      <c r="P9" s="6" t="n">
+      <c r="M9" s="6" t="n">
         <v>4.6172</v>
       </c>
-      <c r="Q9" s="6" t="n">
+      <c r="N9" s="6" t="n">
         <v>4.6316</v>
       </c>
-      <c r="R9" s="6" t="n">
+      <c r="O9" s="7" t="n">
         <v>4.6383</v>
+      </c>
+      <c r="P9" s="7" t="n">
+        <v>4.635</v>
+      </c>
+      <c r="Q9" s="7" t="n">
+        <v>4.635</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>4.635</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>07-24</t>
+          <t>07-25</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>07-26</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>07-27</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>07-28</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>07-29</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>07-30</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>07-31</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>07-25</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>07-26</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>07-27</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>07-28</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>07-29</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>07-30</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>07-24</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>07-25</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>07-26</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>07-27</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>07-28</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>07-29</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>07-30</t>
+          <t>07-31</t>
         </is>
       </c>
     </row>
@@ -592,16 +592,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4517</v>
+        <v>4.4348</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4348</v>
+        <v>4.4248</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.4248</v>
+        <v>4.4224</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.4224</v>
+        <v>4.4257</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>4.4257</v>
@@ -610,7 +610,7 @@
         <v>4.4257</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.4257</v>
+        <v>4.4135</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,16 +618,16 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.021</v>
+        <v>4.008</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.008</v>
+        <v>3.9949</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>3.9949</v>
-      </c>
-      <c r="O5" s="6" t="n">
         <v>3.9702</v>
+      </c>
+      <c r="O5" s="7" t="n">
+        <v>4.0377</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>4.0377</v>
@@ -635,8 +635,8 @@
       <c r="Q5" s="7" t="n">
         <v>4.0377</v>
       </c>
-      <c r="R5" s="7" t="n">
-        <v>4.0377</v>
+      <c r="R5" s="6" t="n">
+        <v>3.9995</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>07-24</t>
+          <t>07-25</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>07-26</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>07-27</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>07-28</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>07-29</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>07-30</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>07-31</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>07-25</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>07-26</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>07-27</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>07-28</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>07-29</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>07-30</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>07-24</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>07-25</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>07-26</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>07-27</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>07-28</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>07-29</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>07-30</t>
+          <t>07-31</t>
         </is>
       </c>
     </row>
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1527</v>
-      </c>
-      <c r="D9" s="6" t="n">
         <v>5.1508</v>
       </c>
+      <c r="D9" s="7" t="n">
+        <v>5.1577</v>
+      </c>
       <c r="E9" s="7" t="n">
-        <v>5.1577</v>
+        <v>5.1585</v>
       </c>
       <c r="F9" s="7" t="n">
-        <v>5.1585</v>
+        <v>5.1702</v>
       </c>
       <c r="G9" s="7" t="n">
         <v>5.1702</v>
@@ -757,8 +757,8 @@
       <c r="H9" s="7" t="n">
         <v>5.1702</v>
       </c>
-      <c r="I9" s="7" t="n">
-        <v>5.1702</v>
+      <c r="I9" s="6" t="n">
+        <v>5.1403</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,16 +766,16 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.634</v>
-      </c>
-      <c r="M9" s="6" t="n">
         <v>4.6172</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="M9" s="7" t="n">
         <v>4.6316</v>
       </c>
+      <c r="N9" s="7" t="n">
+        <v>4.6383</v>
+      </c>
       <c r="O9" s="7" t="n">
-        <v>4.6383</v>
+        <v>4.635</v>
       </c>
       <c r="P9" s="7" t="n">
         <v>4.635</v>
@@ -783,8 +783,8 @@
       <c r="Q9" s="7" t="n">
         <v>4.635</v>
       </c>
-      <c r="R9" s="7" t="n">
-        <v>4.635</v>
+      <c r="R9" s="6" t="n">
+        <v>4.5943</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>07-25</t>
+          <t>07-26</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>07-27</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>07-28</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>07-29</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>07-30</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>07-31</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>08-01</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>07-26</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>07-27</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>07-28</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>07-29</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>07-30</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>07-31</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>07-25</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>07-26</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>07-27</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>07-28</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>07-29</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>07-30</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>07-31</t>
+          <t>08-01</t>
         </is>
       </c>
     </row>
@@ -592,25 +592,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4348</v>
+        <v>4.4248</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4248</v>
-      </c>
-      <c r="E5" s="6" t="n">
         <v>4.4224</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="E5" s="7" t="n">
         <v>4.4257</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="F5" s="7" t="n">
         <v>4.4257</v>
       </c>
+      <c r="G5" s="7" t="n">
+        <v>4.4257</v>
+      </c>
       <c r="H5" s="6" t="n">
-        <v>4.4257</v>
+        <v>4.4135</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.4135</v>
+        <v>4.419</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.008</v>
+        <v>3.9949</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>3.9949</v>
-      </c>
-      <c r="N5" s="6" t="n">
         <v>3.9702</v>
+      </c>
+      <c r="N5" s="7" t="n">
+        <v>4.0377</v>
       </c>
       <c r="O5" s="7" t="n">
         <v>4.0377</v>
@@ -633,10 +633,10 @@
         <v>4.0377</v>
       </c>
       <c r="Q5" s="7" t="n">
-        <v>4.0377</v>
-      </c>
-      <c r="R5" s="6" t="n">
         <v>3.9995</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>4.0262</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>07-25</t>
+          <t>07-26</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>07-27</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>07-28</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>07-29</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>07-30</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>07-31</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>08-01</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>07-26</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>07-27</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>07-28</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>07-29</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>07-30</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>07-31</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>07-25</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>07-26</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>07-27</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>07-28</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>07-29</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>07-30</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>07-31</t>
+          <t>08-01</t>
         </is>
       </c>
     </row>
@@ -740,13 +740,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1508</v>
+        <v>5.1577</v>
       </c>
       <c r="D9" s="7" t="n">
-        <v>5.1577</v>
+        <v>5.1585</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>5.1585</v>
+        <v>5.1702</v>
       </c>
       <c r="F9" s="7" t="n">
         <v>5.1702</v>
@@ -754,25 +754,25 @@
       <c r="G9" s="7" t="n">
         <v>5.1702</v>
       </c>
-      <c r="H9" s="7" t="n">
-        <v>5.1702</v>
-      </c>
-      <c r="I9" s="6" t="n">
+      <c r="H9" s="6" t="n">
         <v>5.1403</v>
       </c>
+      <c r="I9" s="7" t="n">
+        <v>5.1648</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6172</v>
+        <v>4.6316</v>
       </c>
       <c r="M9" s="7" t="n">
-        <v>4.6316</v>
+        <v>4.6383</v>
       </c>
       <c r="N9" s="7" t="n">
-        <v>4.6383</v>
+        <v>4.635</v>
       </c>
       <c r="O9" s="7" t="n">
         <v>4.635</v>
@@ -780,11 +780,11 @@
       <c r="P9" s="7" t="n">
         <v>4.635</v>
       </c>
-      <c r="Q9" s="7" t="n">
-        <v>4.635</v>
+      <c r="Q9" s="6" t="n">
+        <v>4.5943</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.5943</v>
+        <v>4.6024</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>07-26</t>
+          <t>07-27</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>07-28</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>07-29</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>07-30</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>07-31</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>08-01</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>08-02</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>07-27</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>07-28</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>07-29</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>07-30</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>07-31</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>08-01</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>07-26</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>07-27</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>07-28</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>07-29</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>07-30</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>07-31</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>08-01</t>
+          <t>08-02</t>
         </is>
       </c>
     </row>
@@ -592,25 +592,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4248</v>
+        <v>4.4224</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4224</v>
-      </c>
-      <c r="E5" s="7" t="n">
         <v>4.4257</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="E5" s="6" t="n">
         <v>4.4257</v>
       </c>
+      <c r="F5" s="6" t="n">
+        <v>4.4257</v>
+      </c>
       <c r="G5" s="7" t="n">
-        <v>4.4257</v>
-      </c>
-      <c r="H5" s="6" t="n">
         <v>4.4135</v>
       </c>
+      <c r="H5" s="7" t="n">
+        <v>4.419</v>
+      </c>
       <c r="I5" s="6" t="n">
-        <v>4.419</v>
+        <v>4.4484</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +618,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.9949</v>
+        <v>3.9702</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>3.9702</v>
-      </c>
-      <c r="N5" s="7" t="n">
         <v>4.0377</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="N5" s="6" t="n">
         <v>4.0377</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="O5" s="6" t="n">
         <v>4.0377</v>
       </c>
-      <c r="Q5" s="7" t="n">
+      <c r="P5" s="6" t="n">
         <v>3.9995</v>
       </c>
-      <c r="R5" s="7" t="n">
+      <c r="Q5" s="6" t="n">
         <v>4.0262</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>4.0497</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>07-26</t>
+          <t>07-27</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>07-28</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>07-29</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>07-30</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>07-31</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>08-01</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>08-02</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>07-27</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>07-28</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>07-29</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>07-30</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>07-31</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>08-01</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>07-26</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>07-27</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>07-28</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>07-29</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>07-30</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>07-31</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>08-01</t>
+          <t>08-02</t>
         </is>
       </c>
     </row>
@@ -740,36 +740,36 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1577</v>
-      </c>
-      <c r="D9" s="7" t="n">
         <v>5.1585</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="D9" s="6" t="n">
         <v>5.1702</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="E9" s="6" t="n">
         <v>5.1702</v>
       </c>
+      <c r="F9" s="6" t="n">
+        <v>5.1702</v>
+      </c>
       <c r="G9" s="7" t="n">
-        <v>5.1702</v>
+        <v>5.1403</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.1403</v>
-      </c>
-      <c r="I9" s="7" t="n">
         <v>5.1648</v>
       </c>
+      <c r="I9" s="6" t="n">
+        <v>5.1786</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6316</v>
+        <v>4.6383</v>
       </c>
       <c r="M9" s="7" t="n">
-        <v>4.6383</v>
+        <v>4.635</v>
       </c>
       <c r="N9" s="7" t="n">
         <v>4.635</v>
@@ -778,13 +778,13 @@
         <v>4.635</v>
       </c>
       <c r="P9" s="7" t="n">
-        <v>4.635</v>
-      </c>
-      <c r="Q9" s="6" t="n">
         <v>4.5943</v>
       </c>
-      <c r="R9" s="6" t="n">
+      <c r="Q9" s="7" t="n">
         <v>4.6024</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>4.6167</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>07-27</t>
+          <t>07-28</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>07-29</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>07-30</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>07-31</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>08-01</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>08-02</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>08-03</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>07-28</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>07-29</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>07-30</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>07-31</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>08-01</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>08-02</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>07-27</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>07-28</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>07-29</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>07-30</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>07-31</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>08-01</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>08-02</t>
+          <t>08-03</t>
         </is>
       </c>
     </row>
@@ -592,51 +592,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4224</v>
-      </c>
-      <c r="D5" s="6" t="n">
         <v>4.4257</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="D5" s="5" t="n">
         <v>4.4257</v>
       </c>
+      <c r="E5" s="5" t="n">
+        <v>4.4257</v>
+      </c>
       <c r="F5" s="6" t="n">
-        <v>4.4257</v>
-      </c>
-      <c r="G5" s="7" t="n">
         <v>4.4135</v>
       </c>
+      <c r="G5" s="6" t="n">
+        <v>4.419</v>
+      </c>
       <c r="H5" s="7" t="n">
-        <v>4.419</v>
-      </c>
-      <c r="I5" s="6" t="n">
         <v>4.4484</v>
       </c>
+      <c r="I5" s="7" t="n">
+        <v>4.4585</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.9702</v>
-      </c>
-      <c r="M5" s="6" t="n">
         <v>4.0377</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="M5" s="5" t="n">
         <v>4.0377</v>
       </c>
+      <c r="N5" s="5" t="n">
+        <v>4.0377</v>
+      </c>
       <c r="O5" s="6" t="n">
-        <v>4.0377</v>
+        <v>3.9995</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>3.9995</v>
-      </c>
-      <c r="Q5" s="6" t="n">
         <v>4.0262</v>
       </c>
-      <c r="R5" s="6" t="n">
+      <c r="Q5" s="7" t="n">
         <v>4.0497</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>4.081</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>07-27</t>
+          <t>07-28</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>07-29</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>07-30</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>07-31</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>08-01</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>08-02</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>08-03</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>07-28</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>07-29</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>07-30</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>07-31</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>08-01</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>08-02</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>07-27</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>07-28</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>07-29</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>07-30</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>07-31</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>08-01</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>08-02</t>
+          <t>08-03</t>
         </is>
       </c>
     </row>
@@ -740,51 +740,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1585</v>
-      </c>
-      <c r="D9" s="6" t="n">
         <v>5.1702</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="5" t="n">
         <v>5.1702</v>
       </c>
+      <c r="E9" s="5" t="n">
+        <v>5.1702</v>
+      </c>
       <c r="F9" s="6" t="n">
-        <v>5.1702</v>
-      </c>
-      <c r="G9" s="7" t="n">
         <v>5.1403</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="G9" s="6" t="n">
         <v>5.1648</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="H9" s="7" t="n">
         <v>5.1786</v>
       </c>
+      <c r="I9" s="7" t="n">
+        <v>5.1729</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6383</v>
-      </c>
-      <c r="M9" s="7" t="n">
         <v>4.635</v>
       </c>
-      <c r="N9" s="7" t="n">
+      <c r="M9" s="5" t="n">
         <v>4.635</v>
       </c>
-      <c r="O9" s="7" t="n">
+      <c r="N9" s="5" t="n">
         <v>4.635</v>
       </c>
-      <c r="P9" s="7" t="n">
+      <c r="O9" s="6" t="n">
         <v>4.5943</v>
       </c>
-      <c r="Q9" s="7" t="n">
+      <c r="P9" s="6" t="n">
         <v>4.6024</v>
       </c>
+      <c r="Q9" s="6" t="n">
+        <v>4.6167</v>
+      </c>
       <c r="R9" s="7" t="n">
-        <v>4.6167</v>
+        <v>4.6523</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,17 +37,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -73,7 +68,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -89,9 +84,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -511,77 +503,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>07-28</t>
+          <t>07-31</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>07-29</t>
+          <t>08-01</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>07-30</t>
+          <t>08-02</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
+          <t>08-03</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>08-04</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>08-05</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>08-06</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>07-31</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>08-01</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>08-02</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>08-03</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>07-28</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>07-29</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>07-30</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>07-31</t>
-        </is>
-      </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
-          <t>08-01</t>
+          <t>08-04</t>
         </is>
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>08-02</t>
+          <t>08-05</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>08-03</t>
+          <t>08-06</t>
         </is>
       </c>
     </row>
@@ -592,25 +584,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4257</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>4.4257</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>4.4257</v>
+        <v>4.4135</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>4.419</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>4.4484</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.4135</v>
+        <v>4.4585</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.419</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <v>4.4484</v>
-      </c>
-      <c r="I5" s="7" t="n">
-        <v>4.4585</v>
+        <v>4.4438</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>4.4438</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>4.4438</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +610,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0377</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>4.0377</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>4.0377</v>
+        <v>3.9995</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>4.0262</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>4.0497</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>3.9995</v>
+        <v>4.081</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>4.0262</v>
-      </c>
-      <c r="Q5" s="7" t="n">
-        <v>4.0497</v>
-      </c>
-      <c r="R5" s="7" t="n">
-        <v>4.081</v>
+        <v>4.062</v>
+      </c>
+      <c r="Q5" s="6" t="n">
+        <v>4.062</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>4.062</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +651,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>07-28</t>
+          <t>07-31</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>07-29</t>
+          <t>08-01</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>07-30</t>
+          <t>08-02</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
+          <t>08-03</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>08-04</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>08-05</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>08-06</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>07-31</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>08-01</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>08-02</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>08-03</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>07-28</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>07-29</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>07-30</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>07-31</t>
-        </is>
-      </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
-          <t>08-01</t>
+          <t>08-04</t>
         </is>
       </c>
       <c r="Q8" s="5" t="inlineStr">
         <is>
-          <t>08-02</t>
+          <t>08-05</t>
         </is>
       </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>08-03</t>
+          <t>08-06</t>
         </is>
       </c>
     </row>
@@ -740,25 +732,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1702</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>5.1702</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>5.1702</v>
+        <v>5.1403</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>5.1648</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>5.1786</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>5.1403</v>
+        <v>5.1729</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.1648</v>
-      </c>
-      <c r="H9" s="7" t="n">
-        <v>5.1786</v>
-      </c>
-      <c r="I9" s="7" t="n">
-        <v>5.1729</v>
+        <v>5.1582</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>5.1582</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>5.1582</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,25 +758,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.635</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>4.635</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>4.635</v>
+        <v>4.5943</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>4.6024</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>4.6167</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>4.5943</v>
+        <v>4.6523</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>4.6024</v>
+        <v>4.6282</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.6167</v>
-      </c>
-      <c r="R9" s="7" t="n">
-        <v>4.6523</v>
+        <v>4.6282</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>4.6282</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,7 +37,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0035FC03"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -68,7 +73,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -84,6 +89,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -503,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>07-31</t>
+          <t>08-01</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>08-02</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>08-03</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>08-04</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>08-05</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>08-06</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>08-07</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>08-01</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>08-02</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>08-03</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>08-04</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>08-05</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>08-06</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>07-31</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>08-01</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>08-02</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>08-03</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>08-04</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>08-05</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>08-06</t>
+          <t>08-07</t>
         </is>
       </c>
     </row>
@@ -584,16 +592,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4135</v>
+        <v>4.419</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.419</v>
+        <v>4.4484</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.4484</v>
+        <v>4.4585</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.4585</v>
+        <v>4.4438</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>4.4438</v>
@@ -602,7 +610,7 @@
         <v>4.4438</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.4438</v>
+        <v>4.4279</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -610,16 +618,16 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.9995</v>
+        <v>4.0262</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.0262</v>
+        <v>4.0497</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>4.0497</v>
+        <v>4.081</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>4.081</v>
+        <v>4.062</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>4.062</v>
@@ -628,7 +636,7 @@
         <v>4.062</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>4.062</v>
+        <v>4.0347</v>
       </c>
     </row>
     <row r="7">
@@ -651,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>07-31</t>
+          <t>08-01</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>08-02</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>08-03</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>08-04</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>08-05</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>08-06</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>08-07</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>08-01</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>08-02</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>08-03</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>08-04</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>08-05</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>08-06</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>07-31</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>08-01</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>08-02</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>08-03</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>08-04</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>08-05</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>08-06</t>
+          <t>08-07</t>
         </is>
       </c>
     </row>
@@ -732,42 +740,42 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1403</v>
+        <v>5.1648</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.1648</v>
+        <v>5.1786</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>5.1786</v>
-      </c>
-      <c r="F9" s="6" t="n">
         <v>5.1729</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="F9" s="7" t="n">
         <v>5.1582</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="G9" s="7" t="n">
         <v>5.1582</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="H9" s="7" t="n">
         <v>5.1582</v>
       </c>
+      <c r="I9" s="7" t="n">
+        <v>5.1356</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.5943</v>
+        <v>4.6024</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.6024</v>
+        <v>4.6167</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>4.6167</v>
+        <v>4.6523</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>4.6523</v>
+        <v>4.6282</v>
       </c>
       <c r="P9" s="6" t="n">
         <v>4.6282</v>
@@ -776,7 +784,7 @@
         <v>4.6282</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.6282</v>
+        <v>4.6069</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>08-01</t>
+          <t>08-02</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>08-03</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>08-04</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>08-05</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>08-06</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>08-07</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>08-08</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>08-02</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>08-03</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>08-04</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>08-05</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>08-06</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>08-07</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>08-01</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>08-02</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>08-03</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>08-04</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>08-05</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>08-06</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>08-07</t>
+          <t>08-08</t>
         </is>
       </c>
     </row>
@@ -592,39 +592,39 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.419</v>
+        <v>4.4484</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4484</v>
-      </c>
-      <c r="E5" s="6" t="n">
         <v>4.4585</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="E5" s="7" t="n">
         <v>4.4438</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="F5" s="7" t="n">
         <v>4.4438</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="G5" s="7" t="n">
         <v>4.4438</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="H5" s="7" t="n">
         <v>4.4279</v>
       </c>
+      <c r="I5" s="7" t="n">
+        <v>4.4375</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0262</v>
+        <v>4.0497</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.0497</v>
+        <v>4.081</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>4.081</v>
+        <v>4.062</v>
       </c>
       <c r="O5" s="6" t="n">
         <v>4.062</v>
@@ -632,11 +632,11 @@
       <c r="P5" s="6" t="n">
         <v>4.062</v>
       </c>
-      <c r="Q5" s="6" t="n">
-        <v>4.062</v>
-      </c>
-      <c r="R5" s="6" t="n">
+      <c r="Q5" s="7" t="n">
         <v>4.0347</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>4.0396</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>08-01</t>
+          <t>08-02</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>08-03</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>08-04</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>08-05</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>08-06</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>08-07</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>08-08</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>08-02</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>08-03</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>08-04</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>08-05</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>08-06</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>08-07</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>08-01</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>08-02</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>08-03</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>08-04</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>08-05</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>08-06</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>08-07</t>
+          <t>08-08</t>
         </is>
       </c>
     </row>
@@ -740,13 +740,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1648</v>
-      </c>
-      <c r="D9" s="6" t="n">
         <v>5.1786</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="7" t="n">
         <v>5.1729</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>5.1582</v>
       </c>
       <c r="F9" s="7" t="n">
         <v>5.1582</v>
@@ -755,10 +755,10 @@
         <v>5.1582</v>
       </c>
       <c r="H9" s="7" t="n">
-        <v>5.1582</v>
+        <v>5.1356</v>
       </c>
       <c r="I9" s="7" t="n">
-        <v>5.1356</v>
+        <v>5.1521</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6024</v>
+        <v>4.6167</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.6167</v>
+        <v>4.6523</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>4.6523</v>
+        <v>4.6282</v>
       </c>
       <c r="O9" s="6" t="n">
         <v>4.6282</v>
@@ -780,11 +780,11 @@
       <c r="P9" s="6" t="n">
         <v>4.6282</v>
       </c>
-      <c r="Q9" s="6" t="n">
-        <v>4.6282</v>
+      <c r="Q9" s="7" t="n">
+        <v>4.6069</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.6069</v>
+        <v>4.6231</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>08-02</t>
+          <t>08-03</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>08-04</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>08-05</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>08-06</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>08-07</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>08-08</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>08-09</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>08-03</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>08-04</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>08-05</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>08-06</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>08-07</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>08-08</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>08-02</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>08-03</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>08-04</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>08-05</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>08-06</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>08-07</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>08-08</t>
+          <t>08-09</t>
         </is>
       </c>
     </row>
@@ -592,25 +592,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4484</v>
+        <v>4.4585</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4585</v>
-      </c>
-      <c r="E5" s="7" t="n">
         <v>4.4438</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="E5" s="6" t="n">
         <v>4.4438</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="F5" s="6" t="n">
         <v>4.4438</v>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="G5" s="6" t="n">
         <v>4.4279</v>
       </c>
+      <c r="H5" s="6" t="n">
+        <v>4.4375</v>
+      </c>
       <c r="I5" s="7" t="n">
-        <v>4.4375</v>
+        <v>4.4586</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,10 +618,10 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0497</v>
+        <v>4.081</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.081</v>
+        <v>4.062</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>4.062</v>
@@ -630,13 +630,13 @@
         <v>4.062</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>4.062</v>
-      </c>
-      <c r="Q5" s="7" t="n">
         <v>4.0347</v>
       </c>
-      <c r="R5" s="7" t="n">
+      <c r="Q5" s="6" t="n">
         <v>4.0396</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>4.0592</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>08-02</t>
+          <t>08-03</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>08-04</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>08-05</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>08-06</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>08-07</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>08-08</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>08-09</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>08-03</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>08-04</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>08-05</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>08-06</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>08-07</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>08-08</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>08-02</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>08-03</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>08-04</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>08-05</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>08-06</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>08-07</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>08-08</t>
+          <t>08-09</t>
         </is>
       </c>
     </row>
@@ -740,25 +740,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1786</v>
-      </c>
-      <c r="D9" s="7" t="n">
         <v>5.1729</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="D9" s="6" t="n">
         <v>5.1582</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="E9" s="6" t="n">
         <v>5.1582</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="F9" s="6" t="n">
         <v>5.1582</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="G9" s="6" t="n">
         <v>5.1356</v>
       </c>
+      <c r="H9" s="6" t="n">
+        <v>5.1521</v>
+      </c>
       <c r="I9" s="7" t="n">
-        <v>5.1521</v>
+        <v>5.1772</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6167</v>
+        <v>4.6523</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.6523</v>
+        <v>4.6282</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>4.6282</v>
@@ -778,13 +778,13 @@
         <v>4.6282</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>4.6282</v>
-      </c>
-      <c r="Q9" s="7" t="n">
         <v>4.6069</v>
       </c>
+      <c r="Q9" s="6" t="n">
+        <v>4.6231</v>
+      </c>
       <c r="R9" s="6" t="n">
-        <v>4.6231</v>
+        <v>4.6398</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>08-03</t>
+          <t>08-04</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>08-05</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>08-06</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>08-07</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>08-08</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>08-09</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>08-10</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>08-04</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>08-05</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>08-06</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>08-07</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>08-08</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>08-09</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>08-03</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>08-04</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>08-05</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>08-06</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>08-07</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>08-08</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>08-09</t>
+          <t>08-10</t>
         </is>
       </c>
     </row>
@@ -592,25 +592,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4585</v>
-      </c>
-      <c r="D5" s="6" t="n">
         <v>4.4438</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="D5" s="5" t="n">
         <v>4.4438</v>
       </c>
+      <c r="E5" s="5" t="n">
+        <v>4.4438</v>
+      </c>
       <c r="F5" s="6" t="n">
-        <v>4.4438</v>
+        <v>4.4279</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.4279</v>
-      </c>
-      <c r="H5" s="6" t="n">
         <v>4.4375</v>
       </c>
+      <c r="H5" s="7" t="n">
+        <v>4.4586</v>
+      </c>
       <c r="I5" s="7" t="n">
-        <v>4.4586</v>
+        <v>4.465</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +618,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.081</v>
-      </c>
-      <c r="M5" s="6" t="n">
         <v>4.062</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="M5" s="5" t="n">
         <v>4.062</v>
       </c>
+      <c r="N5" s="5" t="n">
+        <v>4.062</v>
+      </c>
       <c r="O5" s="6" t="n">
-        <v>4.062</v>
+        <v>4.0347</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>4.0347</v>
+        <v>4.0396</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>4.0396</v>
+        <v>4.0592</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>4.0592</v>
+        <v>4.0521</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>08-03</t>
+          <t>08-04</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>08-05</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>08-06</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>08-07</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>08-08</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>08-09</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>08-10</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>08-04</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>08-05</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>08-06</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>08-07</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>08-08</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>08-09</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>08-03</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>08-04</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>08-05</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>08-06</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>08-07</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>08-08</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>08-09</t>
+          <t>08-10</t>
         </is>
       </c>
     </row>
@@ -740,25 +740,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1729</v>
-      </c>
-      <c r="D9" s="6" t="n">
         <v>5.1582</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="5" t="n">
         <v>5.1582</v>
       </c>
+      <c r="E9" s="5" t="n">
+        <v>5.1582</v>
+      </c>
       <c r="F9" s="6" t="n">
-        <v>5.1582</v>
+        <v>5.1356</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.1356</v>
-      </c>
-      <c r="H9" s="6" t="n">
         <v>5.1521</v>
       </c>
+      <c r="H9" s="7" t="n">
+        <v>5.1772</v>
+      </c>
       <c r="I9" s="7" t="n">
-        <v>5.1772</v>
+        <v>5.1696</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,25 +766,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6523</v>
-      </c>
-      <c r="M9" s="6" t="n">
         <v>4.6282</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="M9" s="5" t="n">
         <v>4.6282</v>
       </c>
+      <c r="N9" s="5" t="n">
+        <v>4.6282</v>
+      </c>
       <c r="O9" s="6" t="n">
-        <v>4.6282</v>
+        <v>4.6069</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>4.6069</v>
-      </c>
-      <c r="Q9" s="6" t="n">
         <v>4.6231</v>
       </c>
-      <c r="R9" s="6" t="n">
+      <c r="Q9" s="7" t="n">
         <v>4.6398</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>4.6402</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,17 +37,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -73,7 +68,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -89,9 +84,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -511,77 +503,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>08-04</t>
+          <t>08-07</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>08-05</t>
+          <t>08-08</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>08-06</t>
+          <t>08-09</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
+          <t>08-10</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>08-11</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>08-12</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>08-13</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>08-07</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>08-08</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>08-09</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>08-10</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>08-04</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>08-05</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>08-06</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>08-07</t>
-        </is>
-      </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
-          <t>08-08</t>
+          <t>08-11</t>
         </is>
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>08-09</t>
+          <t>08-12</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>08-10</t>
+          <t>08-13</t>
         </is>
       </c>
     </row>
@@ -592,25 +584,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4438</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>4.4438</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>4.4438</v>
+        <v>4.4279</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>4.4375</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>4.4586</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.4279</v>
+        <v>4.465</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.4375</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <v>4.4586</v>
-      </c>
-      <c r="I5" s="7" t="n">
-        <v>4.465</v>
+        <v>4.4547</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>4.4547</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>4.4547</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +610,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.062</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>4.062</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>4.062</v>
+        <v>4.0347</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>4.0396</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>4.0592</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>4.0347</v>
+        <v>4.0521</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>4.0396</v>
+        <v>4.0501</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>4.0592</v>
+        <v>4.0501</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>4.0521</v>
+        <v>4.0501</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +651,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>08-04</t>
+          <t>08-07</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>08-05</t>
+          <t>08-08</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>08-06</t>
+          <t>08-09</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
+          <t>08-10</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>08-11</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>08-12</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>08-13</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>08-07</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>08-08</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>08-09</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>08-10</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>08-04</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>08-05</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>08-06</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>08-07</t>
-        </is>
-      </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
-          <t>08-08</t>
+          <t>08-11</t>
         </is>
       </c>
       <c r="Q8" s="5" t="inlineStr">
         <is>
-          <t>08-09</t>
+          <t>08-12</t>
         </is>
       </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>08-10</t>
+          <t>08-13</t>
         </is>
       </c>
     </row>
@@ -740,25 +732,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1582</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>5.1582</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>5.1582</v>
+        <v>5.1356</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>5.1521</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>5.1772</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>5.1356</v>
+        <v>5.1696</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.1521</v>
-      </c>
-      <c r="H9" s="7" t="n">
-        <v>5.1772</v>
-      </c>
-      <c r="I9" s="7" t="n">
-        <v>5.1696</v>
+        <v>5.1458</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>5.1458</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>5.1458</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,25 +758,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6282</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>4.6282</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>4.6282</v>
+        <v>4.6069</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>4.6231</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>4.6398</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>4.6069</v>
+        <v>4.6402</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>4.6231</v>
-      </c>
-      <c r="Q9" s="7" t="n">
-        <v>4.6398</v>
-      </c>
-      <c r="R9" s="7" t="n">
-        <v>4.6402</v>
+        <v>4.6199</v>
+      </c>
+      <c r="Q9" s="6" t="n">
+        <v>4.6199</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>4.6199</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,7 +37,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0035FC03"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -68,7 +73,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -84,6 +89,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -503,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>08-07</t>
+          <t>08-08</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>08-09</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>08-10</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>08-11</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>08-12</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>08-13</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>08-14</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>08-08</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>08-09</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>08-10</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>08-11</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>08-12</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>08-13</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>08-07</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>08-08</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>08-09</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>08-10</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>08-11</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>08-12</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>08-13</t>
+          <t>08-14</t>
         </is>
       </c>
     </row>
@@ -584,16 +592,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4279</v>
+        <v>4.4375</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4375</v>
+        <v>4.4586</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.4586</v>
+        <v>4.465</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.465</v>
+        <v>4.4547</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>4.4547</v>
@@ -601,8 +609,8 @@
       <c r="H5" s="6" t="n">
         <v>4.4547</v>
       </c>
-      <c r="I5" s="6" t="n">
-        <v>4.4547</v>
+      <c r="I5" s="7" t="n">
+        <v>4.4361</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -610,16 +618,16 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0347</v>
+        <v>4.0396</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.0396</v>
+        <v>4.0592</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>4.0592</v>
+        <v>4.0521</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>4.0521</v>
+        <v>4.0501</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>4.0501</v>
@@ -628,7 +636,7 @@
         <v>4.0501</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>4.0501</v>
+        <v>4.0525</v>
       </c>
     </row>
     <row r="7">
@@ -651,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>08-07</t>
+          <t>08-08</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>08-09</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>08-10</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>08-11</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>08-12</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>08-13</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>08-14</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>08-08</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>08-09</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>08-10</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>08-11</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>08-12</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>08-13</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>08-07</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>08-08</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>08-09</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>08-10</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>08-11</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>08-12</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>08-13</t>
+          <t>08-14</t>
         </is>
       </c>
     </row>
@@ -732,51 +740,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1356</v>
+        <v>5.1521</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.1521</v>
+        <v>5.1772</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>5.1772</v>
-      </c>
-      <c r="F9" s="6" t="n">
         <v>5.1696</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="F9" s="7" t="n">
         <v>5.1458</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="G9" s="7" t="n">
         <v>5.1458</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="H9" s="7" t="n">
         <v>5.1458</v>
       </c>
+      <c r="I9" s="7" t="n">
+        <v>5.1457</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6069</v>
+        <v>4.6231</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.6231</v>
+        <v>4.6398</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>4.6398</v>
-      </c>
-      <c r="O9" s="6" t="n">
         <v>4.6402</v>
       </c>
-      <c r="P9" s="6" t="n">
+      <c r="O9" s="7" t="n">
         <v>4.6199</v>
       </c>
-      <c r="Q9" s="6" t="n">
+      <c r="P9" s="7" t="n">
         <v>4.6199</v>
       </c>
-      <c r="R9" s="6" t="n">
+      <c r="Q9" s="7" t="n">
         <v>4.6199</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>4.6212</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>08-08</t>
+          <t>08-09</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>08-10</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>08-11</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>08-12</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>08-13</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>08-14</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>08-15</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>08-09</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>08-10</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>08-11</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>08-12</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>08-13</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>08-14</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>08-08</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>08-09</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>08-10</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>08-11</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>08-12</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>08-13</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>08-14</t>
+          <t>08-15</t>
         </is>
       </c>
     </row>
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>08-08</t>
+          <t>08-09</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>08-10</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>08-11</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>08-12</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>08-13</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>08-14</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>08-15</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>08-09</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>08-10</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>08-11</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>08-12</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>08-13</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>08-14</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>08-08</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>08-09</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>08-10</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>08-11</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>08-12</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>08-13</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>08-14</t>
+          <t>08-15</t>
         </is>
       </c>
     </row>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>08-09</t>
+          <t>08-10</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>08-11</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>08-12</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>08-13</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>08-14</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>08-15</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>08-16</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>08-10</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>08-11</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>08-12</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>08-13</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>08-14</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>08-15</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>08-09</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>08-10</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>08-11</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>08-12</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>08-13</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>08-14</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>08-15</t>
+          <t>08-16</t>
         </is>
       </c>
     </row>
@@ -592,51 +592,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4375</v>
+        <v>4.4586</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4586</v>
-      </c>
-      <c r="E5" s="6" t="n">
         <v>4.465</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="E5" s="7" t="n">
         <v>4.4547</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="F5" s="7" t="n">
         <v>4.4547</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="G5" s="7" t="n">
         <v>4.4547</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="H5" s="7" t="n">
         <v>4.4361</v>
       </c>
+      <c r="I5" s="6" t="n">
+        <v>4.4621</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0396</v>
-      </c>
-      <c r="M5" s="6" t="n">
         <v>4.0592</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="M5" s="7" t="n">
         <v>4.0521</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="N5" s="7" t="n">
         <v>4.0501</v>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="O5" s="7" t="n">
         <v>4.0501</v>
       </c>
-      <c r="Q5" s="6" t="n">
+      <c r="P5" s="7" t="n">
         <v>4.0501</v>
       </c>
+      <c r="Q5" s="7" t="n">
+        <v>4.0525</v>
+      </c>
       <c r="R5" s="6" t="n">
-        <v>4.0525</v>
+        <v>4.0832</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>08-09</t>
+          <t>08-10</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>08-11</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>08-12</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>08-13</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>08-14</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>08-15</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>08-16</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>08-10</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>08-11</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>08-12</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>08-13</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>08-14</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>08-15</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>08-09</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>08-10</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>08-11</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>08-12</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>08-13</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>08-14</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>08-15</t>
+          <t>08-16</t>
         </is>
       </c>
     </row>
@@ -740,13 +740,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1521</v>
-      </c>
-      <c r="D9" s="6" t="n">
         <v>5.1772</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="7" t="n">
         <v>5.1696</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>5.1458</v>
       </c>
       <c r="F9" s="7" t="n">
         <v>5.1458</v>
@@ -755,24 +755,24 @@
         <v>5.1458</v>
       </c>
       <c r="H9" s="7" t="n">
-        <v>5.1458</v>
-      </c>
-      <c r="I9" s="7" t="n">
         <v>5.1457</v>
       </c>
+      <c r="I9" s="6" t="n">
+        <v>5.2091</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6231</v>
+        <v>4.6398</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.6398</v>
-      </c>
-      <c r="N9" s="6" t="n">
         <v>4.6402</v>
+      </c>
+      <c r="N9" s="7" t="n">
+        <v>4.6199</v>
       </c>
       <c r="O9" s="7" t="n">
         <v>4.6199</v>
@@ -781,10 +781,10 @@
         <v>4.6199</v>
       </c>
       <c r="Q9" s="7" t="n">
-        <v>4.6199</v>
-      </c>
-      <c r="R9" s="7" t="n">
         <v>4.6212</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>4.6507</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>08-10</t>
+          <t>08-11</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>08-12</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>08-13</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>08-14</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>08-15</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>08-16</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>08-17</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>08-11</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>08-12</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>08-13</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>08-14</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>08-15</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>08-16</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>08-10</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>08-11</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>08-12</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>08-13</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>08-14</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>08-15</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>08-16</t>
+          <t>08-17</t>
         </is>
       </c>
     </row>
@@ -592,51 +592,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4586</v>
+        <v>4.465</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.465</v>
-      </c>
-      <c r="E5" s="7" t="n">
         <v>4.4547</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="E5" s="6" t="n">
         <v>4.4547</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="F5" s="6" t="n">
         <v>4.4547</v>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="G5" s="6" t="n">
         <v>4.4361</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="H5" s="6" t="n">
         <v>4.4621</v>
       </c>
+      <c r="I5" s="7" t="n">
+        <v>4.4681</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0592</v>
-      </c>
-      <c r="M5" s="7" t="n">
         <v>4.0521</v>
       </c>
-      <c r="N5" s="7" t="n">
+      <c r="M5" s="6" t="n">
         <v>4.0501</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="N5" s="6" t="n">
         <v>4.0501</v>
       </c>
+      <c r="O5" s="6" t="n">
+        <v>4.0501</v>
+      </c>
       <c r="P5" s="7" t="n">
-        <v>4.0501</v>
+        <v>4.0525</v>
       </c>
       <c r="Q5" s="7" t="n">
-        <v>4.0525</v>
-      </c>
-      <c r="R5" s="6" t="n">
         <v>4.0832</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>4.1094</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>08-10</t>
+          <t>08-11</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>08-12</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>08-13</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>08-14</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>08-15</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>08-16</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>08-17</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>08-11</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>08-12</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>08-13</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>08-14</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>08-15</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>08-16</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>08-10</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>08-11</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>08-12</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>08-13</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>08-14</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>08-15</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>08-16</t>
+          <t>08-17</t>
         </is>
       </c>
     </row>
@@ -740,51 +740,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1772</v>
-      </c>
-      <c r="D9" s="7" t="n">
         <v>5.1696</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="D9" s="6" t="n">
         <v>5.1458</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="E9" s="6" t="n">
         <v>5.1458</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="F9" s="6" t="n">
         <v>5.1458</v>
       </c>
+      <c r="G9" s="6" t="n">
+        <v>5.1457</v>
+      </c>
       <c r="H9" s="7" t="n">
-        <v>5.1457</v>
-      </c>
-      <c r="I9" s="6" t="n">
         <v>5.2091</v>
       </c>
+      <c r="I9" s="7" t="n">
+        <v>5.224</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6398</v>
+        <v>4.6402</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.6402</v>
-      </c>
-      <c r="N9" s="7" t="n">
         <v>4.6199</v>
       </c>
-      <c r="O9" s="7" t="n">
+      <c r="N9" s="6" t="n">
         <v>4.6199</v>
       </c>
-      <c r="P9" s="7" t="n">
+      <c r="O9" s="6" t="n">
         <v>4.6199</v>
       </c>
+      <c r="P9" s="6" t="n">
+        <v>4.6212</v>
+      </c>
       <c r="Q9" s="7" t="n">
-        <v>4.6212</v>
-      </c>
-      <c r="R9" s="6" t="n">
         <v>4.6507</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>4.673</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,17 +37,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -73,7 +68,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -89,9 +84,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -511,77 +503,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>08-11</t>
+          <t>08-15</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>08-12</t>
+          <t>08-16</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>08-13</t>
+          <t>08-17</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
-          <t>08-14</t>
+          <t>08-18</t>
         </is>
       </c>
       <c r="G4" s="5" t="inlineStr">
         <is>
+          <t>08-19</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>08-20</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>08-21</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>08-15</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>08-16</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>08-17</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>08-11</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>08-12</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>08-13</t>
-        </is>
-      </c>
       <c r="O4" s="5" t="inlineStr">
         <is>
-          <t>08-14</t>
+          <t>08-18</t>
         </is>
       </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
-          <t>08-15</t>
+          <t>08-19</t>
         </is>
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>08-16</t>
+          <t>08-20</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>08-17</t>
+          <t>08-21</t>
         </is>
       </c>
     </row>
@@ -592,25 +584,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.465</v>
+        <v>4.4361</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4547</v>
+        <v>4.4621</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.4547</v>
+        <v>4.4681</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.4547</v>
+        <v>4.4869</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.4361</v>
+        <v>4.4768</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.4621</v>
-      </c>
-      <c r="I5" s="7" t="n">
-        <v>4.4681</v>
+        <v>4.4768</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>4.4768</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +610,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0521</v>
+        <v>4.0525</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.0501</v>
+        <v>4.0832</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>4.0501</v>
+        <v>4.1094</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>4.0501</v>
-      </c>
-      <c r="P5" s="7" t="n">
-        <v>4.0525</v>
-      </c>
-      <c r="Q5" s="7" t="n">
-        <v>4.0832</v>
-      </c>
-      <c r="R5" s="7" t="n">
-        <v>4.1094</v>
+        <v>4.1285</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>4.1124</v>
+      </c>
+      <c r="Q5" s="6" t="n">
+        <v>4.1124</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>4.1124</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +651,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>08-11</t>
+          <t>08-15</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>08-12</t>
+          <t>08-16</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>08-13</t>
+          <t>08-17</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
-          <t>08-14</t>
+          <t>08-18</t>
         </is>
       </c>
       <c r="G8" s="5" t="inlineStr">
         <is>
+          <t>08-19</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>08-20</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>08-21</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>08-15</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>08-16</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>08-17</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>08-11</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>08-12</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>08-13</t>
-        </is>
-      </c>
       <c r="O8" s="5" t="inlineStr">
         <is>
-          <t>08-14</t>
+          <t>08-18</t>
         </is>
       </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
-          <t>08-15</t>
+          <t>08-19</t>
         </is>
       </c>
       <c r="Q8" s="5" t="inlineStr">
         <is>
-          <t>08-16</t>
+          <t>08-20</t>
         </is>
       </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>08-17</t>
+          <t>08-21</t>
         </is>
       </c>
     </row>
@@ -740,25 +732,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1696</v>
+        <v>5.1457</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.1458</v>
+        <v>5.2091</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>5.1458</v>
+        <v>5.224</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>5.1458</v>
+        <v>5.2515</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.1457</v>
-      </c>
-      <c r="H9" s="7" t="n">
-        <v>5.2091</v>
-      </c>
-      <c r="I9" s="7" t="n">
-        <v>5.224</v>
+        <v>5.2317</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>5.2317</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>5.2317</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,25 +758,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6402</v>
+        <v>4.6212</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.6199</v>
+        <v>4.6507</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>4.6199</v>
+        <v>4.673</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>4.6199</v>
+        <v>4.6897</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>4.6212</v>
-      </c>
-      <c r="Q9" s="7" t="n">
-        <v>4.6507</v>
-      </c>
-      <c r="R9" s="7" t="n">
-        <v>4.673</v>
+        <v>4.6718</v>
+      </c>
+      <c r="Q9" s="6" t="n">
+        <v>4.6718</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>4.6718</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -503,77 +503,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>08-15</t>
+          <t>08-16</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>08-17</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>08-18</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>08-19</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>08-20</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>08-21</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>08-22</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>08-16</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>08-17</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>08-18</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>08-19</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>08-20</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>08-21</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>08-15</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>08-16</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>08-17</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>08-18</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>08-19</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>08-20</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>08-21</t>
+          <t>08-22</t>
         </is>
       </c>
     </row>
@@ -584,16 +584,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4361</v>
+        <v>4.4621</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4621</v>
+        <v>4.4681</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.4681</v>
+        <v>4.4869</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.4869</v>
+        <v>4.4768</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>4.4768</v>
@@ -602,7 +602,7 @@
         <v>4.4768</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.4768</v>
+        <v>4.4648</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -610,16 +610,16 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0525</v>
+        <v>4.0832</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.0832</v>
+        <v>4.1094</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>4.1094</v>
+        <v>4.1285</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>4.1285</v>
+        <v>4.1124</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>4.1124</v>
@@ -628,7 +628,7 @@
         <v>4.1124</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>4.1124</v>
+        <v>4.0924</v>
       </c>
     </row>
     <row r="7">
@@ -651,77 +651,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>08-15</t>
+          <t>08-16</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>08-17</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>08-18</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>08-19</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>08-20</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>08-21</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>08-22</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>08-16</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>08-17</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>08-18</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>08-19</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>08-20</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>08-21</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>08-15</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>08-16</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>08-17</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>08-18</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>08-19</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>08-20</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>08-21</t>
+          <t>08-22</t>
         </is>
       </c>
     </row>
@@ -732,16 +732,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1457</v>
+        <v>5.2091</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.2091</v>
+        <v>5.224</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>5.224</v>
+        <v>5.2515</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>5.2515</v>
+        <v>5.2317</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>5.2317</v>
@@ -750,7 +750,7 @@
         <v>5.2317</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.2317</v>
+        <v>5.2306</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -758,16 +758,16 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6212</v>
+        <v>4.6507</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.6507</v>
+        <v>4.673</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>4.673</v>
+        <v>4.6897</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>4.6897</v>
+        <v>4.6718</v>
       </c>
       <c r="P9" s="6" t="n">
         <v>4.6718</v>
@@ -776,7 +776,7 @@
         <v>4.6718</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.6718</v>
+        <v>4.6632</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,7 +37,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0035FC03"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -68,7 +73,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -84,6 +89,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -503,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>08-16</t>
+          <t>08-17</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>08-18</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>08-19</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>08-20</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>08-21</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>08-22</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>08-23</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>08-17</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>08-18</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>08-19</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>08-20</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>08-21</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>08-22</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>08-16</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>08-17</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>08-18</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>08-19</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>08-20</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>08-21</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>08-22</t>
+          <t>08-23</t>
         </is>
       </c>
     </row>
@@ -584,13 +592,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4621</v>
+        <v>4.4681</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4681</v>
+        <v>4.4869</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.4869</v>
+        <v>4.4768</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>4.4768</v>
@@ -598,11 +606,11 @@
       <c r="G5" s="6" t="n">
         <v>4.4768</v>
       </c>
-      <c r="H5" s="6" t="n">
-        <v>4.4768</v>
+      <c r="H5" s="7" t="n">
+        <v>4.4648</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.4648</v>
+        <v>4.4834</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -610,13 +618,13 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0832</v>
+        <v>4.1094</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.1094</v>
+        <v>4.1285</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>4.1285</v>
+        <v>4.1124</v>
       </c>
       <c r="O5" s="6" t="n">
         <v>4.1124</v>
@@ -624,11 +632,11 @@
       <c r="P5" s="6" t="n">
         <v>4.1124</v>
       </c>
-      <c r="Q5" s="6" t="n">
-        <v>4.1124</v>
+      <c r="Q5" s="7" t="n">
+        <v>4.0924</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>4.0924</v>
+        <v>4.1438</v>
       </c>
     </row>
     <row r="7">
@@ -651,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>08-16</t>
+          <t>08-17</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>08-18</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>08-19</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>08-20</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>08-21</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>08-22</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>08-23</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>08-17</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>08-18</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>08-19</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>08-20</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>08-21</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>08-22</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>08-16</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>08-17</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>08-18</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>08-19</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>08-20</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>08-21</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>08-22</t>
+          <t>08-23</t>
         </is>
       </c>
     </row>
@@ -732,13 +740,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.2091</v>
+        <v>5.224</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.224</v>
+        <v>5.2515</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>5.2515</v>
+        <v>5.2317</v>
       </c>
       <c r="F9" s="6" t="n">
         <v>5.2317</v>
@@ -747,10 +755,10 @@
         <v>5.2317</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.2317</v>
+        <v>5.2306</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.2306</v>
+        <v>5.2539</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -758,25 +766,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6507</v>
+        <v>4.673</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.673</v>
-      </c>
-      <c r="N9" s="6" t="n">
         <v>4.6897</v>
       </c>
-      <c r="O9" s="6" t="n">
+      <c r="N9" s="7" t="n">
         <v>4.6718</v>
       </c>
-      <c r="P9" s="6" t="n">
+      <c r="O9" s="7" t="n">
         <v>4.6718</v>
       </c>
-      <c r="Q9" s="6" t="n">
+      <c r="P9" s="7" t="n">
         <v>4.6718</v>
       </c>
+      <c r="Q9" s="7" t="n">
+        <v>4.6632</v>
+      </c>
       <c r="R9" s="6" t="n">
-        <v>4.6632</v>
+        <v>4.7067</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>08-17</t>
+          <t>08-18</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>08-19</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>08-20</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>08-21</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>08-22</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>08-23</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>08-24</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>08-18</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>08-19</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>08-20</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>08-21</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>08-22</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>08-23</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>08-17</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>08-18</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>08-19</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>08-20</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>08-21</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>08-22</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>08-23</t>
+          <t>08-24</t>
         </is>
       </c>
     </row>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4681</v>
+        <v>4.4869</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4869</v>
+        <v>4.4768</v>
       </c>
       <c r="E5" s="6" t="n">
         <v>4.4768</v>
@@ -604,13 +604,13 @@
         <v>4.4768</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.4768</v>
-      </c>
-      <c r="H5" s="7" t="n">
         <v>4.4648</v>
       </c>
+      <c r="H5" s="6" t="n">
+        <v>4.4834</v>
+      </c>
       <c r="I5" s="6" t="n">
-        <v>4.4834</v>
+        <v>4.473</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,10 +618,10 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.1094</v>
+        <v>4.1285</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.1285</v>
+        <v>4.1124</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>4.1124</v>
@@ -630,13 +630,13 @@
         <v>4.1124</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>4.1124</v>
+        <v>4.0924</v>
       </c>
       <c r="Q5" s="7" t="n">
-        <v>4.0924</v>
+        <v>4.1438</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>4.1438</v>
+        <v>4.118</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>08-17</t>
+          <t>08-18</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>08-19</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>08-20</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>08-21</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>08-22</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>08-23</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>08-24</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>08-18</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>08-19</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>08-20</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>08-21</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>08-22</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>08-23</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>08-17</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>08-18</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>08-19</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>08-20</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>08-21</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>08-22</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>08-23</t>
+          <t>08-24</t>
         </is>
       </c>
     </row>
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.224</v>
+        <v>5.2515</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.2515</v>
+        <v>5.2317</v>
       </c>
       <c r="E9" s="6" t="n">
         <v>5.2317</v>
@@ -752,13 +752,13 @@
         <v>5.2317</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.2317</v>
-      </c>
-      <c r="H9" s="6" t="n">
         <v>5.2306</v>
       </c>
+      <c r="H9" s="7" t="n">
+        <v>5.2539</v>
+      </c>
       <c r="I9" s="6" t="n">
-        <v>5.2539</v>
+        <v>5.2291</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,25 +766,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.673</v>
+        <v>4.6897</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.6897</v>
-      </c>
-      <c r="N9" s="7" t="n">
         <v>4.6718</v>
       </c>
-      <c r="O9" s="7" t="n">
+      <c r="N9" s="6" t="n">
         <v>4.6718</v>
       </c>
-      <c r="P9" s="7" t="n">
+      <c r="O9" s="6" t="n">
         <v>4.6718</v>
       </c>
+      <c r="P9" s="6" t="n">
+        <v>4.6632</v>
+      </c>
       <c r="Q9" s="7" t="n">
-        <v>4.6632</v>
+        <v>4.7067</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.7067</v>
+        <v>4.683</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>08-18</t>
+          <t>08-21</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>08-19</t>
+          <t>08-22</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>08-20</t>
+          <t>08-23</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
+          <t>08-24</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>08-25</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>08-26</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>08-27</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>08-21</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>08-22</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>08-23</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>08-24</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>08-18</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>08-19</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>08-20</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>08-21</t>
-        </is>
-      </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
-          <t>08-22</t>
+          <t>08-25</t>
         </is>
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>08-23</t>
+          <t>08-26</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>08-24</t>
+          <t>08-27</t>
         </is>
       </c>
     </row>
@@ -592,25 +592,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4869</v>
+        <v>4.4768</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4768</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>4.4768</v>
+        <v>4.4648</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>4.4834</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.4768</v>
+        <v>4.473</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.4648</v>
+        <v>4.4674</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.4834</v>
+        <v>4.4674</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.473</v>
+        <v>4.4674</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +618,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.1285</v>
+        <v>4.1124</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.1124</v>
-      </c>
-      <c r="N5" s="6" t="n">
-        <v>4.1124</v>
-      </c>
-      <c r="O5" s="6" t="n">
-        <v>4.1124</v>
-      </c>
-      <c r="P5" s="6" t="n">
         <v>4.0924</v>
       </c>
+      <c r="N5" s="7" t="n">
+        <v>4.1438</v>
+      </c>
+      <c r="O5" s="7" t="n">
+        <v>4.118</v>
+      </c>
+      <c r="P5" s="7" t="n">
+        <v>4.1419</v>
+      </c>
       <c r="Q5" s="7" t="n">
-        <v>4.1438</v>
-      </c>
-      <c r="R5" s="6" t="n">
-        <v>4.118</v>
+        <v>4.1419</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>4.1419</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>08-18</t>
+          <t>08-21</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>08-19</t>
+          <t>08-22</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>08-20</t>
+          <t>08-23</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
+          <t>08-24</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>08-25</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>08-26</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>08-27</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>08-21</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>08-22</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>08-23</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>08-24</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>08-18</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>08-19</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>08-20</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>08-21</t>
-        </is>
-      </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
-          <t>08-22</t>
+          <t>08-25</t>
         </is>
       </c>
       <c r="Q8" s="5" t="inlineStr">
         <is>
-          <t>08-23</t>
+          <t>08-26</t>
         </is>
       </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>08-24</t>
+          <t>08-27</t>
         </is>
       </c>
     </row>
@@ -740,25 +740,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.2515</v>
+        <v>5.2317</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.2317</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>5.2317</v>
+        <v>5.2306</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>5.2539</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>5.2317</v>
+        <v>5.2291</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.2306</v>
-      </c>
-      <c r="H9" s="7" t="n">
-        <v>5.2539</v>
+        <v>5.2128</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>5.2128</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.2291</v>
+        <v>5.2128</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,25 +766,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6897</v>
+        <v>4.6718</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.6718</v>
-      </c>
-      <c r="N9" s="6" t="n">
-        <v>4.6718</v>
-      </c>
-      <c r="O9" s="6" t="n">
-        <v>4.6718</v>
-      </c>
-      <c r="P9" s="6" t="n">
         <v>4.6632</v>
       </c>
+      <c r="N9" s="7" t="n">
+        <v>4.7067</v>
+      </c>
+      <c r="O9" s="7" t="n">
+        <v>4.683</v>
+      </c>
+      <c r="P9" s="7" t="n">
+        <v>4.6767</v>
+      </c>
       <c r="Q9" s="7" t="n">
-        <v>4.7067</v>
-      </c>
-      <c r="R9" s="6" t="n">
-        <v>4.683</v>
+        <v>4.6767</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>4.6767</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>08-21</t>
+          <t>08-22</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>08-23</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>08-24</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>08-25</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>08-26</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>08-27</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>08-28</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>08-22</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>08-23</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>08-24</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>08-25</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>08-26</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>08-27</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>08-21</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>08-22</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>08-23</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>08-24</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>08-25</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>08-26</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>08-27</t>
+          <t>08-28</t>
         </is>
       </c>
     </row>
@@ -592,16 +592,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4768</v>
+        <v>4.4648</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4648</v>
-      </c>
-      <c r="E5" s="7" t="n">
         <v>4.4834</v>
       </c>
+      <c r="E5" s="6" t="n">
+        <v>4.473</v>
+      </c>
       <c r="F5" s="6" t="n">
-        <v>4.473</v>
+        <v>4.4674</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>4.4674</v>
@@ -610,7 +610,7 @@
         <v>4.4674</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.4674</v>
+        <v>4.4716</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +618,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.1124</v>
+        <v>4.0924</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.0924</v>
-      </c>
-      <c r="N5" s="7" t="n">
         <v>4.1438</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="N5" s="6" t="n">
         <v>4.118</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="O5" s="6" t="n">
         <v>4.1419</v>
       </c>
-      <c r="Q5" s="7" t="n">
+      <c r="P5" s="6" t="n">
         <v>4.1419</v>
       </c>
-      <c r="R5" s="7" t="n">
+      <c r="Q5" s="6" t="n">
         <v>4.1419</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>4.14</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>08-21</t>
+          <t>08-22</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>08-23</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>08-24</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>08-25</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>08-26</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>08-27</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>08-28</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>08-22</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>08-23</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>08-24</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>08-25</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>08-26</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>08-27</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>08-21</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>08-22</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>08-23</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>08-24</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>08-25</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>08-26</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>08-27</t>
+          <t>08-28</t>
         </is>
       </c>
     </row>
@@ -740,51 +740,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.2317</v>
+        <v>5.2306</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.2306</v>
+        <v>5.2539</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>5.2539</v>
-      </c>
-      <c r="F9" s="6" t="n">
         <v>5.2291</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="F9" s="7" t="n">
         <v>5.2128</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="G9" s="7" t="n">
         <v>5.2128</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="H9" s="7" t="n">
         <v>5.2128</v>
       </c>
+      <c r="I9" s="7" t="n">
+        <v>5.2065</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6718</v>
+        <v>4.6632</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.6632</v>
-      </c>
-      <c r="N9" s="7" t="n">
         <v>4.7067</v>
       </c>
-      <c r="O9" s="7" t="n">
+      <c r="N9" s="6" t="n">
         <v>4.683</v>
       </c>
-      <c r="P9" s="7" t="n">
+      <c r="O9" s="6" t="n">
         <v>4.6767</v>
       </c>
-      <c r="Q9" s="7" t="n">
+      <c r="P9" s="6" t="n">
         <v>4.6767</v>
       </c>
-      <c r="R9" s="7" t="n">
+      <c r="Q9" s="6" t="n">
         <v>4.6767</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>4.6821</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,17 +37,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -73,7 +68,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -89,9 +84,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -511,77 +503,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>08-22</t>
+          <t>08-23</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>08-24</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>08-25</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>08-26</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>08-27</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>08-28</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>08-29</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>08-23</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>08-24</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>08-25</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>08-26</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>08-27</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>08-28</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>08-22</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>08-23</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>08-24</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>08-25</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>08-26</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>08-27</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>08-28</t>
+          <t>08-29</t>
         </is>
       </c>
     </row>
@@ -592,13 +584,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4648</v>
+        <v>4.4834</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4834</v>
+        <v>4.473</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.473</v>
+        <v>4.4674</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>4.4674</v>
@@ -607,10 +599,10 @@
         <v>4.4674</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.4674</v>
+        <v>4.4716</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.4716</v>
+        <v>4.469</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,13 +610,13 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0924</v>
+        <v>4.1438</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.1438</v>
+        <v>4.118</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>4.118</v>
+        <v>4.1419</v>
       </c>
       <c r="O5" s="6" t="n">
         <v>4.1419</v>
@@ -633,10 +625,10 @@
         <v>4.1419</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>4.1419</v>
+        <v>4.14</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>4.14</v>
+        <v>4.1341</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +651,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>08-22</t>
+          <t>08-23</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>08-24</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>08-25</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>08-26</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>08-27</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>08-28</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>08-29</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>08-23</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>08-24</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>08-25</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>08-26</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>08-27</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>08-28</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>08-22</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>08-23</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>08-24</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>08-25</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>08-26</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>08-27</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>08-28</t>
+          <t>08-29</t>
         </is>
       </c>
     </row>
@@ -740,39 +732,39 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.2306</v>
+        <v>5.2539</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.2539</v>
-      </c>
-      <c r="E9" s="7" t="n">
         <v>5.2291</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="E9" s="6" t="n">
         <v>5.2128</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="F9" s="6" t="n">
         <v>5.2128</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="G9" s="6" t="n">
         <v>5.2128</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="H9" s="6" t="n">
         <v>5.2065</v>
       </c>
+      <c r="I9" s="6" t="n">
+        <v>5.2132</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6632</v>
+        <v>4.7067</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.7067</v>
+        <v>4.683</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>4.683</v>
+        <v>4.6767</v>
       </c>
       <c r="O9" s="6" t="n">
         <v>4.6767</v>
@@ -781,10 +773,10 @@
         <v>4.6767</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.6767</v>
+        <v>4.6821</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.6821</v>
+        <v>4.6725</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,7 +37,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FC2C03"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
   </fills>
@@ -68,7 +73,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -84,6 +89,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -503,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>08-23</t>
+          <t>08-24</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>08-25</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>08-26</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>08-27</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>08-28</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>08-29</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>08-30</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>08-24</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>08-25</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>08-26</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>08-27</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>08-28</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>08-29</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>08-23</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>08-24</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>08-25</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>08-26</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>08-27</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>08-28</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>08-29</t>
+          <t>08-30</t>
         </is>
       </c>
     </row>
@@ -584,10 +592,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4834</v>
+        <v>4.473</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.473</v>
+        <v>4.4674</v>
       </c>
       <c r="E5" s="6" t="n">
         <v>4.4674</v>
@@ -596,39 +604,39 @@
         <v>4.4674</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.4674</v>
+        <v>4.4716</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.4716</v>
-      </c>
-      <c r="I5" s="6" t="n">
         <v>4.469</v>
       </c>
+      <c r="I5" s="7" t="n">
+        <v>4.474</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.1438</v>
-      </c>
-      <c r="M5" s="6" t="n">
         <v>4.118</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="M5" s="7" t="n">
         <v>4.1419</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="N5" s="7" t="n">
         <v>4.1419</v>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="O5" s="7" t="n">
         <v>4.1419</v>
       </c>
-      <c r="Q5" s="6" t="n">
+      <c r="P5" s="7" t="n">
         <v>4.14</v>
       </c>
+      <c r="Q5" s="7" t="n">
+        <v>4.1341</v>
+      </c>
       <c r="R5" s="6" t="n">
-        <v>4.1341</v>
+        <v>4.1167</v>
       </c>
     </row>
     <row r="7">
@@ -651,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>08-23</t>
+          <t>08-24</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>08-25</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>08-26</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>08-27</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>08-28</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>08-29</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>08-30</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>08-24</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>08-25</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>08-26</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>08-27</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>08-28</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>08-29</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>08-23</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>08-24</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>08-25</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>08-26</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>08-27</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>08-28</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>08-29</t>
+          <t>08-30</t>
         </is>
       </c>
     </row>
@@ -732,10 +740,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.2539</v>
+        <v>5.2291</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.2291</v>
+        <v>5.2128</v>
       </c>
       <c r="E9" s="6" t="n">
         <v>5.2128</v>
@@ -744,13 +752,13 @@
         <v>5.2128</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.2128</v>
+        <v>5.2065</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.2065</v>
+        <v>5.2132</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.2132</v>
+        <v>5.2023</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -758,10 +766,10 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.7067</v>
+        <v>4.683</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.683</v>
+        <v>4.6767</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>4.6767</v>
@@ -770,13 +778,13 @@
         <v>4.6767</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>4.6767</v>
+        <v>4.6821</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.6821</v>
+        <v>4.6725</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.6725</v>
+        <v>4.6807</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>08-24</t>
+          <t>08-25</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>08-26</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>08-27</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>08-28</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>08-29</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>08-30</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>08-31</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>08-25</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>08-26</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>08-27</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>08-28</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>08-29</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>08-30</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>08-24</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>08-25</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>08-26</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>08-27</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>08-28</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>08-29</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>08-30</t>
+          <t>08-31</t>
         </is>
       </c>
     </row>
@@ -592,51 +592,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.473</v>
-      </c>
-      <c r="D5" s="6" t="n">
         <v>4.4674</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="D5" s="5" t="n">
         <v>4.4674</v>
       </c>
+      <c r="E5" s="5" t="n">
+        <v>4.4674</v>
+      </c>
       <c r="F5" s="6" t="n">
-        <v>4.4674</v>
+        <v>4.4716</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.4716</v>
+        <v>4.469</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.469</v>
-      </c>
-      <c r="I5" s="7" t="n">
         <v>4.474</v>
       </c>
+      <c r="I5" s="6" t="n">
+        <v>4.4684</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.118</v>
-      </c>
-      <c r="M5" s="7" t="n">
         <v>4.1419</v>
       </c>
-      <c r="N5" s="7" t="n">
+      <c r="M5" s="5" t="n">
         <v>4.1419</v>
       </c>
+      <c r="N5" s="5" t="n">
+        <v>4.1419</v>
+      </c>
       <c r="O5" s="7" t="n">
-        <v>4.1419</v>
+        <v>4.14</v>
       </c>
       <c r="P5" s="7" t="n">
-        <v>4.14</v>
+        <v>4.1341</v>
       </c>
       <c r="Q5" s="7" t="n">
-        <v>4.1341</v>
-      </c>
-      <c r="R5" s="6" t="n">
         <v>4.1167</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>4.1074</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>08-24</t>
+          <t>08-25</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>08-26</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>08-27</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>08-28</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>08-29</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>08-30</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>08-31</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>08-25</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>08-26</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>08-27</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>08-28</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>08-29</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>08-30</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>08-24</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>08-25</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>08-26</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>08-27</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>08-28</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>08-29</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>08-30</t>
+          <t>08-31</t>
         </is>
       </c>
     </row>
@@ -740,25 +740,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.2291</v>
-      </c>
-      <c r="D9" s="6" t="n">
         <v>5.2128</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="5" t="n">
         <v>5.2128</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="E9" s="5" t="n">
         <v>5.2128</v>
       </c>
+      <c r="F9" s="7" t="n">
+        <v>5.2065</v>
+      </c>
       <c r="G9" s="6" t="n">
-        <v>5.2065</v>
-      </c>
-      <c r="H9" s="6" t="n">
         <v>5.2132</v>
       </c>
+      <c r="H9" s="7" t="n">
+        <v>5.2023</v>
+      </c>
       <c r="I9" s="6" t="n">
-        <v>5.2023</v>
+        <v>5.2158</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,25 +766,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.683</v>
-      </c>
-      <c r="M9" s="6" t="n">
         <v>4.6767</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="M9" s="5" t="n">
         <v>4.6767</v>
       </c>
+      <c r="N9" s="5" t="n">
+        <v>4.6767</v>
+      </c>
       <c r="O9" s="6" t="n">
-        <v>4.6767</v>
-      </c>
-      <c r="P9" s="6" t="n">
         <v>4.6821</v>
       </c>
+      <c r="P9" s="7" t="n">
+        <v>4.6725</v>
+      </c>
       <c r="Q9" s="6" t="n">
-        <v>4.6725</v>
-      </c>
-      <c r="R9" s="6" t="n">
         <v>4.6807</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>4.6636</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>08-25</t>
+          <t>08-28</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>08-26</t>
+          <t>08-29</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>08-27</t>
+          <t>08-30</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
+          <t>08-31</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>09-01</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>09-02</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>09-03</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>08-28</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>08-29</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>08-30</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>08-31</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>08-25</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>08-26</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>08-27</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>08-28</t>
-        </is>
-      </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
-          <t>08-29</t>
+          <t>09-01</t>
         </is>
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>08-30</t>
+          <t>09-02</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>08-31</t>
+          <t>09-03</t>
         </is>
       </c>
     </row>
@@ -592,51 +592,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4674</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>4.4674</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>4.4674</v>
+        <v>4.4716</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>4.469</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>4.474</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.4716</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>4.469</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>4.474</v>
-      </c>
-      <c r="I5" s="6" t="n">
         <v>4.4684</v>
       </c>
+      <c r="G5" s="7" t="n">
+        <v>4.4762</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <v>4.4762</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <v>4.4762</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.1419</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>4.1419</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>4.1419</v>
-      </c>
-      <c r="O5" s="7" t="n">
         <v>4.14</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="M5" s="6" t="n">
         <v>4.1341</v>
       </c>
-      <c r="Q5" s="7" t="n">
+      <c r="N5" s="6" t="n">
         <v>4.1167</v>
       </c>
-      <c r="R5" s="7" t="n">
+      <c r="O5" s="6" t="n">
         <v>4.1074</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>4.1263</v>
+      </c>
+      <c r="Q5" s="6" t="n">
+        <v>4.1263</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>4.1263</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>08-25</t>
+          <t>08-28</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>08-26</t>
+          <t>08-29</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>08-27</t>
+          <t>08-30</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
+          <t>08-31</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>09-01</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>09-02</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>09-03</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>08-28</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>08-29</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>08-30</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>08-31</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>08-25</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>08-26</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>08-27</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>08-28</t>
-        </is>
-      </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
-          <t>08-29</t>
+          <t>09-01</t>
         </is>
       </c>
       <c r="Q8" s="5" t="inlineStr">
         <is>
-          <t>08-30</t>
+          <t>09-02</t>
         </is>
       </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>08-31</t>
+          <t>09-03</t>
         </is>
       </c>
     </row>
@@ -740,25 +740,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.2128</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>5.2128</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>5.2128</v>
+        <v>5.2065</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>5.2132</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>5.2023</v>
       </c>
       <c r="F9" s="7" t="n">
-        <v>5.2065</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>5.2132</v>
+        <v>5.2158</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>5.2301</v>
       </c>
       <c r="H9" s="7" t="n">
-        <v>5.2023</v>
-      </c>
-      <c r="I9" s="6" t="n">
-        <v>5.2158</v>
+        <v>5.2301</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <v>5.2301</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,25 +766,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6767</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>4.6767</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>4.6767</v>
+        <v>4.6821</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>4.6725</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>4.6807</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>4.6821</v>
-      </c>
-      <c r="P9" s="7" t="n">
-        <v>4.6725</v>
+        <v>4.6636</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>4.6742</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.6807</v>
-      </c>
-      <c r="R9" s="7" t="n">
-        <v>4.6636</v>
+        <v>4.6742</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>4.6742</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>08-28</t>
+          <t>08-29</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>08-30</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>08-31</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>09-01</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>09-02</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>09-03</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>09-04</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>08-29</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>08-30</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>08-31</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>09-01</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>09-02</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>09-03</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>08-28</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>08-29</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>08-30</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>08-31</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>09-01</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>09-02</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>09-03</t>
+          <t>09-04</t>
         </is>
       </c>
     </row>
@@ -592,25 +592,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4716</v>
+        <v>4.469</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.469</v>
+        <v>4.474</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>4.474</v>
+        <v>4.4684</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.4684</v>
-      </c>
-      <c r="G5" s="7" t="n">
         <v>4.4762</v>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="G5" s="6" t="n">
         <v>4.4762</v>
       </c>
+      <c r="H5" s="6" t="n">
+        <v>4.4762</v>
+      </c>
       <c r="I5" s="7" t="n">
-        <v>4.4762</v>
+        <v>4.4653</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +618,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="M5" s="6" t="n">
         <v>4.1341</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="M5" s="7" t="n">
         <v>4.1167</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="N5" s="7" t="n">
         <v>4.1074</v>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="O5" s="7" t="n">
         <v>4.1263</v>
       </c>
-      <c r="Q5" s="6" t="n">
+      <c r="P5" s="7" t="n">
         <v>4.1263</v>
       </c>
+      <c r="Q5" s="7" t="n">
+        <v>4.1263</v>
+      </c>
       <c r="R5" s="6" t="n">
-        <v>4.1263</v>
+        <v>4.1353</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>08-28</t>
+          <t>08-29</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>08-30</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>08-31</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>09-01</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>09-02</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>09-03</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>09-04</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>08-29</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>08-30</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>08-31</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>09-01</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>09-02</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>09-03</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>08-28</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>08-29</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>08-30</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>08-31</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>09-01</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>09-02</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>09-03</t>
+          <t>09-04</t>
         </is>
       </c>
     </row>
@@ -740,42 +740,42 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.2065</v>
+        <v>5.2132</v>
       </c>
       <c r="D9" s="7" t="n">
-        <v>5.2132</v>
+        <v>5.2023</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>5.2023</v>
-      </c>
-      <c r="F9" s="7" t="n">
         <v>5.2158</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="F9" s="6" t="n">
         <v>5.2301</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="G9" s="6" t="n">
         <v>5.2301</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="H9" s="6" t="n">
         <v>5.2301</v>
       </c>
+      <c r="I9" s="6" t="n">
+        <v>5.2241</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6821</v>
+        <v>4.6725</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.6725</v>
-      </c>
-      <c r="N9" s="6" t="n">
         <v>4.6807</v>
       </c>
+      <c r="N9" s="7" t="n">
+        <v>4.6636</v>
+      </c>
       <c r="O9" s="6" t="n">
-        <v>4.6636</v>
+        <v>4.6742</v>
       </c>
       <c r="P9" s="6" t="n">
         <v>4.6742</v>
@@ -784,7 +784,7 @@
         <v>4.6742</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.6742</v>
+        <v>4.6767</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>08-29</t>
+          <t>08-30</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>08-31</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>09-01</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>09-02</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>09-03</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>09-04</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>09-05</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>08-30</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>08-31</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>09-01</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>09-02</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>09-03</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>09-04</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>08-29</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>08-30</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>08-31</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>09-01</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>09-02</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>09-03</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>09-04</t>
+          <t>09-05</t>
         </is>
       </c>
     </row>
@@ -592,25 +592,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.469</v>
+        <v>4.474</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.474</v>
+        <v>4.4684</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>4.4684</v>
-      </c>
-      <c r="F5" s="6" t="n">
         <v>4.4762</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="F5" s="7" t="n">
         <v>4.4762</v>
       </c>
+      <c r="G5" s="7" t="n">
+        <v>4.4762</v>
+      </c>
       <c r="H5" s="6" t="n">
-        <v>4.4762</v>
+        <v>4.4653</v>
       </c>
       <c r="I5" s="7" t="n">
-        <v>4.4653</v>
+        <v>4.4764</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.1341</v>
-      </c>
-      <c r="M5" s="7" t="n">
         <v>4.1167</v>
       </c>
+      <c r="M5" s="6" t="n">
+        <v>4.1074</v>
+      </c>
       <c r="N5" s="7" t="n">
-        <v>4.1074</v>
+        <v>4.1263</v>
       </c>
       <c r="O5" s="7" t="n">
         <v>4.1263</v>
@@ -633,10 +633,10 @@
         <v>4.1263</v>
       </c>
       <c r="Q5" s="7" t="n">
-        <v>4.1263</v>
-      </c>
-      <c r="R5" s="6" t="n">
         <v>4.1353</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>4.1643</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>08-29</t>
+          <t>08-30</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>08-31</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>09-01</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>09-02</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>09-03</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>09-04</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>09-05</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>08-30</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>08-31</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>09-01</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>09-02</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>09-03</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>09-04</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>08-29</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>08-30</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>08-31</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>09-01</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>09-02</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>09-03</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>09-04</t>
+          <t>09-05</t>
         </is>
       </c>
     </row>
@@ -740,39 +740,39 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.2132</v>
+        <v>5.2023</v>
       </c>
       <c r="D9" s="7" t="n">
-        <v>5.2023</v>
-      </c>
-      <c r="E9" s="6" t="n">
         <v>5.2158</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="E9" s="7" t="n">
         <v>5.2301</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="F9" s="7" t="n">
         <v>5.2301</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="G9" s="7" t="n">
         <v>5.2301</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="H9" s="7" t="n">
         <v>5.2241</v>
       </c>
+      <c r="I9" s="7" t="n">
+        <v>5.2203</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6725</v>
+        <v>4.6807</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.6807</v>
-      </c>
-      <c r="N9" s="7" t="n">
         <v>4.6636</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>4.6742</v>
       </c>
       <c r="O9" s="6" t="n">
         <v>4.6742</v>
@@ -781,10 +781,10 @@
         <v>4.6742</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.6742</v>
-      </c>
-      <c r="R9" s="6" t="n">
         <v>4.6767</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>4.691</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>08-30</t>
+          <t>08-31</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>09-01</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>09-02</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>09-03</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>09-04</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>09-05</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>09-06</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>08-31</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>09-01</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>09-02</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>09-03</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>09-04</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>09-05</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>08-30</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>08-31</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>09-01</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>09-02</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>09-03</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>09-04</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>09-05</t>
+          <t>09-06</t>
         </is>
       </c>
     </row>
@@ -592,51 +592,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.474</v>
+        <v>4.4684</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4684</v>
-      </c>
-      <c r="E5" s="7" t="n">
         <v>4.4762</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="E5" s="6" t="n">
         <v>4.4762</v>
       </c>
+      <c r="F5" s="6" t="n">
+        <v>4.4762</v>
+      </c>
       <c r="G5" s="7" t="n">
-        <v>4.4762</v>
+        <v>4.4653</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.4653</v>
-      </c>
-      <c r="I5" s="7" t="n">
         <v>4.4764</v>
       </c>
+      <c r="I5" s="6" t="n">
+        <v>4.4974</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.1167</v>
+        <v>4.1074</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.1074</v>
-      </c>
-      <c r="N5" s="7" t="n">
         <v>4.1263</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="N5" s="6" t="n">
         <v>4.1263</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="O5" s="6" t="n">
         <v>4.1263</v>
       </c>
-      <c r="Q5" s="7" t="n">
+      <c r="P5" s="6" t="n">
         <v>4.1353</v>
       </c>
-      <c r="R5" s="7" t="n">
+      <c r="Q5" s="6" t="n">
         <v>4.1643</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>4.1895</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>08-30</t>
+          <t>08-31</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>09-01</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>09-02</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>09-03</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>09-04</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>09-05</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>09-06</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>08-31</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>09-01</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>09-02</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>09-03</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>09-04</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>09-05</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>08-30</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>08-31</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>09-01</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>09-02</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>09-03</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>09-04</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>09-05</t>
+          <t>09-06</t>
         </is>
       </c>
     </row>
@@ -740,36 +740,36 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.2023</v>
-      </c>
-      <c r="D9" s="7" t="n">
         <v>5.2158</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="D9" s="6" t="n">
         <v>5.2301</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="E9" s="6" t="n">
         <v>5.2301</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="F9" s="6" t="n">
         <v>5.2301</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="G9" s="6" t="n">
         <v>5.2241</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="H9" s="6" t="n">
         <v>5.2203</v>
       </c>
+      <c r="I9" s="6" t="n">
+        <v>5.2626</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6807</v>
+        <v>4.6636</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.6636</v>
+        <v>4.6742</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>4.6742</v>
@@ -778,13 +778,13 @@
         <v>4.6742</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>4.6742</v>
+        <v>4.6767</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.6767</v>
-      </c>
-      <c r="R9" s="7" t="n">
         <v>4.691</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>4.7086</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>08-31</t>
+          <t>09-01</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>09-02</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>09-03</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>09-04</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>09-05</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>09-06</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>09-07</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>09-01</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>09-02</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>09-03</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>09-04</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>09-05</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>09-06</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>08-31</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>09-01</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>09-02</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>09-03</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>09-04</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>09-05</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>09-06</t>
+          <t>09-07</t>
         </is>
       </c>
     </row>
@@ -592,51 +592,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4684</v>
-      </c>
-      <c r="D5" s="6" t="n">
         <v>4.4762</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="D5" s="5" t="n">
         <v>4.4762</v>
       </c>
+      <c r="E5" s="5" t="n">
+        <v>4.4762</v>
+      </c>
       <c r="F5" s="6" t="n">
-        <v>4.4762</v>
+        <v>4.4653</v>
       </c>
       <c r="G5" s="7" t="n">
-        <v>4.4653</v>
-      </c>
-      <c r="H5" s="6" t="n">
         <v>4.4764</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="H5" s="7" t="n">
         <v>4.4974</v>
       </c>
+      <c r="I5" s="7" t="n">
+        <v>4.594</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.1074</v>
-      </c>
-      <c r="M5" s="6" t="n">
         <v>4.1263</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="M5" s="5" t="n">
         <v>4.1263</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="N5" s="5" t="n">
         <v>4.1263</v>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="O5" s="7" t="n">
         <v>4.1353</v>
       </c>
-      <c r="Q5" s="6" t="n">
+      <c r="P5" s="7" t="n">
         <v>4.1643</v>
       </c>
-      <c r="R5" s="6" t="n">
+      <c r="Q5" s="7" t="n">
         <v>4.1895</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>4.289</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>08-31</t>
+          <t>09-01</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>09-02</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>09-03</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>09-04</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>09-05</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>09-06</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>09-07</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>09-01</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>09-02</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>09-03</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>09-04</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>09-05</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>09-06</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>08-31</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>09-01</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>09-02</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>09-03</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>09-04</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>09-05</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>09-06</t>
+          <t>09-07</t>
         </is>
       </c>
     </row>
@@ -740,51 +740,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.2158</v>
-      </c>
-      <c r="D9" s="6" t="n">
         <v>5.2301</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="5" t="n">
         <v>5.2301</v>
       </c>
+      <c r="E9" s="5" t="n">
+        <v>5.2301</v>
+      </c>
       <c r="F9" s="6" t="n">
-        <v>5.2301</v>
+        <v>5.2241</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.2241</v>
-      </c>
-      <c r="H9" s="6" t="n">
         <v>5.2203</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="H9" s="7" t="n">
         <v>5.2626</v>
       </c>
+      <c r="I9" s="7" t="n">
+        <v>5.3518</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6636</v>
-      </c>
-      <c r="M9" s="6" t="n">
         <v>4.6742</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="M9" s="5" t="n">
         <v>4.6742</v>
       </c>
-      <c r="O9" s="6" t="n">
+      <c r="N9" s="5" t="n">
         <v>4.6742</v>
       </c>
-      <c r="P9" s="6" t="n">
+      <c r="O9" s="7" t="n">
         <v>4.6767</v>
       </c>
-      <c r="Q9" s="6" t="n">
+      <c r="P9" s="7" t="n">
         <v>4.691</v>
       </c>
-      <c r="R9" s="6" t="n">
+      <c r="Q9" s="7" t="n">
         <v>4.7086</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>4.8067</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>09-01</t>
+          <t>09-04</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>09-02</t>
+          <t>09-05</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>09-03</t>
+          <t>09-06</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
+          <t>09-07</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>09-08</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>09-09</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>09-10</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>09-04</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>09-05</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>09-06</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>09-07</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>09-01</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>09-02</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>09-03</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>09-04</t>
-        </is>
-      </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
-          <t>09-05</t>
+          <t>09-08</t>
         </is>
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>09-06</t>
+          <t>09-09</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>09-07</t>
+          <t>09-10</t>
         </is>
       </c>
     </row>
@@ -592,51 +592,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4762</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>4.4762</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>4.4762</v>
+        <v>4.4653</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>4.4764</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>4.4974</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.4653</v>
-      </c>
-      <c r="G5" s="7" t="n">
-        <v>4.4764</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <v>4.4974</v>
-      </c>
-      <c r="I5" s="7" t="n">
         <v>4.594</v>
       </c>
+      <c r="G5" s="6" t="n">
+        <v>4.6019</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>4.6019</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>4.6019</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.1263</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>4.1263</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>4.1263</v>
-      </c>
-      <c r="O5" s="7" t="n">
         <v>4.1353</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="M5" s="6" t="n">
         <v>4.1643</v>
       </c>
-      <c r="Q5" s="7" t="n">
+      <c r="N5" s="6" t="n">
         <v>4.1895</v>
       </c>
-      <c r="R5" s="7" t="n">
+      <c r="O5" s="6" t="n">
         <v>4.289</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>4.2958</v>
+      </c>
+      <c r="Q5" s="6" t="n">
+        <v>4.2958</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>4.2958</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>09-01</t>
+          <t>09-04</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>09-02</t>
+          <t>09-05</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>09-03</t>
+          <t>09-06</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
+          <t>09-07</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>09-08</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>09-09</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>09-10</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>09-04</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>09-05</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>09-06</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>09-07</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>09-01</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>09-02</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>09-03</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>09-04</t>
-        </is>
-      </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
-          <t>09-05</t>
+          <t>09-08</t>
         </is>
       </c>
       <c r="Q8" s="5" t="inlineStr">
         <is>
-          <t>09-06</t>
+          <t>09-09</t>
         </is>
       </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>09-07</t>
+          <t>09-10</t>
         </is>
       </c>
     </row>
@@ -740,25 +740,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.2301</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>5.2301</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>5.2301</v>
+        <v>5.2241</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>5.2203</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>5.2626</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>5.2241</v>
+        <v>5.3518</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.2203</v>
-      </c>
-      <c r="H9" s="7" t="n">
-        <v>5.2626</v>
-      </c>
-      <c r="I9" s="7" t="n">
-        <v>5.3518</v>
+        <v>5.3645</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>5.3645</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>5.3645</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,25 +766,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6742</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>4.6742</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>4.6742</v>
-      </c>
-      <c r="O9" s="7" t="n">
         <v>4.6767</v>
       </c>
-      <c r="P9" s="7" t="n">
+      <c r="M9" s="6" t="n">
         <v>4.691</v>
       </c>
-      <c r="Q9" s="7" t="n">
+      <c r="N9" s="6" t="n">
         <v>4.7086</v>
       </c>
-      <c r="R9" s="7" t="n">
+      <c r="O9" s="6" t="n">
         <v>4.8067</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>4.8225</v>
+      </c>
+      <c r="Q9" s="6" t="n">
+        <v>4.8225</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>4.8225</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,7 +37,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -47,11 +47,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0035FC03"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -73,7 +68,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -89,9 +84,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -511,77 +503,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>09-04</t>
+          <t>09-05</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>09-06</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>09-07</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>09-08</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>09-09</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>09-10</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>09-11</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>09-05</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>09-06</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>09-07</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>09-08</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>09-09</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>09-10</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>09-04</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>09-05</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>09-06</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>09-07</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>09-08</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>09-09</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>09-10</t>
+          <t>09-11</t>
         </is>
       </c>
     </row>
@@ -592,16 +584,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4653</v>
+        <v>4.4764</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4764</v>
+        <v>4.4974</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.4974</v>
+        <v>4.594</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.594</v>
+        <v>4.6019</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>4.6019</v>
@@ -610,7 +602,7 @@
         <v>4.6019</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.6019</v>
+        <v>4.6209</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,16 +610,16 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.1353</v>
+        <v>4.1643</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.1643</v>
+        <v>4.1895</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>4.1895</v>
+        <v>4.289</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>4.289</v>
+        <v>4.2958</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>4.2958</v>
@@ -636,7 +628,7 @@
         <v>4.2958</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>4.2958</v>
+        <v>4.3077</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +651,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>09-04</t>
+          <t>09-05</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>09-06</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>09-07</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>09-08</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>09-09</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>09-10</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>09-11</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>09-05</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>09-06</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>09-07</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>09-08</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>09-09</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>09-10</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>09-04</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>09-05</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>09-06</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>09-07</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>09-08</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>09-09</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>09-10</t>
+          <t>09-11</t>
         </is>
       </c>
     </row>
@@ -740,16 +732,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.2241</v>
-      </c>
-      <c r="D9" s="7" t="n">
         <v>5.2203</v>
       </c>
+      <c r="D9" s="6" t="n">
+        <v>5.2626</v>
+      </c>
       <c r="E9" s="6" t="n">
-        <v>5.2626</v>
+        <v>5.3518</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>5.3518</v>
+        <v>5.3645</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>5.3645</v>
@@ -758,7 +750,7 @@
         <v>5.3645</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.3645</v>
+        <v>5.3926</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,16 +758,16 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6767</v>
+        <v>4.691</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.691</v>
+        <v>4.7086</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>4.7086</v>
+        <v>4.8067</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>4.8067</v>
+        <v>4.8225</v>
       </c>
       <c r="P9" s="6" t="n">
         <v>4.8225</v>
@@ -784,7 +776,7 @@
         <v>4.8225</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.8225</v>
+        <v>4.8313</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -503,77 +503,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>09-05</t>
+          <t>09-06</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>09-07</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>09-08</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>09-09</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>09-10</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>09-11</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>09-12</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>09-06</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>09-07</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>09-08</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>09-09</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>09-10</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>09-11</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>09-05</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>09-06</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>09-07</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>09-08</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>09-09</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>09-10</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>09-11</t>
+          <t>09-12</t>
         </is>
       </c>
     </row>
@@ -584,13 +584,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4764</v>
+        <v>4.4974</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4974</v>
+        <v>4.594</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.594</v>
+        <v>4.6019</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>4.6019</v>
@@ -599,10 +599,10 @@
         <v>4.6019</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.6019</v>
+        <v>4.6209</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.6209</v>
+        <v>4.6836</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -610,13 +610,13 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.1643</v>
+        <v>4.1895</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.1895</v>
+        <v>4.289</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>4.289</v>
+        <v>4.2958</v>
       </c>
       <c r="O5" s="6" t="n">
         <v>4.2958</v>
@@ -625,10 +625,10 @@
         <v>4.2958</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>4.2958</v>
+        <v>4.3077</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>4.3077</v>
+        <v>4.3711</v>
       </c>
     </row>
     <row r="7">
@@ -651,77 +651,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>09-05</t>
+          <t>09-06</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>09-07</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>09-08</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>09-09</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>09-10</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>09-11</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>09-12</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>09-06</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>09-07</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>09-08</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>09-09</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>09-10</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>09-11</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>09-05</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>09-06</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>09-07</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>09-08</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>09-09</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>09-10</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>09-11</t>
+          <t>09-12</t>
         </is>
       </c>
     </row>
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.2203</v>
+        <v>5.2626</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.2626</v>
+        <v>5.3518</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>5.3518</v>
+        <v>5.3645</v>
       </c>
       <c r="F9" s="6" t="n">
         <v>5.3645</v>
@@ -747,10 +747,10 @@
         <v>5.3645</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.3645</v>
+        <v>5.3926</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.3926</v>
+        <v>5.4495</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.691</v>
+        <v>4.7086</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.7086</v>
+        <v>4.8067</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>4.8067</v>
+        <v>4.8225</v>
       </c>
       <c r="O9" s="6" t="n">
         <v>4.8225</v>
@@ -773,10 +773,10 @@
         <v>4.8225</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.8225</v>
+        <v>4.8313</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.8313</v>
+        <v>4.9015</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -503,77 +503,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>09-06</t>
+          <t>09-07</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>09-08</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>09-09</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>09-10</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>09-11</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>09-12</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>09-13</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>09-07</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>09-08</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>09-09</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>09-10</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>09-11</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>09-12</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>09-06</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>09-07</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>09-08</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>09-09</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>09-10</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>09-11</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>09-12</t>
+          <t>09-13</t>
         </is>
       </c>
     </row>
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4974</v>
+        <v>4.594</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.594</v>
+        <v>4.6019</v>
       </c>
       <c r="E5" s="6" t="n">
         <v>4.6019</v>
@@ -596,13 +596,13 @@
         <v>4.6019</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.6019</v>
+        <v>4.6209</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.6209</v>
+        <v>4.6836</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.6836</v>
+        <v>4.6402</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.1895</v>
+        <v>4.289</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.289</v>
+        <v>4.2958</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>4.2958</v>
@@ -622,13 +622,13 @@
         <v>4.2958</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>4.2958</v>
+        <v>4.3077</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>4.3077</v>
+        <v>4.3711</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>4.3711</v>
+        <v>4.3225</v>
       </c>
     </row>
     <row r="7">
@@ -651,77 +651,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>09-06</t>
+          <t>09-07</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>09-08</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>09-09</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>09-10</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>09-11</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>09-12</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>09-13</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>09-07</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>09-08</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>09-09</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>09-10</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>09-11</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>09-12</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>09-06</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>09-07</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>09-08</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>09-09</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>09-10</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>09-11</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>09-12</t>
+          <t>09-13</t>
         </is>
       </c>
     </row>
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.2626</v>
+        <v>5.3518</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.3518</v>
+        <v>5.3645</v>
       </c>
       <c r="E9" s="6" t="n">
         <v>5.3645</v>
@@ -744,13 +744,13 @@
         <v>5.3645</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.3645</v>
+        <v>5.3926</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.3926</v>
+        <v>5.4495</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.4495</v>
+        <v>5.3931</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.7086</v>
+        <v>4.8067</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.8067</v>
+        <v>4.8225</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>4.8225</v>
@@ -770,13 +770,13 @@
         <v>4.8225</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>4.8225</v>
+        <v>4.8313</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.8313</v>
+        <v>4.9015</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.9015</v>
+        <v>4.8403</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -503,77 +503,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>09-07</t>
+          <t>09-08</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>09-09</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>09-10</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>09-11</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>09-12</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>09-13</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>09-14</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>09-08</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>09-09</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>09-10</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>09-11</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>09-12</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>09-13</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>09-07</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>09-08</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>09-09</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>09-10</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>09-11</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>09-12</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>09-13</t>
+          <t>09-14</t>
         </is>
       </c>
     </row>
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.594</v>
-      </c>
-      <c r="D5" s="6" t="n">
         <v>4.6019</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="D5" s="5" t="n">
         <v>4.6019</v>
       </c>
+      <c r="E5" s="5" t="n">
+        <v>4.6019</v>
+      </c>
       <c r="F5" s="6" t="n">
-        <v>4.6019</v>
+        <v>4.6209</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.6209</v>
+        <v>4.6836</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.6836</v>
+        <v>4.6402</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.6402</v>
+        <v>4.6285</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -610,25 +610,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.289</v>
-      </c>
-      <c r="M5" s="6" t="n">
         <v>4.2958</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="M5" s="5" t="n">
         <v>4.2958</v>
       </c>
+      <c r="N5" s="5" t="n">
+        <v>4.2958</v>
+      </c>
       <c r="O5" s="6" t="n">
-        <v>4.2958</v>
+        <v>4.3077</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>4.3077</v>
+        <v>4.3711</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>4.3711</v>
+        <v>4.3225</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>4.3225</v>
+        <v>4.312</v>
       </c>
     </row>
     <row r="7">
@@ -651,77 +651,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>09-07</t>
+          <t>09-08</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>09-09</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>09-10</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>09-11</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>09-12</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>09-13</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>09-14</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>09-08</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>09-09</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>09-10</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>09-11</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>09-12</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>09-13</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>09-07</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>09-08</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>09-09</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>09-10</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>09-11</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>09-12</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>09-13</t>
+          <t>09-14</t>
         </is>
       </c>
     </row>
@@ -732,25 +732,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.3518</v>
-      </c>
-      <c r="D9" s="6" t="n">
         <v>5.3645</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="5" t="n">
         <v>5.3645</v>
       </c>
+      <c r="E9" s="5" t="n">
+        <v>5.3645</v>
+      </c>
       <c r="F9" s="6" t="n">
-        <v>5.3645</v>
+        <v>5.3926</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.3926</v>
+        <v>5.4495</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.4495</v>
+        <v>5.3931</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.3931</v>
+        <v>5.3845</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -758,25 +758,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.8067</v>
-      </c>
-      <c r="M9" s="6" t="n">
         <v>4.8225</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="M9" s="5" t="n">
         <v>4.8225</v>
       </c>
+      <c r="N9" s="5" t="n">
+        <v>4.8225</v>
+      </c>
       <c r="O9" s="6" t="n">
-        <v>4.8225</v>
+        <v>4.8313</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>4.8313</v>
+        <v>4.9015</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.9015</v>
+        <v>4.8403</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.8403</v>
+        <v>4.8261</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,7 +37,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0035FC03"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -68,7 +73,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -84,6 +89,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -503,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>09-08</t>
+          <t>09-11</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>09-09</t>
+          <t>09-12</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>09-10</t>
+          <t>09-13</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
+          <t>09-14</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>09-15</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>09-16</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>09-17</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>09-11</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>09-12</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>09-13</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>09-14</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>09-08</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>09-09</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>09-10</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>09-11</t>
-        </is>
-      </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
-          <t>09-12</t>
+          <t>09-15</t>
         </is>
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>09-13</t>
+          <t>09-16</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>09-14</t>
+          <t>09-17</t>
         </is>
       </c>
     </row>
@@ -584,25 +592,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.6019</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>4.6019</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>4.6019</v>
+        <v>4.6209</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>4.6836</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>4.6402</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.6209</v>
+        <v>4.6285</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.6836</v>
+        <v>4.6307</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.6402</v>
+        <v>4.6307</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.6285</v>
+        <v>4.6307</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -610,25 +618,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.2958</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>4.2958</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>4.2958</v>
+        <v>4.3077</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>4.3711</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>4.3225</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>4.3077</v>
+        <v>4.312</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>4.3711</v>
+        <v>4.3418</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>4.3225</v>
+        <v>4.3418</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>4.312</v>
+        <v>4.3418</v>
       </c>
     </row>
     <row r="7">
@@ -651,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>09-08</t>
+          <t>09-11</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>09-09</t>
+          <t>09-12</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>09-10</t>
+          <t>09-13</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
+          <t>09-14</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>09-15</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>09-16</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>09-17</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>09-11</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>09-12</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>09-13</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>09-14</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>09-08</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>09-09</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>09-10</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>09-11</t>
-        </is>
-      </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
-          <t>09-12</t>
+          <t>09-15</t>
         </is>
       </c>
       <c r="Q8" s="5" t="inlineStr">
         <is>
-          <t>09-13</t>
+          <t>09-16</t>
         </is>
       </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>09-14</t>
+          <t>09-17</t>
         </is>
       </c>
     </row>
@@ -732,25 +740,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.3645</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>5.3645</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>5.3645</v>
-      </c>
-      <c r="F9" s="6" t="n">
         <v>5.3926</v>
       </c>
+      <c r="D9" s="6" t="n">
+        <v>5.4495</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>5.3931</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>5.3845</v>
+      </c>
       <c r="G9" s="6" t="n">
-        <v>5.4495</v>
+        <v>5.4005</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.3931</v>
+        <v>5.4005</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.3845</v>
+        <v>5.4005</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -758,25 +766,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.8225</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>4.8225</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>4.8225</v>
-      </c>
-      <c r="O9" s="6" t="n">
         <v>4.8313</v>
       </c>
+      <c r="M9" s="6" t="n">
+        <v>4.9015</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>4.8403</v>
+      </c>
+      <c r="O9" s="7" t="n">
+        <v>4.8261</v>
+      </c>
       <c r="P9" s="6" t="n">
-        <v>4.9015</v>
+        <v>4.8481</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.8403</v>
+        <v>4.8481</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.8261</v>
+        <v>4.8481</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,17 +37,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -73,7 +68,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -89,9 +84,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -511,77 +503,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>09-11</t>
+          <t>09-12</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>09-13</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>09-14</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>09-15</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>09-16</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>09-17</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>09-18</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>09-12</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>09-13</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>09-14</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>09-15</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>09-16</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>09-17</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>09-11</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>09-12</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>09-13</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>09-14</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>09-15</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>09-16</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>09-17</t>
+          <t>09-18</t>
         </is>
       </c>
     </row>
@@ -592,16 +584,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.6209</v>
+        <v>4.6836</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.6836</v>
+        <v>4.6402</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.6402</v>
+        <v>4.6285</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.6285</v>
+        <v>4.6307</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>4.6307</v>
@@ -610,7 +602,7 @@
         <v>4.6307</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.6307</v>
+        <v>4.6377</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,16 +610,16 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.3077</v>
+        <v>4.3711</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.3711</v>
+        <v>4.3225</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>4.3225</v>
+        <v>4.312</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>4.312</v>
+        <v>4.3418</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>4.3418</v>
@@ -636,7 +628,7 @@
         <v>4.3418</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>4.3418</v>
+        <v>4.3489</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +651,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>09-11</t>
+          <t>09-12</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>09-13</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>09-14</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>09-15</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>09-16</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>09-17</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>09-18</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>09-12</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>09-13</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>09-14</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>09-15</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>09-16</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>09-17</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>09-11</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>09-12</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>09-13</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>09-14</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>09-15</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>09-16</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>09-17</t>
+          <t>09-18</t>
         </is>
       </c>
     </row>
@@ -740,16 +732,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.3926</v>
+        <v>5.4495</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.4495</v>
+        <v>5.3931</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>5.3931</v>
-      </c>
-      <c r="F9" s="7" t="n">
         <v>5.3845</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>5.4005</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>5.4005</v>
@@ -758,7 +750,7 @@
         <v>5.4005</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.4005</v>
+        <v>5.3845</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,16 +758,16 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.8313</v>
+        <v>4.9015</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.9015</v>
+        <v>4.8403</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>4.8403</v>
-      </c>
-      <c r="O9" s="7" t="n">
         <v>4.8261</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>4.8481</v>
       </c>
       <c r="P9" s="6" t="n">
         <v>4.8481</v>
@@ -784,7 +776,7 @@
         <v>4.8481</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.8481</v>
+        <v>4.8519</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,7 +37,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FC2C03"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
   </fills>
@@ -68,7 +73,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -84,6 +89,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -503,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>09-12</t>
+          <t>09-13</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>09-14</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>09-15</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>09-16</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>09-17</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>09-18</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>09-19</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>09-13</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>09-14</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>09-15</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>09-16</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>09-17</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>09-18</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>09-12</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>09-13</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>09-14</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>09-15</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>09-16</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>09-17</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>09-18</t>
+          <t>09-19</t>
         </is>
       </c>
     </row>
@@ -584,13 +592,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.6836</v>
+        <v>4.6402</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.6402</v>
+        <v>4.6285</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.6285</v>
+        <v>4.6307</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>4.6307</v>
@@ -599,36 +607,36 @@
         <v>4.6307</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.6307</v>
-      </c>
-      <c r="I5" s="6" t="n">
         <v>4.6377</v>
       </c>
+      <c r="I5" s="7" t="n">
+        <v>4.6458</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.3711</v>
+        <v>4.3225</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.3225</v>
-      </c>
-      <c r="N5" s="6" t="n">
         <v>4.312</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="N5" s="7" t="n">
         <v>4.3418</v>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="O5" s="7" t="n">
         <v>4.3418</v>
       </c>
-      <c r="Q5" s="6" t="n">
+      <c r="P5" s="7" t="n">
         <v>4.3418</v>
       </c>
-      <c r="R5" s="6" t="n">
+      <c r="Q5" s="7" t="n">
         <v>4.3489</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>4.3472</v>
       </c>
     </row>
     <row r="7">
@@ -651,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>09-12</t>
+          <t>09-13</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>09-14</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>09-15</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>09-16</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>09-17</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>09-18</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>09-19</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>09-13</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>09-14</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>09-15</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>09-16</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>09-17</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>09-18</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>09-12</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>09-13</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>09-14</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>09-15</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>09-16</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>09-17</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>09-18</t>
+          <t>09-19</t>
         </is>
       </c>
     </row>
@@ -732,25 +740,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.4495</v>
+        <v>5.3931</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.3931</v>
-      </c>
-      <c r="E9" s="6" t="n">
         <v>5.3845</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="E9" s="7" t="n">
         <v>5.4005</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="F9" s="7" t="n">
         <v>5.4005</v>
       </c>
+      <c r="G9" s="7" t="n">
+        <v>5.4005</v>
+      </c>
       <c r="H9" s="6" t="n">
-        <v>5.4005</v>
+        <v>5.3845</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.3845</v>
+        <v>5.3802</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -758,25 +766,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.9015</v>
+        <v>4.8403</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.8403</v>
-      </c>
-      <c r="N9" s="6" t="n">
         <v>4.8261</v>
       </c>
-      <c r="O9" s="6" t="n">
+      <c r="N9" s="7" t="n">
         <v>4.8481</v>
       </c>
-      <c r="P9" s="6" t="n">
+      <c r="O9" s="7" t="n">
         <v>4.8481</v>
       </c>
-      <c r="Q9" s="6" t="n">
+      <c r="P9" s="7" t="n">
         <v>4.8481</v>
       </c>
-      <c r="R9" s="6" t="n">
+      <c r="Q9" s="7" t="n">
         <v>4.8519</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>4.8505</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>09-13</t>
+          <t>09-14</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>09-15</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>09-16</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>09-17</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>09-18</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>09-19</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>09-20</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>09-14</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>09-15</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>09-16</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>09-17</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>09-18</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>09-19</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>09-13</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>09-14</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>09-15</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>09-16</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>09-17</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>09-18</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>09-19</t>
+          <t>09-20</t>
         </is>
       </c>
     </row>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.6402</v>
+        <v>4.6285</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.6285</v>
+        <v>4.6307</v>
       </c>
       <c r="E5" s="6" t="n">
         <v>4.6307</v>
@@ -604,39 +604,39 @@
         <v>4.6307</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.6307</v>
+        <v>4.6377</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.6377</v>
-      </c>
-      <c r="I5" s="7" t="n">
         <v>4.6458</v>
       </c>
+      <c r="I5" s="6" t="n">
+        <v>4.6529</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.3225</v>
+        <v>4.312</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.312</v>
-      </c>
-      <c r="N5" s="7" t="n">
         <v>4.3418</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="N5" s="6" t="n">
         <v>4.3418</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="O5" s="6" t="n">
         <v>4.3418</v>
       </c>
-      <c r="Q5" s="7" t="n">
+      <c r="P5" s="6" t="n">
         <v>4.3489</v>
       </c>
-      <c r="R5" s="7" t="n">
+      <c r="Q5" s="6" t="n">
         <v>4.3472</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>4.3501</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>09-13</t>
+          <t>09-14</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>09-15</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>09-16</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>09-17</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>09-18</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>09-19</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>09-20</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>09-14</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>09-15</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>09-16</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>09-17</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>09-18</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>09-19</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>09-13</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>09-14</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>09-15</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>09-16</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>09-17</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>09-18</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>09-19</t>
+          <t>09-20</t>
         </is>
       </c>
     </row>
@@ -740,51 +740,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.3931</v>
+        <v>5.3845</v>
       </c>
       <c r="D9" s="6" t="n">
+        <v>5.4005</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>5.4005</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>5.4005</v>
+      </c>
+      <c r="G9" s="5" t="n">
         <v>5.3845</v>
       </c>
-      <c r="E9" s="7" t="n">
-        <v>5.4005</v>
-      </c>
-      <c r="F9" s="7" t="n">
-        <v>5.4005</v>
-      </c>
-      <c r="G9" s="7" t="n">
-        <v>5.4005</v>
-      </c>
-      <c r="H9" s="6" t="n">
-        <v>5.3845</v>
-      </c>
-      <c r="I9" s="6" t="n">
+      <c r="H9" s="7" t="n">
         <v>5.3802</v>
       </c>
+      <c r="I9" s="7" t="n">
+        <v>5.3803</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.8403</v>
+        <v>4.8261</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.8261</v>
-      </c>
-      <c r="N9" s="7" t="n">
         <v>4.8481</v>
       </c>
-      <c r="O9" s="7" t="n">
+      <c r="N9" s="6" t="n">
         <v>4.8481</v>
       </c>
-      <c r="P9" s="7" t="n">
+      <c r="O9" s="6" t="n">
         <v>4.8481</v>
       </c>
-      <c r="Q9" s="7" t="n">
+      <c r="P9" s="6" t="n">
         <v>4.8519</v>
       </c>
-      <c r="R9" s="7" t="n">
+      <c r="Q9" s="6" t="n">
         <v>4.8505</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>4.8483</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>09-14</t>
+          <t>09-15</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>09-16</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>09-17</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>09-18</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>09-19</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>09-20</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>09-21</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>09-15</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>09-16</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>09-17</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>09-18</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>09-19</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>09-20</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>09-14</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>09-15</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>09-16</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>09-17</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>09-18</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>09-19</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>09-20</t>
+          <t>09-21</t>
         </is>
       </c>
     </row>
@@ -592,51 +592,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.6285</v>
-      </c>
-      <c r="D5" s="6" t="n">
         <v>4.6307</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="D5" s="5" t="n">
         <v>4.6307</v>
       </c>
+      <c r="E5" s="5" t="n">
+        <v>4.6307</v>
+      </c>
       <c r="F5" s="6" t="n">
-        <v>4.6307</v>
+        <v>4.6377</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.6377</v>
+        <v>4.6458</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.6458</v>
-      </c>
-      <c r="I5" s="6" t="n">
         <v>4.6529</v>
       </c>
+      <c r="I5" s="7" t="n">
+        <v>4.621</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.312</v>
-      </c>
-      <c r="M5" s="6" t="n">
         <v>4.3418</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="M5" s="5" t="n">
         <v>4.3418</v>
       </c>
+      <c r="N5" s="5" t="n">
+        <v>4.3418</v>
+      </c>
       <c r="O5" s="6" t="n">
-        <v>4.3418</v>
+        <v>4.3489</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>4.3489</v>
+        <v>4.3472</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>4.3472</v>
-      </c>
-      <c r="R5" s="6" t="n">
         <v>4.3501</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>4.3365</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>09-14</t>
+          <t>09-15</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>09-16</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>09-17</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>09-18</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>09-19</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>09-20</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>09-21</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>09-15</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>09-16</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>09-17</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>09-18</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>09-19</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>09-20</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>09-14</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>09-15</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>09-16</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>09-17</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>09-18</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>09-19</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>09-20</t>
+          <t>09-21</t>
         </is>
       </c>
     </row>
@@ -740,25 +740,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
+        <v>5.4005</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.4005</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.4005</v>
+      </c>
+      <c r="F9" s="7" t="n">
         <v>5.3845</v>
       </c>
-      <c r="D9" s="6" t="n">
-        <v>5.4005</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>5.4005</v>
-      </c>
-      <c r="F9" s="6" t="n">
-        <v>5.4005</v>
-      </c>
-      <c r="G9" s="5" t="n">
-        <v>5.3845</v>
+      <c r="G9" s="7" t="n">
+        <v>5.3802</v>
       </c>
       <c r="H9" s="7" t="n">
-        <v>5.3802</v>
+        <v>5.3803</v>
       </c>
       <c r="I9" s="7" t="n">
-        <v>5.3803</v>
+        <v>5.3357</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,25 +766,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.8261</v>
-      </c>
-      <c r="M9" s="6" t="n">
         <v>4.8481</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="M9" s="5" t="n">
         <v>4.8481</v>
       </c>
+      <c r="N9" s="5" t="n">
+        <v>4.8481</v>
+      </c>
       <c r="O9" s="6" t="n">
-        <v>4.8481</v>
+        <v>4.8519</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>4.8519</v>
+        <v>4.8505</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.8505</v>
-      </c>
-      <c r="R9" s="6" t="n">
         <v>4.8483</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>4.7809</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>09-15</t>
+          <t>09-18</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>09-16</t>
+          <t>09-19</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>09-17</t>
+          <t>09-20</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
+          <t>09-21</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>09-22</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>09-23</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>09-24</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>09-18</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>09-19</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>09-20</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>09-21</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>09-15</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>09-16</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>09-17</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>09-18</t>
-        </is>
-      </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
-          <t>09-19</t>
+          <t>09-22</t>
         </is>
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>09-20</t>
+          <t>09-23</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>09-21</t>
+          <t>09-24</t>
         </is>
       </c>
     </row>
@@ -592,25 +592,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.6307</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>4.6307</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>4.6307</v>
-      </c>
-      <c r="F5" s="6" t="n">
         <v>4.6377</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="D5" s="6" t="n">
         <v>4.6458</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="E5" s="6" t="n">
         <v>4.6529</v>
       </c>
+      <c r="F5" s="7" t="n">
+        <v>4.621</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <v>4.6069</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <v>4.6069</v>
+      </c>
       <c r="I5" s="7" t="n">
-        <v>4.621</v>
+        <v>4.6069</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +618,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.3418</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>4.3418</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>4.3418</v>
-      </c>
-      <c r="O5" s="6" t="n">
         <v>4.3489</v>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="M5" s="7" t="n">
         <v>4.3472</v>
       </c>
-      <c r="Q5" s="6" t="n">
+      <c r="N5" s="6" t="n">
         <v>4.3501</v>
       </c>
+      <c r="O5" s="7" t="n">
+        <v>4.3365</v>
+      </c>
+      <c r="P5" s="7" t="n">
+        <v>4.3269</v>
+      </c>
+      <c r="Q5" s="7" t="n">
+        <v>4.3269</v>
+      </c>
       <c r="R5" s="7" t="n">
-        <v>4.3365</v>
+        <v>4.3269</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>09-15</t>
+          <t>09-18</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>09-16</t>
+          <t>09-19</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>09-17</t>
+          <t>09-20</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
+          <t>09-21</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>09-22</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>09-23</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>09-24</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>09-18</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>09-19</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>09-20</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>09-21</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>09-15</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>09-16</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>09-17</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>09-18</t>
-        </is>
-      </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
-          <t>09-19</t>
+          <t>09-22</t>
         </is>
       </c>
       <c r="Q8" s="5" t="inlineStr">
         <is>
-          <t>09-20</t>
+          <t>09-23</t>
         </is>
       </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>09-21</t>
+          <t>09-24</t>
         </is>
       </c>
     </row>
@@ -740,25 +740,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.4005</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>5.4005</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>5.4005</v>
+        <v>5.3845</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>5.3802</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>5.3803</v>
       </c>
       <c r="F9" s="7" t="n">
-        <v>5.3845</v>
+        <v>5.3357</v>
       </c>
       <c r="G9" s="7" t="n">
-        <v>5.3802</v>
+        <v>5.302</v>
       </c>
       <c r="H9" s="7" t="n">
-        <v>5.3803</v>
+        <v>5.302</v>
       </c>
       <c r="I9" s="7" t="n">
-        <v>5.3357</v>
+        <v>5.302</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,25 +766,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.8481</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>4.8481</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>4.8481</v>
-      </c>
-      <c r="O9" s="6" t="n">
         <v>4.8519</v>
       </c>
-      <c r="P9" s="6" t="n">
+      <c r="M9" s="7" t="n">
         <v>4.8505</v>
       </c>
-      <c r="Q9" s="6" t="n">
+      <c r="N9" s="7" t="n">
         <v>4.8483</v>
       </c>
+      <c r="O9" s="7" t="n">
+        <v>4.7809</v>
+      </c>
+      <c r="P9" s="7" t="n">
+        <v>4.7752</v>
+      </c>
+      <c r="Q9" s="7" t="n">
+        <v>4.7752</v>
+      </c>
       <c r="R9" s="7" t="n">
-        <v>4.7809</v>
+        <v>4.7752</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>09-18</t>
+          <t>09-19</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>09-20</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>09-21</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>09-22</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>09-23</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>09-24</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>09-25</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>09-19</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>09-20</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>09-21</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>09-22</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>09-23</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>09-24</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>09-18</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>09-19</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>09-20</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>09-21</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>09-22</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>09-23</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>09-24</t>
+          <t>09-25</t>
         </is>
       </c>
     </row>
@@ -592,16 +592,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.6377</v>
+        <v>4.6458</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.6458</v>
-      </c>
-      <c r="E5" s="6" t="n">
         <v>4.6529</v>
       </c>
+      <c r="E5" s="7" t="n">
+        <v>4.621</v>
+      </c>
       <c r="F5" s="7" t="n">
-        <v>4.621</v>
+        <v>4.6069</v>
       </c>
       <c r="G5" s="7" t="n">
         <v>4.6069</v>
@@ -610,7 +610,7 @@
         <v>4.6069</v>
       </c>
       <c r="I5" s="7" t="n">
-        <v>4.6069</v>
+        <v>4.5892</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,16 +618,16 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.3489</v>
-      </c>
-      <c r="M5" s="7" t="n">
         <v>4.3472</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="M5" s="6" t="n">
         <v>4.3501</v>
       </c>
+      <c r="N5" s="7" t="n">
+        <v>4.3365</v>
+      </c>
       <c r="O5" s="7" t="n">
-        <v>4.3365</v>
+        <v>4.3269</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>4.3269</v>
@@ -636,7 +636,7 @@
         <v>4.3269</v>
       </c>
       <c r="R5" s="7" t="n">
-        <v>4.3269</v>
+        <v>4.3188</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>09-18</t>
+          <t>09-19</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>09-20</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>09-21</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>09-22</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>09-23</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>09-24</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>09-25</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>09-19</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>09-20</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>09-21</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>09-22</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>09-23</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>09-24</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>09-18</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>09-19</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>09-20</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>09-21</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>09-22</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>09-23</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>09-24</t>
+          <t>09-25</t>
         </is>
       </c>
     </row>
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.3845</v>
-      </c>
-      <c r="D9" s="7" t="n">
         <v>5.3802</v>
       </c>
+      <c r="D9" s="6" t="n">
+        <v>5.3803</v>
+      </c>
       <c r="E9" s="7" t="n">
-        <v>5.3803</v>
+        <v>5.3357</v>
       </c>
       <c r="F9" s="7" t="n">
-        <v>5.3357</v>
+        <v>5.302</v>
       </c>
       <c r="G9" s="7" t="n">
         <v>5.302</v>
@@ -758,7 +758,7 @@
         <v>5.302</v>
       </c>
       <c r="I9" s="7" t="n">
-        <v>5.302</v>
+        <v>5.2783</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,16 +766,16 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.8519</v>
+        <v>4.8505</v>
       </c>
       <c r="M9" s="7" t="n">
-        <v>4.8505</v>
+        <v>4.8483</v>
       </c>
       <c r="N9" s="7" t="n">
-        <v>4.8483</v>
+        <v>4.7809</v>
       </c>
       <c r="O9" s="7" t="n">
-        <v>4.7809</v>
+        <v>4.7752</v>
       </c>
       <c r="P9" s="7" t="n">
         <v>4.7752</v>
@@ -784,7 +784,7 @@
         <v>4.7752</v>
       </c>
       <c r="R9" s="7" t="n">
-        <v>4.7752</v>
+        <v>4.747</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,17 +37,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -73,7 +68,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -89,9 +84,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -511,77 +503,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>09-19</t>
+          <t>09-20</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>09-21</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>09-22</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>09-23</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>09-24</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>09-25</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>09-26</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>09-20</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>09-21</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>09-22</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>09-23</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>09-24</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>09-25</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>09-19</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>09-20</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>09-21</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>09-22</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>09-23</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>09-24</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>09-25</t>
+          <t>09-26</t>
         </is>
       </c>
     </row>
@@ -592,51 +584,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.6458</v>
+        <v>4.6529</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.6529</v>
-      </c>
-      <c r="E5" s="7" t="n">
         <v>4.621</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="E5" s="6" t="n">
         <v>4.6069</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="F5" s="6" t="n">
         <v>4.6069</v>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="G5" s="6" t="n">
         <v>4.6069</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="H5" s="6" t="n">
         <v>4.5892</v>
       </c>
+      <c r="I5" s="6" t="n">
+        <v>4.6077</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.3472</v>
+        <v>4.3501</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.3501</v>
-      </c>
-      <c r="N5" s="7" t="n">
         <v>4.3365</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="N5" s="6" t="n">
         <v>4.3269</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="O5" s="6" t="n">
         <v>4.3269</v>
       </c>
-      <c r="Q5" s="7" t="n">
+      <c r="P5" s="6" t="n">
         <v>4.3269</v>
       </c>
-      <c r="R5" s="7" t="n">
+      <c r="Q5" s="6" t="n">
         <v>4.3188</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>4.3485</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +651,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>09-19</t>
+          <t>09-20</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>09-21</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>09-22</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>09-23</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>09-24</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>09-25</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>09-26</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>09-20</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>09-21</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>09-22</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>09-23</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>09-24</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>09-25</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>09-19</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>09-20</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>09-21</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>09-22</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>09-23</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>09-24</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>09-25</t>
+          <t>09-26</t>
         </is>
       </c>
     </row>
@@ -740,51 +732,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.3802</v>
+        <v>5.3803</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.3803</v>
-      </c>
-      <c r="E9" s="7" t="n">
         <v>5.3357</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="E9" s="6" t="n">
         <v>5.302</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="F9" s="6" t="n">
         <v>5.302</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="G9" s="6" t="n">
         <v>5.302</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="H9" s="6" t="n">
         <v>5.2783</v>
       </c>
+      <c r="I9" s="6" t="n">
+        <v>5.298</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.8505</v>
-      </c>
-      <c r="M9" s="7" t="n">
         <v>4.8483</v>
       </c>
-      <c r="N9" s="7" t="n">
+      <c r="M9" s="6" t="n">
         <v>4.7809</v>
       </c>
-      <c r="O9" s="7" t="n">
+      <c r="N9" s="6" t="n">
         <v>4.7752</v>
       </c>
-      <c r="P9" s="7" t="n">
+      <c r="O9" s="6" t="n">
         <v>4.7752</v>
       </c>
-      <c r="Q9" s="7" t="n">
+      <c r="P9" s="6" t="n">
         <v>4.7752</v>
       </c>
-      <c r="R9" s="7" t="n">
+      <c r="Q9" s="6" t="n">
         <v>4.747</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>4.7657</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,7 +37,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FC2C03"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
   </fills>
@@ -68,7 +73,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -84,6 +89,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -503,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>09-20</t>
+          <t>09-21</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>09-22</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>09-23</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>09-24</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>09-25</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>09-26</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>09-27</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>09-21</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>09-22</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>09-23</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>09-24</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>09-25</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>09-26</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>09-20</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>09-21</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>09-22</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>09-23</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>09-24</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>09-25</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>09-26</t>
+          <t>09-27</t>
         </is>
       </c>
     </row>
@@ -584,10 +592,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.6529</v>
+        <v>4.621</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.621</v>
+        <v>4.6069</v>
       </c>
       <c r="E5" s="6" t="n">
         <v>4.6069</v>
@@ -596,13 +604,13 @@
         <v>4.6069</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.6069</v>
+        <v>4.5892</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.5892</v>
+        <v>4.6077</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.6077</v>
+        <v>4.6065</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -610,10 +618,10 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.3501</v>
+        <v>4.3365</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.3365</v>
+        <v>4.3269</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>4.3269</v>
@@ -622,13 +630,13 @@
         <v>4.3269</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>4.3269</v>
-      </c>
-      <c r="Q5" s="6" t="n">
         <v>4.3188</v>
       </c>
-      <c r="R5" s="6" t="n">
+      <c r="Q5" s="7" t="n">
         <v>4.3485</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>4.3622</v>
       </c>
     </row>
     <row r="7">
@@ -651,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>09-20</t>
+          <t>09-21</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>09-22</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>09-23</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>09-24</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>09-25</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>09-26</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>09-27</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>09-21</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>09-22</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>09-23</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>09-24</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>09-25</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>09-26</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>09-20</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>09-21</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>09-22</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>09-23</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>09-24</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>09-25</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>09-26</t>
+          <t>09-27</t>
         </is>
       </c>
     </row>
@@ -732,10 +740,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.3803</v>
+        <v>5.3357</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.3357</v>
+        <v>5.302</v>
       </c>
       <c r="E9" s="6" t="n">
         <v>5.302</v>
@@ -744,13 +752,13 @@
         <v>5.302</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.302</v>
+        <v>5.2783</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.2783</v>
+        <v>5.298</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.298</v>
+        <v>5.2997</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -758,10 +766,10 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.8483</v>
+        <v>4.7809</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.7809</v>
+        <v>4.7752</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>4.7752</v>
@@ -770,13 +778,13 @@
         <v>4.7752</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>4.7752</v>
+        <v>4.747</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.747</v>
+        <v>4.7657</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.7657</v>
+        <v>4.759</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>09-21</t>
+          <t>09-22</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>09-23</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>09-24</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>09-25</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>09-26</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>09-27</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>09-28</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>09-22</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>09-23</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>09-24</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>09-25</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>09-26</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>09-27</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>09-21</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>09-22</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>09-23</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>09-24</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>09-25</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>09-26</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>09-27</t>
+          <t>09-28</t>
         </is>
       </c>
     </row>
@@ -592,51 +592,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.621</v>
-      </c>
-      <c r="D5" s="6" t="n">
         <v>4.6069</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="D5" s="5" t="n">
         <v>4.6069</v>
       </c>
+      <c r="E5" s="5" t="n">
+        <v>4.6069</v>
+      </c>
       <c r="F5" s="6" t="n">
-        <v>4.6069</v>
-      </c>
-      <c r="G5" s="6" t="n">
         <v>4.5892</v>
       </c>
+      <c r="G5" s="7" t="n">
+        <v>4.6077</v>
+      </c>
       <c r="H5" s="6" t="n">
-        <v>4.6077</v>
-      </c>
-      <c r="I5" s="6" t="n">
         <v>4.6065</v>
       </c>
+      <c r="I5" s="7" t="n">
+        <v>4.634</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.3365</v>
-      </c>
-      <c r="M5" s="6" t="n">
         <v>4.3269</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="M5" s="5" t="n">
         <v>4.3269</v>
       </c>
+      <c r="N5" s="5" t="n">
+        <v>4.3269</v>
+      </c>
       <c r="O5" s="6" t="n">
-        <v>4.3269</v>
-      </c>
-      <c r="P5" s="6" t="n">
         <v>4.3188</v>
       </c>
+      <c r="P5" s="7" t="n">
+        <v>4.3485</v>
+      </c>
       <c r="Q5" s="7" t="n">
-        <v>4.3485</v>
+        <v>4.3622</v>
       </c>
       <c r="R5" s="7" t="n">
-        <v>4.3622</v>
+        <v>4.4062</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>09-21</t>
+          <t>09-22</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>09-23</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>09-24</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>09-25</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>09-26</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>09-27</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>09-28</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>09-22</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>09-23</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>09-24</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>09-25</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>09-26</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>09-27</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>09-21</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>09-22</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>09-23</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>09-24</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>09-25</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>09-26</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>09-27</t>
+          <t>09-28</t>
         </is>
       </c>
     </row>
@@ -740,51 +740,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.3357</v>
-      </c>
-      <c r="D9" s="6" t="n">
         <v>5.302</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="5" t="n">
         <v>5.302</v>
       </c>
+      <c r="E9" s="5" t="n">
+        <v>5.302</v>
+      </c>
       <c r="F9" s="6" t="n">
-        <v>5.302</v>
+        <v>5.2783</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.2783</v>
+        <v>5.298</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.298</v>
-      </c>
-      <c r="I9" s="6" t="n">
         <v>5.2997</v>
       </c>
+      <c r="I9" s="7" t="n">
+        <v>5.3631</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.7809</v>
-      </c>
-      <c r="M9" s="6" t="n">
         <v>4.7752</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="M9" s="5" t="n">
         <v>4.7752</v>
       </c>
+      <c r="N9" s="5" t="n">
+        <v>4.7752</v>
+      </c>
       <c r="O9" s="6" t="n">
-        <v>4.7752</v>
+        <v>4.747</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>4.747</v>
+        <v>4.7657</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.7657</v>
-      </c>
-      <c r="R9" s="6" t="n">
         <v>4.759</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>4.7973</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,17 +37,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -73,7 +68,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -89,9 +84,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -511,77 +503,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>09-22</t>
+          <t>09-25</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>09-23</t>
+          <t>09-26</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>09-24</t>
+          <t>09-27</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
+          <t>09-28</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>09-29</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>09-30</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>10-01</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>09-25</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>09-26</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>09-27</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>09-28</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>09-22</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>09-23</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>09-24</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>09-25</t>
-        </is>
-      </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
-          <t>09-26</t>
+          <t>09-29</t>
         </is>
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>09-27</t>
+          <t>09-30</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>09-28</t>
+          <t>10-01</t>
         </is>
       </c>
     </row>
@@ -592,25 +584,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.6069</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>4.6069</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>4.6069</v>
+        <v>4.5892</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>4.6077</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>4.6065</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.5892</v>
-      </c>
-      <c r="G5" s="7" t="n">
-        <v>4.6077</v>
+        <v>4.634</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>4.6356</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.6065</v>
-      </c>
-      <c r="I5" s="7" t="n">
-        <v>4.634</v>
+        <v>4.6356</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>4.6356</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +610,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.3269</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>4.3269</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>4.3269</v>
+        <v>4.3188</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>4.3485</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>4.3622</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>4.3188</v>
-      </c>
-      <c r="P5" s="7" t="n">
-        <v>4.3485</v>
-      </c>
-      <c r="Q5" s="7" t="n">
-        <v>4.3622</v>
-      </c>
-      <c r="R5" s="7" t="n">
         <v>4.4062</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>4.3697</v>
+      </c>
+      <c r="Q5" s="6" t="n">
+        <v>4.3697</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>4.3697</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +651,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>09-22</t>
+          <t>09-25</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>09-23</t>
+          <t>09-26</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>09-24</t>
+          <t>09-27</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
+          <t>09-28</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>09-29</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>09-30</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>10-01</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>09-25</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>09-26</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>09-27</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>09-28</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>09-22</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>09-23</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>09-24</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>09-25</t>
-        </is>
-      </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
-          <t>09-26</t>
+          <t>09-29</t>
         </is>
       </c>
       <c r="Q8" s="5" t="inlineStr">
         <is>
-          <t>09-27</t>
+          <t>09-30</t>
         </is>
       </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>09-28</t>
+          <t>10-01</t>
         </is>
       </c>
     </row>
@@ -740,25 +732,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.302</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>5.302</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>5.302</v>
+        <v>5.2783</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>5.298</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>5.2997</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>5.2783</v>
+        <v>5.3631</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.298</v>
+        <v>5.3464</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.2997</v>
-      </c>
-      <c r="I9" s="7" t="n">
-        <v>5.3631</v>
+        <v>5.3464</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>5.3464</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,25 +758,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.7752</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>4.7752</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>4.7752</v>
+        <v>4.747</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>4.7657</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>4.759</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>4.747</v>
+        <v>4.7973</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>4.7657</v>
+        <v>4.803</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.759</v>
-      </c>
-      <c r="R9" s="7" t="n">
-        <v>4.7973</v>
+        <v>4.803</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>4.803</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,12 +37,17 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FC2C03"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -68,7 +73,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -84,6 +89,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -503,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>09-25</t>
+          <t>09-26</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>09-27</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>09-28</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>09-29</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>09-30</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>10-01</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>10-02</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>09-26</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>09-27</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>09-28</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>09-29</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>09-30</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>10-01</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>09-25</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>09-26</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>09-27</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>09-28</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>09-29</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>09-30</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>10-01</t>
+          <t>10-02</t>
         </is>
       </c>
     </row>
@@ -584,51 +592,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.5892</v>
+        <v>4.6077</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.6077</v>
-      </c>
-      <c r="E5" s="6" t="n">
         <v>4.6065</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="E5" s="7" t="n">
         <v>4.634</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="F5" s="7" t="n">
         <v>4.6356</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="G5" s="7" t="n">
         <v>4.6356</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="H5" s="7" t="n">
         <v>4.6356</v>
       </c>
+      <c r="I5" s="7" t="n">
+        <v>4.6091</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.3188</v>
-      </c>
-      <c r="M5" s="6" t="n">
         <v>4.3485</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="M5" s="7" t="n">
         <v>4.3622</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="N5" s="7" t="n">
         <v>4.4062</v>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="O5" s="7" t="n">
         <v>4.3697</v>
       </c>
-      <c r="Q5" s="6" t="n">
+      <c r="P5" s="7" t="n">
         <v>4.3697</v>
       </c>
-      <c r="R5" s="6" t="n">
+      <c r="Q5" s="7" t="n">
         <v>4.3697</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>4.3634</v>
       </c>
     </row>
     <row r="7">
@@ -651,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>09-25</t>
+          <t>09-26</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>09-27</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>09-28</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>09-29</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>09-30</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>10-01</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>10-02</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>09-26</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>09-27</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>09-28</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>09-29</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>09-30</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>10-01</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>09-25</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>09-26</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>09-27</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>09-28</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>09-29</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>09-30</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>10-01</t>
+          <t>10-02</t>
         </is>
       </c>
     </row>
@@ -732,51 +740,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.2783</v>
-      </c>
-      <c r="D9" s="6" t="n">
         <v>5.298</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="7" t="n">
         <v>5.2997</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="E9" s="7" t="n">
         <v>5.3631</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="F9" s="7" t="n">
         <v>5.3464</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="G9" s="7" t="n">
         <v>5.3464</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="H9" s="7" t="n">
         <v>5.3464</v>
       </c>
+      <c r="I9" s="7" t="n">
+        <v>5.3183</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.747</v>
+        <v>4.7657</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.7657</v>
-      </c>
-      <c r="N9" s="6" t="n">
         <v>4.759</v>
       </c>
-      <c r="O9" s="6" t="n">
+      <c r="N9" s="7" t="n">
         <v>4.7973</v>
       </c>
-      <c r="P9" s="6" t="n">
+      <c r="O9" s="7" t="n">
         <v>4.803</v>
       </c>
-      <c r="Q9" s="6" t="n">
+      <c r="P9" s="7" t="n">
         <v>4.803</v>
       </c>
-      <c r="R9" s="6" t="n">
+      <c r="Q9" s="7" t="n">
         <v>4.803</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>4.7869</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,17 +37,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -73,7 +68,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -89,9 +84,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -511,77 +503,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>09-26</t>
+          <t>09-27</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>09-28</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>09-29</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>09-30</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>10-01</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>10-02</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>10-03</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>09-27</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>09-28</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>09-29</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>09-30</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>10-01</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>10-02</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>09-26</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>09-27</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>09-28</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>09-29</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>09-30</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>10-01</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>10-02</t>
+          <t>10-03</t>
         </is>
       </c>
     </row>
@@ -592,51 +584,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.6077</v>
+        <v>4.6065</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.6065</v>
-      </c>
-      <c r="E5" s="7" t="n">
         <v>4.634</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="E5" s="6" t="n">
         <v>4.6356</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="F5" s="6" t="n">
         <v>4.6356</v>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="G5" s="6" t="n">
         <v>4.6356</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="H5" s="6" t="n">
         <v>4.6091</v>
       </c>
+      <c r="I5" s="6" t="n">
+        <v>4.6147</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.3485</v>
-      </c>
-      <c r="M5" s="7" t="n">
         <v>4.3622</v>
       </c>
-      <c r="N5" s="7" t="n">
+      <c r="M5" s="6" t="n">
         <v>4.4062</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="N5" s="6" t="n">
         <v>4.3697</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="O5" s="6" t="n">
         <v>4.3697</v>
       </c>
-      <c r="Q5" s="7" t="n">
+      <c r="P5" s="6" t="n">
         <v>4.3697</v>
       </c>
-      <c r="R5" s="7" t="n">
+      <c r="Q5" s="6" t="n">
         <v>4.3634</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>4.4012</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +651,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>09-26</t>
+          <t>09-27</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>09-28</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>09-29</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>09-30</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>10-01</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>10-02</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>10-03</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>09-27</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>09-28</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>09-29</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>09-30</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>10-01</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>10-02</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>09-26</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>09-27</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>09-28</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>09-29</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>09-30</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>10-01</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>10-02</t>
+          <t>10-03</t>
         </is>
       </c>
     </row>
@@ -740,51 +732,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.298</v>
-      </c>
-      <c r="D9" s="7" t="n">
         <v>5.2997</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="D9" s="6" t="n">
         <v>5.3631</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="E9" s="6" t="n">
         <v>5.3464</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="F9" s="6" t="n">
         <v>5.3464</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="G9" s="6" t="n">
         <v>5.3464</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="H9" s="6" t="n">
         <v>5.3183</v>
       </c>
+      <c r="I9" s="6" t="n">
+        <v>5.3195</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.7657</v>
+        <v>4.759</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.759</v>
-      </c>
-      <c r="N9" s="7" t="n">
         <v>4.7973</v>
       </c>
-      <c r="O9" s="7" t="n">
+      <c r="N9" s="6" t="n">
         <v>4.803</v>
       </c>
-      <c r="P9" s="7" t="n">
+      <c r="O9" s="6" t="n">
         <v>4.803</v>
       </c>
-      <c r="Q9" s="7" t="n">
+      <c r="P9" s="6" t="n">
         <v>4.803</v>
       </c>
-      <c r="R9" s="7" t="n">
+      <c r="Q9" s="6" t="n">
         <v>4.7869</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>4.7848</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,7 +37,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0035FC03"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -68,7 +73,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -84,6 +89,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -503,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>09-27</t>
+          <t>09-28</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>09-29</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>09-30</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>10-01</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>10-02</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>10-03</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>10-04</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>09-28</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>09-29</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>09-30</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>10-01</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>10-02</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>10-03</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>09-27</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>09-28</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>09-29</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>09-30</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>10-01</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>10-02</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>10-03</t>
+          <t>10-04</t>
         </is>
       </c>
     </row>
@@ -584,10 +592,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.6065</v>
+        <v>4.634</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.634</v>
+        <v>4.6356</v>
       </c>
       <c r="E5" s="6" t="n">
         <v>4.6356</v>
@@ -595,40 +603,40 @@
       <c r="F5" s="6" t="n">
         <v>4.6356</v>
       </c>
-      <c r="G5" s="6" t="n">
-        <v>4.6356</v>
-      </c>
-      <c r="H5" s="6" t="n">
+      <c r="G5" s="7" t="n">
         <v>4.6091</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="H5" s="7" t="n">
         <v>4.6147</v>
       </c>
+      <c r="I5" s="7" t="n">
+        <v>4.6303</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.3622</v>
-      </c>
-      <c r="M5" s="6" t="n">
         <v>4.4062</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="M5" s="7" t="n">
         <v>4.3697</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="N5" s="7" t="n">
         <v>4.3697</v>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="O5" s="7" t="n">
         <v>4.3697</v>
       </c>
-      <c r="Q5" s="6" t="n">
+      <c r="P5" s="7" t="n">
         <v>4.3634</v>
       </c>
+      <c r="Q5" s="7" t="n">
+        <v>4.4012</v>
+      </c>
       <c r="R5" s="6" t="n">
-        <v>4.4012</v>
+        <v>4.4155</v>
       </c>
     </row>
     <row r="7">
@@ -651,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>09-27</t>
+          <t>09-28</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>09-29</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>09-30</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>10-01</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>10-02</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>10-03</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>10-04</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>09-28</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>09-29</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>09-30</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>10-01</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>10-02</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>10-03</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>09-27</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>09-28</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>09-29</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>09-30</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>10-01</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>10-02</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>10-03</t>
+          <t>10-04</t>
         </is>
       </c>
     </row>
@@ -732,36 +740,36 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.2997</v>
-      </c>
-      <c r="D9" s="6" t="n">
         <v>5.3631</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="7" t="n">
         <v>5.3464</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="E9" s="7" t="n">
         <v>5.3464</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="F9" s="7" t="n">
         <v>5.3464</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="G9" s="7" t="n">
         <v>5.3183</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="H9" s="7" t="n">
         <v>5.3195</v>
       </c>
+      <c r="I9" s="7" t="n">
+        <v>5.3492</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.759</v>
+        <v>4.7973</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.7973</v>
+        <v>4.803</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>4.803</v>
@@ -769,14 +777,14 @@
       <c r="O9" s="6" t="n">
         <v>4.803</v>
       </c>
-      <c r="P9" s="6" t="n">
-        <v>4.803</v>
-      </c>
-      <c r="Q9" s="6" t="n">
+      <c r="P9" s="7" t="n">
         <v>4.7869</v>
       </c>
+      <c r="Q9" s="7" t="n">
+        <v>4.7848</v>
+      </c>
       <c r="R9" s="6" t="n">
-        <v>4.7848</v>
+        <v>4.8065</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>09-28</t>
+          <t>09-29</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>09-30</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>10-01</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>10-02</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>10-03</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>10-04</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>10-05</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>09-29</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>09-30</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>10-01</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>10-02</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>10-03</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>10-04</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>09-28</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>09-29</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>09-30</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>10-01</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>10-02</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>10-03</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>10-04</t>
+          <t>10-05</t>
         </is>
       </c>
     </row>
@@ -592,51 +592,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.634</v>
-      </c>
-      <c r="D5" s="6" t="n">
         <v>4.6356</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="D5" s="5" t="n">
         <v>4.6356</v>
       </c>
+      <c r="E5" s="5" t="n">
+        <v>4.6356</v>
+      </c>
       <c r="F5" s="6" t="n">
-        <v>4.6356</v>
-      </c>
-      <c r="G5" s="7" t="n">
         <v>4.6091</v>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="G5" s="6" t="n">
         <v>4.6147</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="H5" s="6" t="n">
         <v>4.6303</v>
       </c>
+      <c r="I5" s="6" t="n">
+        <v>4.5974</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.4062</v>
-      </c>
-      <c r="M5" s="7" t="n">
         <v>4.3697</v>
       </c>
-      <c r="N5" s="7" t="n">
+      <c r="M5" s="5" t="n">
         <v>4.3697</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="N5" s="5" t="n">
         <v>4.3697</v>
       </c>
+      <c r="O5" s="6" t="n">
+        <v>4.3634</v>
+      </c>
       <c r="P5" s="7" t="n">
-        <v>4.3634</v>
+        <v>4.4012</v>
       </c>
       <c r="Q5" s="7" t="n">
-        <v>4.4012</v>
-      </c>
-      <c r="R5" s="6" t="n">
         <v>4.4155</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>4.3768</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>09-28</t>
+          <t>09-29</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>09-30</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>10-01</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>10-02</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>10-03</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>10-04</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>10-05</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>09-29</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>09-30</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>10-01</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>10-02</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>10-03</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>10-04</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>09-28</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>09-29</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>09-30</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>10-01</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>10-02</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>10-03</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>10-04</t>
+          <t>10-05</t>
         </is>
       </c>
     </row>
@@ -740,51 +740,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.3631</v>
-      </c>
-      <c r="D9" s="7" t="n">
         <v>5.3464</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="D9" s="5" t="n">
         <v>5.3464</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="E9" s="5" t="n">
         <v>5.3464</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="F9" s="6" t="n">
         <v>5.3183</v>
       </c>
+      <c r="G9" s="6" t="n">
+        <v>5.3195</v>
+      </c>
       <c r="H9" s="7" t="n">
-        <v>5.3195</v>
-      </c>
-      <c r="I9" s="7" t="n">
         <v>5.3492</v>
       </c>
+      <c r="I9" s="6" t="n">
+        <v>5.3057</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.7973</v>
-      </c>
-      <c r="M9" s="6" t="n">
         <v>4.803</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="M9" s="5" t="n">
         <v>4.803</v>
       </c>
+      <c r="N9" s="5" t="n">
+        <v>4.803</v>
+      </c>
       <c r="O9" s="6" t="n">
-        <v>4.803</v>
-      </c>
-      <c r="P9" s="7" t="n">
         <v>4.7869</v>
       </c>
+      <c r="P9" s="6" t="n">
+        <v>4.7848</v>
+      </c>
       <c r="Q9" s="7" t="n">
-        <v>4.7848</v>
+        <v>4.8065</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.8065</v>
+        <v>4.7683</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>09-29</t>
+          <t>10-02</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>09-30</t>
+          <t>10-03</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>10-01</t>
+          <t>10-04</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
+          <t>10-05</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>10-06</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>10-07</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>10-08</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>10-02</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>10-03</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>10-04</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>10-05</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>09-29</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>09-30</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>10-01</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>10-02</t>
-        </is>
-      </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
-          <t>10-03</t>
+          <t>10-06</t>
         </is>
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>10-04</t>
+          <t>10-07</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>10-05</t>
+          <t>10-08</t>
         </is>
       </c>
     </row>
@@ -592,51 +592,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.6356</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>4.6356</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>4.6356</v>
-      </c>
-      <c r="F5" s="6" t="n">
         <v>4.6091</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="D5" s="6" t="n">
         <v>4.6147</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="E5" s="6" t="n">
         <v>4.6303</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="F5" s="7" t="n">
         <v>4.5974</v>
       </c>
+      <c r="G5" s="7" t="n">
+        <v>4.5998</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <v>4.5998</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <v>4.5998</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.3697</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>4.3697</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>4.3697</v>
+        <v>4.3634</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>4.4012</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>4.4155</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>4.3634</v>
+        <v>4.3768</v>
       </c>
       <c r="P5" s="7" t="n">
-        <v>4.4012</v>
+        <v>4.3608</v>
       </c>
       <c r="Q5" s="7" t="n">
-        <v>4.4155</v>
+        <v>4.3608</v>
       </c>
       <c r="R5" s="7" t="n">
-        <v>4.3768</v>
+        <v>4.3608</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>09-29</t>
+          <t>10-02</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>09-30</t>
+          <t>10-03</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>10-01</t>
+          <t>10-04</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
+          <t>10-05</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>10-06</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>10-07</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>10-08</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>10-02</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>10-03</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>10-04</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>10-05</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>09-29</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>09-30</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>10-01</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>10-02</t>
-        </is>
-      </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
-          <t>10-03</t>
+          <t>10-06</t>
         </is>
       </c>
       <c r="Q8" s="5" t="inlineStr">
         <is>
-          <t>10-04</t>
+          <t>10-07</t>
         </is>
       </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>10-05</t>
+          <t>10-08</t>
         </is>
       </c>
     </row>
@@ -740,25 +740,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.3464</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>5.3464</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>5.3464</v>
-      </c>
-      <c r="F9" s="6" t="n">
         <v>5.3183</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>5.3195</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>5.3492</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>5.3057</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>5.3195</v>
       </c>
-      <c r="H9" s="7" t="n">
-        <v>5.3492</v>
+      <c r="H9" s="6" t="n">
+        <v>5.3195</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.3057</v>
+        <v>5.3195</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,25 +766,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.803</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>4.803</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>4.803</v>
-      </c>
-      <c r="O9" s="6" t="n">
         <v>4.7869</v>
       </c>
-      <c r="P9" s="6" t="n">
+      <c r="M9" s="7" t="n">
         <v>4.7848</v>
       </c>
+      <c r="N9" s="6" t="n">
+        <v>4.8065</v>
+      </c>
+      <c r="O9" s="7" t="n">
+        <v>4.7683</v>
+      </c>
+      <c r="P9" s="7" t="n">
+        <v>4.7768</v>
+      </c>
       <c r="Q9" s="7" t="n">
-        <v>4.8065</v>
-      </c>
-      <c r="R9" s="6" t="n">
-        <v>4.7683</v>
+        <v>4.7768</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>4.7768</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>10-02</t>
+          <t>10-03</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>10-04</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>10-05</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>10-06</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>10-07</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>10-08</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>10-09</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>10-03</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>10-04</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>10-05</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>10-06</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>10-07</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>10-08</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>10-02</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>10-03</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>10-04</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>10-05</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>10-06</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>10-07</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>10-08</t>
+          <t>10-09</t>
         </is>
       </c>
     </row>
@@ -592,16 +592,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.6091</v>
+        <v>4.6147</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.6147</v>
-      </c>
-      <c r="E5" s="6" t="n">
         <v>4.6303</v>
       </c>
+      <c r="E5" s="7" t="n">
+        <v>4.5974</v>
+      </c>
       <c r="F5" s="7" t="n">
-        <v>4.5974</v>
+        <v>4.5998</v>
       </c>
       <c r="G5" s="7" t="n">
         <v>4.5998</v>
@@ -610,7 +610,7 @@
         <v>4.5998</v>
       </c>
       <c r="I5" s="7" t="n">
-        <v>4.5998</v>
+        <v>4.5793</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,16 +618,16 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.3634</v>
+        <v>4.4012</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.4012</v>
-      </c>
-      <c r="N5" s="6" t="n">
         <v>4.4155</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="N5" s="7" t="n">
         <v>4.3768</v>
+      </c>
+      <c r="O5" s="7" t="n">
+        <v>4.3608</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>4.3608</v>
@@ -636,7 +636,7 @@
         <v>4.3608</v>
       </c>
       <c r="R5" s="7" t="n">
-        <v>4.3608</v>
+        <v>4.3439</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>10-02</t>
+          <t>10-03</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>10-04</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>10-05</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>10-06</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>10-07</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>10-08</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>10-09</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>10-03</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>10-04</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>10-05</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>10-06</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>10-07</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>10-08</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>10-02</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>10-03</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>10-04</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>10-05</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>10-06</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>10-07</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>10-08</t>
+          <t>10-09</t>
         </is>
       </c>
     </row>
@@ -740,25 +740,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.3183</v>
+        <v>5.3195</v>
       </c>
       <c r="D9" s="6" t="n">
+        <v>5.3492</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>5.3057</v>
+      </c>
+      <c r="F9" s="5" t="n">
         <v>5.3195</v>
       </c>
-      <c r="E9" s="6" t="n">
-        <v>5.3492</v>
-      </c>
-      <c r="F9" s="7" t="n">
-        <v>5.3057</v>
-      </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="5" t="n">
         <v>5.3195</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="H9" s="5" t="n">
         <v>5.3195</v>
       </c>
-      <c r="I9" s="6" t="n">
-        <v>5.3195</v>
+      <c r="I9" s="7" t="n">
+        <v>5.2897</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,16 +766,16 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.7869</v>
-      </c>
-      <c r="M9" s="7" t="n">
         <v>4.7848</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="M9" s="6" t="n">
         <v>4.8065</v>
       </c>
+      <c r="N9" s="7" t="n">
+        <v>4.7683</v>
+      </c>
       <c r="O9" s="7" t="n">
-        <v>4.7683</v>
+        <v>4.7768</v>
       </c>
       <c r="P9" s="7" t="n">
         <v>4.7768</v>
@@ -784,7 +784,7 @@
         <v>4.7768</v>
       </c>
       <c r="R9" s="7" t="n">
-        <v>4.7768</v>
+        <v>4.7704</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,17 +37,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -73,7 +68,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -89,9 +84,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -511,77 +503,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>10-03</t>
+          <t>10-04</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>10-05</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>10-06</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>10-07</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>10-08</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>10-09</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>10-10</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>10-04</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>10-05</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>10-06</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>10-07</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>10-08</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>10-09</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>10-03</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>10-04</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>10-05</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>10-06</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>10-07</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>10-08</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>10-09</t>
+          <t>10-10</t>
         </is>
       </c>
     </row>
@@ -592,51 +584,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.6147</v>
+        <v>4.6303</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.6303</v>
-      </c>
-      <c r="E5" s="7" t="n">
         <v>4.5974</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="E5" s="6" t="n">
         <v>4.5998</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="F5" s="6" t="n">
         <v>4.5998</v>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="G5" s="6" t="n">
         <v>4.5998</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="H5" s="6" t="n">
         <v>4.5793</v>
       </c>
+      <c r="I5" s="6" t="n">
+        <v>4.5581</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.4012</v>
+        <v>4.4155</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.4155</v>
-      </c>
-      <c r="N5" s="7" t="n">
         <v>4.3768</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="N5" s="6" t="n">
         <v>4.3608</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="O5" s="6" t="n">
         <v>4.3608</v>
       </c>
-      <c r="Q5" s="7" t="n">
+      <c r="P5" s="6" t="n">
         <v>4.3608</v>
       </c>
-      <c r="R5" s="7" t="n">
+      <c r="Q5" s="6" t="n">
         <v>4.3439</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>4.2985</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +651,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>10-03</t>
+          <t>10-04</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>10-05</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>10-06</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>10-07</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>10-08</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>10-09</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>10-10</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>10-04</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>10-05</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>10-06</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>10-07</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>10-08</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>10-09</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>10-03</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>10-04</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>10-05</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>10-06</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>10-07</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>10-08</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>10-09</t>
+          <t>10-10</t>
         </is>
       </c>
     </row>
@@ -740,51 +732,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
+        <v>5.3492</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>5.3057</v>
+      </c>
+      <c r="E9" s="6" t="n">
         <v>5.3195</v>
       </c>
-      <c r="D9" s="6" t="n">
-        <v>5.3492</v>
-      </c>
-      <c r="E9" s="7" t="n">
-        <v>5.3057</v>
-      </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="6" t="n">
         <v>5.3195</v>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="G9" s="6" t="n">
         <v>5.3195</v>
       </c>
-      <c r="H9" s="5" t="n">
-        <v>5.3195</v>
-      </c>
-      <c r="I9" s="7" t="n">
+      <c r="H9" s="6" t="n">
         <v>5.2897</v>
       </c>
+      <c r="I9" s="6" t="n">
+        <v>5.2747</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.7848</v>
+        <v>4.8065</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.8065</v>
-      </c>
-      <c r="N9" s="7" t="n">
         <v>4.7683</v>
       </c>
-      <c r="O9" s="7" t="n">
+      <c r="N9" s="6" t="n">
         <v>4.7768</v>
       </c>
-      <c r="P9" s="7" t="n">
+      <c r="O9" s="6" t="n">
         <v>4.7768</v>
       </c>
-      <c r="Q9" s="7" t="n">
+      <c r="P9" s="6" t="n">
         <v>4.7768</v>
       </c>
-      <c r="R9" s="7" t="n">
+      <c r="Q9" s="6" t="n">
         <v>4.7704</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>4.7537</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,12 +37,17 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0035FC03"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -68,7 +73,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -84,6 +89,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -503,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>10-04</t>
+          <t>10-05</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>10-06</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>10-07</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>10-08</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>10-09</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>10-10</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>10-11</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>10-05</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>10-06</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>10-07</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>10-08</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>10-09</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>10-10</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>10-04</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>10-05</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>10-06</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>10-07</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>10-08</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>10-09</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>10-10</t>
+          <t>10-11</t>
         </is>
       </c>
     </row>
@@ -584,10 +592,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.6303</v>
+        <v>4.5974</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.5974</v>
+        <v>4.5998</v>
       </c>
       <c r="E5" s="6" t="n">
         <v>4.5998</v>
@@ -595,40 +603,40 @@
       <c r="F5" s="6" t="n">
         <v>4.5998</v>
       </c>
-      <c r="G5" s="6" t="n">
-        <v>4.5998</v>
-      </c>
-      <c r="H5" s="6" t="n">
+      <c r="G5" s="7" t="n">
         <v>4.5793</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="H5" s="7" t="n">
         <v>4.5581</v>
       </c>
+      <c r="I5" s="7" t="n">
+        <v>4.5183</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.4155</v>
-      </c>
-      <c r="M5" s="6" t="n">
         <v>4.3768</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="M5" s="7" t="n">
         <v>4.3608</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="N5" s="7" t="n">
         <v>4.3608</v>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="O5" s="7" t="n">
         <v>4.3608</v>
       </c>
-      <c r="Q5" s="6" t="n">
+      <c r="P5" s="7" t="n">
         <v>4.3439</v>
       </c>
-      <c r="R5" s="6" t="n">
+      <c r="Q5" s="7" t="n">
         <v>4.2985</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>4.2589</v>
       </c>
     </row>
     <row r="7">
@@ -651,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>10-04</t>
+          <t>10-05</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>10-06</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>10-07</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>10-08</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>10-09</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>10-10</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>10-11</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>10-05</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>10-06</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>10-07</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>10-08</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>10-09</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>10-10</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>10-04</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>10-05</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>10-06</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>10-07</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>10-08</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>10-09</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>10-10</t>
+          <t>10-11</t>
         </is>
       </c>
     </row>
@@ -732,10 +740,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.3492</v>
+        <v>5.3057</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.3057</v>
+        <v>5.3195</v>
       </c>
       <c r="E9" s="6" t="n">
         <v>5.3195</v>
@@ -743,25 +751,25 @@
       <c r="F9" s="6" t="n">
         <v>5.3195</v>
       </c>
-      <c r="G9" s="6" t="n">
-        <v>5.3195</v>
-      </c>
-      <c r="H9" s="6" t="n">
+      <c r="G9" s="7" t="n">
         <v>5.2897</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="H9" s="7" t="n">
         <v>5.2747</v>
       </c>
+      <c r="I9" s="7" t="n">
+        <v>5.2304</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.8065</v>
+        <v>4.7683</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.7683</v>
+        <v>4.7768</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>4.7768</v>
@@ -770,13 +778,13 @@
         <v>4.7768</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>4.7768</v>
-      </c>
-      <c r="Q9" s="6" t="n">
         <v>4.7704</v>
       </c>
-      <c r="R9" s="6" t="n">
+      <c r="Q9" s="7" t="n">
         <v>4.7537</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>4.7174</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,17 +37,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -73,7 +68,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -89,9 +84,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -511,77 +503,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>10-05</t>
+          <t>10-06</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>10-07</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>10-08</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>10-09</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>10-10</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>10-11</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>10-12</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>10-06</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>10-07</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>10-08</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>10-09</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>10-10</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>10-11</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>10-05</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>10-06</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>10-07</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>10-08</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>10-09</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>10-10</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>10-11</t>
+          <t>10-12</t>
         </is>
       </c>
     </row>
@@ -592,51 +584,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.5974</v>
-      </c>
-      <c r="D5" s="6" t="n">
         <v>4.5998</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="D5" s="5" t="n">
         <v>4.5998</v>
       </c>
+      <c r="E5" s="5" t="n">
+        <v>4.5998</v>
+      </c>
       <c r="F5" s="6" t="n">
-        <v>4.5998</v>
-      </c>
-      <c r="G5" s="7" t="n">
         <v>4.5793</v>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="G5" s="6" t="n">
         <v>4.5581</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="H5" s="6" t="n">
         <v>4.5183</v>
       </c>
+      <c r="I5" s="6" t="n">
+        <v>4.5329</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.3768</v>
-      </c>
-      <c r="M5" s="7" t="n">
         <v>4.3608</v>
       </c>
-      <c r="N5" s="7" t="n">
+      <c r="M5" s="5" t="n">
         <v>4.3608</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="N5" s="5" t="n">
         <v>4.3608</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="O5" s="6" t="n">
         <v>4.3439</v>
       </c>
-      <c r="Q5" s="7" t="n">
+      <c r="P5" s="6" t="n">
         <v>4.2985</v>
       </c>
-      <c r="R5" s="7" t="n">
+      <c r="Q5" s="6" t="n">
         <v>4.2589</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>4.2659</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +651,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>10-05</t>
+          <t>10-06</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>10-07</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>10-08</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>10-09</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>10-10</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>10-11</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>10-12</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>10-06</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>10-07</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>10-08</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>10-09</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>10-10</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>10-11</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>10-05</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>10-06</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>10-07</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>10-08</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>10-09</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>10-10</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>10-11</t>
+          <t>10-12</t>
         </is>
       </c>
     </row>
@@ -740,51 +732,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.3057</v>
-      </c>
-      <c r="D9" s="6" t="n">
         <v>5.3195</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="5" t="n">
         <v>5.3195</v>
       </c>
+      <c r="E9" s="5" t="n">
+        <v>5.3195</v>
+      </c>
       <c r="F9" s="6" t="n">
-        <v>5.3195</v>
-      </c>
-      <c r="G9" s="7" t="n">
         <v>5.2897</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="G9" s="6" t="n">
         <v>5.2747</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="H9" s="6" t="n">
         <v>5.2304</v>
       </c>
+      <c r="I9" s="6" t="n">
+        <v>5.2452</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.7683</v>
-      </c>
-      <c r="M9" s="6" t="n">
         <v>4.7768</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="M9" s="5" t="n">
         <v>4.7768</v>
       </c>
+      <c r="N9" s="5" t="n">
+        <v>4.7768</v>
+      </c>
       <c r="O9" s="6" t="n">
-        <v>4.7768</v>
+        <v>4.7704</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>4.7704</v>
-      </c>
-      <c r="Q9" s="7" t="n">
         <v>4.7537</v>
       </c>
-      <c r="R9" s="7" t="n">
+      <c r="Q9" s="6" t="n">
         <v>4.7174</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>4.7398</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -503,77 +503,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>10-06</t>
+          <t>10-09</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>10-07</t>
+          <t>10-10</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>10-08</t>
+          <t>10-11</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
+          <t>10-12</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>10-13</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>10-14</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>10-09</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>10-10</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>10-11</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>10-12</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>10-06</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>10-07</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>10-08</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>10-09</t>
-        </is>
-      </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
-          <t>10-10</t>
+          <t>10-13</t>
         </is>
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>10-11</t>
+          <t>10-14</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>10-15</t>
         </is>
       </c>
     </row>
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.5998</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>4.5998</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>4.5998</v>
+        <v>4.5793</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>4.5581</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>4.5183</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.5793</v>
+        <v>4.5329</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.5581</v>
+        <v>4.5417</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.5183</v>
+        <v>4.5417</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.5329</v>
+        <v>4.5417</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -610,25 +610,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.3608</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>4.3608</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>4.3608</v>
+        <v>4.3439</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>4.2985</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>4.2589</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>4.3439</v>
+        <v>4.2659</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>4.2985</v>
+        <v>4.3033</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>4.2589</v>
+        <v>4.3033</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>4.2659</v>
+        <v>4.3033</v>
       </c>
     </row>
     <row r="7">
@@ -651,77 +651,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>10-06</t>
+          <t>10-09</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>10-07</t>
+          <t>10-10</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>10-08</t>
+          <t>10-11</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
+          <t>10-12</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>10-13</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>10-14</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>10-09</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>10-10</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>10-11</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>10-12</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>10-06</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>10-07</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>10-08</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>10-09</t>
-        </is>
-      </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
-          <t>10-10</t>
+          <t>10-13</t>
         </is>
       </c>
       <c r="Q8" s="5" t="inlineStr">
         <is>
-          <t>10-11</t>
+          <t>10-14</t>
         </is>
       </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>10-15</t>
         </is>
       </c>
     </row>
@@ -732,25 +732,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.3195</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>5.3195</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>5.3195</v>
+        <v>5.2897</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>5.2747</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>5.2304</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>5.2897</v>
+        <v>5.2452</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.2747</v>
+        <v>5.2563</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.2304</v>
+        <v>5.2563</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.2452</v>
+        <v>5.2563</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -758,25 +758,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.7768</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>4.7768</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>4.7768</v>
+        <v>4.7704</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>4.7537</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>4.7174</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>4.7704</v>
+        <v>4.7398</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>4.7537</v>
+        <v>4.747</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.7174</v>
+        <v>4.747</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.7398</v>
+        <v>4.747</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,7 +37,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FC2C03"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
   </fills>
@@ -68,7 +73,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -84,6 +89,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -503,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>10-09</t>
+          <t>10-10</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>10-11</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>10-12</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>10-13</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>10-14</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>10-16</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>10-10</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>10-11</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>10-12</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>10-13</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>10-14</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>10-15</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>10-09</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>10-10</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>10-11</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>10-12</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>10-13</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>10-14</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>10-15</t>
+          <t>10-16</t>
         </is>
       </c>
     </row>
@@ -584,16 +592,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.5793</v>
+        <v>4.5581</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.5581</v>
+        <v>4.5183</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.5183</v>
+        <v>4.5329</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.5329</v>
+        <v>4.5417</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>4.5417</v>
@@ -602,7 +610,7 @@
         <v>4.5417</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.5417</v>
+        <v>4.4804</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -610,25 +618,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.3439</v>
+        <v>4.2985</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.2985</v>
+        <v>4.2589</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>4.2589</v>
-      </c>
-      <c r="O5" s="6" t="n">
         <v>4.2659</v>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="O5" s="7" t="n">
         <v>4.3033</v>
       </c>
-      <c r="Q5" s="6" t="n">
+      <c r="P5" s="7" t="n">
         <v>4.3033</v>
       </c>
+      <c r="Q5" s="7" t="n">
+        <v>4.3033</v>
+      </c>
       <c r="R5" s="6" t="n">
-        <v>4.3033</v>
+        <v>4.2505</v>
       </c>
     </row>
     <row r="7">
@@ -651,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>10-09</t>
+          <t>10-10</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>10-11</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>10-12</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>10-13</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>10-14</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>10-16</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>10-10</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>10-11</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>10-12</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>10-13</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>10-14</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>10-15</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>10-09</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>10-10</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>10-11</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>10-12</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>10-13</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>10-14</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>10-15</t>
+          <t>10-16</t>
         </is>
       </c>
     </row>
@@ -732,16 +740,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.2897</v>
+        <v>5.2747</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.2747</v>
+        <v>5.2304</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>5.2304</v>
+        <v>5.2452</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>5.2452</v>
+        <v>5.2563</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>5.2563</v>
@@ -750,7 +758,7 @@
         <v>5.2563</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.2563</v>
+        <v>5.1683</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -758,16 +766,16 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.7704</v>
+        <v>4.7537</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.7537</v>
+        <v>4.7174</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>4.7174</v>
+        <v>4.7398</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>4.7398</v>
+        <v>4.747</v>
       </c>
       <c r="P9" s="6" t="n">
         <v>4.747</v>
@@ -776,7 +784,7 @@
         <v>4.747</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.747</v>
+        <v>4.7085</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>10-10</t>
+          <t>10-11</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>10-12</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>10-13</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>10-14</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>10-16</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>10-17</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>10-11</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>10-12</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>10-13</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>10-14</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>10-15</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>10-16</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>10-10</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>10-11</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>10-12</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>10-13</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>10-14</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>10-17</t>
         </is>
       </c>
     </row>
@@ -592,13 +592,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.5581</v>
+        <v>4.5183</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.5183</v>
+        <v>4.5329</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.5329</v>
+        <v>4.5417</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>4.5417</v>
@@ -606,37 +606,37 @@
       <c r="G5" s="6" t="n">
         <v>4.5417</v>
       </c>
-      <c r="H5" s="6" t="n">
-        <v>4.5417</v>
-      </c>
-      <c r="I5" s="6" t="n">
+      <c r="H5" s="7" t="n">
         <v>4.4804</v>
       </c>
+      <c r="I5" s="7" t="n">
+        <v>4.4389</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.2985</v>
+        <v>4.2589</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.2589</v>
+        <v>4.2659</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>4.2659</v>
-      </c>
-      <c r="O5" s="7" t="n">
         <v>4.3033</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="O5" s="6" t="n">
         <v>4.3033</v>
       </c>
+      <c r="P5" s="6" t="n">
+        <v>4.3033</v>
+      </c>
       <c r="Q5" s="7" t="n">
-        <v>4.3033</v>
-      </c>
-      <c r="R5" s="6" t="n">
         <v>4.2505</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>4.2131</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>10-10</t>
+          <t>10-11</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>10-12</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>10-13</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>10-14</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>10-16</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>10-17</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>10-11</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>10-12</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>10-13</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>10-14</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>10-15</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>10-16</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>10-10</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>10-11</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>10-12</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>10-13</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>10-14</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>10-17</t>
         </is>
       </c>
     </row>
@@ -740,13 +740,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.2747</v>
+        <v>5.2304</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.2304</v>
+        <v>5.2452</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>5.2452</v>
+        <v>5.2563</v>
       </c>
       <c r="F9" s="6" t="n">
         <v>5.2563</v>
@@ -754,25 +754,25 @@
       <c r="G9" s="6" t="n">
         <v>5.2563</v>
       </c>
-      <c r="H9" s="6" t="n">
-        <v>5.2563</v>
-      </c>
-      <c r="I9" s="6" t="n">
+      <c r="H9" s="7" t="n">
         <v>5.1683</v>
       </c>
+      <c r="I9" s="7" t="n">
+        <v>5.1222</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.7537</v>
+        <v>4.7174</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.7174</v>
+        <v>4.7398</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>4.7398</v>
+        <v>4.747</v>
       </c>
       <c r="O9" s="6" t="n">
         <v>4.747</v>
@@ -780,11 +780,11 @@
       <c r="P9" s="6" t="n">
         <v>4.747</v>
       </c>
-      <c r="Q9" s="6" t="n">
-        <v>4.747</v>
-      </c>
-      <c r="R9" s="6" t="n">
+      <c r="Q9" s="7" t="n">
         <v>4.7085</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>4.6676</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>10-11</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>10-13</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>10-14</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>10-16</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>10-17</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>10-18</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>10-12</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>10-13</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>10-14</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>10-15</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>10-16</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>10-17</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>10-11</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>10-12</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>10-13</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>10-14</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>10-16</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>10-17</t>
+          <t>10-18</t>
         </is>
       </c>
     </row>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.5183</v>
+        <v>4.5329</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.5329</v>
+        <v>4.5417</v>
       </c>
       <c r="E5" s="6" t="n">
         <v>4.5417</v>
@@ -603,14 +603,14 @@
       <c r="F5" s="6" t="n">
         <v>4.5417</v>
       </c>
-      <c r="G5" s="6" t="n">
-        <v>4.5417</v>
+      <c r="G5" s="7" t="n">
+        <v>4.4804</v>
       </c>
       <c r="H5" s="7" t="n">
-        <v>4.4804</v>
+        <v>4.4389</v>
       </c>
       <c r="I5" s="7" t="n">
-        <v>4.4389</v>
+        <v>4.4488</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,10 +618,10 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.2589</v>
+        <v>4.2659</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.2659</v>
+        <v>4.3033</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>4.3033</v>
@@ -629,14 +629,14 @@
       <c r="O5" s="6" t="n">
         <v>4.3033</v>
       </c>
-      <c r="P5" s="6" t="n">
-        <v>4.3033</v>
+      <c r="P5" s="7" t="n">
+        <v>4.2505</v>
       </c>
       <c r="Q5" s="7" t="n">
-        <v>4.2505</v>
+        <v>4.2131</v>
       </c>
       <c r="R5" s="7" t="n">
-        <v>4.2131</v>
+        <v>4.2035</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>10-11</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>10-13</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>10-14</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>10-16</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>10-17</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>10-18</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>10-12</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>10-13</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>10-14</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>10-15</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>10-16</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>10-17</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>10-11</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>10-12</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>10-13</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>10-14</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>10-16</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>10-17</t>
+          <t>10-18</t>
         </is>
       </c>
     </row>
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.2304</v>
+        <v>5.2452</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.2452</v>
+        <v>5.2563</v>
       </c>
       <c r="E9" s="6" t="n">
         <v>5.2563</v>
@@ -751,14 +751,14 @@
       <c r="F9" s="6" t="n">
         <v>5.2563</v>
       </c>
-      <c r="G9" s="6" t="n">
-        <v>5.2563</v>
+      <c r="G9" s="7" t="n">
+        <v>5.1683</v>
       </c>
       <c r="H9" s="7" t="n">
-        <v>5.1683</v>
+        <v>5.1222</v>
       </c>
       <c r="I9" s="7" t="n">
-        <v>5.1222</v>
+        <v>5.1283</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.7174</v>
+        <v>4.7398</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.7398</v>
+        <v>4.747</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>4.747</v>
@@ -777,14 +777,14 @@
       <c r="O9" s="6" t="n">
         <v>4.747</v>
       </c>
-      <c r="P9" s="6" t="n">
-        <v>4.747</v>
+      <c r="P9" s="7" t="n">
+        <v>4.7085</v>
       </c>
       <c r="Q9" s="7" t="n">
-        <v>4.7085</v>
+        <v>4.6676</v>
       </c>
       <c r="R9" s="7" t="n">
-        <v>4.6676</v>
+        <v>4.6753</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,17 +37,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -73,7 +68,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -89,9 +84,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -511,77 +503,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>10-13</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>10-14</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>10-16</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>10-17</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>10-18</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>10-13</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>10-14</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>10-15</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>10-16</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>10-17</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>10-18</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>10-12</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>10-13</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>10-14</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>10-16</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>10-17</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>10-18</t>
+          <t>10-19</t>
         </is>
       </c>
     </row>
@@ -592,51 +584,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.5329</v>
-      </c>
-      <c r="D5" s="6" t="n">
         <v>4.5417</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="D5" s="5" t="n">
         <v>4.5417</v>
       </c>
+      <c r="E5" s="5" t="n">
+        <v>4.5417</v>
+      </c>
       <c r="F5" s="6" t="n">
-        <v>4.5417</v>
-      </c>
-      <c r="G5" s="7" t="n">
         <v>4.4804</v>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="G5" s="6" t="n">
         <v>4.4389</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="H5" s="6" t="n">
         <v>4.4488</v>
       </c>
+      <c r="I5" s="6" t="n">
+        <v>4.4529</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.2659</v>
-      </c>
-      <c r="M5" s="6" t="n">
         <v>4.3033</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="M5" s="5" t="n">
         <v>4.3033</v>
       </c>
+      <c r="N5" s="5" t="n">
+        <v>4.3033</v>
+      </c>
       <c r="O5" s="6" t="n">
-        <v>4.3033</v>
-      </c>
-      <c r="P5" s="7" t="n">
         <v>4.2505</v>
       </c>
-      <c r="Q5" s="7" t="n">
+      <c r="P5" s="6" t="n">
         <v>4.2131</v>
       </c>
-      <c r="R5" s="7" t="n">
+      <c r="Q5" s="6" t="n">
         <v>4.2035</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>4.2264</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +651,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>10-13</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>10-14</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>10-16</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>10-17</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>10-18</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>10-13</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>10-14</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>10-15</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>10-16</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>10-17</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>10-18</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>10-12</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>10-13</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>10-14</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>10-16</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>10-17</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>10-18</t>
+          <t>10-19</t>
         </is>
       </c>
     </row>
@@ -740,51 +732,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.2452</v>
-      </c>
-      <c r="D9" s="6" t="n">
         <v>5.2563</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="5" t="n">
         <v>5.2563</v>
       </c>
+      <c r="E9" s="5" t="n">
+        <v>5.2563</v>
+      </c>
       <c r="F9" s="6" t="n">
-        <v>5.2563</v>
-      </c>
-      <c r="G9" s="7" t="n">
         <v>5.1683</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="G9" s="6" t="n">
         <v>5.1222</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="H9" s="6" t="n">
         <v>5.1283</v>
       </c>
+      <c r="I9" s="6" t="n">
+        <v>5.1171</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.7398</v>
-      </c>
-      <c r="M9" s="6" t="n">
         <v>4.747</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="M9" s="5" t="n">
         <v>4.747</v>
       </c>
+      <c r="N9" s="5" t="n">
+        <v>4.747</v>
+      </c>
       <c r="O9" s="6" t="n">
-        <v>4.747</v>
-      </c>
-      <c r="P9" s="7" t="n">
         <v>4.7085</v>
       </c>
-      <c r="Q9" s="7" t="n">
+      <c r="P9" s="6" t="n">
         <v>4.6676</v>
       </c>
-      <c r="R9" s="7" t="n">
+      <c r="Q9" s="6" t="n">
         <v>4.6753</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>4.6989</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,7 +37,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FC2C03"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
   </fills>
@@ -68,7 +73,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -84,6 +89,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -503,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>10-13</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>10-14</t>
+          <t>10-17</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>10-15</t>
+          <t>10-18</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>10-20</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>10-21</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>10-22</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>10-16</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>10-17</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>10-18</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>10-19</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>10-13</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>10-14</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>10-16</t>
-        </is>
-      </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
-          <t>10-17</t>
+          <t>10-20</t>
         </is>
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>10-18</t>
+          <t>10-21</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>10-22</t>
         </is>
       </c>
     </row>
@@ -584,25 +592,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.5417</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>4.5417</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>4.5417</v>
+        <v>4.4804</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>4.4389</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>4.4488</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.4804</v>
+        <v>4.4529</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.4389</v>
+        <v>4.4675</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.4488</v>
+        <v>4.4675</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.4529</v>
+        <v>4.4675</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -610,25 +618,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.3033</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>4.3033</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>4.3033</v>
+        <v>4.2505</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>4.2131</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>4.2035</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>4.2505</v>
+        <v>4.2264</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>4.2131</v>
+        <v>4.2194</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>4.2035</v>
+        <v>4.2194</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>4.2264</v>
+        <v>4.2194</v>
       </c>
     </row>
     <row r="7">
@@ -651,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>10-13</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>10-14</t>
+          <t>10-17</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>10-15</t>
+          <t>10-18</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>10-20</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>10-21</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>10-22</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>10-16</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>10-17</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>10-18</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>10-19</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>10-13</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>10-14</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>10-16</t>
-        </is>
-      </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
-          <t>10-17</t>
+          <t>10-20</t>
         </is>
       </c>
       <c r="Q8" s="5" t="inlineStr">
         <is>
-          <t>10-18</t>
+          <t>10-21</t>
         </is>
       </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>10-22</t>
         </is>
       </c>
     </row>
@@ -732,25 +740,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.2563</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>5.2563</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>5.2563</v>
+        <v>5.1683</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>5.1222</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>5.1283</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>5.1683</v>
+        <v>5.1171</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.1222</v>
+        <v>5.1159</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.1283</v>
+        <v>5.1159</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.1171</v>
+        <v>5.1159</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -758,25 +766,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.747</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>4.747</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>4.747</v>
+        <v>4.7085</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>4.6676</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>4.6753</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>4.7085</v>
-      </c>
-      <c r="P9" s="6" t="n">
-        <v>4.6676</v>
-      </c>
-      <c r="Q9" s="6" t="n">
-        <v>4.6753</v>
-      </c>
-      <c r="R9" s="6" t="n">
         <v>4.6989</v>
+      </c>
+      <c r="P9" s="7" t="n">
+        <v>4.7328</v>
+      </c>
+      <c r="Q9" s="7" t="n">
+        <v>4.7328</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>4.7328</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>10-17</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>10-18</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>10-20</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>10-21</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>10-22</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>10-23</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>10-17</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>10-18</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>10-19</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>10-20</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>10-21</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>10-22</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>10-16</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>10-17</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>10-18</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>10-20</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>10-21</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>10-22</t>
+          <t>10-23</t>
         </is>
       </c>
     </row>
@@ -592,16 +592,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4804</v>
+        <v>4.4389</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4389</v>
+        <v>4.4488</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.4488</v>
+        <v>4.4529</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.4529</v>
+        <v>4.4675</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>4.4675</v>
@@ -610,7 +610,7 @@
         <v>4.4675</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.4675</v>
+        <v>4.4552</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,16 +618,16 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.2505</v>
-      </c>
-      <c r="M5" s="6" t="n">
         <v>4.2131</v>
       </c>
+      <c r="M5" s="7" t="n">
+        <v>4.2035</v>
+      </c>
       <c r="N5" s="6" t="n">
-        <v>4.2035</v>
+        <v>4.2264</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>4.2264</v>
+        <v>4.2194</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>4.2194</v>
@@ -635,8 +635,8 @@
       <c r="Q5" s="6" t="n">
         <v>4.2194</v>
       </c>
-      <c r="R5" s="6" t="n">
-        <v>4.2194</v>
+      <c r="R5" s="7" t="n">
+        <v>4.2022</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>10-17</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>10-18</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>10-20</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>10-21</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>10-22</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>10-23</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>10-17</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>10-18</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>10-19</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>10-20</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>10-21</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>10-22</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>10-16</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>10-17</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>10-18</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>10-20</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>10-21</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>10-22</t>
+          <t>10-23</t>
         </is>
       </c>
     </row>
@@ -740,51 +740,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1683</v>
+        <v>5.1222</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.1222</v>
-      </c>
-      <c r="E9" s="6" t="n">
         <v>5.1283</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="E9" s="7" t="n">
         <v>5.1171</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="F9" s="7" t="n">
         <v>5.1159</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="G9" s="7" t="n">
         <v>5.1159</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="H9" s="7" t="n">
         <v>5.1159</v>
       </c>
+      <c r="I9" s="7" t="n">
+        <v>5.1103</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.7085</v>
+        <v>4.6676</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.6676</v>
+        <v>4.6753</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>4.6753</v>
+        <v>4.6989</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>4.6989</v>
-      </c>
-      <c r="P9" s="7" t="n">
         <v>4.7328</v>
       </c>
-      <c r="Q9" s="7" t="n">
+      <c r="P9" s="6" t="n">
         <v>4.7328</v>
       </c>
-      <c r="R9" s="7" t="n">
+      <c r="Q9" s="6" t="n">
         <v>4.7328</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>4.7083</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>10-17</t>
+          <t>10-18</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>10-20</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>10-21</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>10-22</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>10-23</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>10-18</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>10-19</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>10-20</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>10-21</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>10-22</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>10-23</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>10-17</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>10-18</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>10-20</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>10-21</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>10-22</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>10-23</t>
+          <t>10-24</t>
         </is>
       </c>
     </row>
@@ -592,13 +592,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4389</v>
+        <v>4.4488</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4488</v>
+        <v>4.4529</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.4529</v>
+        <v>4.4675</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>4.4675</v>
@@ -607,10 +607,10 @@
         <v>4.4675</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.4675</v>
+        <v>4.4552</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.4552</v>
+        <v>4.4604</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.2131</v>
-      </c>
-      <c r="M5" s="7" t="n">
         <v>4.2035</v>
       </c>
+      <c r="M5" s="6" t="n">
+        <v>4.2264</v>
+      </c>
       <c r="N5" s="6" t="n">
-        <v>4.2264</v>
+        <v>4.2194</v>
       </c>
       <c r="O5" s="6" t="n">
         <v>4.2194</v>
@@ -632,11 +632,11 @@
       <c r="P5" s="6" t="n">
         <v>4.2194</v>
       </c>
-      <c r="Q5" s="6" t="n">
-        <v>4.2194</v>
+      <c r="Q5" s="7" t="n">
+        <v>4.2022</v>
       </c>
       <c r="R5" s="7" t="n">
-        <v>4.2022</v>
+        <v>4.1884</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>10-17</t>
+          <t>10-18</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>10-19</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>10-20</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>10-21</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>10-22</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>10-23</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>10-18</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>10-19</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>10-20</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>10-21</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>10-22</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>10-23</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>10-17</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>10-18</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>10-20</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>10-21</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>10-22</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>10-23</t>
+          <t>10-24</t>
         </is>
       </c>
     </row>
@@ -740,13 +740,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1222</v>
-      </c>
-      <c r="D9" s="6" t="n">
         <v>5.1283</v>
       </c>
+      <c r="D9" s="7" t="n">
+        <v>5.1171</v>
+      </c>
       <c r="E9" s="7" t="n">
-        <v>5.1171</v>
+        <v>5.1159</v>
       </c>
       <c r="F9" s="7" t="n">
         <v>5.1159</v>
@@ -755,24 +755,24 @@
         <v>5.1159</v>
       </c>
       <c r="H9" s="7" t="n">
-        <v>5.1159</v>
-      </c>
-      <c r="I9" s="7" t="n">
         <v>5.1103</v>
       </c>
+      <c r="I9" s="6" t="n">
+        <v>5.1366</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6676</v>
+        <v>4.6753</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.6753</v>
+        <v>4.6989</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>4.6989</v>
+        <v>4.7328</v>
       </c>
       <c r="O9" s="6" t="n">
         <v>4.7328</v>
@@ -781,10 +781,10 @@
         <v>4.7328</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.7328</v>
+        <v>4.7083</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.7083</v>
+        <v>4.6974</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>10-18</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>10-20</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>10-21</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>10-22</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>10-23</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>10-25</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>10-19</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>10-20</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>10-21</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>10-22</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>10-23</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>10-24</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>10-18</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>10-20</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>10-21</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>10-22</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>10-23</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>10-25</t>
         </is>
       </c>
     </row>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4488</v>
+        <v>4.4529</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4529</v>
+        <v>4.4675</v>
       </c>
       <c r="E5" s="6" t="n">
         <v>4.4675</v>
@@ -604,13 +604,13 @@
         <v>4.4675</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.4675</v>
+        <v>4.4552</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.4552</v>
+        <v>4.4604</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.4604</v>
+        <v>4.4758</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +618,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.2035</v>
-      </c>
-      <c r="M5" s="6" t="n">
         <v>4.2264</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="M5" s="7" t="n">
         <v>4.2194</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="N5" s="7" t="n">
         <v>4.2194</v>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="O5" s="7" t="n">
         <v>4.2194</v>
       </c>
+      <c r="P5" s="7" t="n">
+        <v>4.2022</v>
+      </c>
       <c r="Q5" s="7" t="n">
-        <v>4.2022</v>
-      </c>
-      <c r="R5" s="7" t="n">
         <v>4.1884</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>4.2284</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>10-18</t>
+          <t>10-19</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>10-20</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>10-21</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>10-22</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>10-23</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>10-25</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>10-19</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>10-20</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>10-21</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>10-22</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>10-23</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>10-24</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>10-18</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>10-20</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>10-21</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>10-22</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>10-23</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>10-25</t>
         </is>
       </c>
     </row>
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1283</v>
+        <v>5.1171</v>
       </c>
       <c r="D9" s="7" t="n">
-        <v>5.1171</v>
+        <v>5.1159</v>
       </c>
       <c r="E9" s="7" t="n">
         <v>5.1159</v>
@@ -752,13 +752,13 @@
         <v>5.1159</v>
       </c>
       <c r="G9" s="7" t="n">
-        <v>5.1159</v>
-      </c>
-      <c r="H9" s="7" t="n">
         <v>5.1103</v>
       </c>
+      <c r="H9" s="6" t="n">
+        <v>5.1366</v>
+      </c>
       <c r="I9" s="6" t="n">
-        <v>5.1366</v>
+        <v>5.1328</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6753</v>
+        <v>4.6989</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.6989</v>
+        <v>4.7328</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>4.7328</v>
@@ -778,13 +778,13 @@
         <v>4.7328</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>4.7328</v>
-      </c>
-      <c r="Q9" s="6" t="n">
         <v>4.7083</v>
       </c>
+      <c r="Q9" s="7" t="n">
+        <v>4.6974</v>
+      </c>
       <c r="R9" s="6" t="n">
-        <v>4.6974</v>
+        <v>4.7236</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>10-20</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>10-21</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>10-22</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>10-23</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>10-25</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>10-26</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>10-20</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>10-21</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>10-22</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>10-23</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>10-24</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>10-25</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>10-20</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>10-21</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>10-22</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>10-23</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>10-24</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>10-25</t>
+          <t>10-26</t>
         </is>
       </c>
     </row>
@@ -592,51 +592,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4529</v>
-      </c>
-      <c r="D5" s="6" t="n">
         <v>4.4675</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="D5" s="5" t="n">
         <v>4.4675</v>
       </c>
+      <c r="E5" s="5" t="n">
+        <v>4.4675</v>
+      </c>
       <c r="F5" s="6" t="n">
-        <v>4.4675</v>
+        <v>4.4552</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.4552</v>
-      </c>
-      <c r="H5" s="6" t="n">
         <v>4.4604</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="H5" s="7" t="n">
         <v>4.4758</v>
       </c>
+      <c r="I5" s="7" t="n">
+        <v>4.4708</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.2264</v>
-      </c>
-      <c r="M5" s="7" t="n">
         <v>4.2194</v>
       </c>
-      <c r="N5" s="7" t="n">
+      <c r="M5" s="5" t="n">
         <v>4.2194</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="N5" s="5" t="n">
         <v>4.2194</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="O5" s="6" t="n">
         <v>4.2022</v>
       </c>
+      <c r="P5" s="6" t="n">
+        <v>4.1884</v>
+      </c>
       <c r="Q5" s="7" t="n">
-        <v>4.1884</v>
-      </c>
-      <c r="R5" s="6" t="n">
         <v>4.2284</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>4.2395</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>10-20</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>10-21</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>10-22</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>10-23</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>10-24</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>10-25</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>10-26</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>10-20</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>10-21</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>10-22</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>10-23</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>10-24</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>10-25</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>10-20</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>10-21</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>10-22</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>10-23</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>10-24</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>10-25</t>
+          <t>10-26</t>
         </is>
       </c>
     </row>
@@ -740,51 +740,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1171</v>
-      </c>
-      <c r="D9" s="7" t="n">
         <v>5.1159</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="D9" s="5" t="n">
         <v>5.1159</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="E9" s="5" t="n">
         <v>5.1159</v>
       </c>
+      <c r="F9" s="6" t="n">
+        <v>5.1103</v>
+      </c>
       <c r="G9" s="7" t="n">
-        <v>5.1103</v>
-      </c>
-      <c r="H9" s="6" t="n">
         <v>5.1366</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="H9" s="7" t="n">
         <v>5.1328</v>
       </c>
+      <c r="I9" s="7" t="n">
+        <v>5.1209</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6989</v>
-      </c>
-      <c r="M9" s="6" t="n">
         <v>4.7328</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="M9" s="5" t="n">
         <v>4.7328</v>
       </c>
+      <c r="N9" s="5" t="n">
+        <v>4.7328</v>
+      </c>
       <c r="O9" s="6" t="n">
-        <v>4.7328</v>
+        <v>4.7083</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>4.7083</v>
-      </c>
-      <c r="Q9" s="7" t="n">
         <v>4.6974</v>
       </c>
+      <c r="Q9" s="6" t="n">
+        <v>4.7236</v>
+      </c>
       <c r="R9" s="6" t="n">
-        <v>4.7236</v>
+        <v>4.7123</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>10-20</t>
+          <t>10-23</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>10-21</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>10-22</t>
+          <t>10-25</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
+          <t>10-26</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>10-27</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>10-28</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>10-29</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>10-23</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>10-24</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>10-25</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>10-26</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>10-20</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>10-21</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>10-22</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>10-23</t>
-        </is>
-      </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>10-27</t>
         </is>
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>10-25</t>
+          <t>10-28</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>10-26</t>
+          <t>10-29</t>
         </is>
       </c>
     </row>
@@ -592,25 +592,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4675</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>4.4675</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>4.4675</v>
+        <v>4.4552</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>4.4604</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>4.4758</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.4552</v>
+        <v>4.4708</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.4604</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <v>4.4758</v>
-      </c>
-      <c r="I5" s="7" t="n">
-        <v>4.4708</v>
+        <v>4.4642</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>4.4642</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>4.4642</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +618,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.2194</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>4.2194</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>4.2194</v>
+        <v>4.2022</v>
+      </c>
+      <c r="M5" s="7" t="n">
+        <v>4.1884</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>4.2284</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>4.2022</v>
+        <v>4.2395</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>4.1884</v>
-      </c>
-      <c r="Q5" s="7" t="n">
-        <v>4.2284</v>
-      </c>
-      <c r="R5" s="7" t="n">
-        <v>4.2395</v>
+        <v>4.2267</v>
+      </c>
+      <c r="Q5" s="6" t="n">
+        <v>4.2267</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>4.2267</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>10-20</t>
+          <t>10-23</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>10-21</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>10-22</t>
+          <t>10-25</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
+          <t>10-26</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>10-27</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>10-28</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>10-29</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>10-23</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>10-24</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>10-25</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>10-26</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>10-20</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>10-21</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>10-22</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>10-23</t>
-        </is>
-      </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>10-27</t>
         </is>
       </c>
       <c r="Q8" s="5" t="inlineStr">
         <is>
-          <t>10-25</t>
+          <t>10-28</t>
         </is>
       </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>10-26</t>
+          <t>10-29</t>
         </is>
       </c>
     </row>
@@ -740,51 +740,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1159</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>5.1159</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>5.1159</v>
+        <v>5.1103</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>5.1366</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>5.1328</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>5.1103</v>
-      </c>
-      <c r="G9" s="7" t="n">
-        <v>5.1366</v>
-      </c>
-      <c r="H9" s="7" t="n">
-        <v>5.1328</v>
-      </c>
-      <c r="I9" s="7" t="n">
         <v>5.1209</v>
       </c>
+      <c r="G9" s="6" t="n">
+        <v>5.1266</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>5.1266</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>5.1266</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.7328</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>4.7328</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>4.7328</v>
+        <v>4.7083</v>
+      </c>
+      <c r="M9" s="7" t="n">
+        <v>4.6974</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>4.7236</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>4.7083</v>
-      </c>
-      <c r="P9" s="6" t="n">
-        <v>4.6974</v>
-      </c>
-      <c r="Q9" s="6" t="n">
-        <v>4.7236</v>
-      </c>
-      <c r="R9" s="6" t="n">
         <v>4.7123</v>
+      </c>
+      <c r="P9" s="7" t="n">
+        <v>4.6935</v>
+      </c>
+      <c r="Q9" s="7" t="n">
+        <v>4.6935</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>4.6935</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>10-23</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>10-25</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>10-26</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>10-27</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>10-28</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>10-29</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>10-30</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>10-24</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>10-25</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>10-26</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>10-27</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>10-28</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>10-29</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>10-23</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>10-24</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>10-25</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>10-26</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>10-27</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>10-28</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>10-29</t>
+          <t>10-30</t>
         </is>
       </c>
     </row>
@@ -592,16 +592,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4552</v>
+        <v>4.4604</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4604</v>
+        <v>4.4758</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.4758</v>
+        <v>4.4708</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.4708</v>
+        <v>4.4642</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>4.4642</v>
@@ -609,8 +609,8 @@
       <c r="H5" s="6" t="n">
         <v>4.4642</v>
       </c>
-      <c r="I5" s="6" t="n">
-        <v>4.4642</v>
+      <c r="I5" s="7" t="n">
+        <v>4.4491</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,16 +618,16 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.2022</v>
-      </c>
-      <c r="M5" s="7" t="n">
         <v>4.1884</v>
       </c>
+      <c r="M5" s="6" t="n">
+        <v>4.2284</v>
+      </c>
       <c r="N5" s="6" t="n">
-        <v>4.2284</v>
+        <v>4.2395</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>4.2395</v>
+        <v>4.2267</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>4.2267</v>
@@ -636,7 +636,7 @@
         <v>4.2267</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>4.2267</v>
+        <v>4.204</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>10-23</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>10-25</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>10-26</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>10-27</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>10-28</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>10-29</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>10-30</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>10-24</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>10-25</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>10-26</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>10-27</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>10-28</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>10-29</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>10-23</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>10-24</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>10-25</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>10-26</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>10-27</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>10-28</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>10-29</t>
+          <t>10-30</t>
         </is>
       </c>
     </row>
@@ -740,42 +740,42 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1103</v>
-      </c>
-      <c r="D9" s="6" t="n">
         <v>5.1366</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="7" t="n">
         <v>5.1328</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="E9" s="7" t="n">
         <v>5.1209</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="F9" s="7" t="n">
         <v>5.1266</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="G9" s="7" t="n">
         <v>5.1266</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="H9" s="7" t="n">
         <v>5.1266</v>
       </c>
+      <c r="I9" s="7" t="n">
+        <v>5.0987</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.7083</v>
-      </c>
-      <c r="M9" s="7" t="n">
         <v>4.6974</v>
       </c>
+      <c r="M9" s="6" t="n">
+        <v>4.7236</v>
+      </c>
       <c r="N9" s="6" t="n">
-        <v>4.7236</v>
-      </c>
-      <c r="O9" s="6" t="n">
         <v>4.7123</v>
+      </c>
+      <c r="O9" s="7" t="n">
+        <v>4.6935</v>
       </c>
       <c r="P9" s="7" t="n">
         <v>4.6935</v>
@@ -784,7 +784,7 @@
         <v>4.6935</v>
       </c>
       <c r="R9" s="7" t="n">
-        <v>4.6935</v>
+        <v>4.6546</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>10-25</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>10-26</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>10-27</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>10-28</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>10-29</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>10-30</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>10-31</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>10-25</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>10-26</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>10-27</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>10-28</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>10-29</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>10-30</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>10-24</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>10-25</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>10-26</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>10-27</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>10-28</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>10-29</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>10-30</t>
+          <t>10-31</t>
         </is>
       </c>
     </row>
@@ -592,13 +592,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4604</v>
+        <v>4.4758</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4758</v>
+        <v>4.4708</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.4708</v>
+        <v>4.4642</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>4.4642</v>
@@ -607,24 +607,24 @@
         <v>4.4642</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.4642</v>
-      </c>
-      <c r="I5" s="7" t="n">
         <v>4.4491</v>
       </c>
+      <c r="I5" s="6" t="n">
+        <v>4.4475</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.1884</v>
-      </c>
-      <c r="M5" s="6" t="n">
         <v>4.2284</v>
       </c>
+      <c r="M5" s="7" t="n">
+        <v>4.2395</v>
+      </c>
       <c r="N5" s="6" t="n">
-        <v>4.2395</v>
+        <v>4.2267</v>
       </c>
       <c r="O5" s="6" t="n">
         <v>4.2267</v>
@@ -633,10 +633,10 @@
         <v>4.2267</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>4.2267</v>
+        <v>4.204</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>4.204</v>
+        <v>4.1684</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>10-25</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>10-26</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>10-27</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>10-28</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>10-29</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>10-30</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>10-31</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>10-25</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>10-26</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>10-27</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>10-28</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>10-29</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>10-30</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>10-24</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>10-25</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>10-26</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>10-27</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>10-28</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>10-29</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>10-30</t>
+          <t>10-31</t>
         </is>
       </c>
     </row>
@@ -740,51 +740,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1366</v>
-      </c>
-      <c r="D9" s="7" t="n">
         <v>5.1328</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="D9" s="6" t="n">
         <v>5.1209</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="E9" s="6" t="n">
         <v>5.1266</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="F9" s="6" t="n">
         <v>5.1266</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="G9" s="6" t="n">
         <v>5.1266</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="H9" s="6" t="n">
         <v>5.0987</v>
       </c>
+      <c r="I9" s="6" t="n">
+        <v>5.0823</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6974</v>
+        <v>4.7236</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.7236</v>
+        <v>4.7123</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>4.7123</v>
-      </c>
-      <c r="O9" s="7" t="n">
         <v>4.6935</v>
       </c>
-      <c r="P9" s="7" t="n">
+      <c r="O9" s="6" t="n">
         <v>4.6935</v>
       </c>
-      <c r="Q9" s="7" t="n">
+      <c r="P9" s="6" t="n">
         <v>4.6935</v>
       </c>
-      <c r="R9" s="7" t="n">
+      <c r="Q9" s="6" t="n">
         <v>4.6546</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>4.6227</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>10-25</t>
+          <t>10-26</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>10-27</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>10-28</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>10-29</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>10-30</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>10-31</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>11-01</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>10-26</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>10-27</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>10-28</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>10-29</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>10-30</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>10-31</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>10-25</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>10-26</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>10-27</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>10-28</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>10-29</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>10-30</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>10-31</t>
+          <t>11-01</t>
         </is>
       </c>
     </row>
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>10-25</t>
+          <t>10-26</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>10-27</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>10-28</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>10-29</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>10-30</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>10-31</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>11-01</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>10-26</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>10-27</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>10-28</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>10-29</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>10-30</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>10-31</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>10-25</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>10-26</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>10-27</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>10-28</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>10-29</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>10-30</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>10-31</t>
+          <t>11-01</t>
         </is>
       </c>
     </row>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>10-26</t>
+          <t>10-27</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>10-28</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>10-29</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>10-30</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>10-31</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>11-01</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>11-02</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>10-27</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>10-28</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>10-29</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>10-30</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>10-31</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>11-01</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>10-26</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>10-27</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>10-28</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>10-29</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>10-30</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>10-31</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>11-01</t>
+          <t>11-02</t>
         </is>
       </c>
     </row>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4758</v>
+        <v>4.4708</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4708</v>
+        <v>4.4642</v>
       </c>
       <c r="E5" s="6" t="n">
         <v>4.4642</v>
@@ -604,13 +604,13 @@
         <v>4.4642</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.4642</v>
+        <v>4.4491</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.4491</v>
+        <v>4.4475</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.4475</v>
+        <v>4.4582</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,10 +618,10 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.2284</v>
-      </c>
-      <c r="M5" s="7" t="n">
         <v>4.2395</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>4.2267</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>4.2267</v>
@@ -630,13 +630,13 @@
         <v>4.2267</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>4.2267</v>
+        <v>4.204</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>4.204</v>
+        <v>4.1684</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>4.1684</v>
+        <v>4.1963</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>10-26</t>
+          <t>10-27</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>10-28</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>10-29</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>10-30</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>10-31</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>11-01</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>11-02</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>10-27</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>10-28</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>10-29</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>10-30</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>10-31</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>11-01</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>10-26</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>10-27</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>10-28</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>10-29</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>10-30</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>10-31</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>11-01</t>
+          <t>11-02</t>
         </is>
       </c>
     </row>
@@ -740,25 +740,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1328</v>
-      </c>
-      <c r="D9" s="6" t="n">
         <v>5.1209</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="7" t="n">
         <v>5.1266</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="E9" s="7" t="n">
         <v>5.1266</v>
       </c>
+      <c r="F9" s="7" t="n">
+        <v>5.1266</v>
+      </c>
       <c r="G9" s="6" t="n">
-        <v>5.1266</v>
+        <v>5.0987</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.0987</v>
+        <v>5.0823</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.0823</v>
+        <v>5.1135</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.7236</v>
+        <v>4.7123</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.7123</v>
+        <v>4.6935</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>4.6935</v>
@@ -778,13 +778,13 @@
         <v>4.6935</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>4.6935</v>
+        <v>4.6546</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.6546</v>
+        <v>4.6227</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.6227</v>
+        <v>4.6466</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>10-27</t>
+          <t>10-31</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>10-28</t>
+          <t>11-01</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>10-29</t>
+          <t>11-02</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
-          <t>10-30</t>
+          <t>11-03</t>
         </is>
       </c>
       <c r="G4" s="5" t="inlineStr">
         <is>
+          <t>11-04</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>11-05</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>11-06</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>10-31</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>11-01</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>11-02</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>10-27</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>10-28</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>10-29</t>
-        </is>
-      </c>
       <c r="O4" s="5" t="inlineStr">
         <is>
-          <t>10-30</t>
+          <t>11-03</t>
         </is>
       </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
-          <t>10-31</t>
+          <t>11-04</t>
         </is>
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>11-01</t>
+          <t>11-05</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>11-02</t>
+          <t>11-06</t>
         </is>
       </c>
     </row>
@@ -592,51 +592,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4708</v>
+        <v>4.4491</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4642</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>4.4642</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>4.4642</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>4.4491</v>
-      </c>
-      <c r="H5" s="6" t="n">
         <v>4.4475</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="E5" s="7" t="n">
         <v>4.4582</v>
       </c>
+      <c r="F5" s="7" t="n">
+        <v>4.4569</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <v>4.4615</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <v>4.4615</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <v>4.4615</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.2395</v>
+        <v>4.204</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.2267</v>
+        <v>4.1684</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>4.2267</v>
+        <v>4.1963</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>4.2267</v>
+        <v>4.1857</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>4.204</v>
+        <v>4.1512</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>4.1684</v>
+        <v>4.1512</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>4.1963</v>
+        <v>4.1512</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>10-27</t>
+          <t>10-31</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>10-28</t>
+          <t>11-01</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>10-29</t>
+          <t>11-02</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
-          <t>10-30</t>
+          <t>11-03</t>
         </is>
       </c>
       <c r="G8" s="5" t="inlineStr">
         <is>
+          <t>11-04</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>11-05</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>11-06</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>10-31</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>11-01</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>11-02</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>10-27</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>10-28</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>10-29</t>
-        </is>
-      </c>
       <c r="O8" s="5" t="inlineStr">
         <is>
-          <t>10-30</t>
+          <t>11-03</t>
         </is>
       </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
-          <t>10-31</t>
+          <t>11-04</t>
         </is>
       </c>
       <c r="Q8" s="5" t="inlineStr">
         <is>
-          <t>11-01</t>
+          <t>11-05</t>
         </is>
       </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>11-02</t>
+          <t>11-06</t>
         </is>
       </c>
     </row>
@@ -740,25 +740,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1209</v>
-      </c>
-      <c r="D9" s="7" t="n">
-        <v>5.1266</v>
+        <v>5.0987</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>5.0823</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>5.1266</v>
+        <v>5.1135</v>
       </c>
       <c r="F9" s="7" t="n">
-        <v>5.1266</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>5.0987</v>
-      </c>
-      <c r="H9" s="6" t="n">
-        <v>5.0823</v>
-      </c>
-      <c r="I9" s="6" t="n">
-        <v>5.1135</v>
+        <v>5.1123</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>5.1471</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <v>5.1471</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <v>5.1471</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,25 +766,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.7123</v>
+        <v>4.6546</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.6935</v>
+        <v>4.6227</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>4.6935</v>
+        <v>4.6466</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>4.6935</v>
+        <v>4.6293</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>4.6546</v>
+        <v>4.6322</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.6227</v>
+        <v>4.6322</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.6466</v>
+        <v>4.6322</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>10-31</t>
+          <t>11-01</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>11-02</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>11-03</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>11-04</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>11-05</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>11-06</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>11-07</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>11-01</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>11-02</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>11-03</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>11-04</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>11-05</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>11-06</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>10-31</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>11-01</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>11-02</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>11-03</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>11-04</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>11-05</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>11-06</t>
+          <t>11-07</t>
         </is>
       </c>
     </row>
@@ -592,51 +592,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4491</v>
+        <v>4.4475</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4475</v>
-      </c>
-      <c r="E5" s="7" t="n">
         <v>4.4582</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="E5" s="6" t="n">
         <v>4.4569</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="F5" s="6" t="n">
         <v>4.4615</v>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="G5" s="6" t="n">
         <v>4.4615</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="H5" s="6" t="n">
         <v>4.4615</v>
       </c>
+      <c r="I5" s="6" t="n">
+        <v>4.4513</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.204</v>
+        <v>4.1684</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.1684</v>
+        <v>4.1963</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>4.1963</v>
-      </c>
-      <c r="O5" s="6" t="n">
         <v>4.1857</v>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="O5" s="7" t="n">
         <v>4.1512</v>
       </c>
-      <c r="Q5" s="6" t="n">
+      <c r="P5" s="7" t="n">
         <v>4.1512</v>
       </c>
-      <c r="R5" s="6" t="n">
+      <c r="Q5" s="7" t="n">
         <v>4.1512</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>4.1667</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>10-31</t>
+          <t>11-01</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>11-02</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>11-03</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>11-04</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>11-05</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>11-06</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>11-07</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>11-01</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>11-02</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>11-03</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>11-04</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>11-05</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>11-06</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>10-31</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>11-01</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>11-02</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>11-03</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>11-04</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>11-05</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>11-06</t>
+          <t>11-07</t>
         </is>
       </c>
     </row>
@@ -740,42 +740,42 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0987</v>
+        <v>5.0823</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.0823</v>
-      </c>
-      <c r="E9" s="7" t="n">
         <v>5.1135</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="E9" s="6" t="n">
         <v>5.1123</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="F9" s="6" t="n">
         <v>5.1471</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="G9" s="6" t="n">
         <v>5.1471</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="H9" s="6" t="n">
         <v>5.1471</v>
       </c>
+      <c r="I9" s="6" t="n">
+        <v>5.1259</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6546</v>
+        <v>4.6227</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.6227</v>
+        <v>4.6466</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>4.6466</v>
+        <v>4.6293</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>4.6293</v>
+        <v>4.6322</v>
       </c>
       <c r="P9" s="6" t="n">
         <v>4.6322</v>
@@ -784,7 +784,7 @@
         <v>4.6322</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.6322</v>
+        <v>4.6283</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>11-01</t>
+          <t>11-02</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>11-03</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>11-04</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>11-05</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>11-06</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>11-07</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>11-08</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>11-02</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>11-03</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>11-04</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>11-05</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>11-06</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>11-07</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>11-01</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>11-02</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>11-03</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>11-04</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>11-05</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>11-06</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>11-07</t>
+          <t>11-08</t>
         </is>
       </c>
     </row>
@@ -592,51 +592,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4475</v>
+        <v>4.4582</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4582</v>
-      </c>
-      <c r="E5" s="6" t="n">
         <v>4.4569</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="E5" s="7" t="n">
         <v>4.4615</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="F5" s="7" t="n">
         <v>4.4615</v>
       </c>
+      <c r="G5" s="7" t="n">
+        <v>4.4615</v>
+      </c>
       <c r="H5" s="6" t="n">
-        <v>4.4615</v>
-      </c>
-      <c r="I5" s="6" t="n">
         <v>4.4513</v>
       </c>
+      <c r="I5" s="7" t="n">
+        <v>4.4584</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.1684</v>
+        <v>4.1963</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.1963</v>
+        <v>4.1857</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>4.1857</v>
-      </c>
-      <c r="O5" s="7" t="n">
         <v>4.1512</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="O5" s="6" t="n">
         <v>4.1512</v>
       </c>
-      <c r="Q5" s="7" t="n">
+      <c r="P5" s="6" t="n">
         <v>4.1512</v>
       </c>
-      <c r="R5" s="7" t="n">
+      <c r="Q5" s="6" t="n">
         <v>4.1667</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>4.1804</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>11-01</t>
+          <t>11-02</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>11-03</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>11-04</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>11-05</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>11-06</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>11-07</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>11-08</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>11-02</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>11-03</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>11-04</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>11-05</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>11-06</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>11-07</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>11-01</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>11-02</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>11-03</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>11-04</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>11-05</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>11-06</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>11-07</t>
+          <t>11-08</t>
         </is>
       </c>
     </row>
@@ -740,39 +740,39 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0823</v>
+        <v>5.1135</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.1135</v>
-      </c>
-      <c r="E9" s="6" t="n">
         <v>5.1123</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="E9" s="7" t="n">
         <v>5.1471</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="F9" s="7" t="n">
         <v>5.1471</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="G9" s="7" t="n">
         <v>5.1471</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="H9" s="7" t="n">
         <v>5.1259</v>
       </c>
+      <c r="I9" s="7" t="n">
+        <v>5.1196</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6227</v>
+        <v>4.6466</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.6466</v>
+        <v>4.6293</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>4.6293</v>
+        <v>4.6322</v>
       </c>
       <c r="O9" s="6" t="n">
         <v>4.6322</v>
@@ -781,10 +781,10 @@
         <v>4.6322</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.6322</v>
+        <v>4.6283</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.6283</v>
+        <v>4.6343</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>11-02</t>
+          <t>11-03</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>11-04</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>11-05</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>11-06</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>11-07</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>11-08</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>11-09</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>11-03</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>11-04</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>11-05</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>11-06</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>11-07</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>11-08</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>11-02</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>11-03</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>11-04</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>11-05</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>11-06</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>11-07</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>11-08</t>
+          <t>11-09</t>
         </is>
       </c>
     </row>
@@ -592,25 +592,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4582</v>
+        <v>4.4569</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4569</v>
-      </c>
-      <c r="E5" s="7" t="n">
         <v>4.4615</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="E5" s="6" t="n">
         <v>4.4615</v>
       </c>
+      <c r="F5" s="6" t="n">
+        <v>4.4615</v>
+      </c>
       <c r="G5" s="7" t="n">
-        <v>4.4615</v>
+        <v>4.4513</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.4513</v>
+        <v>4.4584</v>
       </c>
       <c r="I5" s="7" t="n">
-        <v>4.4584</v>
+        <v>4.4413</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +618,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.1963</v>
-      </c>
-      <c r="M5" s="6" t="n">
         <v>4.1857</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="M5" s="7" t="n">
         <v>4.1512</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="N5" s="7" t="n">
         <v>4.1512</v>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="O5" s="7" t="n">
         <v>4.1512</v>
       </c>
-      <c r="Q5" s="6" t="n">
+      <c r="P5" s="7" t="n">
         <v>4.1667</v>
       </c>
-      <c r="R5" s="6" t="n">
+      <c r="Q5" s="7" t="n">
         <v>4.1804</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>4.1513</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>11-02</t>
+          <t>11-03</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>11-04</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>11-05</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>11-06</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>11-07</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>11-08</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>11-09</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>11-03</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>11-04</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>11-05</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>11-06</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>11-07</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>11-08</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>11-02</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>11-03</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>11-04</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>11-05</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>11-06</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>11-07</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>11-08</t>
+          <t>11-09</t>
         </is>
       </c>
     </row>
@@ -740,25 +740,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1135</v>
+        <v>5.1123</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.1123</v>
-      </c>
-      <c r="E9" s="7" t="n">
         <v>5.1471</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="E9" s="6" t="n">
         <v>5.1471</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="F9" s="6" t="n">
         <v>5.1471</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="G9" s="6" t="n">
         <v>5.1259</v>
       </c>
+      <c r="H9" s="6" t="n">
+        <v>5.1196</v>
+      </c>
       <c r="I9" s="7" t="n">
-        <v>5.1196</v>
+        <v>5.1061</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6466</v>
+        <v>4.6293</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.6293</v>
+        <v>4.6322</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>4.6322</v>
@@ -777,14 +777,14 @@
       <c r="O9" s="6" t="n">
         <v>4.6322</v>
       </c>
-      <c r="P9" s="6" t="n">
-        <v>4.6322</v>
+      <c r="P9" s="7" t="n">
+        <v>4.6283</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.6283</v>
-      </c>
-      <c r="R9" s="6" t="n">
         <v>4.6343</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>4.61</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>11-03</t>
+          <t>11-07</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>11-04</t>
+          <t>11-08</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>11-05</t>
+          <t>11-09</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
-          <t>11-06</t>
+          <t>11-10</t>
         </is>
       </c>
       <c r="G4" s="5" t="inlineStr">
         <is>
+          <t>11-11</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>11-12</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>11-13</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>11-07</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>11-08</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>11-09</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>11-03</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>11-04</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>11-05</t>
-        </is>
-      </c>
       <c r="O4" s="5" t="inlineStr">
         <is>
-          <t>11-06</t>
+          <t>11-10</t>
         </is>
       </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
-          <t>11-07</t>
+          <t>11-11</t>
         </is>
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>11-08</t>
+          <t>11-12</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>11-09</t>
+          <t>11-13</t>
         </is>
       </c>
     </row>
@@ -592,25 +592,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4569</v>
+        <v>4.4513</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4615</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>4.4615</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>4.4615</v>
+        <v>4.4584</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>4.4413</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>4.4227</v>
       </c>
       <c r="G5" s="7" t="n">
-        <v>4.4513</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>4.4584</v>
+        <v>4.4227</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <v>4.4227</v>
       </c>
       <c r="I5" s="7" t="n">
-        <v>4.4413</v>
+        <v>4.4336</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +618,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.1857</v>
-      </c>
-      <c r="M5" s="7" t="n">
-        <v>4.1512</v>
+        <v>4.1667</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>4.1804</v>
       </c>
       <c r="N5" s="7" t="n">
-        <v>4.1512</v>
+        <v>4.1513</v>
       </c>
       <c r="O5" s="7" t="n">
-        <v>4.1512</v>
+        <v>4.1423</v>
       </c>
       <c r="P5" s="7" t="n">
-        <v>4.1667</v>
+        <v>4.1423</v>
       </c>
       <c r="Q5" s="7" t="n">
-        <v>4.1804</v>
+        <v>4.1423</v>
       </c>
       <c r="R5" s="7" t="n">
-        <v>4.1513</v>
+        <v>4.1474</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>11-03</t>
+          <t>11-07</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>11-04</t>
+          <t>11-08</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>11-05</t>
+          <t>11-09</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
-          <t>11-06</t>
+          <t>11-10</t>
         </is>
       </c>
       <c r="G8" s="5" t="inlineStr">
         <is>
+          <t>11-11</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>11-12</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>11-13</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>11-07</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>11-08</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>11-09</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>11-03</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>11-04</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>11-05</t>
-        </is>
-      </c>
       <c r="O8" s="5" t="inlineStr">
         <is>
-          <t>11-06</t>
+          <t>11-10</t>
         </is>
       </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
-          <t>11-07</t>
+          <t>11-11</t>
         </is>
       </c>
       <c r="Q8" s="5" t="inlineStr">
         <is>
-          <t>11-08</t>
+          <t>11-12</t>
         </is>
       </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>11-09</t>
+          <t>11-13</t>
         </is>
       </c>
     </row>
@@ -740,25 +740,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1123</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>5.1471</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>5.1471</v>
-      </c>
-      <c r="F9" s="6" t="n">
-        <v>5.1471</v>
-      </c>
-      <c r="G9" s="6" t="n">
         <v>5.1259</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="D9" s="7" t="n">
         <v>5.1196</v>
       </c>
+      <c r="E9" s="7" t="n">
+        <v>5.1061</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>5.0609</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>5.0609</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <v>5.0609</v>
+      </c>
       <c r="I9" s="7" t="n">
-        <v>5.1061</v>
+        <v>5.0783</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,25 +766,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6293</v>
+        <v>4.6283</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.6322</v>
-      </c>
-      <c r="N9" s="6" t="n">
-        <v>4.6322</v>
-      </c>
-      <c r="O9" s="6" t="n">
-        <v>4.6322</v>
+        <v>4.6343</v>
+      </c>
+      <c r="N9" s="7" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="O9" s="7" t="n">
+        <v>4.5905</v>
       </c>
       <c r="P9" s="7" t="n">
-        <v>4.6283</v>
-      </c>
-      <c r="Q9" s="6" t="n">
-        <v>4.6343</v>
+        <v>4.5905</v>
+      </c>
+      <c r="Q9" s="7" t="n">
+        <v>4.5905</v>
       </c>
       <c r="R9" s="7" t="n">
-        <v>4.61</v>
+        <v>4.5975</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,17 +37,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -73,7 +68,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -89,9 +84,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -511,77 +503,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>11-07</t>
+          <t>11-08</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>11-09</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>11-10</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>11-11</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>11-12</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>11-13</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>11-14</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>11-08</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>11-09</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>11-10</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>11-11</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>11-12</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>11-13</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>11-07</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>11-08</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>11-09</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>11-10</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>11-11</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>11-12</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>11-13</t>
+          <t>11-14</t>
         </is>
       </c>
     </row>
@@ -592,51 +584,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4513</v>
+        <v>4.4584</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4584</v>
-      </c>
-      <c r="E5" s="7" t="n">
         <v>4.4413</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="E5" s="6" t="n">
         <v>4.4227</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="F5" s="6" t="n">
         <v>4.4227</v>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="G5" s="6" t="n">
         <v>4.4227</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="H5" s="6" t="n">
         <v>4.4336</v>
       </c>
+      <c r="I5" s="6" t="n">
+        <v>4.4163</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.1667</v>
+        <v>4.1804</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.1804</v>
-      </c>
-      <c r="N5" s="7" t="n">
         <v>4.1513</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="N5" s="6" t="n">
         <v>4.1423</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="O5" s="6" t="n">
         <v>4.1423</v>
       </c>
-      <c r="Q5" s="7" t="n">
+      <c r="P5" s="6" t="n">
         <v>4.1423</v>
       </c>
-      <c r="R5" s="7" t="n">
+      <c r="Q5" s="6" t="n">
         <v>4.1474</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>4.121</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +651,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>11-07</t>
+          <t>11-08</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>11-09</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>11-10</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>11-11</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>11-12</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>11-13</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>11-14</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>11-08</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>11-09</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>11-10</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>11-11</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>11-12</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>11-13</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>11-07</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>11-08</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>11-09</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>11-10</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>11-11</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>11-12</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>11-13</t>
+          <t>11-14</t>
         </is>
       </c>
     </row>
@@ -740,51 +732,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1259</v>
-      </c>
-      <c r="D9" s="7" t="n">
         <v>5.1196</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="D9" s="6" t="n">
         <v>5.1061</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="E9" s="6" t="n">
         <v>5.0609</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="F9" s="6" t="n">
         <v>5.0609</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="G9" s="6" t="n">
         <v>5.0609</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="H9" s="6" t="n">
         <v>5.0783</v>
       </c>
+      <c r="I9" s="6" t="n">
+        <v>5.0683</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6283</v>
+        <v>4.6343</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.6343</v>
-      </c>
-      <c r="N9" s="7" t="n">
         <v>4.61</v>
       </c>
-      <c r="O9" s="7" t="n">
+      <c r="N9" s="6" t="n">
         <v>4.5905</v>
       </c>
-      <c r="P9" s="7" t="n">
+      <c r="O9" s="6" t="n">
         <v>4.5905</v>
       </c>
-      <c r="Q9" s="7" t="n">
+      <c r="P9" s="6" t="n">
         <v>4.5905</v>
       </c>
-      <c r="R9" s="7" t="n">
+      <c r="Q9" s="6" t="n">
         <v>4.5975</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>4.572</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -503,77 +503,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>11-08</t>
+          <t>11-09</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>11-10</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>11-11</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>11-12</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>11-13</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>11-14</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>11-15</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>11-09</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>11-10</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>11-11</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>11-12</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>11-13</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>11-14</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>11-08</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>11-09</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>11-10</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>11-11</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>11-12</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>11-13</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>11-14</t>
+          <t>11-15</t>
         </is>
       </c>
     </row>
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4584</v>
+        <v>4.4413</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4413</v>
+        <v>4.4227</v>
       </c>
       <c r="E5" s="6" t="n">
         <v>4.4227</v>
@@ -596,13 +596,13 @@
         <v>4.4227</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.4227</v>
+        <v>4.4336</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.4336</v>
+        <v>4.4163</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.4163</v>
+        <v>4.39</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.1804</v>
+        <v>4.1513</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.1513</v>
+        <v>4.1423</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>4.1423</v>
@@ -622,13 +622,13 @@
         <v>4.1423</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>4.1423</v>
+        <v>4.1474</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>4.1474</v>
+        <v>4.121</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>4.121</v>
+        <v>4.0453</v>
       </c>
     </row>
     <row r="7">
@@ -651,77 +651,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>11-08</t>
+          <t>11-09</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>11-10</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>11-11</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>11-12</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>11-13</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>11-14</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>11-15</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>11-09</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>11-10</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>11-11</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>11-12</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>11-13</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>11-14</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>11-08</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>11-09</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>11-10</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>11-11</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>11-12</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>11-13</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>11-14</t>
+          <t>11-15</t>
         </is>
       </c>
     </row>
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1196</v>
+        <v>5.1061</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.1061</v>
+        <v>5.0609</v>
       </c>
       <c r="E9" s="6" t="n">
         <v>5.0609</v>
@@ -744,13 +744,13 @@
         <v>5.0609</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.0609</v>
+        <v>5.0783</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.0783</v>
+        <v>5.0683</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.0683</v>
+        <v>5.0416</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6343</v>
+        <v>4.61</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.61</v>
+        <v>4.5905</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>4.5905</v>
@@ -770,13 +770,13 @@
         <v>4.5905</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>4.5905</v>
+        <v>4.5975</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.5975</v>
+        <v>4.572</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.572</v>
+        <v>4.5495</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,12 +37,17 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0035FC03"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -68,7 +73,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -84,6 +89,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -503,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>11-09</t>
+          <t>11-10</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>11-11</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>11-12</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>11-13</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>11-14</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>11-15</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>11-16</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>11-10</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>11-11</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>11-12</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>11-13</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>11-14</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>11-15</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>11-09</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>11-10</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>11-11</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>11-12</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>11-13</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>11-14</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>11-16</t>
         </is>
       </c>
     </row>
@@ -584,51 +592,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4413</v>
-      </c>
-      <c r="D5" s="6" t="n">
         <v>4.4227</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="D5" s="5" t="n">
         <v>4.4227</v>
       </c>
+      <c r="E5" s="5" t="n">
+        <v>4.4227</v>
+      </c>
       <c r="F5" s="6" t="n">
-        <v>4.4227</v>
-      </c>
-      <c r="G5" s="6" t="n">
         <v>4.4336</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="G5" s="7" t="n">
         <v>4.4163</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="H5" s="7" t="n">
         <v>4.39</v>
       </c>
+      <c r="I5" s="7" t="n">
+        <v>4.3854</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.1513</v>
-      </c>
-      <c r="M5" s="6" t="n">
         <v>4.1423</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="M5" s="5" t="n">
         <v>4.1423</v>
       </c>
+      <c r="N5" s="5" t="n">
+        <v>4.1423</v>
+      </c>
       <c r="O5" s="6" t="n">
-        <v>4.1423</v>
-      </c>
-      <c r="P5" s="6" t="n">
         <v>4.1474</v>
       </c>
-      <c r="Q5" s="6" t="n">
+      <c r="P5" s="7" t="n">
         <v>4.121</v>
       </c>
-      <c r="R5" s="6" t="n">
+      <c r="Q5" s="7" t="n">
         <v>4.0453</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>4.0415</v>
       </c>
     </row>
     <row r="7">
@@ -651,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>11-09</t>
+          <t>11-10</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>11-11</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>11-12</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>11-13</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>11-14</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>11-15</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>11-16</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>11-10</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>11-11</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>11-12</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>11-13</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>11-14</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>11-15</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>11-09</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>11-10</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>11-11</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>11-12</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>11-13</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>11-14</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>11-16</t>
         </is>
       </c>
     </row>
@@ -732,51 +740,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1061</v>
-      </c>
-      <c r="D9" s="6" t="n">
         <v>5.0609</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="5" t="n">
         <v>5.0609</v>
       </c>
+      <c r="E9" s="5" t="n">
+        <v>5.0609</v>
+      </c>
       <c r="F9" s="6" t="n">
-        <v>5.0609</v>
+        <v>5.0783</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.0783</v>
-      </c>
-      <c r="H9" s="6" t="n">
         <v>5.0683</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="H9" s="7" t="n">
         <v>5.0416</v>
       </c>
+      <c r="I9" s="7" t="n">
+        <v>5.0119</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="M9" s="6" t="n">
         <v>4.5905</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="M9" s="5" t="n">
         <v>4.5905</v>
       </c>
+      <c r="N9" s="5" t="n">
+        <v>4.5905</v>
+      </c>
       <c r="O9" s="6" t="n">
-        <v>4.5905</v>
-      </c>
-      <c r="P9" s="6" t="n">
         <v>4.5975</v>
       </c>
-      <c r="Q9" s="6" t="n">
+      <c r="P9" s="7" t="n">
         <v>4.572</v>
       </c>
-      <c r="R9" s="6" t="n">
+      <c r="Q9" s="7" t="n">
         <v>4.5495</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>4.5452</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,17 +37,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -73,7 +68,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -89,9 +84,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -511,77 +503,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>11-10</t>
+          <t>11-13</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>11-11</t>
+          <t>11-14</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>11-12</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
+          <t>11-16</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>11-17</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>11-18</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>11-19</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>11-13</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>11-14</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>11-15</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>11-16</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>11-10</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>11-11</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>11-12</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>11-13</t>
-        </is>
-      </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
-          <t>11-14</t>
+          <t>11-17</t>
         </is>
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>11-18</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>11-19</t>
         </is>
       </c>
     </row>
@@ -592,51 +584,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4227</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>4.4227</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>4.4227</v>
+        <v>4.4336</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>4.4163</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>4.39</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.4336</v>
-      </c>
-      <c r="G5" s="7" t="n">
-        <v>4.4163</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="I5" s="7" t="n">
         <v>4.3854</v>
       </c>
+      <c r="G5" s="6" t="n">
+        <v>4.3767</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>4.3767</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>4.3767</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.1423</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>4.1423</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>4.1423</v>
+        <v>4.1474</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>4.121</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>4.0453</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>4.1474</v>
-      </c>
-      <c r="P5" s="7" t="n">
-        <v>4.121</v>
-      </c>
-      <c r="Q5" s="7" t="n">
-        <v>4.0453</v>
-      </c>
-      <c r="R5" s="7" t="n">
         <v>4.0415</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>4.0327</v>
+      </c>
+      <c r="Q5" s="6" t="n">
+        <v>4.0327</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>4.0327</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +651,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>11-10</t>
+          <t>11-13</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>11-11</t>
+          <t>11-14</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>11-12</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
+          <t>11-16</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>11-17</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>11-18</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>11-19</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>11-13</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>11-14</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>11-15</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>11-16</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>11-10</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>11-11</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>11-12</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>11-13</t>
-        </is>
-      </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
-          <t>11-14</t>
+          <t>11-17</t>
         </is>
       </c>
       <c r="Q8" s="5" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>11-18</t>
         </is>
       </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>11-19</t>
         </is>
       </c>
     </row>
@@ -740,25 +732,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0609</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>5.0609</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>5.0609</v>
+        <v>5.0783</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>5.0683</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>5.0416</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>5.0783</v>
+        <v>5.0119</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.0683</v>
-      </c>
-      <c r="H9" s="7" t="n">
-        <v>5.0416</v>
-      </c>
-      <c r="I9" s="7" t="n">
-        <v>5.0119</v>
+        <v>5.0048</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>5.0048</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>5.0048</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,25 +758,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.5905</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>4.5905</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>4.5905</v>
+        <v>4.5975</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>4.572</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>4.5495</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>4.5975</v>
-      </c>
-      <c r="P9" s="7" t="n">
-        <v>4.572</v>
-      </c>
-      <c r="Q9" s="7" t="n">
-        <v>4.5495</v>
-      </c>
-      <c r="R9" s="7" t="n">
         <v>4.5452</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>4.5427</v>
+      </c>
+      <c r="Q9" s="6" t="n">
+        <v>4.5427</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>4.5427</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -503,77 +503,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>11-13</t>
+          <t>11-14</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>11-15</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>11-16</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>11-17</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>11-18</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>11-19</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>11-20</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>11-14</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>11-15</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>11-16</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>11-17</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>11-18</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>11-19</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>11-13</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>11-14</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>11-15</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>11-16</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>11-17</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>11-18</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>11-19</t>
+          <t>11-20</t>
         </is>
       </c>
     </row>
@@ -584,16 +584,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4336</v>
+        <v>4.4163</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4163</v>
+        <v>4.39</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.39</v>
+        <v>4.3854</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.3854</v>
+        <v>4.3767</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>4.3767</v>
@@ -602,7 +602,7 @@
         <v>4.3767</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.3767</v>
+        <v>4.368</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -610,16 +610,16 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.1474</v>
+        <v>4.121</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.121</v>
+        <v>4.0453</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>4.0453</v>
+        <v>4.0415</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>4.0415</v>
+        <v>4.0327</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>4.0327</v>
@@ -628,7 +628,7 @@
         <v>4.0327</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>4.0327</v>
+        <v>3.9938</v>
       </c>
     </row>
     <row r="7">
@@ -651,77 +651,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>11-13</t>
+          <t>11-14</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>11-15</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>11-16</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>11-17</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>11-18</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>11-19</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>11-20</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>11-14</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>11-15</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>11-16</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>11-17</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>11-18</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>11-19</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>11-13</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>11-14</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>11-15</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>11-16</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>11-17</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>11-18</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>11-19</t>
+          <t>11-20</t>
         </is>
       </c>
     </row>
@@ -732,16 +732,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0783</v>
+        <v>5.0683</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.0683</v>
+        <v>5.0416</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>5.0416</v>
+        <v>5.0119</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>5.0119</v>
+        <v>5.0048</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>5.0048</v>
@@ -750,7 +750,7 @@
         <v>5.0048</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.0048</v>
+        <v>4.996</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -758,16 +758,16 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.5975</v>
+        <v>4.572</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.572</v>
+        <v>4.5495</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>4.5495</v>
+        <v>4.5452</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>4.5452</v>
+        <v>4.5427</v>
       </c>
       <c r="P9" s="6" t="n">
         <v>4.5427</v>
@@ -776,7 +776,7 @@
         <v>4.5427</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.5427</v>
+        <v>4.5248</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -503,77 +503,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>11-14</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>11-16</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>11-17</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>11-18</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>11-19</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>11-20</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>11-21</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>11-15</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>11-16</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>11-17</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>11-18</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>11-19</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>11-20</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>11-14</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>11-15</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>11-16</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>11-17</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>11-18</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>11-19</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>11-21</t>
         </is>
       </c>
     </row>
@@ -584,13 +584,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4163</v>
+        <v>4.39</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.39</v>
+        <v>4.3854</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.3854</v>
+        <v>4.3767</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>4.3767</v>
@@ -599,10 +599,10 @@
         <v>4.3767</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.3767</v>
+        <v>4.368</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.368</v>
+        <v>4.3647</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -610,13 +610,13 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.121</v>
+        <v>4.0453</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.0453</v>
+        <v>4.0415</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>4.0415</v>
+        <v>4.0327</v>
       </c>
       <c r="O5" s="6" t="n">
         <v>4.0327</v>
@@ -625,10 +625,10 @@
         <v>4.0327</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>4.0327</v>
+        <v>3.9938</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>3.9938</v>
+        <v>3.9882</v>
       </c>
     </row>
     <row r="7">
@@ -651,77 +651,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>11-14</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>11-16</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>11-17</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>11-18</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>11-19</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>11-20</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>11-21</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>11-15</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>11-16</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>11-17</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>11-18</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>11-19</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>11-20</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>11-14</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>11-15</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>11-16</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>11-17</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>11-18</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>11-19</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>11-21</t>
         </is>
       </c>
     </row>
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0683</v>
+        <v>5.0416</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.0416</v>
+        <v>5.0119</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>5.0119</v>
+        <v>5.0048</v>
       </c>
       <c r="F9" s="6" t="n">
         <v>5.0048</v>
@@ -747,10 +747,10 @@
         <v>5.0048</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.0048</v>
+        <v>4.996</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>4.996</v>
+        <v>4.9971</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.572</v>
+        <v>4.5495</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.5495</v>
+        <v>4.5452</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>4.5452</v>
+        <v>4.5427</v>
       </c>
       <c r="O9" s="6" t="n">
         <v>4.5427</v>
@@ -773,10 +773,10 @@
         <v>4.5427</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.5427</v>
+        <v>4.5248</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.5248</v>
+        <v>4.5106</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,7 +37,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FC2C03"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
   </fills>
@@ -68,7 +73,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -84,6 +89,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -503,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>11-17</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>11-18</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>11-19</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>11-20</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>11-21</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>11-22</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>11-16</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>11-17</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>11-18</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>11-19</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>11-20</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>11-21</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>11-15</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>11-16</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>11-17</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>11-18</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>11-19</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>11-20</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>11-21</t>
+          <t>11-22</t>
         </is>
       </c>
     </row>
@@ -584,10 +592,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.39</v>
+        <v>4.3854</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.3854</v>
+        <v>4.3767</v>
       </c>
       <c r="E5" s="6" t="n">
         <v>4.3767</v>
@@ -596,13 +604,13 @@
         <v>4.3767</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.3767</v>
+        <v>4.368</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.368</v>
+        <v>4.3647</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.3647</v>
+        <v>4.3804</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -610,10 +618,10 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0453</v>
+        <v>4.0415</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.0415</v>
+        <v>4.0327</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>4.0327</v>
@@ -622,13 +630,13 @@
         <v>4.0327</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>4.0327</v>
+        <v>3.9938</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>3.9938</v>
+        <v>3.9882</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>3.9882</v>
+        <v>4.018</v>
       </c>
     </row>
     <row r="7">
@@ -651,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>11-17</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>11-18</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>11-19</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>11-20</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>11-21</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>11-22</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>11-16</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>11-17</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>11-18</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>11-19</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>11-20</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>11-21</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>11-15</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>11-16</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>11-17</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>11-18</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>11-19</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>11-20</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>11-21</t>
+          <t>11-22</t>
         </is>
       </c>
     </row>
@@ -732,10 +740,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0416</v>
+        <v>5.0119</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.0119</v>
+        <v>5.0048</v>
       </c>
       <c r="E9" s="6" t="n">
         <v>5.0048</v>
@@ -744,24 +752,24 @@
         <v>5.0048</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.0048</v>
+        <v>4.996</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>4.996</v>
-      </c>
-      <c r="I9" s="6" t="n">
         <v>4.9971</v>
       </c>
+      <c r="I9" s="7" t="n">
+        <v>5.0341</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.5495</v>
+        <v>4.5452</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.5452</v>
+        <v>4.5427</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>4.5427</v>
@@ -770,13 +778,13 @@
         <v>4.5427</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>4.5427</v>
+        <v>4.5248</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.5248</v>
+        <v>4.5106</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.5106</v>
+        <v>4.5433</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>11-17</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>11-18</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>11-19</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>11-20</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>11-21</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>11-22</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>11-23</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>11-17</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>11-18</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>11-19</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>11-20</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>11-21</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>11-22</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>11-16</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>11-17</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>11-18</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>11-19</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>11-20</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>11-21</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>11-22</t>
+          <t>11-23</t>
         </is>
       </c>
     </row>
@@ -592,25 +592,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3854</v>
-      </c>
-      <c r="D5" s="6" t="n">
         <v>4.3767</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="D5" s="5" t="n">
         <v>4.3767</v>
       </c>
+      <c r="E5" s="5" t="n">
+        <v>4.3767</v>
+      </c>
       <c r="F5" s="6" t="n">
-        <v>4.3767</v>
+        <v>4.368</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.368</v>
-      </c>
-      <c r="H5" s="6" t="n">
         <v>4.3647</v>
       </c>
+      <c r="H5" s="7" t="n">
+        <v>4.3804</v>
+      </c>
       <c r="I5" s="6" t="n">
-        <v>4.3804</v>
+        <v>4.3658</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +618,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0415</v>
-      </c>
-      <c r="M5" s="6" t="n">
         <v>4.0327</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="M5" s="5" t="n">
         <v>4.0327</v>
       </c>
+      <c r="N5" s="5" t="n">
+        <v>4.0327</v>
+      </c>
       <c r="O5" s="6" t="n">
-        <v>4.0327</v>
+        <v>3.9938</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>3.9938</v>
+        <v>3.9882</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>3.9882</v>
+        <v>4.018</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>4.018</v>
+        <v>3.9969</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>11-17</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>11-18</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>11-19</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>11-20</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>11-21</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>11-22</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>11-23</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>11-17</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>11-18</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>11-19</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>11-20</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>11-21</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>11-22</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>11-16</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>11-17</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>11-18</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>11-19</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>11-20</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>11-21</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>11-22</t>
+          <t>11-23</t>
         </is>
       </c>
     </row>
@@ -740,25 +740,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0119</v>
-      </c>
-      <c r="D9" s="6" t="n">
         <v>5.0048</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="5" t="n">
         <v>5.0048</v>
       </c>
+      <c r="E9" s="5" t="n">
+        <v>5.0048</v>
+      </c>
       <c r="F9" s="6" t="n">
-        <v>5.0048</v>
+        <v>4.996</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>4.996</v>
-      </c>
-      <c r="H9" s="6" t="n">
         <v>4.9971</v>
       </c>
+      <c r="H9" s="7" t="n">
+        <v>5.0341</v>
+      </c>
       <c r="I9" s="7" t="n">
-        <v>5.0341</v>
+        <v>5.0193</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,25 +766,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.5452</v>
-      </c>
-      <c r="M9" s="6" t="n">
         <v>4.5427</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="M9" s="5" t="n">
         <v>4.5427</v>
       </c>
+      <c r="N9" s="5" t="n">
+        <v>4.5427</v>
+      </c>
       <c r="O9" s="6" t="n">
-        <v>4.5427</v>
+        <v>4.5248</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>4.5248</v>
-      </c>
-      <c r="Q9" s="6" t="n">
         <v>4.5106</v>
       </c>
+      <c r="Q9" s="7" t="n">
+        <v>4.5433</v>
+      </c>
       <c r="R9" s="6" t="n">
-        <v>4.5433</v>
+        <v>4.5274</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>11-17</t>
+          <t>11-20</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>11-18</t>
+          <t>11-21</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>11-19</t>
+          <t>11-22</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
+          <t>11-23</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>11-24</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>11-25</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>11-26</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>11-20</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>11-21</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>11-22</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>11-23</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>11-17</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>11-18</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>11-19</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>11-20</t>
-        </is>
-      </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
-          <t>11-21</t>
+          <t>11-24</t>
         </is>
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>11-22</t>
+          <t>11-25</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>11-23</t>
+          <t>11-26</t>
         </is>
       </c>
     </row>
@@ -592,25 +592,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3767</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>4.3767</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>4.3767</v>
+        <v>4.368</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>4.3647</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>4.3804</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.368</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>4.3647</v>
+        <v>4.3658</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <v>4.3722</v>
       </c>
       <c r="H5" s="7" t="n">
-        <v>4.3804</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>4.3658</v>
+        <v>4.3722</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <v>4.3722</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +618,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0327</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>4.0327</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>4.0327</v>
-      </c>
-      <c r="O5" s="6" t="n">
         <v>3.9938</v>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="M5" s="6" t="n">
         <v>3.9882</v>
       </c>
-      <c r="Q5" s="6" t="n">
+      <c r="N5" s="7" t="n">
         <v>4.018</v>
       </c>
-      <c r="R5" s="6" t="n">
+      <c r="O5" s="7" t="n">
         <v>3.9969</v>
+      </c>
+      <c r="P5" s="7" t="n">
+        <v>4.0103</v>
+      </c>
+      <c r="Q5" s="7" t="n">
+        <v>4.0103</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>4.0103</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>11-17</t>
+          <t>11-20</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>11-18</t>
+          <t>11-21</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>11-19</t>
+          <t>11-22</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
+          <t>11-23</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>11-24</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>11-25</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>11-26</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>11-20</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>11-21</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>11-22</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>11-23</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>11-17</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>11-18</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>11-19</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>11-20</t>
-        </is>
-      </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
-          <t>11-21</t>
+          <t>11-24</t>
         </is>
       </c>
       <c r="Q8" s="5" t="inlineStr">
         <is>
-          <t>11-22</t>
+          <t>11-25</t>
         </is>
       </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>11-23</t>
+          <t>11-26</t>
         </is>
       </c>
     </row>
@@ -740,25 +740,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0048</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>5.0048</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>5.0048</v>
-      </c>
-      <c r="F9" s="6" t="n">
         <v>4.996</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="D9" s="7" t="n">
         <v>4.9971</v>
       </c>
+      <c r="E9" s="7" t="n">
+        <v>5.0341</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>5.0193</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>5.0325</v>
+      </c>
       <c r="H9" s="7" t="n">
-        <v>5.0341</v>
+        <v>5.0325</v>
       </c>
       <c r="I9" s="7" t="n">
-        <v>5.0193</v>
+        <v>5.0325</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,25 +766,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.5427</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>4.5427</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>4.5427</v>
-      </c>
-      <c r="O9" s="6" t="n">
         <v>4.5248</v>
       </c>
-      <c r="P9" s="6" t="n">
+      <c r="M9" s="6" t="n">
         <v>4.5106</v>
       </c>
+      <c r="N9" s="7" t="n">
+        <v>4.5433</v>
+      </c>
+      <c r="O9" s="7" t="n">
+        <v>4.5274</v>
+      </c>
+      <c r="P9" s="7" t="n">
+        <v>4.5348</v>
+      </c>
       <c r="Q9" s="7" t="n">
-        <v>4.5433</v>
-      </c>
-      <c r="R9" s="6" t="n">
-        <v>4.5274</v>
+        <v>4.5348</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>4.5348</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>11-21</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>11-22</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>11-23</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>11-24</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>11-25</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>11-26</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>11-27</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>11-21</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>11-22</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>11-23</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>11-24</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>11-25</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>11-26</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>11-20</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>11-21</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>11-22</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>11-23</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>11-24</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>11-25</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>11-26</t>
+          <t>11-27</t>
         </is>
       </c>
     </row>
@@ -592,25 +592,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.368</v>
+        <v>4.3647</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.3647</v>
-      </c>
-      <c r="E5" s="7" t="n">
         <v>4.3804</v>
       </c>
+      <c r="E5" s="6" t="n">
+        <v>4.3658</v>
+      </c>
       <c r="F5" s="6" t="n">
-        <v>4.3658</v>
-      </c>
-      <c r="G5" s="7" t="n">
         <v>4.3722</v>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="G5" s="6" t="n">
         <v>4.3722</v>
       </c>
+      <c r="H5" s="6" t="n">
+        <v>4.3722</v>
+      </c>
       <c r="I5" s="7" t="n">
-        <v>4.3722</v>
+        <v>4.3543</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +618,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.9938</v>
+        <v>3.9882</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>3.9882</v>
-      </c>
-      <c r="N5" s="7" t="n">
         <v>4.018</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="N5" s="6" t="n">
         <v>3.9969</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="O5" s="6" t="n">
         <v>4.0103</v>
       </c>
-      <c r="Q5" s="7" t="n">
+      <c r="P5" s="6" t="n">
         <v>4.0103</v>
       </c>
+      <c r="Q5" s="6" t="n">
+        <v>4.0103</v>
+      </c>
       <c r="R5" s="7" t="n">
-        <v>4.0103</v>
+        <v>3.9769</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>11-20</t>
+          <t>11-21</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>11-22</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>11-23</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>11-24</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>11-25</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>11-26</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>11-27</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>11-21</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>11-22</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>11-23</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>11-24</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>11-25</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>11-26</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>11-20</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>11-21</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>11-22</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>11-23</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>11-24</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>11-25</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>11-26</t>
+          <t>11-27</t>
         </is>
       </c>
     </row>
@@ -740,51 +740,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.996</v>
-      </c>
-      <c r="D9" s="7" t="n">
         <v>4.9971</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="D9" s="6" t="n">
         <v>5.0341</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="E9" s="6" t="n">
         <v>5.0193</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="F9" s="6" t="n">
         <v>5.0325</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="G9" s="6" t="n">
         <v>5.0325</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="H9" s="6" t="n">
         <v>5.0325</v>
       </c>
+      <c r="I9" s="6" t="n">
+        <v>5.0142</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.5248</v>
+        <v>4.5106</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.5106</v>
-      </c>
-      <c r="N9" s="7" t="n">
         <v>4.5433</v>
       </c>
-      <c r="O9" s="7" t="n">
+      <c r="N9" s="6" t="n">
         <v>4.5274</v>
       </c>
-      <c r="P9" s="7" t="n">
+      <c r="O9" s="6" t="n">
         <v>4.5348</v>
       </c>
-      <c r="Q9" s="7" t="n">
+      <c r="P9" s="6" t="n">
         <v>4.5348</v>
       </c>
-      <c r="R9" s="7" t="n">
+      <c r="Q9" s="6" t="n">
         <v>4.5348</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>4.512</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,17 +37,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -73,7 +68,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -89,9 +84,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -511,77 +503,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>11-21</t>
+          <t>11-22</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>11-23</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>11-24</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>11-25</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>11-26</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>11-27</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>11-28</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>11-22</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>11-23</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>11-24</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>11-25</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>11-26</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>11-27</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>11-21</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>11-22</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>11-23</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>11-24</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>11-25</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>11-26</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>11-27</t>
+          <t>11-28</t>
         </is>
       </c>
     </row>
@@ -592,13 +584,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3647</v>
+        <v>4.3804</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.3804</v>
+        <v>4.3658</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.3658</v>
+        <v>4.3722</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>4.3722</v>
@@ -607,24 +599,24 @@
         <v>4.3722</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.3722</v>
-      </c>
-      <c r="I5" s="7" t="n">
         <v>4.3543</v>
       </c>
+      <c r="I5" s="6" t="n">
+        <v>4.3542</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.9882</v>
+        <v>4.018</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.018</v>
+        <v>3.9969</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>3.9969</v>
+        <v>4.0103</v>
       </c>
       <c r="O5" s="6" t="n">
         <v>4.0103</v>
@@ -633,10 +625,10 @@
         <v>4.0103</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>4.0103</v>
-      </c>
-      <c r="R5" s="7" t="n">
         <v>3.9769</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>3.975</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +651,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>11-21</t>
+          <t>11-22</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>11-23</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>11-24</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>11-25</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>11-26</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>11-27</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>11-28</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>11-22</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>11-23</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>11-24</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>11-25</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>11-26</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>11-27</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>11-21</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>11-22</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>11-23</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>11-24</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>11-25</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>11-26</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>11-27</t>
+          <t>11-28</t>
         </is>
       </c>
     </row>
@@ -740,13 +732,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.9971</v>
+        <v>5.0341</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.0341</v>
+        <v>5.0193</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>5.0193</v>
+        <v>5.0325</v>
       </c>
       <c r="F9" s="6" t="n">
         <v>5.0325</v>
@@ -755,10 +747,10 @@
         <v>5.0325</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.0325</v>
+        <v>5.0142</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.0142</v>
+        <v>5.0198</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,13 +758,13 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.5106</v>
+        <v>4.5433</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.5433</v>
+        <v>4.5274</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>4.5274</v>
+        <v>4.5348</v>
       </c>
       <c r="O9" s="6" t="n">
         <v>4.5348</v>
@@ -781,10 +773,10 @@
         <v>4.5348</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.5348</v>
+        <v>4.512</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.512</v>
+        <v>4.5175</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,12 +37,17 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0035FC03"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -68,7 +73,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -84,6 +89,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -503,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>11-22</t>
+          <t>11-23</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>11-24</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>11-25</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>11-26</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>11-27</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>11-28</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>11-29</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>11-23</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>11-24</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>11-25</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>11-26</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>11-27</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>11-28</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>11-22</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>11-23</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>11-24</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>11-25</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>11-26</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>11-27</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>11-28</t>
+          <t>11-29</t>
         </is>
       </c>
     </row>
@@ -584,10 +592,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3804</v>
+        <v>4.3658</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.3658</v>
+        <v>4.3722</v>
       </c>
       <c r="E5" s="6" t="n">
         <v>4.3722</v>
@@ -595,25 +603,25 @@
       <c r="F5" s="6" t="n">
         <v>4.3722</v>
       </c>
-      <c r="G5" s="6" t="n">
-        <v>4.3722</v>
-      </c>
-      <c r="H5" s="6" t="n">
+      <c r="G5" s="7" t="n">
         <v>4.3543</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="H5" s="7" t="n">
         <v>4.3542</v>
       </c>
+      <c r="I5" s="7" t="n">
+        <v>4.3327</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.018</v>
+        <v>3.9969</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>3.9969</v>
+        <v>4.0103</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>4.0103</v>
@@ -621,14 +629,14 @@
       <c r="O5" s="6" t="n">
         <v>4.0103</v>
       </c>
-      <c r="P5" s="6" t="n">
-        <v>4.0103</v>
-      </c>
-      <c r="Q5" s="6" t="n">
+      <c r="P5" s="7" t="n">
         <v>3.9769</v>
       </c>
-      <c r="R5" s="6" t="n">
+      <c r="Q5" s="7" t="n">
         <v>3.975</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>3.9478</v>
       </c>
     </row>
     <row r="7">
@@ -651,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>11-22</t>
+          <t>11-23</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>11-24</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>11-25</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>11-26</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>11-27</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>11-28</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>11-29</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>11-23</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>11-24</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>11-25</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>11-26</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>11-27</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>11-28</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>11-22</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>11-23</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>11-24</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>11-25</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>11-26</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>11-27</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>11-28</t>
+          <t>11-29</t>
         </is>
       </c>
     </row>
@@ -732,10 +740,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0341</v>
+        <v>5.0193</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.0193</v>
+        <v>5.0325</v>
       </c>
       <c r="E9" s="6" t="n">
         <v>5.0325</v>
@@ -743,25 +751,25 @@
       <c r="F9" s="6" t="n">
         <v>5.0325</v>
       </c>
-      <c r="G9" s="6" t="n">
-        <v>5.0325</v>
+      <c r="G9" s="7" t="n">
+        <v>5.0142</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.0142</v>
-      </c>
-      <c r="I9" s="6" t="n">
         <v>5.0198</v>
       </c>
+      <c r="I9" s="7" t="n">
+        <v>5.0066</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.5433</v>
+        <v>4.5274</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.5274</v>
+        <v>4.5348</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>4.5348</v>
@@ -769,14 +777,14 @@
       <c r="O9" s="6" t="n">
         <v>4.5348</v>
       </c>
-      <c r="P9" s="6" t="n">
-        <v>4.5348</v>
-      </c>
-      <c r="Q9" s="6" t="n">
+      <c r="P9" s="7" t="n">
         <v>4.512</v>
       </c>
-      <c r="R9" s="6" t="n">
+      <c r="Q9" s="7" t="n">
         <v>4.5175</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>4.5031</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>11-23</t>
+          <t>11-24</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>11-25</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>11-26</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>11-27</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>11-28</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>11-29</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>11-30</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>11-24</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>11-25</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>11-26</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>11-27</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>11-28</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>11-29</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>11-23</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>11-24</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>11-25</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>11-26</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>11-27</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>11-28</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>11-29</t>
+          <t>11-30</t>
         </is>
       </c>
     </row>
@@ -592,51 +592,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3658</v>
-      </c>
-      <c r="D5" s="6" t="n">
         <v>4.3722</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="D5" s="5" t="n">
         <v>4.3722</v>
       </c>
+      <c r="E5" s="5" t="n">
+        <v>4.3722</v>
+      </c>
       <c r="F5" s="6" t="n">
-        <v>4.3722</v>
-      </c>
-      <c r="G5" s="7" t="n">
         <v>4.3543</v>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="G5" s="6" t="n">
         <v>4.3542</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="H5" s="6" t="n">
         <v>4.3327</v>
       </c>
+      <c r="I5" s="6" t="n">
+        <v>4.3492</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.9969</v>
-      </c>
-      <c r="M5" s="6" t="n">
         <v>4.0103</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="M5" s="5" t="n">
         <v>4.0103</v>
       </c>
+      <c r="N5" s="5" t="n">
+        <v>4.0103</v>
+      </c>
       <c r="O5" s="6" t="n">
-        <v>4.0103</v>
-      </c>
-      <c r="P5" s="7" t="n">
         <v>3.9769</v>
       </c>
-      <c r="Q5" s="7" t="n">
+      <c r="P5" s="6" t="n">
         <v>3.975</v>
       </c>
-      <c r="R5" s="7" t="n">
+      <c r="Q5" s="6" t="n">
         <v>3.9478</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>3.981</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>11-23</t>
+          <t>11-24</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>11-25</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>11-26</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>11-27</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>11-28</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>11-29</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>11-30</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>11-24</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>11-25</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>11-26</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>11-27</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>11-28</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>11-29</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>11-23</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>11-24</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>11-25</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>11-26</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>11-27</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>11-28</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>11-29</t>
+          <t>11-30</t>
         </is>
       </c>
     </row>
@@ -740,25 +740,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0193</v>
-      </c>
-      <c r="D9" s="6" t="n">
         <v>5.0325</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="5" t="n">
         <v>5.0325</v>
       </c>
+      <c r="E9" s="5" t="n">
+        <v>5.0325</v>
+      </c>
       <c r="F9" s="6" t="n">
-        <v>5.0325</v>
-      </c>
-      <c r="G9" s="7" t="n">
         <v>5.0142</v>
       </c>
+      <c r="G9" s="6" t="n">
+        <v>5.0198</v>
+      </c>
       <c r="H9" s="6" t="n">
-        <v>5.0198</v>
+        <v>5.0066</v>
       </c>
       <c r="I9" s="7" t="n">
-        <v>5.0066</v>
+        <v>5.035</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,25 +766,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.5274</v>
-      </c>
-      <c r="M9" s="6" t="n">
         <v>4.5348</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="M9" s="5" t="n">
         <v>4.5348</v>
       </c>
+      <c r="N9" s="5" t="n">
+        <v>4.5348</v>
+      </c>
       <c r="O9" s="6" t="n">
-        <v>4.5348</v>
-      </c>
-      <c r="P9" s="7" t="n">
         <v>4.512</v>
       </c>
-      <c r="Q9" s="7" t="n">
+      <c r="P9" s="6" t="n">
         <v>4.5175</v>
       </c>
+      <c r="Q9" s="6" t="n">
+        <v>4.5031</v>
+      </c>
       <c r="R9" s="7" t="n">
-        <v>4.5031</v>
+        <v>4.551</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>11-24</t>
+          <t>11-27</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>11-25</t>
+          <t>11-28</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>11-26</t>
+          <t>11-29</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
+          <t>11-30</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>12-01</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>12-02</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>12-03</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>11-27</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>11-28</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>11-29</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>11-30</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>11-24</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>11-25</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>11-26</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>11-27</t>
-        </is>
-      </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
-          <t>11-28</t>
+          <t>12-01</t>
         </is>
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>11-29</t>
+          <t>12-02</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>11-30</t>
+          <t>12-03</t>
         </is>
       </c>
     </row>
@@ -592,25 +592,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3722</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>4.3722</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>4.3722</v>
+        <v>4.3543</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>4.3542</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>4.3327</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.3543</v>
+        <v>4.3492</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.3542</v>
+        <v>4.3494</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.3327</v>
+        <v>4.3494</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.3492</v>
+        <v>4.3494</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +618,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0103</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>4.0103</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>4.0103</v>
-      </c>
-      <c r="O5" s="6" t="n">
         <v>3.9769</v>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="M5" s="6" t="n">
         <v>3.975</v>
       </c>
-      <c r="Q5" s="6" t="n">
+      <c r="N5" s="6" t="n">
         <v>3.9478</v>
       </c>
-      <c r="R5" s="6" t="n">
+      <c r="O5" s="7" t="n">
         <v>3.981</v>
+      </c>
+      <c r="P5" s="7" t="n">
+        <v>3.991</v>
+      </c>
+      <c r="Q5" s="7" t="n">
+        <v>3.991</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>3.991</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>11-24</t>
+          <t>11-27</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>11-25</t>
+          <t>11-28</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>11-26</t>
+          <t>11-29</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
+          <t>11-30</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>12-01</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>12-02</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>12-03</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>11-27</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>11-28</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>11-29</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>11-30</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>11-24</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>11-25</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>11-26</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>11-27</t>
-        </is>
-      </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
-          <t>11-28</t>
+          <t>12-01</t>
         </is>
       </c>
       <c r="Q8" s="5" t="inlineStr">
         <is>
-          <t>11-29</t>
+          <t>12-02</t>
         </is>
       </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>11-30</t>
+          <t>12-03</t>
         </is>
       </c>
     </row>
@@ -740,25 +740,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0325</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>5.0325</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>5.0325</v>
-      </c>
-      <c r="F9" s="6" t="n">
         <v>5.0142</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="D9" s="7" t="n">
         <v>5.0198</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="E9" s="6" t="n">
         <v>5.0066</v>
       </c>
+      <c r="F9" s="7" t="n">
+        <v>5.035</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>5.0557</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <v>5.0557</v>
+      </c>
       <c r="I9" s="7" t="n">
-        <v>5.035</v>
+        <v>5.0557</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,25 +766,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.5348</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>4.5348</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>4.5348</v>
-      </c>
-      <c r="O9" s="6" t="n">
         <v>4.512</v>
       </c>
-      <c r="P9" s="6" t="n">
+      <c r="M9" s="7" t="n">
         <v>4.5175</v>
       </c>
-      <c r="Q9" s="6" t="n">
+      <c r="N9" s="6" t="n">
         <v>4.5031</v>
       </c>
+      <c r="O9" s="7" t="n">
+        <v>4.551</v>
+      </c>
+      <c r="P9" s="7" t="n">
+        <v>4.567</v>
+      </c>
+      <c r="Q9" s="7" t="n">
+        <v>4.567</v>
+      </c>
       <c r="R9" s="7" t="n">
-        <v>4.551</v>
+        <v>4.567</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>11-27</t>
+          <t>11-28</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>11-29</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>11-30</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>12-01</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>12-02</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>12-03</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>12-04</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>11-28</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>11-29</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>11-30</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>12-01</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>12-02</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>12-03</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>11-27</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>11-28</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>11-29</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>11-30</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>12-01</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>12-02</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>12-03</t>
+          <t>12-04</t>
         </is>
       </c>
     </row>
@@ -592,16 +592,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3543</v>
+        <v>4.3542</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.3542</v>
+        <v>4.3327</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.3327</v>
+        <v>4.3492</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.3492</v>
+        <v>4.3494</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>4.3494</v>
@@ -610,7 +610,7 @@
         <v>4.3494</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.3494</v>
+        <v>4.3337</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,16 +618,16 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.9769</v>
+        <v>3.975</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>3.975</v>
-      </c>
-      <c r="N5" s="6" t="n">
         <v>3.9478</v>
       </c>
+      <c r="N5" s="7" t="n">
+        <v>3.981</v>
+      </c>
       <c r="O5" s="7" t="n">
-        <v>3.981</v>
+        <v>3.991</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>3.991</v>
@@ -636,7 +636,7 @@
         <v>3.991</v>
       </c>
       <c r="R5" s="7" t="n">
-        <v>3.991</v>
+        <v>3.985</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>11-27</t>
+          <t>11-28</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>11-29</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>11-30</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>12-01</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>12-02</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>12-03</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>12-04</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>11-28</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>11-29</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>11-30</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>12-01</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>12-02</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>12-03</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>11-27</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>11-28</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>11-29</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>11-30</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>12-01</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>12-02</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>12-03</t>
+          <t>12-04</t>
         </is>
       </c>
     </row>
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0142</v>
-      </c>
-      <c r="D9" s="7" t="n">
         <v>5.0198</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="6" t="n">
         <v>5.0066</v>
       </c>
+      <c r="E9" s="7" t="n">
+        <v>5.035</v>
+      </c>
       <c r="F9" s="7" t="n">
-        <v>5.035</v>
+        <v>5.0557</v>
       </c>
       <c r="G9" s="7" t="n">
         <v>5.0557</v>
@@ -758,7 +758,7 @@
         <v>5.0557</v>
       </c>
       <c r="I9" s="7" t="n">
-        <v>5.0557</v>
+        <v>5.0509</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,16 +766,16 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.512</v>
-      </c>
-      <c r="M9" s="7" t="n">
         <v>4.5175</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="M9" s="6" t="n">
         <v>4.5031</v>
       </c>
+      <c r="N9" s="7" t="n">
+        <v>4.551</v>
+      </c>
       <c r="O9" s="7" t="n">
-        <v>4.551</v>
+        <v>4.567</v>
       </c>
       <c r="P9" s="7" t="n">
         <v>4.567</v>
@@ -784,7 +784,7 @@
         <v>4.567</v>
       </c>
       <c r="R9" s="7" t="n">
-        <v>4.567</v>
+        <v>4.5678</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>11-28</t>
+          <t>11-29</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>11-30</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>12-01</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>12-02</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>12-03</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>12-04</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>12-05</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>11-29</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>11-30</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>12-01</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>12-02</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>12-03</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>12-04</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>11-28</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>11-29</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>11-30</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>12-01</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>12-02</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>12-03</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>12-04</t>
+          <t>12-05</t>
         </is>
       </c>
     </row>
@@ -592,13 +592,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3542</v>
+        <v>4.3327</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.3327</v>
+        <v>4.3492</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.3492</v>
+        <v>4.3494</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>4.3494</v>
@@ -607,36 +607,36 @@
         <v>4.3494</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.3494</v>
-      </c>
-      <c r="I5" s="6" t="n">
         <v>4.3337</v>
       </c>
+      <c r="I5" s="7" t="n">
+        <v>4.3233</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.975</v>
+        <v>3.9478</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>3.9478</v>
-      </c>
-      <c r="N5" s="7" t="n">
         <v>3.981</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="N5" s="6" t="n">
         <v>3.991</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="O5" s="6" t="n">
         <v>3.991</v>
       </c>
-      <c r="Q5" s="7" t="n">
+      <c r="P5" s="6" t="n">
         <v>3.991</v>
       </c>
-      <c r="R5" s="7" t="n">
+      <c r="Q5" s="6" t="n">
         <v>3.985</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>3.991</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>11-28</t>
+          <t>11-29</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>11-30</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>12-01</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>12-02</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>12-03</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>12-04</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>12-05</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>11-29</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>11-30</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>12-01</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>12-02</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>12-03</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>12-04</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>11-28</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>11-29</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>11-30</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>12-01</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>12-02</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>12-03</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>12-04</t>
+          <t>12-05</t>
         </is>
       </c>
     </row>
@@ -740,51 +740,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0198</v>
+        <v>5.0066</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.0066</v>
-      </c>
-      <c r="E9" s="7" t="n">
         <v>5.035</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="E9" s="6" t="n">
         <v>5.0557</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="F9" s="6" t="n">
         <v>5.0557</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="G9" s="6" t="n">
         <v>5.0557</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="H9" s="6" t="n">
         <v>5.0509</v>
       </c>
+      <c r="I9" s="6" t="n">
+        <v>5.0417</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.5175</v>
+        <v>4.5031</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.5031</v>
-      </c>
-      <c r="N9" s="7" t="n">
         <v>4.551</v>
       </c>
-      <c r="O9" s="7" t="n">
+      <c r="N9" s="6" t="n">
         <v>4.567</v>
       </c>
-      <c r="P9" s="7" t="n">
+      <c r="O9" s="6" t="n">
         <v>4.567</v>
       </c>
-      <c r="Q9" s="7" t="n">
+      <c r="P9" s="6" t="n">
         <v>4.567</v>
       </c>
-      <c r="R9" s="7" t="n">
+      <c r="Q9" s="6" t="n">
         <v>4.5678</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>4.5689</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>11-29</t>
+          <t>11-30</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>12-01</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>12-02</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>12-03</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>12-04</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>12-05</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>12-06</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>11-30</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>12-01</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>12-02</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>12-03</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>12-04</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>12-05</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>11-29</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>11-30</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>12-01</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>12-02</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>12-03</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>12-04</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>12-05</t>
+          <t>12-06</t>
         </is>
       </c>
     </row>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3327</v>
+        <v>4.3492</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.3492</v>
+        <v>4.3494</v>
       </c>
       <c r="E5" s="6" t="n">
         <v>4.3494</v>
@@ -603,14 +603,14 @@
       <c r="F5" s="6" t="n">
         <v>4.3494</v>
       </c>
-      <c r="G5" s="6" t="n">
-        <v>4.3494</v>
-      </c>
-      <c r="H5" s="6" t="n">
+      <c r="G5" s="7" t="n">
         <v>4.3337</v>
       </c>
+      <c r="H5" s="7" t="n">
+        <v>4.3233</v>
+      </c>
       <c r="I5" s="7" t="n">
-        <v>4.3233</v>
+        <v>4.3382</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,10 +618,10 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.9478</v>
+        <v>3.981</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>3.981</v>
+        <v>3.991</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>3.991</v>
@@ -630,13 +630,13 @@
         <v>3.991</v>
       </c>
       <c r="P5" s="6" t="n">
+        <v>3.985</v>
+      </c>
+      <c r="Q5" s="6" t="n">
         <v>3.991</v>
       </c>
-      <c r="Q5" s="6" t="n">
-        <v>3.985</v>
-      </c>
       <c r="R5" s="6" t="n">
-        <v>3.991</v>
+        <v>4.0202</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>11-29</t>
+          <t>11-30</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>12-01</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>12-02</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>12-03</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>12-04</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>12-05</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>12-06</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>11-30</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>12-01</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>12-02</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>12-03</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>12-04</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>12-05</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>11-29</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>11-30</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>12-01</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>12-02</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>12-03</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>12-04</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>12-05</t>
+          <t>12-06</t>
         </is>
       </c>
     </row>
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0066</v>
+        <v>5.035</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.035</v>
+        <v>5.0557</v>
       </c>
       <c r="E9" s="6" t="n">
         <v>5.0557</v>
@@ -752,13 +752,13 @@
         <v>5.0557</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.0557</v>
+        <v>5.0509</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.0509</v>
+        <v>5.0417</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.0417</v>
+        <v>5.0656</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.5031</v>
+        <v>4.551</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.551</v>
+        <v>4.567</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>4.567</v>
@@ -778,13 +778,13 @@
         <v>4.567</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>4.567</v>
+        <v>4.5678</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.5678</v>
+        <v>4.5689</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.5689</v>
+        <v>4.5982</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>11-30</t>
+          <t>12-01</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>12-02</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>12-03</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>12-04</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>12-05</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>12-06</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>12-07</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>12-01</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>12-02</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>12-03</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>12-04</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>12-05</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>12-06</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>11-30</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>12-01</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>12-02</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>12-03</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>12-04</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>12-05</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>12-06</t>
+          <t>12-07</t>
         </is>
       </c>
     </row>
@@ -592,51 +592,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3492</v>
-      </c>
-      <c r="D5" s="6" t="n">
         <v>4.3494</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="D5" s="5" t="n">
         <v>4.3494</v>
       </c>
+      <c r="E5" s="5" t="n">
+        <v>4.3494</v>
+      </c>
       <c r="F5" s="6" t="n">
-        <v>4.3494</v>
-      </c>
-      <c r="G5" s="7" t="n">
         <v>4.3337</v>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="G5" s="6" t="n">
         <v>4.3233</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="H5" s="6" t="n">
         <v>4.3382</v>
       </c>
+      <c r="I5" s="6" t="n">
+        <v>4.3334</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.981</v>
-      </c>
-      <c r="M5" s="6" t="n">
         <v>3.991</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="M5" s="5" t="n">
         <v>3.991</v>
       </c>
+      <c r="N5" s="5" t="n">
+        <v>3.991</v>
+      </c>
       <c r="O5" s="6" t="n">
+        <v>3.985</v>
+      </c>
+      <c r="P5" s="5" t="n">
         <v>3.991</v>
       </c>
-      <c r="P5" s="6" t="n">
-        <v>3.985</v>
-      </c>
-      <c r="Q5" s="6" t="n">
-        <v>3.991</v>
-      </c>
-      <c r="R5" s="6" t="n">
+      <c r="Q5" s="7" t="n">
         <v>4.0202</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>4.0199</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>11-30</t>
+          <t>12-01</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>12-02</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>12-03</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>12-04</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>12-05</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>12-06</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>12-07</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>12-01</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>12-02</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>12-03</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>12-04</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>12-05</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>12-06</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>11-30</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>12-01</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>12-02</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>12-03</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>12-04</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>12-05</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>12-06</t>
+          <t>12-07</t>
         </is>
       </c>
     </row>
@@ -740,51 +740,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.035</v>
-      </c>
-      <c r="D9" s="6" t="n">
         <v>5.0557</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="5" t="n">
         <v>5.0557</v>
       </c>
+      <c r="E9" s="5" t="n">
+        <v>5.0557</v>
+      </c>
       <c r="F9" s="6" t="n">
-        <v>5.0557</v>
+        <v>5.0509</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.0509</v>
-      </c>
-      <c r="H9" s="6" t="n">
         <v>5.0417</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="H9" s="7" t="n">
         <v>5.0656</v>
       </c>
+      <c r="I9" s="7" t="n">
+        <v>5.0597</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.551</v>
-      </c>
-      <c r="M9" s="6" t="n">
         <v>4.567</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="M9" s="5" t="n">
         <v>4.567</v>
       </c>
-      <c r="O9" s="6" t="n">
+      <c r="N9" s="5" t="n">
         <v>4.567</v>
       </c>
-      <c r="P9" s="6" t="n">
+      <c r="O9" s="7" t="n">
         <v>4.5678</v>
       </c>
-      <c r="Q9" s="6" t="n">
+      <c r="P9" s="7" t="n">
         <v>4.5689</v>
       </c>
-      <c r="R9" s="6" t="n">
+      <c r="Q9" s="7" t="n">
         <v>4.5982</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>4.6027</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>12-01</t>
+          <t>12-04</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>12-02</t>
+          <t>12-05</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>12-03</t>
+          <t>12-06</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
+          <t>12-07</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>12-08</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>12-09</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>12-10</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>12-04</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>12-05</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>12-06</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>12-07</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>12-01</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>12-02</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>12-03</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>12-04</t>
-        </is>
-      </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
-          <t>12-05</t>
+          <t>12-08</t>
         </is>
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>12-06</t>
+          <t>12-09</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>12-07</t>
+          <t>12-10</t>
         </is>
       </c>
     </row>
@@ -592,25 +592,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3494</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>4.3494</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>4.3494</v>
+        <v>4.3337</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>4.3233</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>4.3382</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.3337</v>
+        <v>4.3334</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.3233</v>
+        <v>4.3303</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.3382</v>
+        <v>4.3303</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.3334</v>
+        <v>4.3303</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +618,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
+        <v>3.985</v>
+      </c>
+      <c r="M5" s="7" t="n">
         <v>3.991</v>
       </c>
-      <c r="M5" s="5" t="n">
-        <v>3.991</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>3.991</v>
-      </c>
-      <c r="O5" s="6" t="n">
-        <v>3.985</v>
-      </c>
-      <c r="P5" s="5" t="n">
-        <v>3.991</v>
+      <c r="N5" s="7" t="n">
+        <v>4.0202</v>
+      </c>
+      <c r="O5" s="7" t="n">
+        <v>4.0199</v>
+      </c>
+      <c r="P5" s="7" t="n">
+        <v>4.0181</v>
       </c>
       <c r="Q5" s="7" t="n">
-        <v>4.0202</v>
+        <v>4.0181</v>
       </c>
       <c r="R5" s="7" t="n">
-        <v>4.0199</v>
+        <v>4.0181</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>12-01</t>
+          <t>12-04</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>12-02</t>
+          <t>12-05</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>12-03</t>
+          <t>12-06</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
+          <t>12-07</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>12-08</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>12-09</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>12-10</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>12-04</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>12-05</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>12-06</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>12-07</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>12-01</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>12-02</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>12-03</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>12-04</t>
-        </is>
-      </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
-          <t>12-05</t>
+          <t>12-08</t>
         </is>
       </c>
       <c r="Q8" s="5" t="inlineStr">
         <is>
-          <t>12-06</t>
+          <t>12-09</t>
         </is>
       </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>12-07</t>
+          <t>12-10</t>
         </is>
       </c>
     </row>
@@ -740,25 +740,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0557</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>5.0557</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>5.0557</v>
-      </c>
-      <c r="F9" s="6" t="n">
         <v>5.0509</v>
       </c>
+      <c r="D9" s="6" t="n">
+        <v>5.0417</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>5.0656</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>5.0597</v>
+      </c>
       <c r="G9" s="6" t="n">
-        <v>5.0417</v>
-      </c>
-      <c r="H9" s="7" t="n">
-        <v>5.0656</v>
-      </c>
-      <c r="I9" s="7" t="n">
-        <v>5.0597</v>
+        <v>5.0458</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>5.0458</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>5.0458</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,25 +766,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.567</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>4.567</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>4.567</v>
+        <v>4.5678</v>
+      </c>
+      <c r="M9" s="7" t="n">
+        <v>4.5689</v>
+      </c>
+      <c r="N9" s="7" t="n">
+        <v>4.5982</v>
       </c>
       <c r="O9" s="7" t="n">
-        <v>4.5678</v>
+        <v>4.6027</v>
       </c>
       <c r="P9" s="7" t="n">
-        <v>4.5689</v>
+        <v>4.5913</v>
       </c>
       <c r="Q9" s="7" t="n">
-        <v>4.5982</v>
+        <v>4.5913</v>
       </c>
       <c r="R9" s="7" t="n">
-        <v>4.6027</v>
+        <v>4.5913</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,17 +37,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -73,7 +68,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -89,9 +84,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -511,77 +503,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>12-04</t>
+          <t>12-05</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>12-06</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>12-07</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>12-08</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>12-09</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>12-10</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>12-11</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>12-05</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>12-06</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>12-07</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>12-08</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>12-09</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>12-10</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>12-04</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>12-05</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>12-06</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>12-07</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>12-08</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>12-09</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>12-10</t>
+          <t>12-11</t>
         </is>
       </c>
     </row>
@@ -592,16 +584,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3337</v>
+        <v>4.3233</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.3233</v>
-      </c>
-      <c r="E5" s="7" t="n">
         <v>4.3382</v>
       </c>
+      <c r="E5" s="6" t="n">
+        <v>4.3334</v>
+      </c>
       <c r="F5" s="6" t="n">
-        <v>4.3334</v>
+        <v>4.3303</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>4.3303</v>
@@ -610,7 +602,7 @@
         <v>4.3303</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.3303</v>
+        <v>4.3366</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +610,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.985</v>
-      </c>
-      <c r="M5" s="7" t="n">
         <v>3.991</v>
       </c>
-      <c r="N5" s="7" t="n">
+      <c r="M5" s="6" t="n">
         <v>4.0202</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="N5" s="6" t="n">
         <v>4.0199</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="O5" s="6" t="n">
         <v>4.0181</v>
       </c>
-      <c r="Q5" s="7" t="n">
+      <c r="P5" s="6" t="n">
         <v>4.0181</v>
       </c>
-      <c r="R5" s="7" t="n">
+      <c r="Q5" s="6" t="n">
         <v>4.0181</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>4.0277</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +651,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>12-04</t>
+          <t>12-05</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>12-06</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>12-07</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>12-08</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>12-09</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>12-10</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>12-11</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>12-05</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>12-06</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>12-07</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>12-08</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>12-09</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>12-10</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>12-04</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>12-05</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>12-06</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>12-07</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>12-08</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>12-09</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>12-10</t>
+          <t>12-11</t>
         </is>
       </c>
     </row>
@@ -740,16 +732,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0509</v>
+        <v>5.0417</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.0417</v>
-      </c>
-      <c r="E9" s="7" t="n">
         <v>5.0656</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="E9" s="6" t="n">
         <v>5.0597</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>5.0458</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>5.0458</v>
@@ -758,7 +750,7 @@
         <v>5.0458</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.0458</v>
+        <v>5.0567</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,25 +758,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.5678</v>
-      </c>
-      <c r="M9" s="7" t="n">
         <v>4.5689</v>
       </c>
-      <c r="N9" s="7" t="n">
+      <c r="M9" s="6" t="n">
         <v>4.5982</v>
       </c>
-      <c r="O9" s="7" t="n">
+      <c r="N9" s="6" t="n">
         <v>4.6027</v>
       </c>
-      <c r="P9" s="7" t="n">
+      <c r="O9" s="6" t="n">
         <v>4.5913</v>
       </c>
-      <c r="Q9" s="7" t="n">
+      <c r="P9" s="6" t="n">
         <v>4.5913</v>
       </c>
-      <c r="R9" s="7" t="n">
+      <c r="Q9" s="6" t="n">
         <v>4.5913</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>4.5824</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,12 +37,17 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FC2C03"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -68,7 +73,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -84,6 +89,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -503,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>12-05</t>
+          <t>12-06</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>12-07</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>12-08</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>12-09</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>12-10</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>12-11</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>12-12</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>12-06</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>12-07</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>12-08</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>12-09</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>12-10</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>12-11</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>12-05</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>12-06</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>12-07</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>12-08</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>12-09</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>12-10</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>12-11</t>
+          <t>12-12</t>
         </is>
       </c>
     </row>
@@ -584,13 +592,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3233</v>
+        <v>4.3382</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.3382</v>
+        <v>4.3334</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.3334</v>
+        <v>4.3303</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>4.3303</v>
@@ -599,24 +607,24 @@
         <v>4.3303</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.3303</v>
-      </c>
-      <c r="I5" s="6" t="n">
         <v>4.3366</v>
       </c>
+      <c r="I5" s="7" t="n">
+        <v>4.3396</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.991</v>
+        <v>4.0202</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.0202</v>
+        <v>4.0199</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>4.0199</v>
+        <v>4.0181</v>
       </c>
       <c r="O5" s="6" t="n">
         <v>4.0181</v>
@@ -624,11 +632,11 @@
       <c r="P5" s="6" t="n">
         <v>4.0181</v>
       </c>
-      <c r="Q5" s="6" t="n">
-        <v>4.0181</v>
-      </c>
-      <c r="R5" s="6" t="n">
+      <c r="Q5" s="7" t="n">
         <v>4.0277</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>4.0204</v>
       </c>
     </row>
     <row r="7">
@@ -651,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>12-05</t>
+          <t>12-06</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>12-07</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>12-08</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>12-09</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>12-10</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>12-11</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>12-12</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>12-06</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>12-07</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>12-08</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>12-09</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>12-10</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>12-11</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>12-05</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>12-06</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>12-07</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>12-08</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>12-09</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>12-10</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>12-11</t>
+          <t>12-12</t>
         </is>
       </c>
     </row>
@@ -732,13 +740,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0417</v>
+        <v>5.0656</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.0656</v>
+        <v>5.0597</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>5.0597</v>
+        <v>5.0458</v>
       </c>
       <c r="F9" s="6" t="n">
         <v>5.0458</v>
@@ -747,10 +755,10 @@
         <v>5.0458</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.0458</v>
+        <v>5.0567</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.0567</v>
+        <v>5.0516</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -758,13 +766,13 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.5689</v>
-      </c>
-      <c r="M9" s="6" t="n">
         <v>4.5982</v>
       </c>
+      <c r="M9" s="7" t="n">
+        <v>4.6027</v>
+      </c>
       <c r="N9" s="6" t="n">
-        <v>4.6027</v>
+        <v>4.5913</v>
       </c>
       <c r="O9" s="6" t="n">
         <v>4.5913</v>
@@ -773,10 +781,10 @@
         <v>4.5913</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.5913</v>
+        <v>4.5824</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.5824</v>
+        <v>4.581</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>12-06</t>
+          <t>12-07</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>12-08</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>12-09</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>12-10</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>12-11</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>12-12</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>12-13</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>12-07</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>12-08</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>12-09</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>12-10</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>12-11</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>12-12</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>12-06</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>12-07</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>12-08</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>12-09</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>12-10</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>12-11</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>12-12</t>
+          <t>12-13</t>
         </is>
       </c>
     </row>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3382</v>
+        <v>4.3334</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.3334</v>
+        <v>4.3303</v>
       </c>
       <c r="E5" s="6" t="n">
         <v>4.3303</v>
@@ -603,25 +603,25 @@
       <c r="F5" s="6" t="n">
         <v>4.3303</v>
       </c>
-      <c r="G5" s="6" t="n">
-        <v>4.3303</v>
-      </c>
-      <c r="H5" s="6" t="n">
+      <c r="G5" s="7" t="n">
         <v>4.3366</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="H5" s="7" t="n">
         <v>4.3396</v>
       </c>
+      <c r="I5" s="6" t="n">
+        <v>4.3309</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0202</v>
+        <v>4.0199</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.0199</v>
+        <v>4.0181</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>4.0181</v>
@@ -629,14 +629,14 @@
       <c r="O5" s="6" t="n">
         <v>4.0181</v>
       </c>
-      <c r="P5" s="6" t="n">
-        <v>4.0181</v>
+      <c r="P5" s="7" t="n">
+        <v>4.0277</v>
       </c>
       <c r="Q5" s="7" t="n">
-        <v>4.0277</v>
-      </c>
-      <c r="R5" s="7" t="n">
         <v>4.0204</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>4.0149</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>12-06</t>
+          <t>12-07</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>12-08</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>12-09</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>12-10</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>12-11</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>12-12</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>12-13</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>12-07</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>12-08</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>12-09</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>12-10</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>12-11</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>12-12</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>12-06</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>12-07</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>12-08</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>12-09</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>12-10</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>12-11</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>12-12</t>
+          <t>12-13</t>
         </is>
       </c>
     </row>
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0656</v>
+        <v>5.0597</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.0597</v>
+        <v>5.0458</v>
       </c>
       <c r="E9" s="6" t="n">
         <v>5.0458</v>
@@ -752,13 +752,13 @@
         <v>5.0458</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.0458</v>
+        <v>5.0567</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.0567</v>
+        <v>5.0516</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.0516</v>
+        <v>5.0289</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.5982</v>
-      </c>
-      <c r="M9" s="7" t="n">
         <v>4.6027</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>4.5913</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>4.5913</v>
@@ -778,13 +778,13 @@
         <v>4.5913</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>4.5913</v>
+        <v>4.5824</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.5824</v>
+        <v>4.581</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.581</v>
+        <v>4.5827</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>12-07</t>
+          <t>12-08</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>12-09</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>12-10</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>12-11</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>12-12</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>12-13</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>12-14</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>12-08</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>12-09</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>12-10</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>12-11</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>12-12</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>12-13</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>12-07</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>12-08</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>12-09</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>12-10</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>12-11</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>12-12</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>12-13</t>
+          <t>12-14</t>
         </is>
       </c>
     </row>
@@ -592,51 +592,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3334</v>
-      </c>
-      <c r="D5" s="6" t="n">
         <v>4.3303</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="D5" s="5" t="n">
         <v>4.3303</v>
       </c>
+      <c r="E5" s="5" t="n">
+        <v>4.3303</v>
+      </c>
       <c r="F5" s="6" t="n">
-        <v>4.3303</v>
-      </c>
-      <c r="G5" s="7" t="n">
         <v>4.3366</v>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="G5" s="6" t="n">
         <v>4.3396</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="H5" s="6" t="n">
         <v>4.3309</v>
       </c>
+      <c r="I5" s="7" t="n">
+        <v>4.3053</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0199</v>
-      </c>
-      <c r="M5" s="6" t="n">
         <v>4.0181</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="M5" s="5" t="n">
         <v>4.0181</v>
       </c>
+      <c r="N5" s="5" t="n">
+        <v>4.0181</v>
+      </c>
       <c r="O5" s="6" t="n">
-        <v>4.0181</v>
-      </c>
-      <c r="P5" s="7" t="n">
         <v>4.0277</v>
       </c>
+      <c r="P5" s="6" t="n">
+        <v>4.0204</v>
+      </c>
       <c r="Q5" s="7" t="n">
-        <v>4.0204</v>
-      </c>
-      <c r="R5" s="6" t="n">
         <v>4.0149</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>3.9484</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>12-07</t>
+          <t>12-08</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>12-09</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>12-10</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>12-11</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>12-12</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>12-13</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>12-14</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>12-08</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>12-09</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>12-10</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>12-11</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>12-12</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>12-13</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>12-07</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>12-08</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>12-09</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>12-10</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>12-11</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>12-12</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>12-13</t>
+          <t>12-14</t>
         </is>
       </c>
     </row>
@@ -740,51 +740,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0597</v>
-      </c>
-      <c r="D9" s="6" t="n">
         <v>5.0458</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="5" t="n">
         <v>5.0458</v>
       </c>
+      <c r="E9" s="5" t="n">
+        <v>5.0458</v>
+      </c>
       <c r="F9" s="6" t="n">
-        <v>5.0458</v>
+        <v>5.0567</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.0567</v>
-      </c>
-      <c r="H9" s="6" t="n">
         <v>5.0516</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="H9" s="7" t="n">
         <v>5.0289</v>
       </c>
+      <c r="I9" s="7" t="n">
+        <v>5.0015</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6027</v>
-      </c>
-      <c r="M9" s="6" t="n">
         <v>4.5913</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="M9" s="5" t="n">
         <v>4.5913</v>
       </c>
-      <c r="O9" s="6" t="n">
+      <c r="N9" s="5" t="n">
         <v>4.5913</v>
       </c>
-      <c r="P9" s="6" t="n">
+      <c r="O9" s="7" t="n">
         <v>4.5824</v>
       </c>
-      <c r="Q9" s="6" t="n">
+      <c r="P9" s="7" t="n">
         <v>4.581</v>
       </c>
-      <c r="R9" s="6" t="n">
+      <c r="Q9" s="7" t="n">
         <v>4.5827</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>4.5328</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>12-08</t>
+          <t>12-11</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>12-09</t>
+          <t>12-12</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>12-10</t>
+          <t>12-13</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
+          <t>12-14</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>12-15</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>12-16</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>12-17</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>12-11</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>12-12</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>12-13</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>12-14</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>12-08</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>12-09</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>12-10</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>12-11</t>
-        </is>
-      </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
-          <t>12-12</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>12-13</t>
+          <t>12-16</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>12-14</t>
+          <t>12-17</t>
         </is>
       </c>
     </row>
@@ -592,25 +592,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3303</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>4.3303</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>4.3303</v>
-      </c>
-      <c r="F5" s="6" t="n">
         <v>4.3366</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="D5" s="6" t="n">
         <v>4.3396</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="E5" s="7" t="n">
         <v>4.3309</v>
       </c>
+      <c r="F5" s="7" t="n">
+        <v>4.3053</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <v>4.3103</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <v>4.3103</v>
+      </c>
       <c r="I5" s="7" t="n">
-        <v>4.3053</v>
+        <v>4.3103</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +618,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0181</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>4.0181</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>4.0181</v>
-      </c>
-      <c r="O5" s="6" t="n">
         <v>4.0277</v>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="M5" s="7" t="n">
         <v>4.0204</v>
       </c>
+      <c r="N5" s="7" t="n">
+        <v>4.0149</v>
+      </c>
+      <c r="O5" s="7" t="n">
+        <v>3.9484</v>
+      </c>
+      <c r="P5" s="7" t="n">
+        <v>3.9326</v>
+      </c>
       <c r="Q5" s="7" t="n">
-        <v>4.0149</v>
+        <v>3.9326</v>
       </c>
       <c r="R5" s="7" t="n">
-        <v>3.9484</v>
+        <v>3.9326</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>12-08</t>
+          <t>12-11</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>12-09</t>
+          <t>12-12</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>12-10</t>
+          <t>12-13</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
+          <t>12-14</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>12-15</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>12-16</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>12-17</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>12-11</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>12-12</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>12-13</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>12-14</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>12-08</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>12-09</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>12-10</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>12-11</t>
-        </is>
-      </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
-          <t>12-12</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="Q8" s="5" t="inlineStr">
         <is>
-          <t>12-13</t>
+          <t>12-16</t>
         </is>
       </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>12-14</t>
+          <t>12-17</t>
         </is>
       </c>
     </row>
@@ -740,25 +740,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0458</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>5.0458</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>5.0458</v>
-      </c>
-      <c r="F9" s="6" t="n">
         <v>5.0567</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="D9" s="7" t="n">
         <v>5.0516</v>
       </c>
+      <c r="E9" s="7" t="n">
+        <v>5.0289</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>5.0015</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>5.024</v>
+      </c>
       <c r="H9" s="7" t="n">
-        <v>5.0289</v>
+        <v>5.024</v>
       </c>
       <c r="I9" s="7" t="n">
-        <v>5.0015</v>
+        <v>5.024</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,25 +766,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.5913</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>4.5913</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>4.5913</v>
+        <v>4.5824</v>
+      </c>
+      <c r="M9" s="7" t="n">
+        <v>4.581</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>4.5827</v>
       </c>
       <c r="O9" s="7" t="n">
-        <v>4.5824</v>
+        <v>4.5328</v>
       </c>
       <c r="P9" s="7" t="n">
-        <v>4.581</v>
+        <v>4.5374</v>
       </c>
       <c r="Q9" s="7" t="n">
-        <v>4.5827</v>
+        <v>4.5374</v>
       </c>
       <c r="R9" s="7" t="n">
-        <v>4.5328</v>
+        <v>4.5374</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>12-11</t>
+          <t>12-12</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>12-13</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>12-14</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>12-15</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>12-16</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>12-17</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>12-18</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>12-12</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>12-13</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>12-14</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>12-15</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>12-16</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>12-17</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>12-11</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>12-12</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>12-13</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>12-14</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>12-15</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>12-16</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>12-17</t>
+          <t>12-18</t>
         </is>
       </c>
     </row>
@@ -592,51 +592,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3366</v>
+        <v>4.3396</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.3396</v>
-      </c>
-      <c r="E5" s="7" t="n">
         <v>4.3309</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="E5" s="6" t="n">
         <v>4.3053</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="F5" s="6" t="n">
         <v>4.3103</v>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="G5" s="6" t="n">
         <v>4.3103</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="H5" s="6" t="n">
         <v>4.3103</v>
       </c>
+      <c r="I5" s="6" t="n">
+        <v>4.3269</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0277</v>
-      </c>
-      <c r="M5" s="7" t="n">
         <v>4.0204</v>
       </c>
-      <c r="N5" s="7" t="n">
+      <c r="M5" s="6" t="n">
         <v>4.0149</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="N5" s="6" t="n">
         <v>3.9484</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="O5" s="6" t="n">
         <v>3.9326</v>
       </c>
-      <c r="Q5" s="7" t="n">
+      <c r="P5" s="6" t="n">
         <v>3.9326</v>
       </c>
-      <c r="R5" s="7" t="n">
+      <c r="Q5" s="6" t="n">
         <v>3.9326</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>3.9625</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>12-11</t>
+          <t>12-12</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>12-13</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>12-14</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>12-15</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>12-16</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>12-17</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>12-18</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>12-12</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>12-13</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>12-14</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>12-15</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>12-16</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>12-17</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>12-11</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>12-12</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>12-13</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>12-14</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>12-15</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>12-16</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>12-17</t>
+          <t>12-18</t>
         </is>
       </c>
     </row>
@@ -740,51 +740,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0567</v>
-      </c>
-      <c r="D9" s="7" t="n">
         <v>5.0516</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="D9" s="6" t="n">
         <v>5.0289</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="E9" s="6" t="n">
         <v>5.0015</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="F9" s="6" t="n">
         <v>5.024</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="G9" s="6" t="n">
         <v>5.024</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="H9" s="6" t="n">
         <v>5.024</v>
       </c>
+      <c r="I9" s="6" t="n">
+        <v>5.0196</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.5824</v>
+        <v>4.581</v>
       </c>
       <c r="M9" s="7" t="n">
-        <v>4.581</v>
+        <v>4.5827</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>4.5827</v>
-      </c>
-      <c r="O9" s="7" t="n">
         <v>4.5328</v>
       </c>
-      <c r="P9" s="7" t="n">
+      <c r="O9" s="6" t="n">
         <v>4.5374</v>
       </c>
-      <c r="Q9" s="7" t="n">
+      <c r="P9" s="6" t="n">
         <v>4.5374</v>
       </c>
-      <c r="R9" s="7" t="n">
+      <c r="Q9" s="6" t="n">
         <v>4.5374</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>4.5611</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>12-12</t>
+          <t>12-13</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>12-14</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>12-15</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>12-16</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>12-17</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>12-18</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>12-19</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>12-13</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>12-14</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>12-15</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>12-16</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>12-17</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>12-18</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>12-12</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>12-13</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>12-14</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>12-15</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>12-16</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>12-17</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>12-18</t>
+          <t>12-19</t>
         </is>
       </c>
     </row>
@@ -592,13 +592,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3396</v>
+        <v>4.3309</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.3309</v>
+        <v>4.3053</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.3053</v>
+        <v>4.3103</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>4.3103</v>
@@ -607,24 +607,24 @@
         <v>4.3103</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.3103</v>
-      </c>
-      <c r="I5" s="6" t="n">
         <v>4.3269</v>
       </c>
+      <c r="I5" s="7" t="n">
+        <v>4.3321</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0204</v>
+        <v>4.0149</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.0149</v>
+        <v>3.9484</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>3.9484</v>
+        <v>3.9326</v>
       </c>
       <c r="O5" s="6" t="n">
         <v>3.9326</v>
@@ -633,10 +633,10 @@
         <v>3.9326</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>3.9326</v>
+        <v>3.9625</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>3.9625</v>
+        <v>3.9591</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>12-12</t>
+          <t>12-13</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>12-14</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>12-15</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>12-16</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>12-17</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>12-18</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>12-19</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>12-13</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>12-14</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>12-15</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>12-16</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>12-17</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>12-18</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>12-12</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>12-13</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>12-14</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>12-15</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>12-16</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>12-17</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>12-18</t>
+          <t>12-19</t>
         </is>
       </c>
     </row>
@@ -740,13 +740,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0516</v>
+        <v>5.0289</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.0289</v>
+        <v>5.0015</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>5.0015</v>
+        <v>5.024</v>
       </c>
       <c r="F9" s="6" t="n">
         <v>5.024</v>
@@ -755,10 +755,10 @@
         <v>5.024</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.024</v>
+        <v>5.0196</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.0196</v>
+        <v>5.0283</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.581</v>
-      </c>
-      <c r="M9" s="7" t="n">
         <v>4.5827</v>
       </c>
+      <c r="M9" s="6" t="n">
+        <v>4.5328</v>
+      </c>
       <c r="N9" s="6" t="n">
-        <v>4.5328</v>
+        <v>4.5374</v>
       </c>
       <c r="O9" s="6" t="n">
         <v>4.5374</v>
@@ -781,10 +781,10 @@
         <v>4.5374</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.5374</v>
+        <v>4.5611</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.5611</v>
+        <v>4.5709</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>12-13</t>
+          <t>12-14</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>12-15</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>12-16</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>12-17</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>12-18</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>12-19</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>12-20</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>12-14</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>12-15</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>12-16</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>12-17</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>12-18</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>12-19</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>12-13</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>12-14</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>12-15</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>12-16</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>12-17</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>12-18</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>12-19</t>
+          <t>12-20</t>
         </is>
       </c>
     </row>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3309</v>
+        <v>4.3053</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.3053</v>
+        <v>4.3103</v>
       </c>
       <c r="E5" s="6" t="n">
         <v>4.3103</v>
@@ -604,39 +604,39 @@
         <v>4.3103</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.3103</v>
+        <v>4.3269</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.3269</v>
-      </c>
-      <c r="I5" s="7" t="n">
         <v>4.3321</v>
       </c>
+      <c r="I5" s="6" t="n">
+        <v>4.3341</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0149</v>
-      </c>
-      <c r="M5" s="6" t="n">
         <v>3.9484</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="M5" s="7" t="n">
         <v>3.9326</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="N5" s="7" t="n">
         <v>3.9326</v>
       </c>
+      <c r="O5" s="7" t="n">
+        <v>3.9326</v>
+      </c>
       <c r="P5" s="6" t="n">
-        <v>3.9326</v>
+        <v>3.9625</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>3.9625</v>
+        <v>3.9591</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>3.9591</v>
+        <v>3.9527</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>12-13</t>
+          <t>12-14</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>12-15</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>12-16</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>12-17</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>12-18</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>12-19</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>12-20</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>12-14</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>12-15</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>12-16</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>12-17</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>12-18</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>12-19</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>12-13</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>12-14</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>12-15</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>12-16</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>12-17</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>12-18</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>12-19</t>
+          <t>12-20</t>
         </is>
       </c>
     </row>
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0289</v>
+        <v>5.0015</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.0015</v>
+        <v>5.024</v>
       </c>
       <c r="E9" s="6" t="n">
         <v>5.024</v>
@@ -752,13 +752,13 @@
         <v>5.024</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.024</v>
+        <v>5.0196</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.0196</v>
+        <v>5.0283</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.0283</v>
+        <v>5.0117</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.5827</v>
+        <v>4.5328</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.5328</v>
+        <v>4.5374</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>4.5374</v>
@@ -778,13 +778,13 @@
         <v>4.5374</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>4.5374</v>
+        <v>4.5611</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.5611</v>
+        <v>4.5709</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.5709</v>
+        <v>4.5885</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>12-14</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>12-16</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>12-17</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>12-18</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>12-19</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>12-20</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>12-21</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>12-15</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>12-16</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>12-17</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>12-18</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>12-19</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>12-20</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>12-14</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>12-15</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>12-16</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>12-17</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>12-18</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>12-19</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>12-20</t>
+          <t>12-21</t>
         </is>
       </c>
     </row>
@@ -592,25 +592,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3053</v>
-      </c>
-      <c r="D5" s="6" t="n">
         <v>4.3103</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="D5" s="5" t="n">
         <v>4.3103</v>
       </c>
+      <c r="E5" s="5" t="n">
+        <v>4.3103</v>
+      </c>
       <c r="F5" s="6" t="n">
-        <v>4.3103</v>
+        <v>4.3269</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.3269</v>
+        <v>4.3321</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.3321</v>
+        <v>4.3341</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.3341</v>
+        <v>4.3387</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +618,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.9484</v>
-      </c>
-      <c r="M5" s="7" t="n">
         <v>3.9326</v>
       </c>
-      <c r="N5" s="7" t="n">
+      <c r="M5" s="5" t="n">
         <v>3.9326</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="N5" s="5" t="n">
         <v>3.9326</v>
       </c>
+      <c r="O5" s="6" t="n">
+        <v>3.9625</v>
+      </c>
       <c r="P5" s="6" t="n">
-        <v>3.9625</v>
+        <v>3.9591</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>3.9591</v>
+        <v>3.9527</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>3.9527</v>
+        <v>3.9645</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>12-14</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>12-16</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>12-17</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>12-18</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>12-19</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>12-20</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>12-21</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>12-15</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>12-16</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>12-17</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>12-18</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>12-19</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>12-20</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>12-14</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>12-15</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>12-16</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>12-17</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>12-18</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>12-19</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>12-20</t>
+          <t>12-21</t>
         </is>
       </c>
     </row>
@@ -740,51 +740,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0015</v>
-      </c>
-      <c r="D9" s="6" t="n">
         <v>5.024</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="5" t="n">
         <v>5.024</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="E9" s="5" t="n">
         <v>5.024</v>
       </c>
+      <c r="F9" s="7" t="n">
+        <v>5.0196</v>
+      </c>
       <c r="G9" s="6" t="n">
-        <v>5.0196</v>
-      </c>
-      <c r="H9" s="6" t="n">
         <v>5.0283</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="H9" s="7" t="n">
         <v>5.0117</v>
       </c>
+      <c r="I9" s="7" t="n">
+        <v>5.0077</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.5328</v>
-      </c>
-      <c r="M9" s="6" t="n">
         <v>4.5374</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="M9" s="5" t="n">
         <v>4.5374</v>
       </c>
+      <c r="N9" s="5" t="n">
+        <v>4.5374</v>
+      </c>
       <c r="O9" s="6" t="n">
-        <v>4.5374</v>
+        <v>4.5611</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>4.5611</v>
+        <v>4.5709</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.5709</v>
+        <v>4.5885</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.5885</v>
+        <v>4.5988</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>12-15</t>
+          <t>12-18</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>12-16</t>
+          <t>12-19</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>12-17</t>
+          <t>12-20</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
+          <t>12-21</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>12-22</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>12-23</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>12-24</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>12-18</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>12-19</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>12-20</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>12-21</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>12-15</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>12-16</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>12-17</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>12-18</t>
-        </is>
-      </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
-          <t>12-19</t>
+          <t>12-22</t>
         </is>
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>12-20</t>
+          <t>12-23</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>12-21</t>
+          <t>12-24</t>
         </is>
       </c>
     </row>
@@ -592,25 +592,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3103</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>4.3103</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>4.3103</v>
+        <v>4.3269</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>4.3321</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>4.3341</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.3269</v>
+        <v>4.3387</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.3321</v>
+        <v>4.3288</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.3341</v>
+        <v>4.3288</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.3387</v>
+        <v>4.3288</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +618,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.9326</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>3.9326</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>3.9326</v>
+        <v>3.9625</v>
+      </c>
+      <c r="M5" s="7" t="n">
+        <v>3.9591</v>
+      </c>
+      <c r="N5" s="7" t="n">
+        <v>3.9527</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>3.9625</v>
-      </c>
-      <c r="P5" s="6" t="n">
-        <v>3.9591</v>
-      </c>
-      <c r="Q5" s="6" t="n">
-        <v>3.9527</v>
-      </c>
-      <c r="R5" s="6" t="n">
         <v>3.9645</v>
+      </c>
+      <c r="P5" s="7" t="n">
+        <v>3.9338</v>
+      </c>
+      <c r="Q5" s="7" t="n">
+        <v>3.9338</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>3.9338</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>12-15</t>
+          <t>12-18</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>12-16</t>
+          <t>12-19</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>12-17</t>
+          <t>12-20</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
+          <t>12-21</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>12-22</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>12-23</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>12-24</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>12-18</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>12-19</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>12-20</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>12-21</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>12-15</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>12-16</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>12-17</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>12-18</t>
-        </is>
-      </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
-          <t>12-19</t>
+          <t>12-22</t>
         </is>
       </c>
       <c r="Q8" s="5" t="inlineStr">
         <is>
-          <t>12-20</t>
+          <t>12-23</t>
         </is>
       </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>12-21</t>
+          <t>12-24</t>
         </is>
       </c>
     </row>
@@ -740,25 +740,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.024</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>5.024</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>5.024</v>
+        <v>5.0196</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>5.0283</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>5.0117</v>
       </c>
       <c r="F9" s="7" t="n">
-        <v>5.0196</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>5.0283</v>
+        <v>5.0077</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>4.9905</v>
       </c>
       <c r="H9" s="7" t="n">
-        <v>5.0117</v>
+        <v>4.9905</v>
       </c>
       <c r="I9" s="7" t="n">
-        <v>5.0077</v>
+        <v>4.9905</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,25 +766,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.5374</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>4.5374</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>4.5374</v>
+        <v>4.5611</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>4.5709</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>4.5885</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>4.5611</v>
+        <v>4.5988</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>4.5709</v>
+        <v>4.597</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.5885</v>
+        <v>4.597</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.5988</v>
+        <v>4.597</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>12-18</t>
+          <t>12-19</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>12-20</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>12-21</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>12-22</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>12-23</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>12-24</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>12-25</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>12-19</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>12-20</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>12-21</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>12-22</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>12-23</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>12-24</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>12-18</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>12-19</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>12-20</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>12-21</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>12-22</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>12-23</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>12-24</t>
+          <t>12-25</t>
         </is>
       </c>
     </row>
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>12-18</t>
+          <t>12-19</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>12-20</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>12-21</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>12-22</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>12-23</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>12-24</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>12-25</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>12-19</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>12-20</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>12-21</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>12-22</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>12-23</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>12-24</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>12-18</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>12-19</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>12-20</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>12-21</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>12-22</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>12-23</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>12-24</t>
+          <t>12-25</t>
         </is>
       </c>
     </row>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>12-19</t>
+          <t>12-20</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>12-21</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>12-22</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>12-23</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>12-24</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>12-25</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>12-26</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>12-20</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>12-21</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>12-22</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>12-23</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>12-24</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>12-25</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>12-19</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>12-20</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>12-21</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>12-22</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>12-23</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>12-24</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>12-25</t>
+          <t>12-26</t>
         </is>
       </c>
     </row>
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>12-19</t>
+          <t>12-20</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>12-21</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>12-22</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>12-23</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>12-24</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>12-25</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>12-26</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>12-20</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>12-21</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>12-22</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>12-23</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>12-24</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>12-25</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>12-19</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>12-20</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>12-21</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>12-22</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>12-23</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>12-24</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>12-25</t>
+          <t>12-26</t>
         </is>
       </c>
     </row>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>12-20</t>
+          <t>12-21</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>12-22</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>12-23</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>12-24</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>12-25</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>12-26</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>12-27</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>12-21</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>12-22</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>12-23</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>12-24</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>12-25</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>12-26</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>12-20</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>12-21</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>12-22</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>12-23</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>12-24</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>12-25</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>12-26</t>
+          <t>12-27</t>
         </is>
       </c>
     </row>
@@ -592,42 +592,42 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3269</v>
+        <v>4.3321</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.3321</v>
+        <v>4.3341</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.3341</v>
-      </c>
-      <c r="F5" s="6" t="n">
         <v>4.3387</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="F5" s="7" t="n">
         <v>4.3288</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="G5" s="7" t="n">
         <v>4.3288</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="H5" s="7" t="n">
         <v>4.3288</v>
       </c>
+      <c r="I5" s="7" t="n">
+        <v>4.3311</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.9625</v>
+        <v>3.9591</v>
       </c>
       <c r="M5" s="7" t="n">
-        <v>3.9591</v>
-      </c>
-      <c r="N5" s="7" t="n">
         <v>3.9527</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="N5" s="6" t="n">
         <v>3.9645</v>
+      </c>
+      <c r="O5" s="7" t="n">
+        <v>3.9338</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>3.9338</v>
@@ -636,7 +636,7 @@
         <v>3.9338</v>
       </c>
       <c r="R5" s="7" t="n">
-        <v>3.9338</v>
+        <v>3.9178</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>12-20</t>
+          <t>12-21</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>12-22</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>12-23</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>12-24</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>12-25</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>12-26</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>12-27</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>12-21</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>12-22</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>12-23</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>12-24</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>12-25</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>12-26</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>12-20</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>12-21</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>12-22</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>12-23</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>12-24</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>12-25</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>12-26</t>
+          <t>12-27</t>
         </is>
       </c>
     </row>
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0196</v>
-      </c>
-      <c r="D9" s="6" t="n">
         <v>5.0283</v>
       </c>
+      <c r="D9" s="7" t="n">
+        <v>5.0117</v>
+      </c>
       <c r="E9" s="7" t="n">
-        <v>5.0117</v>
+        <v>5.0077</v>
       </c>
       <c r="F9" s="7" t="n">
-        <v>5.0077</v>
+        <v>4.9905</v>
       </c>
       <c r="G9" s="7" t="n">
         <v>4.9905</v>
@@ -758,7 +758,7 @@
         <v>4.9905</v>
       </c>
       <c r="I9" s="7" t="n">
-        <v>4.9905</v>
+        <v>4.9834</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,16 +766,16 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.5611</v>
+        <v>4.5709</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.5709</v>
+        <v>4.5885</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>4.5885</v>
+        <v>4.5988</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>4.5988</v>
+        <v>4.597</v>
       </c>
       <c r="P9" s="6" t="n">
         <v>4.597</v>
@@ -784,7 +784,7 @@
         <v>4.597</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.597</v>
+        <v>4.599</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>12-21</t>
+          <t>12-22</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>12-23</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>12-24</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>12-25</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>12-26</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>12-27</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>12-28</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>12-22</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>12-23</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>12-24</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>12-25</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>12-26</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>12-27</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>12-21</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>12-22</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>12-23</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>12-24</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>12-25</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>12-26</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>12-27</t>
+          <t>12-28</t>
         </is>
       </c>
     </row>
@@ -592,13 +592,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3321</v>
+        <v>4.3341</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.3341</v>
-      </c>
-      <c r="E5" s="6" t="n">
         <v>4.3387</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>4.3288</v>
       </c>
       <c r="F5" s="7" t="n">
         <v>4.3288</v>
@@ -607,24 +607,24 @@
         <v>4.3288</v>
       </c>
       <c r="H5" s="7" t="n">
-        <v>4.3288</v>
-      </c>
-      <c r="I5" s="7" t="n">
         <v>4.3311</v>
       </c>
+      <c r="I5" s="6" t="n">
+        <v>4.3392</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.9591</v>
-      </c>
-      <c r="M5" s="7" t="n">
         <v>3.9527</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="M5" s="6" t="n">
         <v>3.9645</v>
+      </c>
+      <c r="N5" s="7" t="n">
+        <v>3.9338</v>
       </c>
       <c r="O5" s="7" t="n">
         <v>3.9338</v>
@@ -633,10 +633,10 @@
         <v>3.9338</v>
       </c>
       <c r="Q5" s="7" t="n">
-        <v>3.9338</v>
+        <v>3.9178</v>
       </c>
       <c r="R5" s="7" t="n">
-        <v>3.9178</v>
+        <v>3.899</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>12-21</t>
+          <t>12-22</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>12-23</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>12-24</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>12-25</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>12-26</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>12-27</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>12-28</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>12-22</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>12-23</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>12-24</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>12-25</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>12-26</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>12-27</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>12-21</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>12-22</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>12-23</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>12-24</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>12-25</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>12-26</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>12-27</t>
+          <t>12-28</t>
         </is>
       </c>
     </row>
@@ -740,13 +740,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0283</v>
+        <v>5.0117</v>
       </c>
       <c r="D9" s="7" t="n">
-        <v>5.0117</v>
+        <v>5.0077</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>5.0077</v>
+        <v>4.9905</v>
       </c>
       <c r="F9" s="7" t="n">
         <v>4.9905</v>
@@ -755,10 +755,10 @@
         <v>4.9905</v>
       </c>
       <c r="H9" s="7" t="n">
-        <v>4.9905</v>
+        <v>4.9834</v>
       </c>
       <c r="I9" s="7" t="n">
-        <v>4.9834</v>
+        <v>4.9887</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.5709</v>
+        <v>4.5885</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.5885</v>
+        <v>4.5988</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>4.5988</v>
+        <v>4.597</v>
       </c>
       <c r="O9" s="6" t="n">
         <v>4.597</v>
@@ -781,10 +781,10 @@
         <v>4.597</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.597</v>
+        <v>4.599</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.599</v>
+        <v>4.6671</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>12-22</t>
+          <t>12-28</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>12-23</t>
+          <t>12-29</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>12-24</t>
+          <t>12-30</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
-          <t>12-25</t>
+          <t>12-31</t>
         </is>
       </c>
       <c r="G4" s="5" t="inlineStr">
         <is>
-          <t>12-26</t>
+          <t>01-01</t>
         </is>
       </c>
       <c r="H4" s="5" t="inlineStr">
         <is>
-          <t>12-27</t>
+          <t>01-02</t>
         </is>
       </c>
       <c r="I4" s="5" t="inlineStr">
         <is>
+          <t>01-03</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>12-28</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>12-22</t>
-        </is>
-      </c>
       <c r="M4" s="5" t="inlineStr">
         <is>
-          <t>12-23</t>
+          <t>12-29</t>
         </is>
       </c>
       <c r="N4" s="5" t="inlineStr">
         <is>
-          <t>12-24</t>
+          <t>12-30</t>
         </is>
       </c>
       <c r="O4" s="5" t="inlineStr">
         <is>
-          <t>12-25</t>
+          <t>12-31</t>
         </is>
       </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
-          <t>12-26</t>
+          <t>01-01</t>
         </is>
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>12-27</t>
+          <t>01-02</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>12-28</t>
+          <t>01-03</t>
         </is>
       </c>
     </row>
@@ -592,25 +592,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3341</v>
+        <v>4.3311</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.3387</v>
-      </c>
-      <c r="E5" s="7" t="n">
-        <v>4.3288</v>
-      </c>
-      <c r="F5" s="7" t="n">
-        <v>4.3288</v>
-      </c>
-      <c r="G5" s="7" t="n">
-        <v>4.3288</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <v>4.3311</v>
+        <v>4.3392</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>4.348</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>4.3434</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>4.3646</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>4.3646</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.3392</v>
+        <v>4.3646</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +618,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.9527</v>
-      </c>
-      <c r="M5" s="6" t="n">
-        <v>3.9645</v>
-      </c>
-      <c r="N5" s="7" t="n">
-        <v>3.9338</v>
-      </c>
-      <c r="O5" s="7" t="n">
-        <v>3.9338</v>
-      </c>
-      <c r="P5" s="7" t="n">
-        <v>3.9338</v>
-      </c>
-      <c r="Q5" s="7" t="n">
         <v>3.9178</v>
       </c>
-      <c r="R5" s="7" t="n">
+      <c r="M5" s="7" t="n">
         <v>3.899</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>3.935</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>3.9432</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>3.9909</v>
+      </c>
+      <c r="Q5" s="6" t="n">
+        <v>3.9909</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>3.9909</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>12-22</t>
+          <t>12-28</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>12-23</t>
+          <t>12-29</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>12-24</t>
+          <t>12-30</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
-          <t>12-25</t>
+          <t>12-31</t>
         </is>
       </c>
       <c r="G8" s="5" t="inlineStr">
         <is>
-          <t>12-26</t>
+          <t>01-01</t>
         </is>
       </c>
       <c r="H8" s="5" t="inlineStr">
         <is>
-          <t>12-27</t>
+          <t>01-02</t>
         </is>
       </c>
       <c r="I8" s="5" t="inlineStr">
         <is>
+          <t>01-03</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>12-28</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>12-22</t>
-        </is>
-      </c>
       <c r="M8" s="5" t="inlineStr">
         <is>
-          <t>12-23</t>
+          <t>12-29</t>
         </is>
       </c>
       <c r="N8" s="5" t="inlineStr">
         <is>
-          <t>12-24</t>
+          <t>12-30</t>
         </is>
       </c>
       <c r="O8" s="5" t="inlineStr">
         <is>
-          <t>12-25</t>
+          <t>12-31</t>
         </is>
       </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
-          <t>12-26</t>
+          <t>01-01</t>
         </is>
       </c>
       <c r="Q8" s="5" t="inlineStr">
         <is>
-          <t>12-27</t>
+          <t>01-02</t>
         </is>
       </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>12-28</t>
+          <t>01-03</t>
         </is>
       </c>
     </row>
@@ -740,51 +740,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0117</v>
-      </c>
-      <c r="D9" s="7" t="n">
-        <v>5.0077</v>
-      </c>
-      <c r="E9" s="7" t="n">
-        <v>4.9905</v>
-      </c>
-      <c r="F9" s="7" t="n">
-        <v>4.9905</v>
-      </c>
-      <c r="G9" s="7" t="n">
-        <v>4.9905</v>
-      </c>
-      <c r="H9" s="7" t="n">
         <v>4.9834</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="D9" s="6" t="n">
         <v>4.9887</v>
       </c>
+      <c r="E9" s="6" t="n">
+        <v>4.9997</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>5.0152</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>5.0397</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>5.0397</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>5.0397</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.5885</v>
+        <v>4.599</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.5988</v>
+        <v>4.6671</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>4.597</v>
+        <v>4.6828</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>4.597</v>
+        <v>4.6596</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>4.597</v>
+        <v>4.6873</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.599</v>
+        <v>4.6873</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.6671</v>
+        <v>4.6873</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>12-28</t>
+          <t>12-29</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>12-30</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>12-31</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>01-01</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>01-02</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>01-03</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>01-04</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>12-29</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>12-30</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>12-31</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>01-01</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>01-02</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>01-03</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>12-28</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>12-29</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>12-30</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>12-31</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>01-01</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>01-02</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>01-03</t>
+          <t>01-04</t>
         </is>
       </c>
     </row>
@@ -592,16 +592,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3311</v>
+        <v>4.3392</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.3392</v>
+        <v>4.348</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.348</v>
+        <v>4.3434</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.3434</v>
+        <v>4.3646</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>4.3646</v>
@@ -610,7 +610,7 @@
         <v>4.3646</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.3646</v>
+        <v>4.3525</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,16 +618,16 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.9178</v>
-      </c>
-      <c r="M5" s="7" t="n">
         <v>3.899</v>
       </c>
+      <c r="M5" s="6" t="n">
+        <v>3.935</v>
+      </c>
       <c r="N5" s="6" t="n">
-        <v>3.935</v>
+        <v>3.9432</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>3.9432</v>
+        <v>3.9909</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>3.9909</v>
@@ -636,7 +636,7 @@
         <v>3.9909</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>3.9909</v>
+        <v>3.9684</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>12-28</t>
+          <t>12-29</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>12-30</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>12-31</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>01-01</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>01-02</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>01-03</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>01-04</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>12-29</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>12-30</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>12-31</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>01-01</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>01-02</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>01-03</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>12-28</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>12-29</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>12-30</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>12-31</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>01-01</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>01-02</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>01-03</t>
+          <t>01-04</t>
         </is>
       </c>
     </row>
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.9834</v>
+        <v>4.9887</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>4.9887</v>
+        <v>4.9997</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>4.9997</v>
+        <v>5.0152</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>5.0152</v>
+        <v>5.0397</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>5.0397</v>
@@ -758,7 +758,7 @@
         <v>5.0397</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.0397</v>
+        <v>5.0481</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,16 +766,16 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.599</v>
+        <v>4.6671</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.6671</v>
-      </c>
-      <c r="N9" s="6" t="n">
         <v>4.6828</v>
       </c>
+      <c r="N9" s="7" t="n">
+        <v>4.6596</v>
+      </c>
       <c r="O9" s="6" t="n">
-        <v>4.6596</v>
+        <v>4.6873</v>
       </c>
       <c r="P9" s="6" t="n">
         <v>4.6873</v>
@@ -784,7 +784,7 @@
         <v>4.6873</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.6873</v>
+        <v>4.6718</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,7 +37,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -47,11 +47,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0035FC03"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -73,7 +68,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -89,9 +84,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -511,77 +503,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>12-29</t>
+          <t>01-02</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>12-30</t>
+          <t>01-03</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>12-31</t>
+          <t>01-04</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
-          <t>01-01</t>
+          <t>01-05</t>
         </is>
       </c>
       <c r="G4" s="5" t="inlineStr">
         <is>
+          <t>01-06</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>01-07</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>01-08</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>01-02</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>01-03</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>01-04</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>12-29</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>12-30</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>12-31</t>
-        </is>
-      </c>
       <c r="O4" s="5" t="inlineStr">
         <is>
-          <t>01-01</t>
+          <t>01-05</t>
         </is>
       </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
-          <t>01-02</t>
+          <t>01-06</t>
         </is>
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>01-03</t>
+          <t>01-07</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>01-04</t>
+          <t>01-08</t>
         </is>
       </c>
     </row>
@@ -592,25 +584,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3392</v>
+        <v>4.3434</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.348</v>
+        <v>4.3646</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.3434</v>
+        <v>4.3525</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.3646</v>
+        <v>4.3484</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.3646</v>
+        <v>4.3548</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.3646</v>
+        <v>4.3548</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.3525</v>
+        <v>4.3548</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +610,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.899</v>
+        <v>3.9432</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>3.935</v>
+        <v>3.9909</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>3.9432</v>
+        <v>3.9684</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>3.9909</v>
+        <v>3.985</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>3.9909</v>
+        <v>3.9812</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>3.9909</v>
+        <v>3.9812</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>3.9684</v>
+        <v>3.9812</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +651,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>12-29</t>
+          <t>01-02</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>12-30</t>
+          <t>01-03</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>12-31</t>
+          <t>01-04</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
-          <t>01-01</t>
+          <t>01-05</t>
         </is>
       </c>
       <c r="G8" s="5" t="inlineStr">
         <is>
+          <t>01-06</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>01-07</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>01-08</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>01-02</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>01-03</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>01-04</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>12-29</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>12-30</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>12-31</t>
-        </is>
-      </c>
       <c r="O8" s="5" t="inlineStr">
         <is>
-          <t>01-01</t>
+          <t>01-05</t>
         </is>
       </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
-          <t>01-02</t>
+          <t>01-06</t>
         </is>
       </c>
       <c r="Q8" s="5" t="inlineStr">
         <is>
-          <t>01-03</t>
+          <t>01-07</t>
         </is>
       </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>01-04</t>
+          <t>01-08</t>
         </is>
       </c>
     </row>
@@ -740,25 +732,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.9887</v>
+        <v>5.0152</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>4.9997</v>
+        <v>5.0397</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>5.0152</v>
+        <v>5.0481</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>5.0397</v>
+        <v>5.044</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.0397</v>
+        <v>5.0543</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.0397</v>
+        <v>5.0543</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.0481</v>
+        <v>5.0543</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,25 +758,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6671</v>
+        <v>4.6596</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.6828</v>
-      </c>
-      <c r="N9" s="7" t="n">
-        <v>4.6596</v>
+        <v>4.6873</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>4.6718</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>4.6873</v>
+        <v>4.6714</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>4.6873</v>
+        <v>4.6793</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.6873</v>
+        <v>4.6793</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.6718</v>
+        <v>4.6793</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,12 +37,17 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FC2C03"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -68,7 +73,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -84,6 +89,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -503,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>01-02</t>
+          <t>01-03</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>01-04</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>01-05</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>01-06</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>01-07</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>01-08</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>01-09</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>01-03</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>01-04</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>01-05</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>01-06</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>01-07</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>01-08</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>01-02</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>01-03</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>01-04</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>01-05</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>01-06</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>01-07</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>01-08</t>
+          <t>01-09</t>
         </is>
       </c>
     </row>
@@ -584,16 +592,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3434</v>
+        <v>4.3646</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.3646</v>
+        <v>4.3525</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.3525</v>
+        <v>4.3484</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.3484</v>
+        <v>4.3548</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>4.3548</v>
@@ -602,7 +610,7 @@
         <v>4.3548</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.3548</v>
+        <v>4.3351</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -610,16 +618,16 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.9432</v>
+        <v>3.9909</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>3.9909</v>
+        <v>3.9684</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>3.9684</v>
+        <v>3.985</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>3.985</v>
+        <v>3.9812</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>3.9812</v>
@@ -628,7 +636,7 @@
         <v>3.9812</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>3.9812</v>
+        <v>3.9612</v>
       </c>
     </row>
     <row r="7">
@@ -651,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>01-02</t>
+          <t>01-03</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>01-04</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>01-05</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>01-06</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>01-07</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>01-08</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>01-09</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>01-03</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>01-04</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>01-05</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>01-06</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>01-07</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>01-08</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>01-02</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>01-03</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>01-04</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>01-05</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>01-06</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>01-07</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>01-08</t>
+          <t>01-09</t>
         </is>
       </c>
     </row>
@@ -732,42 +740,42 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0152</v>
-      </c>
-      <c r="D9" s="6" t="n">
         <v>5.0397</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="7" t="n">
         <v>5.0481</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="E9" s="7" t="n">
         <v>5.044</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="F9" s="7" t="n">
         <v>5.0543</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="G9" s="7" t="n">
         <v>5.0543</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="H9" s="7" t="n">
         <v>5.0543</v>
       </c>
+      <c r="I9" s="7" t="n">
+        <v>5.0446</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6596</v>
+        <v>4.6873</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.6873</v>
+        <v>4.6718</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>4.6718</v>
+        <v>4.6714</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>4.6714</v>
+        <v>4.6793</v>
       </c>
       <c r="P9" s="6" t="n">
         <v>4.6793</v>
@@ -776,7 +784,7 @@
         <v>4.6793</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.6793</v>
+        <v>4.6616</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>01-03</t>
+          <t>01-04</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>01-05</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>01-06</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>01-07</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>01-08</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>01-09</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>01-10</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>01-04</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>01-05</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>01-06</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>01-07</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>01-08</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>01-09</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>01-03</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>01-04</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>01-05</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>01-06</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>01-07</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>01-08</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>01-09</t>
+          <t>01-10</t>
         </is>
       </c>
     </row>
@@ -592,25 +592,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3646</v>
+        <v>4.3525</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.3525</v>
-      </c>
-      <c r="E5" s="6" t="n">
         <v>4.3484</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="E5" s="7" t="n">
         <v>4.3548</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="F5" s="7" t="n">
         <v>4.3548</v>
       </c>
+      <c r="G5" s="7" t="n">
+        <v>4.3548</v>
+      </c>
       <c r="H5" s="6" t="n">
-        <v>4.3548</v>
+        <v>4.3351</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.3351</v>
+        <v>4.3413</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +618,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.9909</v>
-      </c>
-      <c r="M5" s="6" t="n">
         <v>3.9684</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="M5" s="7" t="n">
         <v>3.985</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="N5" s="7" t="n">
         <v>3.9812</v>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="O5" s="7" t="n">
         <v>3.9812</v>
       </c>
+      <c r="P5" s="7" t="n">
+        <v>3.9812</v>
+      </c>
       <c r="Q5" s="6" t="n">
-        <v>3.9812</v>
+        <v>3.9612</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>3.9612</v>
+        <v>3.9656</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>01-03</t>
+          <t>01-04</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>01-05</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>01-06</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>01-07</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>01-08</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>01-09</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>01-10</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>01-04</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>01-05</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>01-06</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>01-07</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>01-08</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>01-09</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>01-03</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>01-04</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>01-05</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>01-06</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>01-07</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>01-08</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>01-09</t>
+          <t>01-10</t>
         </is>
       </c>
     </row>
@@ -740,13 +740,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0397</v>
-      </c>
-      <c r="D9" s="7" t="n">
         <v>5.0481</v>
       </c>
+      <c r="D9" s="6" t="n">
+        <v>5.044</v>
+      </c>
       <c r="E9" s="7" t="n">
-        <v>5.044</v>
+        <v>5.0543</v>
       </c>
       <c r="F9" s="7" t="n">
         <v>5.0543</v>
@@ -754,37 +754,37 @@
       <c r="G9" s="7" t="n">
         <v>5.0543</v>
       </c>
-      <c r="H9" s="7" t="n">
-        <v>5.0543</v>
-      </c>
-      <c r="I9" s="7" t="n">
+      <c r="H9" s="6" t="n">
         <v>5.0446</v>
       </c>
+      <c r="I9" s="6" t="n">
+        <v>5.0466</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6873</v>
+        <v>4.6718</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.6718</v>
-      </c>
-      <c r="N9" s="6" t="n">
         <v>4.6714</v>
       </c>
-      <c r="O9" s="6" t="n">
+      <c r="N9" s="7" t="n">
         <v>4.6793</v>
       </c>
-      <c r="P9" s="6" t="n">
+      <c r="O9" s="7" t="n">
         <v>4.6793</v>
       </c>
+      <c r="P9" s="7" t="n">
+        <v>4.6793</v>
+      </c>
       <c r="Q9" s="6" t="n">
-        <v>4.6793</v>
+        <v>4.6616</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.6616</v>
+        <v>4.6538</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>01-04</t>
+          <t>01-05</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>01-06</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>01-07</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>01-08</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>01-09</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>01-10</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>01-11</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>01-05</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>01-06</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>01-07</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>01-08</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>01-09</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>01-10</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>01-04</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>01-05</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>01-06</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>01-07</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>01-08</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>01-09</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>01-10</t>
+          <t>01-11</t>
         </is>
       </c>
     </row>
@@ -592,25 +592,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3525</v>
+        <v>4.3484</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.3484</v>
-      </c>
-      <c r="E5" s="7" t="n">
         <v>4.3548</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="E5" s="6" t="n">
         <v>4.3548</v>
       </c>
+      <c r="F5" s="6" t="n">
+        <v>4.3548</v>
+      </c>
       <c r="G5" s="7" t="n">
-        <v>4.3548</v>
-      </c>
-      <c r="H5" s="6" t="n">
         <v>4.3351</v>
       </c>
+      <c r="H5" s="7" t="n">
+        <v>4.3413</v>
+      </c>
       <c r="I5" s="6" t="n">
-        <v>4.3413</v>
+        <v>4.3505</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,10 +618,10 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.9684</v>
+        <v>3.985</v>
       </c>
       <c r="M5" s="7" t="n">
-        <v>3.985</v>
+        <v>3.9812</v>
       </c>
       <c r="N5" s="7" t="n">
         <v>3.9812</v>
@@ -630,13 +630,13 @@
         <v>3.9812</v>
       </c>
       <c r="P5" s="7" t="n">
-        <v>3.9812</v>
-      </c>
-      <c r="Q5" s="6" t="n">
         <v>3.9612</v>
       </c>
-      <c r="R5" s="6" t="n">
+      <c r="Q5" s="7" t="n">
         <v>3.9656</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>3.968</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>01-04</t>
+          <t>01-05</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>01-06</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>01-07</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>01-08</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>01-09</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>01-10</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>01-11</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>01-05</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>01-06</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>01-07</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>01-08</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>01-09</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>01-10</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>01-04</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>01-05</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>01-06</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>01-07</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>01-08</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>01-09</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>01-10</t>
+          <t>01-11</t>
         </is>
       </c>
     </row>
@@ -740,25 +740,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0481</v>
+        <v>5.044</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.044</v>
-      </c>
-      <c r="E9" s="7" t="n">
         <v>5.0543</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="E9" s="6" t="n">
         <v>5.0543</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="F9" s="6" t="n">
         <v>5.0543</v>
       </c>
+      <c r="G9" s="6" t="n">
+        <v>5.0446</v>
+      </c>
       <c r="H9" s="6" t="n">
-        <v>5.0446</v>
+        <v>5.0466</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.0466</v>
+        <v>5.0549</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,25 +766,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6718</v>
+        <v>4.6714</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.6714</v>
-      </c>
-      <c r="N9" s="7" t="n">
         <v>4.6793</v>
       </c>
-      <c r="O9" s="7" t="n">
+      <c r="N9" s="6" t="n">
         <v>4.6793</v>
       </c>
+      <c r="O9" s="6" t="n">
+        <v>4.6793</v>
+      </c>
       <c r="P9" s="7" t="n">
-        <v>4.6793</v>
-      </c>
-      <c r="Q9" s="6" t="n">
         <v>4.6616</v>
       </c>
-      <c r="R9" s="6" t="n">
+      <c r="Q9" s="7" t="n">
         <v>4.6538</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>4.6637</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>01-05</t>
+          <t>01-08</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>01-06</t>
+          <t>01-09</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>01-07</t>
+          <t>01-10</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
+          <t>01-11</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>01-12</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>01-13</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>01-14</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>01-08</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>01-09</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>01-10</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>01-11</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>01-05</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>01-06</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>01-07</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>01-08</t>
-        </is>
-      </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
-          <t>01-09</t>
+          <t>01-12</t>
         </is>
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>01-10</t>
+          <t>01-13</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>01-11</t>
+          <t>01-14</t>
         </is>
       </c>
     </row>
@@ -592,25 +592,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3484</v>
+        <v>4.3548</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.3548</v>
+        <v>4.3351</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.3548</v>
+        <v>4.3413</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.3548</v>
+        <v>4.3505</v>
       </c>
       <c r="G5" s="7" t="n">
-        <v>4.3351</v>
+        <v>4.3574</v>
       </c>
       <c r="H5" s="7" t="n">
-        <v>4.3413</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>4.3505</v>
+        <v>4.3574</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <v>4.3574</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +618,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.985</v>
-      </c>
-      <c r="M5" s="7" t="n">
         <v>3.9812</v>
       </c>
-      <c r="N5" s="7" t="n">
-        <v>3.9812</v>
-      </c>
-      <c r="O5" s="7" t="n">
-        <v>3.9812</v>
-      </c>
-      <c r="P5" s="7" t="n">
+      <c r="M5" s="6" t="n">
         <v>3.9612</v>
       </c>
-      <c r="Q5" s="7" t="n">
+      <c r="N5" s="6" t="n">
         <v>3.9656</v>
       </c>
-      <c r="R5" s="7" t="n">
+      <c r="O5" s="6" t="n">
         <v>3.968</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>3.9746</v>
+      </c>
+      <c r="Q5" s="6" t="n">
+        <v>3.9746</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>3.9746</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>01-05</t>
+          <t>01-08</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>01-06</t>
+          <t>01-09</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>01-07</t>
+          <t>01-10</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
+          <t>01-11</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>01-12</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>01-13</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>01-14</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>01-08</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>01-09</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>01-10</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>01-11</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>01-05</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>01-06</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>01-07</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>01-08</t>
-        </is>
-      </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
-          <t>01-09</t>
+          <t>01-12</t>
         </is>
       </c>
       <c r="Q8" s="5" t="inlineStr">
         <is>
-          <t>01-10</t>
+          <t>01-13</t>
         </is>
       </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>01-11</t>
+          <t>01-14</t>
         </is>
       </c>
     </row>
@@ -740,51 +740,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.044</v>
+        <v>5.0543</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.0543</v>
+        <v>5.0446</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>5.0543</v>
-      </c>
-      <c r="F9" s="6" t="n">
-        <v>5.0543</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>5.0446</v>
-      </c>
-      <c r="H9" s="6" t="n">
         <v>5.0466</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="F9" s="7" t="n">
         <v>5.0549</v>
       </c>
+      <c r="G9" s="7" t="n">
+        <v>5.0688</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <v>5.0688</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <v>5.0688</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6714</v>
+        <v>4.6793</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.6793</v>
+        <v>4.6616</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>4.6793</v>
+        <v>4.6538</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>4.6793</v>
-      </c>
-      <c r="P9" s="7" t="n">
-        <v>4.6616</v>
-      </c>
-      <c r="Q9" s="7" t="n">
-        <v>4.6538</v>
-      </c>
-      <c r="R9" s="7" t="n">
         <v>4.6637</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>4.6556</v>
+      </c>
+      <c r="Q9" s="6" t="n">
+        <v>4.6556</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>4.6556</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>01-08</t>
+          <t>01-09</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>01-10</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>01-11</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>01-12</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>01-13</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>01-14</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>01-15</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>01-09</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>01-10</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>01-11</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>01-12</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>01-13</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>01-14</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>01-08</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>01-09</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>01-10</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>01-11</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>01-12</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>01-13</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>01-14</t>
+          <t>01-15</t>
         </is>
       </c>
     </row>
@@ -592,42 +592,42 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3548</v>
+        <v>4.3351</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.3351</v>
+        <v>4.3413</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.3413</v>
+        <v>4.3505</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.3505</v>
-      </c>
-      <c r="G5" s="7" t="n">
         <v>4.3574</v>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="G5" s="6" t="n">
         <v>4.3574</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="H5" s="6" t="n">
         <v>4.3574</v>
       </c>
+      <c r="I5" s="6" t="n">
+        <v>4.3748</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.9812</v>
+        <v>3.9612</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>3.9612</v>
+        <v>3.9656</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>3.9656</v>
+        <v>3.968</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>3.968</v>
+        <v>3.9746</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>3.9746</v>
@@ -636,7 +636,7 @@
         <v>3.9746</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>3.9746</v>
+        <v>3.9963</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>01-08</t>
+          <t>01-09</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>01-10</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>01-11</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>01-12</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>01-13</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>01-14</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>01-15</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>01-09</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>01-10</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>01-11</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>01-12</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>01-13</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>01-14</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>01-08</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>01-09</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>01-10</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>01-11</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>01-12</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>01-13</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>01-14</t>
+          <t>01-15</t>
         </is>
       </c>
     </row>
@@ -740,51 +740,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0543</v>
+        <v>5.0446</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.0446</v>
+        <v>5.0466</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>5.0466</v>
-      </c>
-      <c r="F9" s="7" t="n">
         <v>5.0549</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="F9" s="6" t="n">
         <v>5.0688</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="G9" s="6" t="n">
         <v>5.0688</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="H9" s="6" t="n">
         <v>5.0688</v>
       </c>
+      <c r="I9" s="6" t="n">
+        <v>5.0861</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6793</v>
-      </c>
-      <c r="M9" s="6" t="n">
         <v>4.6616</v>
       </c>
+      <c r="M9" s="7" t="n">
+        <v>4.6538</v>
+      </c>
       <c r="N9" s="6" t="n">
-        <v>4.6538</v>
-      </c>
-      <c r="O9" s="6" t="n">
         <v>4.6637</v>
       </c>
-      <c r="P9" s="6" t="n">
+      <c r="O9" s="7" t="n">
         <v>4.6556</v>
       </c>
-      <c r="Q9" s="6" t="n">
+      <c r="P9" s="7" t="n">
         <v>4.6556</v>
       </c>
+      <c r="Q9" s="7" t="n">
+        <v>4.6556</v>
+      </c>
       <c r="R9" s="6" t="n">
-        <v>4.6556</v>
+        <v>4.6797</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,7 +37,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -47,11 +47,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0035FC03"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -73,7 +68,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -89,9 +84,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -511,77 +503,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>01-09</t>
+          <t>01-10</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>01-11</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>01-12</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>01-13</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>01-14</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>01-15</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>01-16</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>01-10</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>01-11</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>01-12</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>01-13</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>01-14</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>01-15</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>01-09</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>01-10</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>01-11</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>01-12</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>01-13</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>01-14</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>01-15</t>
+          <t>01-16</t>
         </is>
       </c>
     </row>
@@ -592,13 +584,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3351</v>
+        <v>4.3413</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.3413</v>
+        <v>4.3505</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.3505</v>
+        <v>4.3574</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>4.3574</v>
@@ -607,10 +599,10 @@
         <v>4.3574</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.3574</v>
+        <v>4.3748</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.3748</v>
+        <v>4.3934</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,13 +610,13 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.9612</v>
+        <v>3.9656</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>3.9656</v>
+        <v>3.968</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>3.968</v>
+        <v>3.9746</v>
       </c>
       <c r="O5" s="6" t="n">
         <v>3.9746</v>
@@ -633,10 +625,10 @@
         <v>3.9746</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>3.9746</v>
+        <v>3.9963</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>3.9963</v>
+        <v>4.0358</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +651,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>01-09</t>
+          <t>01-10</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>01-11</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>01-12</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>01-13</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>01-14</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>01-15</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>01-16</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>01-10</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>01-11</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>01-12</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>01-13</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>01-14</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>01-15</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>01-09</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>01-10</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>01-11</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>01-12</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>01-13</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>01-14</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>01-15</t>
+          <t>01-16</t>
         </is>
       </c>
     </row>
@@ -740,13 +732,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0446</v>
+        <v>5.0466</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.0466</v>
+        <v>5.0549</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>5.0549</v>
+        <v>5.0688</v>
       </c>
       <c r="F9" s="6" t="n">
         <v>5.0688</v>
@@ -755,10 +747,10 @@
         <v>5.0688</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.0688</v>
+        <v>5.0861</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.0861</v>
+        <v>5.1027</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,25 +758,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6616</v>
-      </c>
-      <c r="M9" s="7" t="n">
         <v>4.6538</v>
       </c>
+      <c r="M9" s="6" t="n">
+        <v>4.6637</v>
+      </c>
       <c r="N9" s="6" t="n">
-        <v>4.6637</v>
-      </c>
-      <c r="O9" s="7" t="n">
         <v>4.6556</v>
       </c>
-      <c r="P9" s="7" t="n">
+      <c r="O9" s="6" t="n">
         <v>4.6556</v>
       </c>
-      <c r="Q9" s="7" t="n">
+      <c r="P9" s="6" t="n">
         <v>4.6556</v>
       </c>
+      <c r="Q9" s="6" t="n">
+        <v>4.6797</v>
+      </c>
       <c r="R9" s="6" t="n">
-        <v>4.6797</v>
+        <v>4.69</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,7 +37,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0035FC03"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -68,7 +73,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -84,6 +89,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -503,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>01-10</t>
+          <t>01-11</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>01-12</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>01-13</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>01-14</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>01-15</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>01-16</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>01-17</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>01-11</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>01-12</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>01-13</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>01-14</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>01-15</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>01-16</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>01-10</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>01-11</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>01-12</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>01-13</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>01-14</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>01-15</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>01-16</t>
+          <t>01-17</t>
         </is>
       </c>
     </row>
@@ -584,10 +592,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3413</v>
+        <v>4.3505</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.3505</v>
+        <v>4.3574</v>
       </c>
       <c r="E5" s="6" t="n">
         <v>4.3574</v>
@@ -596,13 +604,13 @@
         <v>4.3574</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.3574</v>
+        <v>4.3748</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.3748</v>
+        <v>4.3934</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.3934</v>
+        <v>4.3978</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -610,10 +618,10 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.9656</v>
+        <v>3.968</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>3.968</v>
+        <v>3.9746</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>3.9746</v>
@@ -622,13 +630,13 @@
         <v>3.9746</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>3.9746</v>
+        <v>3.9963</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>3.9963</v>
+        <v>4.0358</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>4.0358</v>
+        <v>4.0434</v>
       </c>
     </row>
     <row r="7">
@@ -651,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>01-10</t>
+          <t>01-11</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>01-12</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>01-13</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>01-14</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>01-15</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>01-16</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>01-17</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>01-11</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>01-12</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>01-13</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>01-14</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>01-15</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>01-16</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>01-10</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>01-11</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>01-12</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>01-13</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>01-14</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>01-15</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>01-16</t>
+          <t>01-17</t>
         </is>
       </c>
     </row>
@@ -732,10 +740,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0466</v>
+        <v>5.0549</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.0549</v>
+        <v>5.0688</v>
       </c>
       <c r="E9" s="6" t="n">
         <v>5.0688</v>
@@ -744,13 +752,13 @@
         <v>5.0688</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.0688</v>
+        <v>5.0861</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.0861</v>
+        <v>5.1027</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.1027</v>
+        <v>5.1274</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -758,25 +766,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6538</v>
-      </c>
-      <c r="M9" s="6" t="n">
         <v>4.6637</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="M9" s="7" t="n">
         <v>4.6556</v>
       </c>
-      <c r="O9" s="6" t="n">
+      <c r="N9" s="7" t="n">
         <v>4.6556</v>
       </c>
+      <c r="O9" s="7" t="n">
+        <v>4.6556</v>
+      </c>
       <c r="P9" s="6" t="n">
-        <v>4.6556</v>
+        <v>4.6797</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.6797</v>
+        <v>4.69</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.69</v>
+        <v>4.6912</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,7 +37,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -47,11 +47,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0035FC03"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -73,7 +68,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -89,9 +84,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -511,77 +503,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>01-11</t>
+          <t>01-12</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>01-13</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>01-14</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>01-15</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>01-16</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>01-17</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>01-18</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>01-12</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>01-13</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>01-14</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>01-15</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>01-16</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>01-17</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>01-11</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>01-12</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>01-13</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>01-14</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>01-15</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>01-16</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>01-17</t>
+          <t>01-18</t>
         </is>
       </c>
     </row>
@@ -592,25 +584,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3505</v>
-      </c>
-      <c r="D5" s="6" t="n">
         <v>4.3574</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="D5" s="5" t="n">
         <v>4.3574</v>
       </c>
+      <c r="E5" s="5" t="n">
+        <v>4.3574</v>
+      </c>
       <c r="F5" s="6" t="n">
-        <v>4.3574</v>
+        <v>4.3748</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.3748</v>
+        <v>4.3934</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.3934</v>
+        <v>4.3978</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.3978</v>
+        <v>4.4016</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +610,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.968</v>
-      </c>
-      <c r="M5" s="6" t="n">
         <v>3.9746</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="M5" s="5" t="n">
         <v>3.9746</v>
       </c>
+      <c r="N5" s="5" t="n">
+        <v>3.9746</v>
+      </c>
       <c r="O5" s="6" t="n">
-        <v>3.9746</v>
+        <v>3.9963</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>3.9963</v>
+        <v>4.0358</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>4.0358</v>
+        <v>4.0434</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>4.0434</v>
+        <v>4.0437</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +651,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>01-11</t>
+          <t>01-12</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>01-13</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>01-14</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>01-15</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>01-16</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>01-17</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>01-18</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>01-12</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>01-13</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>01-14</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>01-15</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>01-16</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>01-17</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>01-11</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>01-12</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>01-13</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>01-14</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>01-15</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>01-16</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>01-17</t>
+          <t>01-18</t>
         </is>
       </c>
     </row>
@@ -740,25 +732,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0549</v>
-      </c>
-      <c r="D9" s="6" t="n">
         <v>5.0688</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="5" t="n">
         <v>5.0688</v>
       </c>
+      <c r="E9" s="5" t="n">
+        <v>5.0688</v>
+      </c>
       <c r="F9" s="6" t="n">
-        <v>5.0688</v>
+        <v>5.0861</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.0861</v>
+        <v>5.1027</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.1027</v>
+        <v>5.1274</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.1274</v>
+        <v>5.1253</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,25 +758,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6637</v>
-      </c>
-      <c r="M9" s="7" t="n">
         <v>4.6556</v>
       </c>
-      <c r="N9" s="7" t="n">
+      <c r="M9" s="5" t="n">
         <v>4.6556</v>
       </c>
-      <c r="O9" s="7" t="n">
+      <c r="N9" s="5" t="n">
         <v>4.6556</v>
       </c>
+      <c r="O9" s="6" t="n">
+        <v>4.6797</v>
+      </c>
       <c r="P9" s="6" t="n">
-        <v>4.6797</v>
+        <v>4.69</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.69</v>
+        <v>4.6912</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.6912</v>
+        <v>4.6793</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,7 +37,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0035FC03"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -68,7 +73,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -84,6 +89,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -503,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>01-12</t>
+          <t>01-15</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>01-13</t>
+          <t>01-16</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>01-14</t>
+          <t>01-17</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
+          <t>01-18</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>01-19</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>01-20</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>01-21</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>01-15</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>01-16</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>01-17</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>01-18</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>01-12</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>01-13</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>01-14</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>01-15</t>
-        </is>
-      </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
-          <t>01-16</t>
+          <t>01-19</t>
         </is>
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>01-17</t>
+          <t>01-20</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>01-18</t>
+          <t>01-21</t>
         </is>
       </c>
     </row>
@@ -584,25 +592,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3574</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>4.3574</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>4.3574</v>
+        <v>4.3748</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>4.3934</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>4.3978</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.3748</v>
+        <v>4.4016</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.3934</v>
+        <v>4.3846</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.3978</v>
+        <v>4.3846</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.4016</v>
+        <v>4.3846</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -610,25 +618,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.9746</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>3.9746</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>3.9746</v>
+        <v>3.9963</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>4.0358</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>4.0434</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>3.9963</v>
+        <v>4.0437</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>4.0358</v>
+        <v>4.0289</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>4.0434</v>
+        <v>4.0289</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>4.0437</v>
+        <v>4.0289</v>
       </c>
     </row>
     <row r="7">
@@ -651,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>01-12</t>
+          <t>01-15</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>01-13</t>
+          <t>01-16</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>01-14</t>
+          <t>01-17</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
+          <t>01-18</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>01-19</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>01-20</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>01-21</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>01-15</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>01-16</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>01-17</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>01-18</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>01-12</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>01-13</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>01-14</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>01-15</t>
-        </is>
-      </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
-          <t>01-16</t>
+          <t>01-19</t>
         </is>
       </c>
       <c r="Q8" s="5" t="inlineStr">
         <is>
-          <t>01-17</t>
+          <t>01-20</t>
         </is>
       </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>01-18</t>
+          <t>01-21</t>
         </is>
       </c>
     </row>
@@ -732,25 +740,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0688</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>5.0688</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>5.0688</v>
+        <v>5.0861</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>5.1027</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>5.1274</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>5.0861</v>
+        <v>5.1253</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.1027</v>
+        <v>5.1103</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.1274</v>
+        <v>5.1103</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.1253</v>
+        <v>5.1103</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -758,25 +766,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6556</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>4.6556</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>4.6556</v>
-      </c>
-      <c r="O9" s="6" t="n">
         <v>4.6797</v>
       </c>
-      <c r="P9" s="6" t="n">
+      <c r="M9" s="6" t="n">
         <v>4.69</v>
       </c>
-      <c r="Q9" s="6" t="n">
+      <c r="N9" s="6" t="n">
         <v>4.6912</v>
       </c>
-      <c r="R9" s="6" t="n">
+      <c r="O9" s="7" t="n">
         <v>4.6793</v>
+      </c>
+      <c r="P9" s="7" t="n">
+        <v>4.6388</v>
+      </c>
+      <c r="Q9" s="7" t="n">
+        <v>4.6388</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>4.6388</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>01-15</t>
+          <t>01-16</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>01-17</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>01-18</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>01-19</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>01-20</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>01-21</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>01-22</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>01-16</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>01-17</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>01-18</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>01-19</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>01-20</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>01-21</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>01-15</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>01-16</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>01-17</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>01-18</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>01-19</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>01-20</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>01-21</t>
+          <t>01-22</t>
         </is>
       </c>
     </row>
@@ -592,51 +592,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3748</v>
+        <v>4.3934</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.3934</v>
+        <v>4.3978</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.3978</v>
-      </c>
-      <c r="F5" s="6" t="n">
         <v>4.4016</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="F5" s="7" t="n">
         <v>4.3846</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="G5" s="7" t="n">
         <v>4.3846</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="H5" s="7" t="n">
         <v>4.3846</v>
       </c>
+      <c r="I5" s="7" t="n">
+        <v>4.356</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.9963</v>
+        <v>4.0358</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.0358</v>
+        <v>4.0434</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>4.0434</v>
-      </c>
-      <c r="O5" s="6" t="n">
         <v>4.0437</v>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="O5" s="7" t="n">
         <v>4.0289</v>
       </c>
-      <c r="Q5" s="6" t="n">
+      <c r="P5" s="7" t="n">
         <v>4.0289</v>
       </c>
-      <c r="R5" s="6" t="n">
+      <c r="Q5" s="7" t="n">
         <v>4.0289</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>3.9972</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>01-15</t>
+          <t>01-16</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>01-17</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>01-18</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>01-19</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>01-20</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>01-21</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>01-22</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>01-16</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>01-17</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>01-18</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>01-19</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>01-20</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>01-21</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>01-15</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>01-16</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>01-17</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>01-18</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>01-19</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>01-20</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>01-21</t>
+          <t>01-22</t>
         </is>
       </c>
     </row>
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0861</v>
+        <v>5.1027</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.1027</v>
+        <v>5.1274</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>5.1274</v>
+        <v>5.1253</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>5.1253</v>
+        <v>5.1103</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>5.1103</v>
@@ -757,8 +757,8 @@
       <c r="H9" s="6" t="n">
         <v>5.1103</v>
       </c>
-      <c r="I9" s="6" t="n">
-        <v>5.1103</v>
+      <c r="I9" s="7" t="n">
+        <v>5.0784</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,16 +766,16 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6797</v>
+        <v>4.69</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="N9" s="6" t="n">
         <v>4.6912</v>
       </c>
+      <c r="N9" s="7" t="n">
+        <v>4.6793</v>
+      </c>
       <c r="O9" s="7" t="n">
-        <v>4.6793</v>
+        <v>4.6388</v>
       </c>
       <c r="P9" s="7" t="n">
         <v>4.6388</v>
@@ -784,7 +784,7 @@
         <v>4.6388</v>
       </c>
       <c r="R9" s="7" t="n">
-        <v>4.6388</v>
+        <v>4.6073</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>01-16</t>
+          <t>01-17</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>01-18</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>01-19</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>01-20</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>01-21</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>01-22</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>01-23</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>01-17</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>01-18</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>01-19</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>01-20</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>01-21</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>01-22</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>01-16</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>01-17</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>01-18</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>01-19</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>01-20</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>01-21</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>01-22</t>
+          <t>01-23</t>
         </is>
       </c>
     </row>
@@ -592,13 +592,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3934</v>
+        <v>4.3978</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.3978</v>
-      </c>
-      <c r="E5" s="6" t="n">
         <v>4.4016</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>4.3846</v>
       </c>
       <c r="F5" s="7" t="n">
         <v>4.3846</v>
@@ -607,10 +607,10 @@
         <v>4.3846</v>
       </c>
       <c r="H5" s="7" t="n">
-        <v>4.3846</v>
+        <v>4.356</v>
       </c>
       <c r="I5" s="7" t="n">
-        <v>4.356</v>
+        <v>4.3697</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0358</v>
+        <v>4.0434</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.0434</v>
-      </c>
-      <c r="N5" s="6" t="n">
         <v>4.0437</v>
+      </c>
+      <c r="N5" s="7" t="n">
+        <v>4.0289</v>
       </c>
       <c r="O5" s="7" t="n">
         <v>4.0289</v>
@@ -633,10 +633,10 @@
         <v>4.0289</v>
       </c>
       <c r="Q5" s="7" t="n">
-        <v>4.0289</v>
+        <v>3.9972</v>
       </c>
       <c r="R5" s="7" t="n">
-        <v>3.9972</v>
+        <v>4.0133</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>01-16</t>
+          <t>01-17</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>01-18</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>01-19</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>01-20</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>01-21</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>01-22</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>01-23</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>01-17</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>01-18</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>01-19</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>01-20</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>01-21</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>01-22</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>01-16</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>01-17</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>01-18</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>01-19</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>01-20</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>01-21</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>01-22</t>
+          <t>01-23</t>
         </is>
       </c>
     </row>
@@ -740,25 +740,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1027</v>
-      </c>
-      <c r="D9" s="6" t="n">
         <v>5.1274</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="7" t="n">
         <v>5.1253</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="E9" s="7" t="n">
         <v>5.1103</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="F9" s="7" t="n">
         <v>5.1103</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="G9" s="7" t="n">
         <v>5.1103</v>
       </c>
+      <c r="H9" s="7" t="n">
+        <v>5.0784</v>
+      </c>
       <c r="I9" s="7" t="n">
-        <v>5.0784</v>
+        <v>5.1084</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="M9" s="6" t="n">
         <v>4.6912</v>
       </c>
+      <c r="M9" s="7" t="n">
+        <v>4.6793</v>
+      </c>
       <c r="N9" s="7" t="n">
-        <v>4.6793</v>
+        <v>4.6388</v>
       </c>
       <c r="O9" s="7" t="n">
         <v>4.6388</v>
@@ -781,10 +781,10 @@
         <v>4.6388</v>
       </c>
       <c r="Q9" s="7" t="n">
-        <v>4.6388</v>
+        <v>4.6073</v>
       </c>
       <c r="R9" s="7" t="n">
-        <v>4.6073</v>
+        <v>4.6228</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,17 +37,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -73,7 +68,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -89,9 +84,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -511,77 +503,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>01-17</t>
+          <t>01-18</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>01-19</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>01-20</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>01-21</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>01-22</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>01-23</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>01-24</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>01-18</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>01-19</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>01-20</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>01-21</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>01-22</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>01-23</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>01-17</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>01-18</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>01-19</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>01-20</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>01-21</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>01-22</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>01-23</t>
+          <t>01-24</t>
         </is>
       </c>
     </row>
@@ -592,51 +584,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3978</v>
+        <v>4.4016</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.4016</v>
-      </c>
-      <c r="E5" s="7" t="n">
         <v>4.3846</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="E5" s="6" t="n">
         <v>4.3846</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="F5" s="6" t="n">
         <v>4.3846</v>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="G5" s="6" t="n">
         <v>4.356</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="H5" s="6" t="n">
         <v>4.3697</v>
       </c>
+      <c r="I5" s="6" t="n">
+        <v>4.3755</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0434</v>
+        <v>4.0437</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.0437</v>
-      </c>
-      <c r="N5" s="7" t="n">
         <v>4.0289</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="N5" s="6" t="n">
         <v>4.0289</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="O5" s="6" t="n">
         <v>4.0289</v>
       </c>
-      <c r="Q5" s="7" t="n">
+      <c r="P5" s="6" t="n">
         <v>3.9972</v>
       </c>
-      <c r="R5" s="7" t="n">
+      <c r="Q5" s="6" t="n">
         <v>4.0133</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>4.0131</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +651,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>01-17</t>
+          <t>01-18</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>01-19</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>01-20</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>01-21</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>01-22</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>01-23</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>01-24</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>01-18</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>01-19</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>01-20</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>01-21</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>01-22</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>01-23</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>01-17</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>01-18</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>01-19</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>01-20</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>01-21</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>01-22</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>01-23</t>
+          <t>01-24</t>
         </is>
       </c>
     </row>
@@ -740,51 +732,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1274</v>
-      </c>
-      <c r="D9" s="7" t="n">
         <v>5.1253</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="D9" s="6" t="n">
         <v>5.1103</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="E9" s="6" t="n">
         <v>5.1103</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="F9" s="6" t="n">
         <v>5.1103</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="G9" s="6" t="n">
         <v>5.0784</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="H9" s="6" t="n">
         <v>5.1084</v>
       </c>
+      <c r="I9" s="6" t="n">
+        <v>5.1223</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6912</v>
-      </c>
-      <c r="M9" s="7" t="n">
         <v>4.6793</v>
       </c>
-      <c r="N9" s="7" t="n">
+      <c r="M9" s="6" t="n">
         <v>4.6388</v>
       </c>
-      <c r="O9" s="7" t="n">
+      <c r="N9" s="6" t="n">
         <v>4.6388</v>
       </c>
-      <c r="P9" s="7" t="n">
+      <c r="O9" s="6" t="n">
         <v>4.6388</v>
       </c>
-      <c r="Q9" s="7" t="n">
+      <c r="P9" s="6" t="n">
         <v>4.6073</v>
       </c>
-      <c r="R9" s="7" t="n">
+      <c r="Q9" s="6" t="n">
         <v>4.6228</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>4.6387</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,7 +37,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FC2C03"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
   </fills>
@@ -68,7 +73,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -84,6 +89,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -503,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>01-18</t>
+          <t>01-19</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>01-20</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>01-21</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>01-22</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>01-23</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>01-24</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>01-25</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>01-19</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>01-20</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>01-21</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>01-22</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>01-23</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>01-24</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>01-18</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>01-19</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>01-20</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>01-21</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>01-22</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>01-23</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>01-24</t>
+          <t>01-25</t>
         </is>
       </c>
     </row>
@@ -584,25 +592,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4016</v>
-      </c>
-      <c r="D5" s="6" t="n">
         <v>4.3846</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="D5" s="5" t="n">
         <v>4.3846</v>
       </c>
+      <c r="E5" s="5" t="n">
+        <v>4.3846</v>
+      </c>
       <c r="F5" s="6" t="n">
-        <v>4.3846</v>
+        <v>4.356</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.356</v>
+        <v>4.3697</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.3697</v>
+        <v>4.3755</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.3755</v>
+        <v>4.379</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -610,25 +618,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0437</v>
-      </c>
-      <c r="M5" s="6" t="n">
         <v>4.0289</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="M5" s="5" t="n">
         <v>4.0289</v>
       </c>
+      <c r="N5" s="5" t="n">
+        <v>4.0289</v>
+      </c>
       <c r="O5" s="6" t="n">
-        <v>4.0289</v>
+        <v>3.9972</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>3.9972</v>
+        <v>4.0133</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>4.0133</v>
+        <v>4.0131</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>4.0131</v>
+        <v>4.0189</v>
       </c>
     </row>
     <row r="7">
@@ -651,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>01-18</t>
+          <t>01-19</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>01-20</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>01-21</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>01-22</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>01-23</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>01-24</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>01-25</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>01-19</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>01-20</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>01-21</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>01-22</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>01-23</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>01-24</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>01-18</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>01-19</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>01-20</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>01-21</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>01-22</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>01-23</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>01-24</t>
+          <t>01-25</t>
         </is>
       </c>
     </row>
@@ -732,51 +740,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1253</v>
-      </c>
-      <c r="D9" s="6" t="n">
         <v>5.1103</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="5" t="n">
         <v>5.1103</v>
       </c>
+      <c r="E9" s="5" t="n">
+        <v>5.1103</v>
+      </c>
       <c r="F9" s="6" t="n">
-        <v>5.1103</v>
+        <v>5.0784</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.0784</v>
-      </c>
-      <c r="H9" s="6" t="n">
         <v>5.1084</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="H9" s="7" t="n">
         <v>5.1223</v>
       </c>
+      <c r="I9" s="7" t="n">
+        <v>5.1148</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6793</v>
-      </c>
-      <c r="M9" s="6" t="n">
         <v>4.6388</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="M9" s="5" t="n">
         <v>4.6388</v>
       </c>
+      <c r="N9" s="5" t="n">
+        <v>4.6388</v>
+      </c>
       <c r="O9" s="6" t="n">
-        <v>4.6388</v>
+        <v>4.6073</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>4.6073</v>
+        <v>4.6228</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.6228</v>
-      </c>
-      <c r="R9" s="6" t="n">
         <v>4.6387</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>4.6543</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,17 +37,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -73,7 +68,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -89,9 +84,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -511,77 +503,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>01-19</t>
+          <t>01-22</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>01-20</t>
+          <t>01-23</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>01-21</t>
+          <t>01-24</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
+          <t>01-25</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>01-26</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>01-27</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>01-28</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>01-22</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>01-23</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>01-24</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>01-25</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>01-19</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>01-20</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>01-21</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>01-22</t>
-        </is>
-      </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
-          <t>01-23</t>
+          <t>01-26</t>
         </is>
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>01-24</t>
+          <t>01-27</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>01-25</t>
+          <t>01-28</t>
         </is>
       </c>
     </row>
@@ -592,25 +584,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3846</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>4.3846</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>4.3846</v>
+        <v>4.356</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>4.3697</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>4.3755</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.356</v>
+        <v>4.379</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.3697</v>
+        <v>4.3802</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.3755</v>
+        <v>4.3802</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.379</v>
+        <v>4.3802</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +610,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0289</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>4.0289</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>4.0289</v>
+        <v>3.9972</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>4.0133</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>4.0131</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>3.9972</v>
+        <v>4.0189</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>4.0133</v>
+        <v>4.0393</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>4.0131</v>
+        <v>4.0393</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>4.0189</v>
+        <v>4.0393</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +651,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>01-19</t>
+          <t>01-22</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>01-20</t>
+          <t>01-23</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>01-21</t>
+          <t>01-24</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
+          <t>01-25</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>01-26</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>01-27</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>01-28</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>01-22</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>01-23</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>01-24</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>01-25</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>01-19</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>01-20</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>01-21</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>01-22</t>
-        </is>
-      </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
-          <t>01-23</t>
+          <t>01-26</t>
         </is>
       </c>
       <c r="Q8" s="5" t="inlineStr">
         <is>
-          <t>01-24</t>
+          <t>01-27</t>
         </is>
       </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>01-25</t>
+          <t>01-28</t>
         </is>
       </c>
     </row>
@@ -740,25 +732,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1103</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>5.1103</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>5.1103</v>
+        <v>5.0784</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>5.1084</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>5.1223</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>5.0784</v>
+        <v>5.1148</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.1084</v>
-      </c>
-      <c r="H9" s="7" t="n">
-        <v>5.1223</v>
-      </c>
-      <c r="I9" s="7" t="n">
-        <v>5.1148</v>
+        <v>5.1357</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>5.1357</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>5.1357</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,25 +758,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6388</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>4.6388</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>4.6388</v>
+        <v>4.6073</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>4.6228</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>4.6387</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>4.6073</v>
+        <v>4.6543</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>4.6228</v>
+        <v>4.669</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.6387</v>
-      </c>
-      <c r="R9" s="7" t="n">
-        <v>4.6543</v>
+        <v>4.669</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>4.669</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,7 +37,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0035FC03"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
   </fills>
@@ -68,7 +73,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -84,6 +89,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -503,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>01-22</t>
+          <t>01-23</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>01-24</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>01-25</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>01-26</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>01-27</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>01-28</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>01-29</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>01-23</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>01-24</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>01-25</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>01-26</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>01-27</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>01-28</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>01-22</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>01-23</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>01-24</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>01-25</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>01-26</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>01-27</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>01-28</t>
+          <t>01-29</t>
         </is>
       </c>
     </row>
@@ -584,16 +592,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.356</v>
+        <v>4.3697</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.3697</v>
+        <v>4.3755</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.3755</v>
+        <v>4.379</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.379</v>
+        <v>4.3802</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>4.3802</v>
@@ -601,8 +609,8 @@
       <c r="H5" s="6" t="n">
         <v>4.3802</v>
       </c>
-      <c r="I5" s="6" t="n">
-        <v>4.3802</v>
+      <c r="I5" s="7" t="n">
+        <v>4.3653</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -610,16 +618,16 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.9972</v>
-      </c>
-      <c r="M5" s="6" t="n">
         <v>4.0133</v>
       </c>
+      <c r="M5" s="7" t="n">
+        <v>4.0131</v>
+      </c>
       <c r="N5" s="6" t="n">
-        <v>4.0131</v>
+        <v>4.0189</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>4.0189</v>
+        <v>4.0393</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>4.0393</v>
@@ -628,7 +636,7 @@
         <v>4.0393</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>4.0393</v>
+        <v>4.0326</v>
       </c>
     </row>
     <row r="7">
@@ -651,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>01-22</t>
+          <t>01-23</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>01-24</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>01-25</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>01-26</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>01-27</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>01-28</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>01-29</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>01-23</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>01-24</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>01-25</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>01-26</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>01-27</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>01-28</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>01-22</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>01-23</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>01-24</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>01-25</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>01-26</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>01-27</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>01-28</t>
+          <t>01-29</t>
         </is>
       </c>
     </row>
@@ -732,16 +740,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.0784</v>
+        <v>5.1084</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.1084</v>
+        <v>5.1223</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>5.1223</v>
+        <v>5.1148</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>5.1148</v>
+        <v>5.1357</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>5.1357</v>
@@ -750,7 +758,7 @@
         <v>5.1357</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.1357</v>
+        <v>5.123</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -758,16 +766,16 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6073</v>
+        <v>4.6228</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.6228</v>
+        <v>4.6387</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>4.6387</v>
+        <v>4.6543</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>4.6543</v>
+        <v>4.669</v>
       </c>
       <c r="P9" s="6" t="n">
         <v>4.669</v>
@@ -776,7 +784,7 @@
         <v>4.669</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.669</v>
+        <v>4.6785</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>01-23</t>
+          <t>01-24</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>01-25</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>01-26</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>01-27</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>01-28</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>01-29</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>01-30</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>01-24</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>01-25</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>01-26</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>01-27</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>01-28</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>01-29</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>01-23</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>01-24</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>01-25</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>01-26</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>01-27</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>01-28</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>01-29</t>
+          <t>01-30</t>
         </is>
       </c>
     </row>
@@ -592,13 +592,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3697</v>
+        <v>4.3755</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.3755</v>
+        <v>4.379</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.379</v>
+        <v>4.3802</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>4.3802</v>
@@ -606,11 +606,11 @@
       <c r="G5" s="6" t="n">
         <v>4.3802</v>
       </c>
-      <c r="H5" s="6" t="n">
-        <v>4.3802</v>
+      <c r="H5" s="7" t="n">
+        <v>4.3653</v>
       </c>
       <c r="I5" s="7" t="n">
-        <v>4.3653</v>
+        <v>4.3634</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0133</v>
-      </c>
-      <c r="M5" s="7" t="n">
         <v>4.0131</v>
       </c>
+      <c r="M5" s="6" t="n">
+        <v>4.0189</v>
+      </c>
       <c r="N5" s="6" t="n">
-        <v>4.0189</v>
+        <v>4.0393</v>
       </c>
       <c r="O5" s="6" t="n">
         <v>4.0393</v>
@@ -633,10 +633,10 @@
         <v>4.0393</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>4.0393</v>
+        <v>4.0326</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>4.0326</v>
+        <v>4.0301</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>01-23</t>
+          <t>01-24</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>01-25</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>01-26</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>01-27</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>01-28</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>01-29</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>01-30</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>01-24</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>01-25</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>01-26</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>01-27</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>01-28</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>01-29</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>01-23</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>01-24</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>01-25</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>01-26</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>01-27</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>01-28</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>01-29</t>
+          <t>01-30</t>
         </is>
       </c>
     </row>
@@ -740,13 +740,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1084</v>
-      </c>
-      <c r="D9" s="6" t="n">
         <v>5.1223</v>
       </c>
+      <c r="D9" s="7" t="n">
+        <v>5.1148</v>
+      </c>
       <c r="E9" s="6" t="n">
-        <v>5.1148</v>
+        <v>5.1357</v>
       </c>
       <c r="F9" s="6" t="n">
         <v>5.1357</v>
@@ -755,24 +755,24 @@
         <v>5.1357</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.1357</v>
-      </c>
-      <c r="I9" s="6" t="n">
         <v>5.123</v>
       </c>
+      <c r="I9" s="7" t="n">
+        <v>5.1106</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6228</v>
+        <v>4.6387</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.6387</v>
+        <v>4.6543</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>4.6543</v>
+        <v>4.669</v>
       </c>
       <c r="O9" s="6" t="n">
         <v>4.669</v>
@@ -781,10 +781,10 @@
         <v>4.669</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.669</v>
+        <v>4.6785</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.6785</v>
+        <v>4.6692</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>01-24</t>
+          <t>01-25</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>01-26</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>01-27</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>01-28</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>01-29</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>01-30</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>01-31</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>01-25</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>01-26</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>01-27</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>01-28</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>01-29</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>01-30</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>01-24</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>01-25</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>01-26</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>01-27</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>01-28</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>01-29</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>01-30</t>
+          <t>01-31</t>
         </is>
       </c>
     </row>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3755</v>
+        <v>4.379</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.379</v>
+        <v>4.3802</v>
       </c>
       <c r="E5" s="6" t="n">
         <v>4.3802</v>
@@ -603,14 +603,14 @@
       <c r="F5" s="6" t="n">
         <v>4.3802</v>
       </c>
-      <c r="G5" s="6" t="n">
-        <v>4.3802</v>
+      <c r="G5" s="7" t="n">
+        <v>4.3653</v>
       </c>
       <c r="H5" s="7" t="n">
-        <v>4.3653</v>
+        <v>4.3634</v>
       </c>
       <c r="I5" s="7" t="n">
-        <v>4.3634</v>
+        <v>4.3434</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,10 +618,10 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0131</v>
+        <v>4.0189</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.0189</v>
+        <v>4.0393</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>4.0393</v>
@@ -630,13 +630,13 @@
         <v>4.0393</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>4.0393</v>
+        <v>4.0326</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>4.0326</v>
-      </c>
-      <c r="R5" s="6" t="n">
         <v>4.0301</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>4.0135</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>01-24</t>
+          <t>01-25</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>01-26</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>01-27</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>01-28</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>01-29</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>01-30</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>01-31</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>01-25</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>01-26</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>01-27</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>01-28</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>01-29</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>01-30</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>01-24</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>01-25</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>01-26</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>01-27</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>01-28</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>01-29</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>01-30</t>
+          <t>01-31</t>
         </is>
       </c>
     </row>
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1223</v>
-      </c>
-      <c r="D9" s="7" t="n">
         <v>5.1148</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>5.1357</v>
       </c>
       <c r="E9" s="6" t="n">
         <v>5.1357</v>
@@ -752,13 +752,13 @@
         <v>5.1357</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.1357</v>
-      </c>
-      <c r="H9" s="6" t="n">
         <v>5.123</v>
       </c>
+      <c r="H9" s="7" t="n">
+        <v>5.1106</v>
+      </c>
       <c r="I9" s="7" t="n">
-        <v>5.1106</v>
+        <v>5.0848</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6387</v>
+        <v>4.6543</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.6543</v>
+        <v>4.669</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>4.669</v>
@@ -778,13 +778,13 @@
         <v>4.669</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>4.669</v>
+        <v>4.6785</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>4.6785</v>
-      </c>
-      <c r="R9" s="6" t="n">
         <v>4.6692</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>4.6511</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
+        <fgColor rgb="00FC2C03"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC2C03"/>
+        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
   </fills>
@@ -511,77 +511,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>01-25</t>
+          <t>01-26</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>01-27</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>01-28</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>01-29</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>01-30</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>01-31</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>02-01</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>01-26</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>01-27</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>01-28</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>01-29</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>01-30</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>01-31</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>01-25</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>01-26</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>01-27</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>01-28</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>01-29</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>01-30</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>01-31</t>
+          <t>02-01</t>
         </is>
       </c>
     </row>
@@ -592,51 +592,51 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.379</v>
-      </c>
-      <c r="D5" s="6" t="n">
         <v>4.3802</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="D5" s="5" t="n">
         <v>4.3802</v>
       </c>
+      <c r="E5" s="5" t="n">
+        <v>4.3802</v>
+      </c>
       <c r="F5" s="6" t="n">
-        <v>4.3802</v>
-      </c>
-      <c r="G5" s="7" t="n">
         <v>4.3653</v>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="G5" s="6" t="n">
         <v>4.3634</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="H5" s="6" t="n">
         <v>4.3434</v>
       </c>
+      <c r="I5" s="6" t="n">
+        <v>4.3247</v>
+      </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0189</v>
-      </c>
-      <c r="M5" s="6" t="n">
         <v>4.0393</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="M5" s="5" t="n">
         <v>4.0393</v>
       </c>
+      <c r="N5" s="5" t="n">
+        <v>4.0393</v>
+      </c>
       <c r="O5" s="6" t="n">
-        <v>4.0393</v>
+        <v>4.0326</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>4.0326</v>
+        <v>4.0301</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>4.0301</v>
-      </c>
-      <c r="R5" s="7" t="n">
         <v>4.0135</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>4.0047</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +659,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>01-25</t>
+          <t>01-26</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>01-27</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>01-28</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>01-29</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>01-30</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>01-31</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>02-01</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>01-26</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>01-27</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>01-28</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>01-29</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>01-30</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>01-31</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>01-25</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>01-26</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>01-27</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>01-28</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>01-29</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>01-30</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>01-31</t>
+          <t>02-01</t>
         </is>
       </c>
     </row>
@@ -740,51 +740,51 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1148</v>
-      </c>
-      <c r="D9" s="6" t="n">
         <v>5.1357</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="5" t="n">
         <v>5.1357</v>
       </c>
+      <c r="E9" s="5" t="n">
+        <v>5.1357</v>
+      </c>
       <c r="F9" s="6" t="n">
-        <v>5.1357</v>
+        <v>5.123</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.123</v>
-      </c>
-      <c r="H9" s="7" t="n">
         <v>5.1106</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="H9" s="6" t="n">
         <v>5.0848</v>
       </c>
+      <c r="I9" s="6" t="n">
+        <v>5.0688</v>
+      </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rates:</t>
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6543</v>
-      </c>
-      <c r="M9" s="6" t="n">
         <v>4.669</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="M9" s="5" t="n">
         <v>4.669</v>
       </c>
-      <c r="O9" s="6" t="n">
+      <c r="N9" s="5" t="n">
         <v>4.669</v>
       </c>
-      <c r="P9" s="6" t="n">
+      <c r="O9" s="7" t="n">
         <v>4.6785</v>
       </c>
+      <c r="P9" s="7" t="n">
+        <v>4.6692</v>
+      </c>
       <c r="Q9" s="6" t="n">
-        <v>4.6692</v>
-      </c>
-      <c r="R9" s="7" t="n">
         <v>4.6511</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>4.6415</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -37,7 +37,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -47,11 +47,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FC2C03"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0035FC03"/>
       </patternFill>
     </fill>
   </fills>
@@ -73,7 +68,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -89,9 +84,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -511,77 +503,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>01-26</t>
+          <t>01-29</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>01-27</t>
+          <t>01-30</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>01-28</t>
+          <t>01-31</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
+          <t>02-01</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>02-02</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>02-03</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>02-04</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>01-29</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>01-30</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>01-31</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>02-01</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>01-26</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>01-27</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>01-28</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>01-29</t>
-        </is>
-      </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
-          <t>01-30</t>
+          <t>02-02</t>
         </is>
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>01-31</t>
+          <t>02-03</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>02-01</t>
+          <t>02-04</t>
         </is>
       </c>
     </row>
@@ -592,25 +584,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3802</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>4.3802</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>4.3802</v>
+        <v>4.3653</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>4.3634</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>4.3434</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.3653</v>
+        <v>4.3247</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>4.3634</v>
+        <v>4.3173</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4.3434</v>
+        <v>4.3173</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.3247</v>
+        <v>4.3173</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -618,25 +610,25 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0393</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>4.0393</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>4.0393</v>
+        <v>4.0326</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>4.0301</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>4.0135</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>4.0326</v>
+        <v>4.0047</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>4.0301</v>
+        <v>3.9641</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>4.0135</v>
+        <v>3.9641</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>4.0047</v>
+        <v>3.9641</v>
       </c>
     </row>
     <row r="7">
@@ -659,77 +651,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>01-26</t>
+          <t>01-29</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>01-27</t>
+          <t>01-30</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>01-28</t>
+          <t>01-31</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
+          <t>02-01</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>02-02</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>02-03</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>02-04</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>01-29</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>01-30</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>01-31</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>02-01</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>01-26</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>01-27</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>01-28</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>01-29</t>
-        </is>
-      </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
-          <t>01-30</t>
+          <t>02-02</t>
         </is>
       </c>
       <c r="Q8" s="5" t="inlineStr">
         <is>
-          <t>01-31</t>
+          <t>02-03</t>
         </is>
       </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>02-01</t>
+          <t>02-04</t>
         </is>
       </c>
     </row>
@@ -740,25 +732,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.1357</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>5.1357</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>5.1357</v>
+        <v>5.123</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>5.1106</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>5.0848</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>5.123</v>
+        <v>5.0688</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.1106</v>
+        <v>5.0572</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.0848</v>
+        <v>5.0572</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.0688</v>
+        <v>5.0572</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -766,25 +758,25 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.669</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>4.669</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>4.669</v>
-      </c>
-      <c r="O9" s="7" t="n">
         <v>4.6785</v>
       </c>
-      <c r="P9" s="7" t="n">
+      <c r="M9" s="6" t="n">
         <v>4.6692</v>
       </c>
+      <c r="N9" s="6" t="n">
+        <v>4.6511</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>4.6415</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>4.6291</v>
+      </c>
       <c r="Q9" s="6" t="n">
-        <v>4.6511</v>
+        <v>4.6291</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.6415</v>
+        <v>4.6291</v>
       </c>
     </row>
   </sheetData>

--- a/CurrencyData.xlsx
+++ b/CurrencyData.xlsx
@@ -503,77 +503,77 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>01-29</t>
+          <t>01-30</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
+          <t>01-31</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>02-01</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>02-02</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>02-03</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>02-04</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>02-05</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
           <t>01-30</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>01-31</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>02-01</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>02-02</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>02-03</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>02-04</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>01-29</t>
-        </is>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>01-30</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>01-31</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>02-01</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>02-02</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
-        <is>
-          <t>02-03</t>
-        </is>
-      </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>02-04</t>
+          <t>02-05</t>
         </is>
       </c>
     </row>
@@ -584,16 +584,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.3653</v>
+        <v>4.3634</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.3634</v>
+        <v>4.3434</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>4.3434</v>
+        <v>4.3247</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.3247</v>
+        <v>4.3173</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>4.3173</v>
@@ -602,7 +602,7 @@
         <v>4.3173</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.3173</v>
+        <v>4.3278</v>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
@@ -610,16 +610,16 @@
         </is>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4.0326</v>
+        <v>4.0301</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>4.0301</v>
+        <v>4.0135</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>4.0135</v>
+        <v>4.0047</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>4.0047</v>
+        <v>3.9641</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>3.9641</v>
@@ -628,7 +628,7 @@
         <v>3.9641</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>3.9641</v>
+        <v>4.0244</v>
       </c>
     </row>
     <row r="7">
@@ -651,77 +651,77 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>01-29</t>
+          <t>01-30</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
+          <t>01-31</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>02-01</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>02-02</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>02-03</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>02-04</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>02-05</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>Dates:</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
           <t>01-30</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>01-31</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>02-01</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>02-02</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>02-03</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>02-04</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>Dates:</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>01-29</t>
-        </is>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>01-30</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>01-31</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>02-01</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>02-02</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>02-03</t>
-        </is>
-      </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>02-04</t>
+          <t>02-05</t>
         </is>
       </c>
     </row>
@@ -732,16 +732,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.123</v>
+        <v>5.1106</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.1106</v>
+        <v>5.0848</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>5.0848</v>
+        <v>5.0688</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>5.0688</v>
+        <v>5.0572</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>5.0572</v>
@@ -750,7 +750,7 @@
         <v>5.0572</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.0572</v>
+        <v>5.0712</v>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
@@ -758,16 +758,16 @@
         </is>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4.6785</v>
+        <v>4.6692</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4.6692</v>
+        <v>4.6511</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>4.6511</v>
+        <v>4.6415</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>4.6415</v>
+        <v>4.6291</v>
       </c>
       <c r="P9" s="6" t="n">
         <v>4.6291</v>
@@ -776,7 +776,7 @@
         <v>4.6291</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>4.6291</v>
+        <v>4.624</v>
       </c>
     </row>
   </sheetData>
